--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F003EDCD-162B-4A22-B1B3-1D6A84C36B7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176"/>
+    <workbookView xWindow="2115" yWindow="-105" windowWidth="21960" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="trials" sheetId="2" r:id="rId1"/>
-    <sheet name="trials-notime" sheetId="1" r:id="rId2"/>
+    <sheet name="trials_ex" sheetId="3" r:id="rId1"/>
+    <sheet name="trials" sheetId="2" r:id="rId2"/>
+    <sheet name="trials-notime" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">trials!$W$3:$AR$3</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="29">
   <si>
     <t>#Vas</t>
   </si>
@@ -101,10 +104,13 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>#trial_start</t>
+    <t>Sujeto004</t>
   </si>
   <si>
-    <t>Sujeto004</t>
+    <t>#response</t>
+  </si>
+  <si>
+    <t>#start</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -700,18 +706,21 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,2220 +1078,3133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="M3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="S3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="U3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="W3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="13" t="s">
+      <c r="X3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
+        <v>0.45040509259259259</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.47341435185185188</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.48752314814814812</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.63802083333333337</v>
       </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="N4" s="3">
+        <v>100</v>
+      </c>
+      <c r="O4" s="5">
         <v>0.63818287037037036</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5">
         <v>0.65341435185185182</v>
       </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="R4" s="3">
+        <v>100</v>
+      </c>
+      <c r="S4" s="13">
         <v>0.65361111111111114</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="T4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="5">
         <v>0.67851851851851841</v>
       </c>
-      <c r="K4" s="4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="V4" s="4">
+        <v>100</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="5">
         <v>0.72994212962962957</v>
       </c>
-      <c r="N4" s="3">
-        <v>50</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="Y4" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="13">
         <v>0.73010416666666667</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="AA4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0.74682870370370369</v>
       </c>
-      <c r="R4" s="3">
-        <v>30</v>
-      </c>
-      <c r="S4" s="15">
+      <c r="AC4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="13">
         <v>0.74703703703703705</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="5">
+      <c r="AE4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="5">
         <v>0.76222222222222225</v>
       </c>
-      <c r="V4" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
+        <v>0.45082175925925921</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.47358796296296296</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.48780092592592594</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
         <v>0.63834490740740735</v>
       </c>
-      <c r="C5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="N5" s="3">
+        <v>30</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.63848379629629626</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5">
+      <c r="Q5" s="5">
         <v>0.65366898148148145</v>
       </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="R5" s="3">
+        <v>50</v>
+      </c>
+      <c r="S5" s="13">
         <v>0.65388888888888885</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="T5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5">
         <v>0.67883101851851846</v>
       </c>
-      <c r="K5" s="4">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="V5" s="4">
+        <v>50</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5">
+      <c r="X5" s="5">
         <v>0.73039351851851853</v>
       </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="15">
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="13">
         <v>0.73062499999999997</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="AA5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="5">
         <v>0.74710648148148151</v>
       </c>
-      <c r="R5" s="3">
-        <v>100</v>
-      </c>
-      <c r="S5" s="15">
+      <c r="AC5" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="13">
         <v>0.74731481481481488</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="5">
+      <c r="AF5" s="5">
         <v>0.76246527777777784</v>
       </c>
-      <c r="V5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
+        <v>0.45099537037037035</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.47374999999999995</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.48798611111111106</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.63855324074074071</v>
       </c>
-      <c r="C6" s="3">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="N6" s="3">
+        <v>200</v>
+      </c>
+      <c r="O6" s="5">
         <v>0.63875000000000004</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="P6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="5">
         <v>0.65432870370370366</v>
       </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="R6" s="3">
+        <v>3</v>
+      </c>
+      <c r="S6" s="13">
         <v>0.65442129629629631</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="U6" s="5">
         <v>0.67924768518518519</v>
       </c>
-      <c r="K6" s="4">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="V6" s="4">
+        <v>3</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="5">
+      <c r="X6" s="5">
         <v>0.73069444444444442</v>
       </c>
-      <c r="N6" s="3">
-        <v>200</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="Y6" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="13">
         <v>0.73090277777777779</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="AA6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="5">
         <v>0.74761574074074078</v>
       </c>
-      <c r="R6" s="3">
-        <v>3</v>
-      </c>
-      <c r="S6" s="15">
+      <c r="AC6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="13">
         <v>0.74784722222222222</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="5">
+      <c r="AF6" s="5">
         <v>0.76293981481481488</v>
       </c>
-      <c r="V6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
+        <v>0.45116898148148149</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.47392361111111114</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.48828703703703707</v>
+      </c>
+      <c r="K7" s="4">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
         <v>0.63900462962962956</v>
       </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
         <v>0.63909722222222221</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="P7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
         <v>0.65452546296296299</v>
       </c>
-      <c r="G7" s="3">
-        <v>30</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="R7" s="3">
+        <v>30</v>
+      </c>
+      <c r="S7" s="13">
         <v>0.65471064814814817</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="T7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="5">
         <v>0.67949074074074067</v>
       </c>
-      <c r="K7" s="4">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="V7" s="4">
+        <v>30</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="5">
         <v>0.73098379629629628</v>
       </c>
-      <c r="N7" s="3">
-        <v>30</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="Y7" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="13">
         <v>0.73119212962962965</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0.74792824074074071</v>
       </c>
-      <c r="R7" s="3">
-        <v>50</v>
-      </c>
-      <c r="S7" s="15">
+      <c r="AC7" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="13">
         <v>0.74812499999999993</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="5">
+      <c r="AF7" s="5">
         <v>0.76320601851851855</v>
       </c>
-      <c r="V7" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5">
+        <v>0.45130787037037035</v>
+      </c>
+      <c r="C8" s="3">
+        <v>200</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.47408564814814813</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.48856481481481479</v>
+      </c>
+      <c r="K8" s="4">
+        <v>200</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5">
         <v>0.63927083333333334</v>
       </c>
-      <c r="C8" s="3">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="N8" s="3">
+        <v>50</v>
+      </c>
+      <c r="O8" s="5">
         <v>0.63938657407407407</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="P8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="5">
         <v>0.65483796296296293</v>
       </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="13">
         <v>0.65498842592592588</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="T8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="5">
         <v>0.67978009259259264</v>
       </c>
-      <c r="K8" s="4">
-        <v>200</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="V8" s="4">
+        <v>200</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="5">
         <v>0.7313425925925926</v>
       </c>
-      <c r="N8" s="3">
-        <v>10</v>
-      </c>
-      <c r="O8" s="15">
+      <c r="Y8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="13">
         <v>0.73153935185185182</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="AB8" s="5">
         <v>0.74818287037037035</v>
       </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
-      <c r="S8" s="15">
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="13">
         <v>0.74840277777777775</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="5">
+      <c r="AF8" s="5">
         <v>0.76344907407407403</v>
       </c>
-      <c r="V8" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG8" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
+        <v>0.45152777777777775</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.4745138888888889</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.4896875</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="5">
         <v>0.6398611111111111</v>
       </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="5">
         <v>0.63990740740740737</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5">
+      <c r="Q9" s="5">
         <v>0.65512731481481479</v>
       </c>
-      <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13">
         <v>0.65533564814814815</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="5">
+      <c r="U9" s="5">
         <v>0.68004629629629632</v>
       </c>
-      <c r="K9" s="4">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="V9" s="4">
+        <v>10</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="5">
         <v>0.73162037037037031</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="15">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="13">
         <v>0.73181712962962964</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="AA9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="5">
         <v>0.74855324074074081</v>
       </c>
-      <c r="R9" s="3">
-        <v>10</v>
-      </c>
-      <c r="S9" s="15">
+      <c r="AC9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="13">
         <v>0.74874999999999992</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="5">
         <v>0.7637962962962962</v>
       </c>
-      <c r="V9" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.45173611111111112</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.47468749999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.49054398148148143</v>
+      </c>
+      <c r="K10" s="4">
+        <v>200</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="M10" s="5">
         <v>0.6401041666666667</v>
       </c>
-      <c r="C10" s="3">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="N10" s="3">
+        <v>30</v>
+      </c>
+      <c r="O10" s="5">
         <v>0.64020833333333338</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="P10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5">
         <v>0.65546296296296302</v>
       </c>
-      <c r="G10" s="3">
-        <v>30</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="R10" s="3">
+        <v>30</v>
+      </c>
+      <c r="S10" s="13">
         <v>0.65562500000000001</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="T10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="5">
         <v>0.68034722222222221</v>
       </c>
-      <c r="K10" s="4">
-        <v>30</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="V10" s="4">
+        <v>30</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="5">
+      <c r="X10" s="5">
         <v>0.73210648148148139</v>
       </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="13">
         <v>0.73234953703703709</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="AA10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="5">
         <v>0.74883101851851863</v>
       </c>
-      <c r="R10" s="3">
-        <v>30</v>
-      </c>
-      <c r="S10" s="15">
+      <c r="AC10" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="13">
         <v>0.74903935185185189</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="AE10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="5">
         <v>0.76406249999999998</v>
       </c>
-      <c r="V10" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5">
+        <v>0.45186342592592593</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.47512731481481479</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.49170138888888887</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="5">
         <v>0.64041666666666663</v>
       </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5">
         <v>0.64055555555555554</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="P11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
         <v>0.65582175925925923</v>
       </c>
-      <c r="G11" s="3">
-        <v>50</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="R11" s="3">
+        <v>50</v>
+      </c>
+      <c r="S11" s="13">
         <v>0.65591435185185187</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="T11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="5">
         <v>0.68059027777777781</v>
       </c>
-      <c r="K11" s="4">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="V11" s="4">
+        <v>50</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="5">
         <v>0.73241898148148143</v>
       </c>
-      <c r="N11" s="3">
-        <v>100</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="Y11" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="13">
         <v>0.73262731481481491</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="AB11" s="5">
         <v>0.74916666666666665</v>
       </c>
-      <c r="R11" s="3">
-        <v>10</v>
-      </c>
-      <c r="S11" s="15">
+      <c r="AC11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="13">
         <v>0.74938657407407405</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="AE11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="5">
         <v>0.76436342592592599</v>
       </c>
-      <c r="V11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.45203703703703701</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.4752662037037037</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.49209490740740741</v>
+      </c>
+      <c r="K12" s="4">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="M12" s="5">
         <v>0.64086805555555559</v>
       </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5">
         <v>0.64107638888888896</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="P12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="5">
         <v>0.65606481481481482</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="13">
         <v>0.65619212962962969</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="5">
+      <c r="U12" s="5">
         <v>0.68082175925925925</v>
       </c>
-      <c r="K12" s="4">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="V12" s="4">
+        <v>100</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="5">
+      <c r="X12" s="5">
         <v>0.73277777777777775</v>
       </c>
-      <c r="N12" s="3">
-        <v>30</v>
-      </c>
-      <c r="O12" s="15">
+      <c r="Y12" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="13">
         <v>0.73291666666666666</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="AB12" s="5">
         <v>0.74975694444444441</v>
       </c>
-      <c r="R12" s="3">
-        <v>3</v>
-      </c>
-      <c r="S12" s="15">
+      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="13">
         <v>0.74991898148148151</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="5">
+      <c r="AF12" s="5">
         <v>0.7648611111111111</v>
       </c>
-      <c r="V12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.45246527777777779</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.47542824074074069</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.49280092592592589</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="M13" s="5">
         <v>0.64123842592592595</v>
       </c>
-      <c r="C13" s="3">
-        <v>200</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="N13" s="3">
+        <v>200</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.64135416666666667</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="P13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="5">
         <v>0.65652777777777771</v>
       </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="R13" s="3">
+        <v>3</v>
+      </c>
+      <c r="S13" s="13">
         <v>0.656712962962963</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="5">
+      <c r="U13" s="5">
         <v>0.68134259259259267</v>
       </c>
-      <c r="K13" s="4">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="V13" s="4">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="5">
         <v>0.7330092592592593</v>
       </c>
-      <c r="N13" s="3">
-        <v>200</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="Y13" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z13" s="13">
         <v>0.73319444444444448</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="AA13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="5">
         <v>0.74996527777777777</v>
       </c>
-      <c r="R13" s="3">
-        <v>100</v>
-      </c>
-      <c r="S13" s="15">
+      <c r="AC13" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="13">
         <v>0.75019675925925933</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="5">
+      <c r="AF13" s="5">
         <v>0.7651041666666667</v>
       </c>
-      <c r="V13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.45262731481481483</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.4756481481481481</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.4931828703703704</v>
+      </c>
+      <c r="K14" s="4">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="M14" s="5">
         <v>0.64146990740740739</v>
       </c>
-      <c r="C14" s="3">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="N14" s="3">
+        <v>50</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.64164351851851853</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="P14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="5">
         <v>0.65684027777777776</v>
       </c>
-      <c r="G14" s="3">
-        <v>200</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="R14" s="3">
+        <v>200</v>
+      </c>
+      <c r="S14" s="13">
         <v>0.65699074074074071</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="T14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="5">
         <v>0.68163194444444442</v>
       </c>
-      <c r="K14" s="4">
-        <v>200</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="V14" s="4">
+        <v>200</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
+      <c r="X14" s="5">
         <v>0.73327546296296298</v>
       </c>
-      <c r="N14" s="3">
-        <v>50</v>
-      </c>
-      <c r="O14" s="15">
+      <c r="Y14" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="13">
         <v>0.73347222222222219</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="AB14" s="5">
         <v>0.75025462962962963</v>
       </c>
-      <c r="R14" s="3">
-        <v>200</v>
-      </c>
-      <c r="S14" s="15">
+      <c r="AC14" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD14" s="13">
         <v>0.750462962962963</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="5">
+      <c r="AE14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="5">
         <v>0.76539351851851845</v>
       </c>
-      <c r="V14" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5">
+        <v>0.45284722222222223</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.49344907407407407</v>
+      </c>
+      <c r="K15" s="4">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="5">
         <v>0.64178240740740744</v>
       </c>
-      <c r="C15" s="3">
-        <v>100</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.64192129629629624</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="5">
         <v>0.65712962962962962</v>
       </c>
-      <c r="G15" s="3">
-        <v>10</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="R15" s="3">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13">
         <v>0.65733796296296299</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="U15" s="5">
         <v>0.68188657407407405</v>
       </c>
-      <c r="K15" s="4">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="V15" s="4">
+        <v>10</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="5">
         <v>0.7336111111111111</v>
       </c>
-      <c r="N15" s="3">
-        <v>10</v>
-      </c>
-      <c r="O15" s="15">
+      <c r="Y15" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="13">
         <v>0.73381944444444447</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="AA15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="5">
         <v>0.75053240740740745</v>
       </c>
-      <c r="R15" s="3">
-        <v>50</v>
-      </c>
-      <c r="S15" s="15">
+      <c r="AC15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD15" s="13">
         <v>0.75075231481481486</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="5">
+      <c r="AE15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="5">
         <v>0.765625</v>
       </c>
-      <c r="V15" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG15" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.45326388888888891</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.47598379629629628</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.49376157407407412</v>
+      </c>
+      <c r="K16" s="4">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5">
+      <c r="M16" s="5">
         <v>0.64204861111111111</v>
       </c>
-      <c r="C16" s="3">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="N16" s="3">
+        <v>50</v>
+      </c>
+      <c r="O16" s="5">
         <v>0.64219907407407406</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="P16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="5">
         <v>0.65740740740740744</v>
       </c>
-      <c r="G16" s="3">
-        <v>200</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="R16" s="3">
+        <v>200</v>
+      </c>
+      <c r="S16" s="13">
         <v>0.6576157407407407</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="T16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="5">
         <v>0.68217592592592602</v>
       </c>
-      <c r="K16" s="4">
-        <v>200</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="V16" s="4">
+        <v>200</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="5">
         <v>0.73395833333333327</v>
       </c>
-      <c r="N16" s="3">
-        <v>10</v>
-      </c>
-      <c r="O16" s="15">
+      <c r="Y16" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="13">
         <v>0.73416666666666675</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="AB16" s="5">
         <v>0.7510648148148148</v>
       </c>
-      <c r="R16" s="3">
-        <v>3</v>
-      </c>
-      <c r="S16" s="15">
+      <c r="AC16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="13">
         <v>0.7512847222222222</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U16" s="5">
+      <c r="AF16" s="5">
         <v>0.76609953703703704</v>
       </c>
-      <c r="V16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5">
+        <v>0.45343749999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.47613425925925923</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.49431712962962965</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
         <v>0.64239583333333339</v>
       </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="N17" s="3">
+        <v>10</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.64254629629629634</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="P17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="5">
         <v>0.65776620370370364</v>
       </c>
-      <c r="G17" s="3">
-        <v>10</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="R17" s="3">
+        <v>10</v>
+      </c>
+      <c r="S17" s="13">
         <v>0.65795138888888893</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="5">
+      <c r="U17" s="5">
         <v>0.68248842592592596</v>
       </c>
-      <c r="K17" s="4">
-        <v>10</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="V17" s="4">
+        <v>10</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="5">
+      <c r="X17" s="5">
         <v>0.73425925925925928</v>
       </c>
-      <c r="N17" s="3">
-        <v>30</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="Y17" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="13">
         <v>0.73446759259259264</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="5">
         <v>0.75134259259259262</v>
       </c>
-      <c r="R17" s="3">
-        <v>50</v>
-      </c>
-      <c r="S17" s="15">
+      <c r="AC17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="13">
         <v>0.75156250000000002</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="5">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="5">
         <v>0.76637731481481486</v>
       </c>
-      <c r="V17" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5">
+        <v>0.4536458333333333</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.47655092592592596</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.49458333333333332</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="5">
         <v>0.64265046296296291</v>
       </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="5">
         <v>0.64282407407407405</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="P18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="5">
         <v>0.65806712962962965</v>
       </c>
-      <c r="G18" s="3">
-        <v>50</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="R18" s="3">
+        <v>50</v>
+      </c>
+      <c r="S18" s="13">
         <v>0.65824074074074079</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="T18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="5">
         <v>0.6827199074074074</v>
       </c>
-      <c r="K18" s="4">
-        <v>50</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="V18" s="4">
+        <v>50</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="5">
         <v>0.73453703703703699</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
-      <c r="O18" s="15">
+      <c r="Y18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z18" s="13">
         <v>0.73473379629629632</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="5">
+      <c r="AA18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="5">
         <v>0.75164351851851852</v>
       </c>
-      <c r="R18" s="3">
-        <v>30</v>
-      </c>
-      <c r="S18" s="15">
+      <c r="AC18" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="13">
         <v>0.75186342592592592</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="5">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="5">
         <v>0.76664351851851853</v>
       </c>
-      <c r="V18" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG18" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5">
+        <v>0.45383101851851854</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.47672453703703704</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.49482638888888886</v>
+      </c>
+      <c r="K19" s="4">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="5">
         <v>0.64291666666666669</v>
       </c>
-      <c r="C19" s="3">
-        <v>200</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="N19" s="3">
+        <v>200</v>
+      </c>
+      <c r="O19" s="5">
         <v>0.64310185185185187</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="P19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="5">
         <v>0.65833333333333333</v>
       </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="R19" s="3">
+        <v>30</v>
+      </c>
+      <c r="S19" s="13">
         <v>0.65854166666666669</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="T19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="5">
         <v>0.6830208333333333</v>
       </c>
-      <c r="K19" s="4">
-        <v>30</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="V19" s="4">
+        <v>30</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="5">
         <v>0.73482638888888896</v>
       </c>
-      <c r="N19" s="3">
-        <v>50</v>
-      </c>
-      <c r="O19" s="15">
+      <c r="Y19" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z19" s="13">
         <v>0.73502314814814806</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="AA19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="5">
         <v>0.75192129629629623</v>
       </c>
-      <c r="R19" s="3">
-        <v>200</v>
-      </c>
-      <c r="S19" s="15">
+      <c r="AC19" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD19" s="13">
         <v>0.7521296296296297</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="5">
+      <c r="AF19" s="5">
         <v>0.76687500000000008</v>
       </c>
-      <c r="V19" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG19" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="5">
+        <v>0.45405092592592594</v>
+      </c>
+      <c r="C20" s="3">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.47696759259259264</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.4950694444444444</v>
+      </c>
+      <c r="K20" s="4">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5">
         <v>0.64317129629629632</v>
       </c>
-      <c r="C20" s="3">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="N20" s="3">
+        <v>30</v>
+      </c>
+      <c r="O20" s="5">
         <v>0.64339120370370373</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="P20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="5">
         <v>0.65887731481481482</v>
       </c>
-      <c r="G20" s="3">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="R20" s="3">
+        <v>3</v>
+      </c>
+      <c r="S20" s="13">
         <v>0.6590625</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="5">
+      <c r="U20" s="5">
         <v>0.68349537037037045</v>
       </c>
-      <c r="K20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="V20" s="4">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="5">
         <v>0.73509259259259263</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="15">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="13">
         <v>0.73530092592592589</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="AA20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="5">
         <v>0.75222222222222224</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="15">
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="13">
         <v>0.7524074074074073</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U20" s="5">
+      <c r="AF20" s="5">
         <v>0.76710648148148142</v>
       </c>
-      <c r="V20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.45414351851851853</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.47711805555555559</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.49534722222222222</v>
+      </c>
+      <c r="K21" s="4">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="M21" s="5">
         <v>0.64376157407407408</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.64392361111111118</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="P21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="5">
         <v>0.65914351851851849</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="13">
         <v>0.65934027777777782</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="T21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="5">
         <v>0.68376157407407412</v>
       </c>
-      <c r="K21" s="4">
-        <v>100</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="V21" s="4">
+        <v>100</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="5">
         <v>0.73562500000000008</v>
       </c>
-      <c r="N21" s="3">
-        <v>3</v>
-      </c>
-      <c r="O21" s="15">
+      <c r="Y21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="13">
         <v>0.73582175925925919</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="AA21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="5">
         <v>0.75258101851851855</v>
       </c>
-      <c r="R21" s="3">
-        <v>10</v>
-      </c>
-      <c r="S21" s="15">
+      <c r="AC21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="13">
         <v>0.75275462962962969</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U21" s="5">
+      <c r="AF21" s="5">
         <v>0.7674305555555555</v>
       </c>
-      <c r="V21" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="5">
+        <v>0.45435185185185184</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.47728009259259263</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.49562499999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>100</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
         <v>0.64402777777777775</v>
       </c>
-      <c r="C22" s="3">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="N22" s="3">
+        <v>30</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.64421296296296293</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5">
+      <c r="Q22" s="5">
         <v>0.65945601851851854</v>
       </c>
-      <c r="G22" s="3">
-        <v>30</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="R22" s="3">
+        <v>30</v>
+      </c>
+      <c r="S22" s="13">
         <v>0.65964120370370372</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="T22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="5">
         <v>0.68407407407407417</v>
       </c>
-      <c r="K22" s="4">
-        <v>30</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="5">
+      <c r="V22" s="4">
+        <v>30</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="5">
         <v>0.73587962962962961</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="15">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="13">
         <v>0.73609953703703701</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="AB22" s="5">
         <v>0.75310185185185186</v>
       </c>
-      <c r="R22" s="3">
-        <v>3</v>
-      </c>
-      <c r="S22" s="15">
+      <c r="AC22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="13">
         <v>0.75328703703703714</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="5">
+      <c r="AF22" s="5">
         <v>0.76799768518518519</v>
       </c>
-      <c r="V22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" s="5">
+        <v>0.45453703703703702</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.4774768518518519</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.49593749999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="5">
         <v>0.64427083333333335</v>
       </c>
-      <c r="C23" s="3">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="5">
         <v>0.64449074074074075</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="5">
         <v>0.65978009259259263</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="13">
         <v>0.65990740740740739</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="T23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="5">
         <v>0.68709490740740742</v>
       </c>
-      <c r="K23" s="4">
-        <v>200</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="V23" s="4">
+        <v>200</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23" s="5">
         <v>0.7362037037037038</v>
       </c>
-      <c r="N23" s="3">
-        <v>30</v>
-      </c>
-      <c r="O23" s="15">
+      <c r="Y23" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z23" s="13">
         <v>0.73640046296296291</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="5">
+      <c r="AA23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="5">
         <v>0.7534143518518519</v>
       </c>
-      <c r="R23" s="3">
-        <v>10</v>
-      </c>
-      <c r="S23" s="15">
+      <c r="AC23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="13">
         <v>0.75363425925925931</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="5">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="5">
         <v>0.76828703703703705</v>
       </c>
-      <c r="V23" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.45491898148148152</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.47788194444444443</v>
+      </c>
+      <c r="G24" s="3">
+        <v>50</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.49611111111111111</v>
+      </c>
+      <c r="K24" s="4">
+        <v>50</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="M24" s="5">
         <v>0.64483796296296292</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="5">
         <v>0.64502314814814821</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5">
+      <c r="Q24" s="5">
         <v>0.66</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="13">
         <v>0.66018518518518521</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="5">
+      <c r="U24" s="5">
         <v>0.68740740740740736</v>
       </c>
-      <c r="K24" s="4">
-        <v>100</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="V24" s="4">
+        <v>100</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="5">
         <v>0.73675925925925922</v>
       </c>
-      <c r="N24" s="3">
-        <v>3</v>
-      </c>
-      <c r="O24" s="15">
+      <c r="Y24" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="13">
         <v>0.73693287037037036</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="AA24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="5">
         <v>0.75369212962962961</v>
       </c>
-      <c r="R24" s="3">
-        <v>100</v>
-      </c>
-      <c r="S24" s="15">
+      <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="13">
         <v>0.75391203703703702</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="5">
+      <c r="AF24" s="5">
         <v>0.76851851851851849</v>
       </c>
-      <c r="V24" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" s="5">
+        <v>0.4550925925925926</v>
+      </c>
+      <c r="C25" s="3">
+        <v>200</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.47811342592592593</v>
+      </c>
+      <c r="G25" s="3">
+        <v>30</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.49635416666666665</v>
+      </c>
+      <c r="K25" s="4">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="5">
         <v>0.64509259259259266</v>
       </c>
-      <c r="C25" s="3">
-        <v>200</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="N25" s="3">
+        <v>200</v>
+      </c>
+      <c r="O25" s="5">
         <v>0.64528935185185188</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="P25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="5">
         <v>0.66041666666666665</v>
       </c>
-      <c r="G25" s="3">
-        <v>10</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="R25" s="3">
+        <v>10</v>
+      </c>
+      <c r="S25" s="13">
         <v>0.66053240740740737</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="T25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" s="5">
         <v>0.68767361111111114</v>
       </c>
-      <c r="K25" s="4">
-        <v>10</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="V25" s="4">
+        <v>10</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="5">
         <v>0.73700231481481471</v>
       </c>
-      <c r="N25" s="3">
-        <v>50</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="Y25" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z25" s="13">
         <v>0.73721064814814818</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="5">
+      <c r="AA25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="5">
         <v>0.75399305555555562</v>
       </c>
-      <c r="R25" s="3">
-        <v>30</v>
-      </c>
-      <c r="S25" s="15">
+      <c r="AC25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="13">
         <v>0.75420138888888888</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U25" s="5">
+      <c r="AE25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="5">
         <v>0.76878472222222216</v>
       </c>
-      <c r="V25" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG25" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.45531250000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.47828703703703707</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.49666666666666665</v>
+      </c>
+      <c r="K26" s="4">
+        <v>200</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5">
+      <c r="M26" s="5">
         <v>0.64537037037037037</v>
       </c>
-      <c r="C26" s="3">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="N26" s="3">
+        <v>50</v>
+      </c>
+      <c r="O26" s="5">
         <v>0.64557870370370374</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="P26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="5">
         <v>0.66061342592592587</v>
       </c>
-      <c r="G26" s="3">
-        <v>50</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="R26" s="3">
+        <v>50</v>
+      </c>
+      <c r="S26" s="13">
         <v>0.66082175925925923</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="5">
+      <c r="U26" s="5">
         <v>0.68828703703703698</v>
       </c>
-      <c r="K26" s="4">
-        <v>50</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="V26" s="4">
+        <v>50</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="5">
+      <c r="X26" s="5">
         <v>0.73761574074074077</v>
       </c>
-      <c r="N26" s="3">
-        <v>10</v>
-      </c>
-      <c r="O26" s="15">
+      <c r="Y26" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="13">
         <v>0.73755787037037035</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="5">
+      <c r="AA26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="5">
         <v>0.75428240740740737</v>
       </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
-      <c r="S26" s="15">
+      <c r="AC26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD26" s="13">
         <v>0.7544791666666667</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="5">
+      <c r="AF26" s="5">
         <v>0.76901620370370372</v>
       </c>
-      <c r="V26" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.45546296296296296</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.47844907407407405</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.49688657407407405</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
+      <c r="M27" s="5">
         <v>0.64578703703703699</v>
       </c>
-      <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="N27" s="3">
+        <v>10</v>
+      </c>
+      <c r="O27" s="5">
         <v>0.6459259259259259</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="5">
+      <c r="Q27" s="5">
         <v>0.66114583333333332</v>
       </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-      <c r="H27" s="15">
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
+      <c r="S27" s="13">
         <v>0.66134259259259254</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="T27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="5">
         <v>0.68843750000000004</v>
       </c>
-      <c r="K27" s="4">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="5">
+      <c r="V27" s="4">
+        <v>3</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="5">
         <v>0.73797453703703697</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
-      <c r="O27" s="15">
+      <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z27" s="13">
         <v>0.73783564814814817</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="5">
+      <c r="AA27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="5">
         <v>0.75459490740740742</v>
       </c>
-      <c r="R27" s="3">
-        <v>50</v>
-      </c>
-      <c r="S27" s="15">
+      <c r="AC27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD27" s="13">
         <v>0.75475694444444441</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U27" s="5">
+      <c r="AE27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="5">
         <v>0.76928240740740739</v>
       </c>
-      <c r="V27" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5">
+        <v>0.45565972222222223</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.47886574074074079</v>
+      </c>
+      <c r="G28" s="3">
+        <v>200</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.49702546296296296</v>
+      </c>
+      <c r="K28" s="4">
+        <v>200</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="5">
         <v>0.64601851851851855</v>
       </c>
-      <c r="C28" s="3">
-        <v>200</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="N28" s="3">
+        <v>200</v>
+      </c>
+      <c r="O28" s="5">
         <v>0.64619212962962969</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="P28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="5">
         <v>0.66150462962962964</v>
       </c>
-      <c r="G28" s="3">
-        <v>30</v>
-      </c>
-      <c r="H28" s="15">
+      <c r="R28" s="3">
+        <v>30</v>
+      </c>
+      <c r="S28" s="13">
         <v>0.66164351851851855</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="T28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="5">
         <v>0.68868055555555552</v>
       </c>
-      <c r="K28" s="4">
-        <v>30</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="5">
+      <c r="V28" s="4">
+        <v>30</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="5">
         <v>0.73822916666666671</v>
       </c>
-      <c r="N28" s="3">
-        <v>50</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="Y28" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="13">
         <v>0.73811342592592588</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="AA28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="AB28" s="5">
         <v>0.75487268518518524</v>
       </c>
-      <c r="R28" s="3">
-        <v>30</v>
-      </c>
-      <c r="S28" s="15">
+      <c r="AC28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="13">
         <v>0.75505787037037031</v>
       </c>
-      <c r="T28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="5">
+      <c r="AE28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF28" s="5">
         <v>0.76957175925925936</v>
       </c>
-      <c r="V28" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG28" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.45579861111111114</v>
+      </c>
+      <c r="C29" s="3">
+        <v>200</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.47901620370370374</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.49746527777777777</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5">
+      <c r="M29" s="5">
         <v>0.64627314814814818</v>
       </c>
-      <c r="C29" s="3">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="N29" s="3">
+        <v>50</v>
+      </c>
+      <c r="O29" s="5">
         <v>0.64648148148148155</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="P29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="5">
         <v>0.66171296296296289</v>
       </c>
-      <c r="G29" s="3">
-        <v>100</v>
-      </c>
-      <c r="H29" s="15">
+      <c r="R29" s="3">
+        <v>100</v>
+      </c>
+      <c r="S29" s="13">
         <v>0.66192129629629626</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="5">
+      <c r="U29" s="5">
         <v>0.68900462962962961</v>
       </c>
-      <c r="K29" s="4">
-        <v>100</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="5">
+      <c r="V29" s="4">
+        <v>100</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="5">
         <v>0.73856481481481484</v>
       </c>
-      <c r="N29" s="3">
-        <v>200</v>
-      </c>
-      <c r="O29" s="15">
+      <c r="Y29" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z29" s="13">
         <v>0.7383912037037037</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="AA29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="AB29" s="5">
         <v>0.75535879629629632</v>
       </c>
-      <c r="R29" s="3">
-        <v>3</v>
-      </c>
-      <c r="S29" s="15">
+      <c r="AC29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="13">
         <v>0.75559027777777776</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U29" s="5">
+      <c r="AF29" s="5">
         <v>0.77005787037037043</v>
       </c>
-      <c r="V29" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="5">
+        <v>0.45606481481481481</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.47918981481481482</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.49767361111111108</v>
+      </c>
+      <c r="K30" s="4">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="5">
         <v>0.64666666666666661</v>
       </c>
-      <c r="C30" s="3">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="N30" s="3">
+        <v>30</v>
+      </c>
+      <c r="O30" s="5">
         <v>0.64677083333333341</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="P30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="5">
         <v>0.66208333333333336</v>
       </c>
-      <c r="G30" s="3">
-        <v>10</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="R30" s="3">
+        <v>10</v>
+      </c>
+      <c r="S30" s="13">
         <v>0.66226851851851853</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="T30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="5">
         <v>0.6893287037037038</v>
       </c>
-      <c r="K30" s="4">
-        <v>10</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="V30" s="4">
+        <v>10</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="5">
         <v>0.73908564814814814</v>
       </c>
-      <c r="N30" s="3">
-        <v>10</v>
-      </c>
-      <c r="O30" s="15">
+      <c r="Y30" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="13">
         <v>0.73873842592592587</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="5">
+      <c r="AA30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="5">
         <v>0.75571759259259252</v>
       </c>
-      <c r="R30" s="3">
-        <v>10</v>
-      </c>
-      <c r="S30" s="15">
+      <c r="AC30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="13">
         <v>0.755925925925926</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="5">
+      <c r="AE30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="5">
         <v>0.77039351851851856</v>
       </c>
-      <c r="V30" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG30" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="5">
+        <v>0.45620370370370367</v>
+      </c>
+      <c r="C31" s="3">
+        <v>50</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.47934027777777777</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.49811342592592589</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="5">
         <v>0.64690972222222221</v>
       </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="N31" s="3">
+        <v>10</v>
+      </c>
+      <c r="O31" s="5">
         <v>0.64711805555555557</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="5">
+      <c r="Q31" s="5">
         <v>0.66237268518518522</v>
       </c>
-      <c r="G31" s="3">
-        <v>50</v>
-      </c>
-      <c r="H31" s="15">
+      <c r="R31" s="3">
+        <v>50</v>
+      </c>
+      <c r="S31" s="13">
         <v>0.66254629629629636</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="5">
+      <c r="U31" s="5">
         <v>0.68976851851851861</v>
       </c>
-      <c r="K31" s="4">
-        <v>50</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="V31" s="4">
+        <v>50</v>
+      </c>
+      <c r="W31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="5">
+      <c r="X31" s="5">
         <v>0.73942129629629638</v>
       </c>
-      <c r="N31" s="3">
-        <v>3</v>
-      </c>
-      <c r="O31" s="15">
+      <c r="Y31" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="13">
         <v>0.73925925925925917</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="5">
+      <c r="AA31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="5">
         <v>0.75599537037037035</v>
       </c>
-      <c r="R31" s="3">
-        <v>200</v>
-      </c>
-      <c r="S31" s="15">
+      <c r="AC31" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD31" s="13">
         <v>0.7562037037037036</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="AE31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U31" s="5">
+      <c r="AF31" s="5">
         <v>0.77061342592592597</v>
       </c>
-      <c r="V31" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG31" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="5">
+        <v>0.45636574074074071</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.479525462962963</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.49828703703703708</v>
+      </c>
+      <c r="K32" s="4">
+        <v>100</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="5">
         <v>0.64719907407407407</v>
       </c>
-      <c r="C32" s="3">
-        <v>100</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="5">
         <v>0.64739583333333328</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="P32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="5">
         <v>0.66287037037037033</v>
       </c>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
-      <c r="H32" s="15">
+      <c r="R32" s="3">
+        <v>3</v>
+      </c>
+      <c r="S32" s="13">
         <v>0.6630787037037037</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="5">
+      <c r="T32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="5">
         <v>0.69002314814814814</v>
       </c>
-      <c r="K32" s="4">
-        <v>3</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="V32" s="4">
+        <v>3</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="5">
         <v>0.73962962962962964</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="15">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="13">
         <v>0.73953703703703699</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="5">
+      <c r="AA32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="5">
         <v>0.75627314814814817</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
-      <c r="S32" s="15">
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="13">
         <v>0.75648148148148142</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U32" s="5">
+      <c r="AE32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF32" s="5">
         <v>0.77086805555555549</v>
       </c>
-      <c r="V32" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AG32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.45678240740740739</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.47974537037037041</v>
+      </c>
+      <c r="G33" s="8">
+        <v>30</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.49905092592592593</v>
+      </c>
+      <c r="K33" s="9">
+        <v>30</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="7">
+      <c r="M33" s="7">
         <v>0.64777777777777779</v>
       </c>
-      <c r="C33" s="8">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="N33" s="8">
+        <v>3</v>
+      </c>
+      <c r="O33" s="7">
         <v>0.64792824074074074</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="P33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="7">
         <v>0.66315972222222219</v>
       </c>
-      <c r="G33" s="8">
-        <v>200</v>
-      </c>
-      <c r="H33" s="16">
+      <c r="R33" s="8">
+        <v>200</v>
+      </c>
+      <c r="S33" s="14">
         <v>0.66334490740740748</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="T33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33" s="7">
         <v>0.69028935185185192</v>
       </c>
-      <c r="K33" s="9">
-        <v>200</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="7">
+      <c r="V33" s="9">
+        <v>200</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="7">
         <v>0.7399768518518518</v>
       </c>
-      <c r="N33" s="8">
-        <v>30</v>
-      </c>
-      <c r="O33" s="16">
+      <c r="Y33" s="8">
+        <v>30</v>
+      </c>
+      <c r="Z33" s="14">
         <v>0.73983796296296289</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="AA33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="AB33" s="7">
         <v>0.75653935185185184</v>
       </c>
-      <c r="R33" s="8">
-        <v>50</v>
-      </c>
-      <c r="S33" s="16">
+      <c r="AC33" s="8">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="14">
         <v>0.75675925925925924</v>
       </c>
-      <c r="T33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="7">
+      <c r="AE33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="7">
         <v>0.77112268518518512</v>
       </c>
-      <c r="V33" s="9">
+      <c r="AG33" s="9">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="W1:AG1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3290,141 +4212,3719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR33"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:AR33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.45040509259259259</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.47341435185185188</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.48752314814814812</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.63802083333333337</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.63818287037037036</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.65341435185185182</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>0.65361111111111114</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.67851851851851841</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.72994212962962957</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>0.73010416666666667</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0.74682870370370369</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO4" s="13">
+        <v>0.74703703703703705</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0.76222222222222225</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.45082175925925921</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.47358796296296296</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.48780092592592594</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.63834490740740735</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.63848379629629626</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.65366898148148145</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>0.65388888888888885</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.67883101851851846</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.73039351851851853</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>0.73062499999999997</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0.74710648148148151</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO5" s="13">
+        <v>0.74731481481481488</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>0.76246527777777784</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.45099537037037035</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.47374999999999995</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.48798611111111106</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0.63855324074074071</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.63875000000000004</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.65432870370370366</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0.65442129629629631</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.67924768518518519</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.73069444444444442</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>0.73090277777777779</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0.74761574074074078</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>0.74784722222222222</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>0.76293981481481488</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.45116898148148149</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.47392361111111114</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.48828703703703707</v>
+      </c>
+      <c r="K7" s="4">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0.63900462962962956</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.63909722222222221</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.65452546296296299</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0.65471064814814817</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.67949074074074067</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.73098379629629628</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>0.73119212962962965</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0.74792824074074071</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>0.74812499999999993</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0.76320601851851855</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.45130787037037035</v>
+      </c>
+      <c r="C8" s="3">
+        <v>200</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.47408564814814813</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.48856481481481479</v>
+      </c>
+      <c r="K8" s="4">
+        <v>200</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0.63927083333333334</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.63938657407407407</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.65483796296296293</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0.65498842592592588</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0.67978009259259264</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>200</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0.7313425925925926</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0.73153935185185182</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>0.74818287037037035</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0.74840277777777775</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>0.76344907407407403</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.45152777777777775</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.4745138888888889</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.4896875</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0.6398611111111111</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.63990740740740737</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.65512731481481479</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0.65533564814814815</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.68004629629629632</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0.73162037037037031</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>0.73181712962962964</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0.74855324074074081</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>0.74874999999999992</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0.7637962962962962</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.45173611111111112</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.47468749999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.49054398148148143</v>
+      </c>
+      <c r="K10" s="4">
+        <v>200</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0.6401041666666667</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.64020833333333338</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.65546296296296302</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0.65562500000000001</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.68034722222222221</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0.73210648148148139</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0.73234953703703709</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0.74883101851851863</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>0.74903935185185189</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>0.76406249999999998</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.45186342592592593</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.47512731481481479</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.49170138888888887</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0.64041666666666663</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.64055555555555554</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.65582175925925923</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0.65591435185185187</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.68059027777777781</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0.73241898148148143</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0.73262731481481491</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0.74916666666666665</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="13">
+        <v>0.74938657407407405</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>0.76436342592592599</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.45203703703703701</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.4752662037037037</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.49209490740740741</v>
+      </c>
+      <c r="K12" s="4">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0.64086805555555559</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.64107638888888896</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0.65606481481481482</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0.65619212962962969</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0.68082175925925925</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.73277777777777775</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0.73291666666666666</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0.74975694444444441</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>0.74991898148148151</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0.7648611111111111</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.45246527777777779</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.47542824074074069</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.49280092592592589</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.64123842592592595</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.64135416666666667</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0.65652777777777771</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0.656712962962963</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0.68134259259259267</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0.7330092592592593</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0.73319444444444448</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>0.74996527777777777</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>0.75019675925925933</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>0.7651041666666667</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.45262731481481483</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.4756481481481481</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.4931828703703704</v>
+      </c>
+      <c r="K14" s="4">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0.64146990740740739</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.64164351851851853</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0.65684027777777776</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0.65699074074074071</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0.68163194444444442</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>200</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.73327546296296298</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0.73347222222222219</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0.75025462962962963</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0.750462962962963</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0.76539351851851845</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.45284722222222223</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.49344907407407407</v>
+      </c>
+      <c r="K15" s="4">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.64178240740740744</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.64192129629629624</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0.65712962962962962</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0.65733796296296299</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.68188657407407405</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.7336111111111111</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0.73381944444444447</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0.75053240740740745</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>0.75075231481481486</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>0.765625</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.45326388888888891</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.47598379629629628</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.49376157407407412</v>
+      </c>
+      <c r="K16" s="4">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.64204861111111111</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.64219907407407406</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0.65740740740740744</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0.6576157407407407</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>0.68217592592592602</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>200</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.73395833333333327</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0.73416666666666675</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0.7510648148148148</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>0.7512847222222222</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>0.76609953703703704</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.45343749999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.47613425925925923</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.49431712962962965</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.64239583333333339</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.64254629629629634</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0.65776620370370364</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>0.65795138888888893</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0.68248842592592596</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0.73425925925925928</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>0.73446759259259264</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0.75134259259259262</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>0.75156250000000002</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>0.76637731481481486</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.4536458333333333</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.47655092592592596</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.49458333333333332</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0.64265046296296291</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.64282407407407405</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0.65806712962962965</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0.65824074074074079</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0.6827199074074074</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0.73453703703703699</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0.73473379629629632</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0.75164351851851852</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>0.75186342592592592</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>0.76664351851851853</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.45383101851851854</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.47672453703703704</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.49482638888888886</v>
+      </c>
+      <c r="K19" s="4">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.64291666666666669</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.64310185185185187</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>0.65854166666666669</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0.6830208333333333</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0.73482638888888896</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>0.73502314814814806</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0.75192129629629623</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>0.7521296296296297</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0.76687500000000008</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.45405092592592594</v>
+      </c>
+      <c r="C20" s="3">
+        <v>50</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.47696759259259264</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.4950694444444444</v>
+      </c>
+      <c r="K20" s="4">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0.64317129629629632</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.64339120370370373</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0.65887731481481482</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>0.6590625</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>0.68349537037037045</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0.73509259259259263</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>0.73530092592592589</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0.75222222222222224</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>0.7524074074074073</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>0.76710648148148142</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.45414351851851853</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.47711805555555559</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.49534722222222222</v>
+      </c>
+      <c r="K21" s="4">
+        <v>50</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0.64376157407407408</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.64392361111111118</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0.65914351851851849</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>0.65934027777777782</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.68376157407407412</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.73562500000000008</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>0.73582175925925919</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0.75258101851851855</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>0.75275462962962969</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>0.7674305555555555</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.45435185185185184</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.47728009259259263</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.49562499999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>100</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.64402777777777775</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.64421296296296293</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0.65945601851851854</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0.65964120370370372</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.68407407407407417</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.73587962962962961</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>0.73609953703703701</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0.75310185185185186</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0.75328703703703714</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>0.76799768518518519</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.45453703703703702</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.4774768518518519</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.49593749999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0.64427083333333335</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.64449074074074075</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0.65978009259259263</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>0.65990740740740739</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.68709490740740742</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>200</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0.7362037037037038</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK23" s="13">
+        <v>0.73640046296296291</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0.7534143518518519</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="13">
+        <v>0.75363425925925931</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0.76828703703703705</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.45491898148148152</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.47788194444444443</v>
+      </c>
+      <c r="G24" s="3">
+        <v>50</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.49611111111111111</v>
+      </c>
+      <c r="K24" s="4">
+        <v>50</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.64483796296296292</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.64502314814814821</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>0.66018518518518521</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0.68740740740740736</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0.73675925925925922</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK24" s="13">
+        <v>0.73693287037037036</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0.75369212962962961</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO24" s="13">
+        <v>0.75391203703703702</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>0.76851851851851849</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.4550925925925926</v>
+      </c>
+      <c r="C25" s="3">
+        <v>200</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.47811342592592593</v>
+      </c>
+      <c r="G25" s="3">
+        <v>30</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.49635416666666665</v>
+      </c>
+      <c r="K25" s="4">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0.64509259259259266</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0.64528935185185188</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>0.66053240740740737</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0.68767361111111114</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0.73700231481481471</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>0.73721064814814818</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0.75399305555555562</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>0.75420138888888888</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>0.76878472222222216</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.45531250000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.47828703703703707</v>
+      </c>
+      <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.49666666666666665</v>
+      </c>
+      <c r="K26" s="4">
+        <v>200</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0.64537037037037037</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0.64557870370370374</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0.66061342592592587</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>0.66082175925925923</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0.68828703703703698</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0.73761574074074077</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>0.73755787037037035</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0.75428240740740737</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO26" s="13">
+        <v>0.7544791666666667</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>0.76901620370370372</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.45546296296296296</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.47844907407407405</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.49688657407407405</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0.64578703703703699</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.6459259259259259</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0.66114583333333332</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>0.66134259259259254</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0.68843750000000004</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0.73797453703703697</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>0.73783564814814817</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0.75459490740740742</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO27" s="13">
+        <v>0.75475694444444441</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0.76928240740740739</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.45565972222222223</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.47886574074074079</v>
+      </c>
+      <c r="G28" s="3">
+        <v>200</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.49702546296296296</v>
+      </c>
+      <c r="K28" s="4">
+        <v>200</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0.64601851851851855</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.64619212962962969</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>0.66150462962962964</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>0.66164351851851855</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>0.68868055555555552</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0.73822916666666671</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>0.73811342592592588</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0.75487268518518524</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>0.75505787037037031</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>0.76957175925925936</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.45579861111111114</v>
+      </c>
+      <c r="C29" s="3">
+        <v>200</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.47901620370370374</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.49746527777777777</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0.64627314814814818</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.64648148148148155</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>0.66171296296296289</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>0.66192129629629626</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0.68900462962962961</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>0.73856481481481484</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>0.7383912037037037</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0.75535879629629632</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>0.75559027777777776</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>0.77005787037037043</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.45606481481481481</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.47918981481481482</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.49767361111111108</v>
+      </c>
+      <c r="K30" s="4">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0.64666666666666661</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.64677083333333341</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>0.66208333333333336</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>0.66226851851851853</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0.6893287037037038</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0.73908564814814814</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>0.73873842592592587</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0.75571759259259252</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>0.755925925925926</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0.77039351851851856</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.45620370370370367</v>
+      </c>
+      <c r="C31" s="3">
+        <v>50</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.47934027777777777</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.49811342592592589</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0.64690972222222221</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.64711805555555557</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0.66237268518518522</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>0.66254629629629636</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0.68976851851851861</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0.73942129629629638</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>0.73925925925925917</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0.75599537037037035</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>0.7562037037037036</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>0.77061342592592597</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.45636574074074071</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.479525462962963</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.49828703703703708</v>
+      </c>
+      <c r="K32" s="4">
+        <v>100</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0.64719907407407407</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0.64739583333333328</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>0.66287037037037033</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>0.6630787037037037</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0.69002314814814814</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0.73962962962962964</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>0.73953703703703699</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>0.75627314814814817</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>0.75648148148148142</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0.77086805555555549</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.45678240740740739</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.47974537037037041</v>
+      </c>
+      <c r="G33" s="8">
+        <v>30</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.49905092592592593</v>
+      </c>
+      <c r="K33" s="9">
+        <v>30</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0.64777777777777779</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0.64792824074074074</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0.66315972222222219</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>200</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>0.66334490740740748</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>0.69028935185185192</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>200</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>0.7399768518518518</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>30</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>0.73983796296296289</v>
+      </c>
+      <c r="AL33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>0.75653935185185184</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>50</v>
+      </c>
+      <c r="AO33" s="14">
+        <v>0.75675925925925924</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>0.77112268518518512</v>
+      </c>
+      <c r="AR33" s="9">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="W1:AG1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH1:AR1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +7965,7 @@
         <v>0.64322916666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3506,7 +8006,7 @@
         <v>0.64358796296296295</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +8047,7 @@
         <v>0.64385416666666673</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3588,7 +8088,7 @@
         <v>0.64408564814814817</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +8129,7 @@
         <v>0.64443287037037034</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +8170,7 @@
         <v>0.64496527777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +8211,7 @@
         <v>0.64548611111111109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +8252,7 @@
         <v>0.64582175925925933</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +8293,7 @@
         <v>0.64608796296296289</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -3834,7 +8334,7 @@
         <v>0.6463078703703703</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -3875,7 +8375,7 @@
         <v>0.64657407407407408</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +8416,7 @@
         <v>0.64693287037037039</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3957,7 +8457,7 @@
         <v>0.64746527777777774</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3998,7 +8498,7 @@
         <v>0.64778935185185182</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -4039,7 +8539,7 @@
         <v>0.64807870370370368</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +8580,7 @@
         <v>0.64839120370370373</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +8621,7 @@
         <v>0.64866898148148155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -4162,7 +8662,7 @@
         <v>0.64896990740740745</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -4203,7 +8703,7 @@
         <v>0.6495023148148148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -4244,7 +8744,7 @@
         <v>0.6498032407407407</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -4285,7 +8785,7 @@
         <v>0.65013888888888893</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +8826,7 @@
         <v>0.65039351851851845</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +8867,7 @@
         <v>0.65065972222222224</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +8908,7 @@
         <v>0.65098379629629632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -4449,7 +8949,7 @@
         <v>0.65127314814814818</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +8990,7 @@
         <v>0.65158564814814812</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -4531,7 +9031,7 @@
         <v>0.65182870370370372</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4572,7 +9072,7 @@
         <v>0.65217592592592599</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -4613,7 +9113,7 @@
         <v>0.65240740740740744</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF69999-B528-4C7B-9283-2A553D8DCEC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="-105" windowWidth="21960" windowHeight="13170"/>
+    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="trials_ex" sheetId="3" r:id="rId1"/>
-    <sheet name="trials" sheetId="2" r:id="rId2"/>
-    <sheet name="trials-notime" sheetId="1" r:id="rId3"/>
+    <sheet name="trials_ex" sheetId="4" r:id="rId1"/>
+    <sheet name="trials_ex2" sheetId="3" r:id="rId2"/>
+    <sheet name="trials" sheetId="2" r:id="rId3"/>
+    <sheet name="trials-notime" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">trials!$W$3:$AR$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trials!$W$3:$AR$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="30">
   <si>
     <t>#Vas</t>
   </si>
@@ -112,12 +122,15 @@
   <si>
     <t>#start</t>
   </si>
+  <si>
+    <t>Sujeto005</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +261,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -711,13 +732,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,110 +1099,3166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35062D11-4130-4812-8D10-4AE0B319C1E7}">
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <v>200</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4">
+        <v>100</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>50</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3">
+        <v>30</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>100</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>50</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="3">
+        <v>100</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>200</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3">
+        <v>200</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="4">
+        <v>30</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>30</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>50</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="4">
+        <v>200</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>10</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="4">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <v>30</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="3">
+        <v>30</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>50</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="3">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="3">
+        <v>10</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="4">
+        <v>200</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="4">
+        <v>100</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="3">
+        <v>30</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>200</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="3">
+        <v>200</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>100</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3">
+        <v>50</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4">
+        <v>200</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>50</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="3">
+        <v>200</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="4">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="3">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="3">
+        <v>50</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="4">
+        <v>200</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>50</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="4">
+        <v>200</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="3">
+        <v>10</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="4">
+        <v>10</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="3">
+        <v>30</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3">
+        <v>50</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="4">
+        <v>50</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>200</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>30</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="3">
+        <v>200</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4">
+        <v>30</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="3">
+        <v>50</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" s="3">
+        <v>200</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
+        <v>30</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="4">
+        <v>3</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="4">
+        <v>100</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="4">
+        <v>100</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
+        <v>10</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>30</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>30</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="4">
+        <v>200</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3">
+        <v>30</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>10</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="4">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="4">
+        <v>100</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="4">
+        <v>100</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>200</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4">
+        <v>10</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="3">
+        <v>50</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>30</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X25" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>50</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="4">
+        <v>50</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="3">
+        <v>10</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="3">
+        <v>200</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="4">
+        <v>200</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>10</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4">
+        <v>3</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>50</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27" s="4">
+        <v>50</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="4">
+        <v>200</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="3">
+        <v>200</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>30</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="3">
+        <v>50</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="3">
+        <v>30</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X28" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="4">
+        <v>100</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="3">
+        <v>50</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="4">
+        <v>100</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="3">
+        <v>200</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="3">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4">
+        <v>10</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="3">
+        <v>30</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="4">
+        <v>10</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="3">
+        <v>10</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="3">
+        <v>10</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X30" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="4">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>10</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="4">
+        <v>50</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="3">
+        <v>200</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X31" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="4">
+        <v>3</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8">
+        <v>30</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="9">
+        <v>30</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="8">
+        <v>3</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="8">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="9">
+        <v>200</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="8">
+        <v>30</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" s="8">
+        <v>50</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1280,8 +4358,41 @@
       <c r="AG3" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="AH3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1377,8 +4488,41 @@
       <c r="AG4" s="4">
         <v>30</v>
       </c>
+      <c r="AH4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.41942129629629626</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.41928240740740735</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0.4369791666666667</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.43681712962962965</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0.45392361111111112</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1474,8 +4618,41 @@
       <c r="AG5" s="4">
         <v>100</v>
       </c>
+      <c r="AH5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.41969907407407409</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.41949074074074072</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0.43725694444444446</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>0.43709490740740736</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>0.45413194444444444</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1571,8 +4748,41 @@
       <c r="AG6" s="4">
         <v>3</v>
       </c>
+      <c r="AH6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.41997685185185185</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0.41979166666666662</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0.43760416666666663</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>0.43739583333333337</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>0.45440972222222226</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1668,8 +4878,41 @@
       <c r="AG7" s="4">
         <v>50</v>
       </c>
+      <c r="AH7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.42025462962962962</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0.42009259259259263</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0.43813657407407408</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>0.43792824074074077</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0.45488425925925924</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1765,8 +5008,41 @@
       <c r="AG8" s="4">
         <v>200</v>
       </c>
+      <c r="AH8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0.42055555555555557</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0.42037037037037034</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>0.43842592592592594</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>0.4382523148148148</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>0.45520833333333338</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1862,8 +5138,41 @@
       <c r="AG9" s="4">
         <v>10</v>
       </c>
+      <c r="AH9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0.42108796296296297</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0.42092592592592593</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0.4387152777777778</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>0.43853009259259257</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0.45546296296296296</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1959,8 +5268,41 @@
       <c r="AG10" s="4">
         <v>30</v>
       </c>
+      <c r="AH10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0.4213541666666667</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>0.4211805555555555</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0.43899305555555551</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>0.4387962962962963</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>0.4557060185185185</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2056,8 +5398,41 @@
       <c r="AG11" s="4">
         <v>10</v>
       </c>
+      <c r="AH11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0.42170138888888892</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0.43927083333333333</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0.43910879629629629</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>0.45596064814814818</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2153,8 +5528,41 @@
       <c r="AG12" s="4">
         <v>3</v>
       </c>
+      <c r="AH12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0.42200231481481482</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>0.42180555555555554</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0.4395486111111111</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>0.43938657407407411</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0.45616898148148149</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +5658,41 @@
       <c r="AG13" s="4">
         <v>100</v>
       </c>
+      <c r="AH13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0.42252314814814818</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>0.42233796296296294</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>0.43983796296296296</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>0.43965277777777773</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>0.4564467592592592</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2347,8 +5788,41 @@
       <c r="AG14" s="4">
         <v>200</v>
       </c>
+      <c r="AH14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.42280092592592594</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0.42265046296296299</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0.44018518518518518</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0.43998842592592591</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0.45675925925925925</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2444,8 +5918,41 @@
       <c r="AG15" s="4">
         <v>50</v>
       </c>
+      <c r="AH15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.4230902777777778</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>0.4229282407407407</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0.44071759259259258</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>0.44050925925925927</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>0.45724537037037033</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2541,8 +6048,41 @@
       <c r="AG16" s="4">
         <v>3</v>
       </c>
+      <c r="AH16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.42335648148148147</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>0.42324074074074075</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0.4409953703703704</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0.44086805555555553</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2638,8 +6178,41 @@
       <c r="AG17" s="4">
         <v>50</v>
       </c>
+      <c r="AH17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0.42363425925925924</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>0.42348379629629629</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0.44127314814814816</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>0.44108796296296293</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>0.45776620370370374</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2735,8 +6308,41 @@
       <c r="AG18" s="4">
         <v>30</v>
       </c>
+      <c r="AH18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0.42398148148148151</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>0.42379629629629628</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0.44180555555555556</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>0.44157407407407406</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>0.45824074074074073</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +6438,41 @@
       <c r="AG19" s="4">
         <v>200</v>
       </c>
+      <c r="AH19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0.42428240740740741</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>0.42409722222222218</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0.44215277777777778</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0.44195601851851851</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0.45858796296296295</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2929,8 +6568,41 @@
       <c r="AG20" s="4">
         <v>100</v>
       </c>
+      <c r="AH20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0.42456018518518518</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>0.42442129629629632</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0.44244212962962964</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>0.44226851851851851</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>0.45887731481481481</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3026,8 +6698,41 @@
       <c r="AG21" s="4">
         <v>10</v>
       </c>
+      <c r="AH21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.42509259259259258</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0.42489583333333331</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0.44271990740740735</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>0.44255787037037037</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>0.45909722222222221</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +6828,41 @@
       <c r="AG22" s="4">
         <v>3</v>
       </c>
+      <c r="AH22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.42562499999999998</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0.4254398148148148</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0.44300925925925921</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>0.44283564814814813</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>0.45937500000000003</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3220,8 +6958,41 @@
       <c r="AG23" s="4">
         <v>10</v>
       </c>
+      <c r="AH23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0.4259027777777778</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>0.42571759259259262</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0.44335648148148149</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>0.44315972222222227</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0.45968750000000003</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -3317,8 +7088,41 @@
       <c r="AG24" s="4">
         <v>100</v>
       </c>
+      <c r="AH24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0.4261921296296296</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>0.42607638888888894</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0.44364583333333335</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>30</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>0.44353009259259263</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>0.45995370370370375</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3414,8 +7218,41 @@
       <c r="AG25" s="4">
         <v>30</v>
       </c>
+      <c r="AH25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0.42648148148148146</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>0.42630787037037038</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0.44392361111111112</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>0.44371527777777775</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>0.4601851851851852</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -3511,8 +7348,41 @@
       <c r="AG26" s="4">
         <v>200</v>
       </c>
+      <c r="AH26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0.42674768518518519</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>0.4265856481481482</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0.44445601851851851</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="5">
+        <v>0.44424768518518515</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>0.46068287037037042</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -3608,8 +7478,41 @@
       <c r="AG27" s="4">
         <v>50</v>
       </c>
+      <c r="AH27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0.42709490740740735</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>0.4269444444444444</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0.44472222222222224</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>0.44454861111111116</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0.46092592592592596</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -3705,8 +7608,41 @@
       <c r="AG28" s="4">
         <v>30</v>
       </c>
+      <c r="AH28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0.42737268518518517</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>200</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>0.42719907407407409</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>200</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>0.44483796296296302</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>0.4611689814814815</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -3802,8 +7738,41 @@
       <c r="AG29" s="4">
         <v>3</v>
       </c>
+      <c r="AH29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>0.42765046296296294</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>0.42746527777777782</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0.44527777777777783</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO29" s="5">
+        <v>0.44506944444444446</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>0.46143518518518517</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3899,8 +7868,41 @@
       <c r="AG30" s="4">
         <v>10</v>
       </c>
+      <c r="AH30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0.4279398148148148</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>0.42776620370370372</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0.44562499999999999</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>0.44543981481481482</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0.46174768518518516</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +7998,41 @@
       <c r="AG31" s="4">
         <v>200</v>
       </c>
+      <c r="AH31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0.42822916666666666</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>0.42806712962962962</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0.44590277777777776</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AO31" s="5">
+        <v>0.44570601851851849</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>0.46200231481481485</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -4093,8 +8128,41 @@
       <c r="AG32" s="4">
         <v>100</v>
       </c>
+      <c r="AH32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0.42874999999999996</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>0.42854166666666665</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>0.44643518518518516</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>0.44620370370370371</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0.46254629629629629</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
@@ -4190,207 +8258,244 @@
       <c r="AG33" s="9">
         <v>50</v>
       </c>
+      <c r="AH33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>0.42909722222222224</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>10</v>
+      </c>
+      <c r="AK33" s="7">
+        <v>0.42891203703703701</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>0.44672453703703702</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="7">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>0.46277777777777779</v>
+      </c>
+      <c r="AR33" s="9">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="W1:AG1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AH1:AR1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:AR33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="17"/>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="17"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="15" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
       <c r="AP2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +8629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4632,7 +8737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +8845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4848,7 +8953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4956,7 +9061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -5064,7 +9169,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5172,7 +9277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5280,7 +9385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5388,7 +9493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5496,7 +9601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -5604,7 +9709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5712,7 +9817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -5820,7 +9925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -5928,7 +10033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -6036,7 +10141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +10249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -6252,7 +10357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -6360,7 +10465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -6468,7 +10573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -6576,7 +10681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -6684,7 +10789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -6792,7 +10897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -6900,7 +11005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -7008,7 +11113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -7116,7 +11221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -7224,7 +11329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -7332,7 +11437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -7440,7 +11545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +11653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7656,7 +11761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
@@ -7788,87 +11893,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J1" sqref="J1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -7924,7 +12029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -7965,7 +12070,7 @@
         <v>0.64322916666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -8006,7 +12111,7 @@
         <v>0.64358796296296295</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8047,7 +12152,7 @@
         <v>0.64385416666666673</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -8088,7 +12193,7 @@
         <v>0.64408564814814817</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -8129,7 +12234,7 @@
         <v>0.64443287037037034</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -8170,7 +12275,7 @@
         <v>0.64496527777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -8211,7 +12316,7 @@
         <v>0.64548611111111109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -8252,7 +12357,7 @@
         <v>0.64582175925925933</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -8293,7 +12398,7 @@
         <v>0.64608796296296289</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -8334,7 +12439,7 @@
         <v>0.6463078703703703</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -8375,7 +12480,7 @@
         <v>0.64657407407407408</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -8416,7 +12521,7 @@
         <v>0.64693287037037039</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -8457,7 +12562,7 @@
         <v>0.64746527777777774</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -8498,7 +12603,7 @@
         <v>0.64778935185185182</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -8539,7 +12644,7 @@
         <v>0.64807870370370368</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8580,7 +12685,7 @@
         <v>0.64839120370370373</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -8621,7 +12726,7 @@
         <v>0.64866898148148155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -8662,7 +12767,7 @@
         <v>0.64896990740740745</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -8703,7 +12808,7 @@
         <v>0.6495023148148148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -8744,7 +12849,7 @@
         <v>0.6498032407407407</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -8785,7 +12890,7 @@
         <v>0.65013888888888893</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -8826,7 +12931,7 @@
         <v>0.65039351851851845</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -8867,7 +12972,7 @@
         <v>0.65065972222222224</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -8908,7 +13013,7 @@
         <v>0.65098379629629632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -8949,7 +13054,7 @@
         <v>0.65127314814814818</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -8990,7 +13095,7 @@
         <v>0.65158564814814812</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -9031,7 +13136,7 @@
         <v>0.65182870370370372</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -9072,7 +13177,7 @@
         <v>0.65217592592592599</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -9113,7 +13218,7 @@
         <v>0.65240740740740744</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF69999-B528-4C7B-9283-2A553D8DCEC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1315C69-8E6F-4853-9028-D3B82B1FF5EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,11 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,6 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1102,147 +1102,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35062D11-4130-4812-8D10-4AE0B319C1E7}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
     <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" customWidth="1"/>
     <col min="25" max="25" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="18" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="16" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="16" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16" t="s">
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="15"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1355,19 +1355,19 @@
       <c r="F4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3">
+        <v>200</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4">
@@ -1447,19 +1447,19 @@
       <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="4">
@@ -1539,19 +1539,19 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="4">
@@ -1631,19 +1631,19 @@
       <c r="F7" s="4">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="4">
@@ -1723,19 +1723,19 @@
       <c r="F8" s="4">
         <v>200</v>
       </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="4">
@@ -1815,19 +1815,19 @@
       <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="4">
@@ -1907,19 +1907,19 @@
       <c r="F10" s="4">
         <v>200</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="4">
@@ -1999,19 +1999,19 @@
       <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>200</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>200</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>200</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="4">
@@ -2091,19 +2091,19 @@
       <c r="F12" s="4">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="4">
@@ -2183,19 +2183,19 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="4">
@@ -2275,19 +2275,19 @@
       <c r="F14" s="4">
         <v>200</v>
       </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="4">
@@ -2367,19 +2367,19 @@
       <c r="F15" s="4">
         <v>100</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="4">
@@ -2459,19 +2459,19 @@
       <c r="F16" s="4">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="4">
@@ -2551,19 +2551,19 @@
       <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L17" s="4">
@@ -2643,19 +2643,19 @@
       <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="4">
@@ -2735,19 +2735,19 @@
       <c r="F19" s="4">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="4">
@@ -2827,19 +2827,19 @@
       <c r="F20" s="4">
         <v>100</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20">
-        <v>50</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3">
+        <v>50</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="4">
@@ -2919,19 +2919,19 @@
       <c r="F21" s="4">
         <v>50</v>
       </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>200</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>200</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="G21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L21" s="4">
@@ -3011,19 +3011,19 @@
       <c r="F22" s="4">
         <v>100</v>
       </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L22" s="4">
@@ -3103,19 +3103,19 @@
       <c r="F23" s="4">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="4">
@@ -3195,19 +3195,19 @@
       <c r="F24" s="4">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>30</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="4">
@@ -3287,19 +3287,19 @@
       <c r="F25" s="4">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>200</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3">
+        <v>200</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L25" s="4">
@@ -3379,19 +3379,19 @@
       <c r="F26" s="4">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>50</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>50</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>50</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="4">
@@ -3471,19 +3471,19 @@
       <c r="F27" s="4">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L27" s="4">
@@ -3563,19 +3563,19 @@
       <c r="F28" s="4">
         <v>200</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L28" s="4">
@@ -3655,19 +3655,19 @@
       <c r="F29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>30</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>30</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L29" s="4">
@@ -3747,19 +3747,19 @@
       <c r="F30" s="4">
         <v>50</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30">
-        <v>200</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30">
-        <v>200</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3">
+        <v>200</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="3">
+        <v>200</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="4">
@@ -3839,19 +3839,19 @@
       <c r="F31" s="4">
         <v>3</v>
       </c>
-      <c r="G31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
-      <c r="I31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>50</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>50</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>50</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="4">
@@ -3931,19 +3931,19 @@
       <c r="F32" s="4">
         <v>100</v>
       </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="4">
@@ -4023,19 +4023,19 @@
       <c r="F33" s="9">
         <v>30</v>
       </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="G33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>5</v>
       </c>
       <c r="L33" s="9">
@@ -4098,6 +4098,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
@@ -4114,10 +4118,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4129,134 +4129,134 @@
   <dimension ref="A1:AR33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="16" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="17" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="17" t="s">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -8294,6 +8294,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH1:AR1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="W1:AG1"/>
@@ -8305,11 +8310,6 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AH1:AR1"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8372,128 +8372,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="16" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="16" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="17" t="s">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -11871,6 +11871,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W1:AG1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH1:AR1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:S2"/>
@@ -11879,14 +11887,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="W1:AG1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH1:AR1"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11918,60 +11918,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B057B21-4ACC-474E-8B82-A7D5B5DA9CFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96496DB8-C032-4480-B8A6-5408C423883C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="35">
   <si>
     <t>#Vas</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Sujeto006</t>
+  </si>
+  <si>
+    <t>Sujeto007</t>
+  </si>
+  <si>
+    <t>Sujeto008</t>
+  </si>
+  <si>
+    <t>Sujeto009</t>
   </si>
 </sst>
 </file>
@@ -267,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,7 +772,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -777,8 +792,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -791,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1150,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4177A949-ECA0-46E0-B829-C06548097540}">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,133 +1222,211 @@
     <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
     </row>
-    <row r="2" spans="1:36" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:54" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="24" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24" t="s">
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="24"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="27"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1393,44 +1499,98 @@
       <c r="X3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>1</v>
       </c>
+      <c r="AK3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -1503,44 +1663,98 @@
       <c r="X4" s="1">
         <v>200</v>
       </c>
-      <c r="Y4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="17" t="s">
+      <c r="Y4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="16">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>200</v>
-      </c>
-      <c r="AI4" s="16" t="s">
+      <c r="AF4" s="21">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>200</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>200</v>
+      <c r="AJ4" s="22">
+        <v>200</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4">
+        <v>50</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR4">
+        <v>200</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX4">
+        <v>50</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
+        <v>100</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
@@ -1613,44 +1827,98 @@
       <c r="X5" s="1">
         <v>100</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="16" t="s">
+      <c r="Z5" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AD5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" s="16">
-        <v>200</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AF5" s="21">
+        <v>200</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>100</v>
+      <c r="AJ5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL5">
+        <v>200</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP5">
+        <v>10</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT5">
+        <v>10</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV5">
+        <v>10</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX5">
+        <v>10</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <v>10</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
@@ -1723,44 +1991,98 @@
       <c r="X6" s="1">
         <v>10</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="16">
-        <v>200</v>
-      </c>
-      <c r="AA6" s="16" t="s">
+      <c r="Z6" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AB6" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="16" t="s">
+      <c r="AD6" s="22">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AH6" s="16">
-        <v>10</v>
-      </c>
-      <c r="AI6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>10</v>
+      <c r="AH6" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="22">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN6">
+        <v>30</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6">
+        <v>30</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR6">
+        <v>30</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT6">
+        <v>50</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV6">
+        <v>30</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX6">
+        <v>30</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ6">
+        <v>200</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB6">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1833,44 +2155,98 @@
       <c r="X7" s="1">
         <v>3</v>
       </c>
-      <c r="Y7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="16" t="s">
+      <c r="Y7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="1">
-        <v>50</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="16">
-        <v>50</v>
-      </c>
-      <c r="AG7" s="16" t="s">
+      <c r="AD7" s="22">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH7" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>3</v>
+      <c r="AH7" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7">
+        <v>30</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN7">
+        <v>200</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7">
+        <v>200</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR7">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>200</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>200</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX7">
+        <v>200</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ7">
+        <v>30</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
@@ -1943,44 +2319,98 @@
       <c r="X8" s="1">
         <v>30</v>
       </c>
-      <c r="Y8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="16" t="s">
+      <c r="Y8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AB8" s="16">
-        <v>200</v>
-      </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AB8" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD8" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE8" s="17" t="s">
+      <c r="AD8" s="22">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF8" s="16">
-        <v>30</v>
-      </c>
-      <c r="AG8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>30</v>
-      </c>
-      <c r="AI8" s="16" t="s">
+      <c r="AF8" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>30</v>
+      </c>
+      <c r="AI8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>30</v>
+      <c r="AJ8" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL8">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8">
+        <v>100</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT8">
+        <v>100</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX8">
+        <v>100</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ8">
+        <v>3</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -2053,44 +2483,98 @@
       <c r="X9" s="1">
         <v>50</v>
       </c>
-      <c r="Y9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>100</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="17" t="s">
+      <c r="Y9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF9" s="16">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>50</v>
-      </c>
-      <c r="AI9" s="16" t="s">
+      <c r="AF9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>50</v>
+      <c r="AJ9" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9">
+        <v>100</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN9">
+        <v>100</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>100</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9">
+        <v>10</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT9">
+        <v>30</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV9">
+        <v>100</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9">
+        <v>50</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>2</v>
       </c>
@@ -2163,44 +2647,98 @@
       <c r="X10" s="1">
         <v>50</v>
       </c>
-      <c r="Y10" s="17" t="s">
+      <c r="Y10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Z10" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="16" t="s">
+      <c r="Z10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="16" t="s">
+      <c r="AB10" s="21">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="16">
-        <v>200</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>50</v>
-      </c>
-      <c r="AI10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>50</v>
+      <c r="AD10" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>200</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL10">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN10">
+        <v>200</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10">
+        <v>200</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>10</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>30</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV10">
+        <v>200</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX10">
+        <v>30</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>3</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
@@ -2273,44 +2811,98 @@
       <c r="X11" s="1">
         <v>100</v>
       </c>
-      <c r="Y11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI11" s="16" t="s">
+      <c r="Y11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ11" s="1">
-        <v>100</v>
+      <c r="AJ11" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN11">
+        <v>30</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <v>30</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR11">
+        <v>30</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT11">
+        <v>100</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>30</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX11">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>10</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB11">
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
@@ -2383,44 +2975,98 @@
       <c r="X12" s="1">
         <v>200</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Z12" s="16">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="16">
-        <v>30</v>
-      </c>
-      <c r="AG12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH12" s="16">
-        <v>200</v>
-      </c>
-      <c r="AI12" s="16" t="s">
+      <c r="Z12" s="21">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH12" s="21">
+        <v>200</v>
+      </c>
+      <c r="AI12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ12" s="1">
-        <v>200</v>
+      <c r="AJ12" s="22">
+        <v>200</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL12">
+        <v>200</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>100</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12">
+        <v>100</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR12">
+        <v>200</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>100</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX12">
+        <v>200</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
+        <v>50</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
@@ -2493,44 +3139,98 @@
       <c r="X13" s="1">
         <v>30</v>
       </c>
-      <c r="Y13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>200</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="16" t="s">
+      <c r="Y13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD13" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE13" s="17" t="s">
+      <c r="AD13" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF13" s="16">
-        <v>3</v>
-      </c>
-      <c r="AG13" s="16" t="s">
+      <c r="AF13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH13" s="16">
-        <v>30</v>
-      </c>
-      <c r="AI13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>30</v>
+      <c r="AH13" s="21">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN13">
+        <v>10</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP13">
+        <v>10</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR13">
+        <v>3</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT13">
+        <v>200</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV13">
+        <v>10</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ13">
+        <v>30</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
@@ -2603,44 +3303,98 @@
       <c r="X14" s="1">
         <v>10</v>
       </c>
-      <c r="Y14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="16" t="s">
+      <c r="Y14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AB14" s="16">
-        <v>200</v>
-      </c>
-      <c r="AC14" s="16" t="s">
+      <c r="AB14" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD14" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="16" t="s">
+      <c r="AD14" s="22">
+        <v>200</v>
+      </c>
+      <c r="AE14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH14" s="16">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>10</v>
+      <c r="AH14" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="22">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL14">
+        <v>30</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14">
+        <v>50</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP14">
+        <v>50</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14">
+        <v>100</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT14">
+        <v>50</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>50</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>10</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ14">
+        <v>100</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
@@ -2713,44 +3467,98 @@
       <c r="X15" s="1">
         <v>3</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="16" t="s">
+      <c r="Z15" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB15" s="16">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="16" t="s">
+      <c r="AB15" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD15" s="1">
-        <v>50</v>
-      </c>
-      <c r="AE15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>50</v>
-      </c>
-      <c r="AG15" s="16" t="s">
+      <c r="AD15" s="22">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH15" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ15" s="1">
+      <c r="AH15" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ15" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR15">
+        <v>50</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT15">
+        <v>10</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>100</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ15">
+        <v>200</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
@@ -2823,44 +3631,98 @@
       <c r="X16" s="1">
         <v>200</v>
       </c>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="16" t="s">
+      <c r="Z16" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AB16" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="16" t="s">
+      <c r="AB16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AD16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>200</v>
-      </c>
-      <c r="AG16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>200</v>
-      </c>
-      <c r="AI16" s="16" t="s">
+      <c r="AD16" s="22">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>200</v>
+      </c>
+      <c r="AG16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>200</v>
+      </c>
+      <c r="AI16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>200</v>
+      <c r="AJ16" s="22">
+        <v>200</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL16">
+        <v>100</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR16">
+        <v>30</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT16">
+        <v>200</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV16">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX16">
+        <v>200</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>200</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
@@ -2933,44 +3795,98 @@
       <c r="X17" s="1">
         <v>50</v>
       </c>
-      <c r="Y17" s="17" t="s">
+      <c r="Y17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Z17" s="16">
-        <v>30</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AE17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>50</v>
-      </c>
-      <c r="AI17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ17" s="1">
+      <c r="Z17" s="21">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="22">
+        <v>50</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL17">
+        <v>200</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN17">
+        <v>50</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP17">
+        <v>50</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>3</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT17">
+        <v>50</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <v>50</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>100</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ17">
+        <v>3</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
@@ -3043,44 +3959,98 @@
       <c r="X18" s="1">
         <v>3</v>
       </c>
-      <c r="Y18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="16">
-        <v>200</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE18" s="17" t="s">
+      <c r="Y18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF18" s="16">
-        <v>10</v>
-      </c>
-      <c r="AG18" s="16" t="s">
+      <c r="AF18" s="21">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH18" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>3</v>
+      <c r="AH18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL18">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN18">
+        <v>100</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18">
+        <v>100</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>10</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>10</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>100</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX18">
+        <v>10</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ18">
+        <v>10</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB18">
+        <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
@@ -3153,44 +4123,98 @@
       <c r="X19" s="1">
         <v>10</v>
       </c>
-      <c r="Y19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="16">
-        <v>50</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>200</v>
-      </c>
-      <c r="AC19" s="16" t="s">
+      <c r="Y19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD19" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF19" s="16">
-        <v>30</v>
-      </c>
-      <c r="AG19" s="16" t="s">
+      <c r="AD19" s="22">
+        <v>200</v>
+      </c>
+      <c r="AE19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH19" s="16">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>10</v>
+      <c r="AH19" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="22">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19">
+        <v>30</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>200</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP19">
+        <v>200</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR19">
+        <v>50</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT19">
+        <v>100</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>200</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ19">
+        <v>50</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB19">
+        <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>8</v>
       </c>
@@ -3263,44 +4287,98 @@
       <c r="X20" s="1">
         <v>30</v>
       </c>
-      <c r="Y20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="16" t="s">
+      <c r="Y20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB20" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="16" t="s">
+      <c r="AB20" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD20" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>50</v>
-      </c>
-      <c r="AG20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>30</v>
-      </c>
-      <c r="AI20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ20" s="1">
+      <c r="AD20" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>30</v>
+      </c>
+      <c r="AI20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN20">
+        <v>30</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP20">
+        <v>30</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR20">
+        <v>100</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT20">
+        <v>30</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <v>30</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX20">
+        <v>50</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ20">
+        <v>30</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>8</v>
       </c>
@@ -3373,44 +4451,98 @@
       <c r="X21" s="1">
         <v>100</v>
       </c>
-      <c r="Y21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="16" t="s">
+      <c r="Y21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD21" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AD21" s="22">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AF21" s="16">
-        <v>3</v>
-      </c>
-      <c r="AG21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI21" s="16" t="s">
+      <c r="AF21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ21" s="1">
-        <v>100</v>
+      <c r="AJ21" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN21">
+        <v>10</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP21">
+        <v>10</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR21">
+        <v>200</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV21">
+        <v>10</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>30</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>100</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>8</v>
       </c>
@@ -3483,44 +4615,98 @@
       <c r="X22" s="1">
         <v>50</v>
       </c>
-      <c r="Y22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="16">
-        <v>100</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="16" t="s">
+      <c r="Y22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="17" t="s">
+      <c r="AD22" s="22">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF22" s="16">
-        <v>3</v>
-      </c>
-      <c r="AG22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH22" s="16">
-        <v>50</v>
-      </c>
-      <c r="AI22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>50</v>
+      <c r="AF22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH22" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL22">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN22">
+        <v>100</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP22">
+        <v>100</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR22">
+        <v>100</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>100</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX22">
+        <v>30</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>3</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB22">
+        <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>12</v>
       </c>
@@ -3593,44 +4779,98 @@
       <c r="X23" s="1">
         <v>10</v>
       </c>
-      <c r="Y23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="16">
-        <v>30</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG23" s="16" t="s">
+      <c r="Y23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="22">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH23" s="16">
-        <v>10</v>
-      </c>
-      <c r="AI23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>10</v>
+      <c r="AH23" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="22">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL23">
+        <v>200</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR23">
+        <v>200</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>10</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX23">
+        <v>50</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>30</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
@@ -3703,44 +4943,98 @@
       <c r="X24" s="1">
         <v>30</v>
       </c>
-      <c r="Y24" s="17" t="s">
+      <c r="Y24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC24" s="16" t="s">
+      <c r="Z24" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD24" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF24" s="16">
-        <v>30</v>
-      </c>
-      <c r="AG24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH24" s="16">
-        <v>30</v>
-      </c>
-      <c r="AI24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>30</v>
+      <c r="AD24" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>30</v>
+      </c>
+      <c r="AI24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24">
+        <v>30</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN24">
+        <v>50</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>10</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT24">
+        <v>50</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>50</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>100</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>50</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>8</v>
       </c>
@@ -3813,44 +5107,98 @@
       <c r="X25" s="1">
         <v>100</v>
       </c>
-      <c r="Y25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="16">
-        <v>50</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="16">
-        <v>50</v>
-      </c>
-      <c r="AG25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH25" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI25" s="16" t="s">
+      <c r="Y25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ25" s="1">
-        <v>100</v>
+      <c r="AJ25" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN25">
+        <v>30</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP25">
+        <v>30</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT25">
+        <v>200</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <v>30</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>100</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
@@ -3923,44 +5271,98 @@
       <c r="X26" s="1">
         <v>3</v>
       </c>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Z26" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA26" s="16" t="s">
+      <c r="Z26" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB26" s="16">
-        <v>200</v>
-      </c>
-      <c r="AC26" s="16" t="s">
+      <c r="AB26" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD26" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="16">
-        <v>200</v>
-      </c>
-      <c r="AG26" s="16" t="s">
+      <c r="AD26" s="22">
+        <v>200</v>
+      </c>
+      <c r="AE26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>200</v>
+      </c>
+      <c r="AG26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH26" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>3</v>
+      <c r="AH26" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ26" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL26">
+        <v>100</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN26">
+        <v>10</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP26">
+        <v>10</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR26">
+        <v>50</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT26">
+        <v>30</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV26">
+        <v>10</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ26">
+        <v>200</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB26">
+        <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>10</v>
       </c>
@@ -4033,44 +5435,98 @@
       <c r="X27" s="1">
         <v>200</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z27" s="16">
-        <v>200</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>50</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>50</v>
-      </c>
-      <c r="AE27" s="17" t="s">
+      <c r="Z27" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="22">
+        <v>50</v>
+      </c>
+      <c r="AE27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF27" s="16">
-        <v>10</v>
-      </c>
-      <c r="AG27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH27" s="16">
-        <v>200</v>
-      </c>
-      <c r="AI27" s="16" t="s">
+      <c r="AF27" s="21">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>200</v>
+      </c>
+      <c r="AI27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ27" s="22">
+        <v>200</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL27">
+        <v>50</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN27">
+        <v>200</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP27">
+        <v>200</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR27">
+        <v>30</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>100</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>200</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX27">
+        <v>200</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>10</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB27">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>10</v>
       </c>
@@ -4143,44 +5599,98 @@
       <c r="X28" s="1">
         <v>200</v>
       </c>
-      <c r="Y28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="16">
-        <v>50</v>
-      </c>
-      <c r="AA28" s="16" t="s">
+      <c r="Y28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AB28" s="16">
-        <v>30</v>
-      </c>
-      <c r="AC28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF28" s="16">
-        <v>200</v>
-      </c>
-      <c r="AG28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH28" s="16">
-        <v>200</v>
-      </c>
-      <c r="AI28" s="16" t="s">
+      <c r="AB28" s="21">
+        <v>30</v>
+      </c>
+      <c r="AC28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="22">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>200</v>
+      </c>
+      <c r="AG28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>200</v>
+      </c>
+      <c r="AI28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ28" s="1">
-        <v>200</v>
+      <c r="AJ28" s="22">
+        <v>200</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL28">
+        <v>50</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN28">
+        <v>50</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR28">
+        <v>50</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT28">
+        <v>200</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV28">
+        <v>50</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX28">
+        <v>200</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ28">
+        <v>50</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB28">
+        <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>2</v>
       </c>
@@ -4253,44 +5763,98 @@
       <c r="X29" s="1">
         <v>100</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="16">
-        <v>200</v>
-      </c>
-      <c r="AA29" s="16" t="s">
+      <c r="Z29" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AB29" s="16">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="16">
-        <v>100</v>
-      </c>
-      <c r="AG29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH29" s="16">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ29" s="1">
+      <c r="AB29" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="22">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH29" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL29">
+        <v>10</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN29">
+        <v>100</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP29">
+        <v>100</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR29">
+        <v>200</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>100</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>10</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ29">
+        <v>100</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB29">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>2</v>
       </c>
@@ -4363,44 +5927,98 @@
       <c r="X30" s="1">
         <v>10</v>
       </c>
-      <c r="Y30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z30" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB30" s="16">
-        <v>10</v>
-      </c>
-      <c r="AC30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE30" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF30" s="16">
-        <v>30</v>
-      </c>
-      <c r="AG30" s="16" t="s">
+      <c r="Y30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="21">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="22">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH30" s="16">
-        <v>10</v>
-      </c>
-      <c r="AI30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>10</v>
+      <c r="AH30" s="21">
+        <v>10</v>
+      </c>
+      <c r="AI30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="22">
+        <v>10</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL30">
+        <v>30</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN30">
+        <v>200</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP30">
+        <v>200</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>100</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT30">
+        <v>100</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV30">
+        <v>200</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>3</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ30">
+        <v>200</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB30">
+        <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -4473,44 +6091,98 @@
       <c r="X31" s="1">
         <v>50</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="16">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="16">
-        <v>200</v>
-      </c>
-      <c r="AC31" s="16" t="s">
+      <c r="Y31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AD31" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF31" s="16">
-        <v>50</v>
-      </c>
-      <c r="AG31" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH31" s="16">
-        <v>50</v>
-      </c>
-      <c r="AI31" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>50</v>
+      <c r="AD31" s="22">
+        <v>200</v>
+      </c>
+      <c r="AE31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF31" s="21">
+        <v>50</v>
+      </c>
+      <c r="AG31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH31" s="21">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="22">
+        <v>50</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL31">
+        <v>100</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN31">
+        <v>10</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP31">
+        <v>10</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR31">
+        <v>30</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT31">
+        <v>30</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV31">
+        <v>10</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX31">
+        <v>50</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>10</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB31">
+        <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
@@ -4583,44 +6255,98 @@
       <c r="X32" s="1">
         <v>3</v>
       </c>
-      <c r="Y32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z32" s="16">
-        <v>100</v>
-      </c>
-      <c r="AA32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC32" s="16" t="s">
+      <c r="Y32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="21">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD32" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE32" s="17" t="s">
+      <c r="AD32" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AF32" s="16">
-        <v>3</v>
-      </c>
-      <c r="AG32" s="16" t="s">
+      <c r="AF32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH32" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>3</v>
+      <c r="AH32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ32" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL32">
+        <v>3</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN32">
+        <v>30</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP32">
+        <v>30</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT32">
+        <v>10</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>30</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX32">
+        <v>100</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ32">
+        <v>30</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>2</v>
       </c>
@@ -4693,45 +6419,119 @@
       <c r="X33" s="2">
         <v>30</v>
       </c>
-      <c r="Y33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="15">
-        <v>30</v>
-      </c>
-      <c r="AA33" s="15" t="s">
+      <c r="Y33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>30</v>
+      </c>
+      <c r="AA33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AB33" s="15">
-        <v>50</v>
-      </c>
-      <c r="AC33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>50</v>
-      </c>
-      <c r="AE33" s="18" t="s">
+      <c r="AB33" s="24">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="25">
+        <v>50</v>
+      </c>
+      <c r="AE33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AF33" s="15">
-        <v>10</v>
-      </c>
-      <c r="AG33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH33" s="15">
-        <v>30</v>
-      </c>
-      <c r="AI33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>30</v>
+      <c r="AF33" s="24">
+        <v>10</v>
+      </c>
+      <c r="AG33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="24">
+        <v>30</v>
+      </c>
+      <c r="AI33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="25">
+        <v>30</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL33">
+        <v>200</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR33">
+        <v>10</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT33">
+        <v>50</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX33">
+        <v>30</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ33">
+        <v>3</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="Y2:Z2"/>
@@ -4740,22 +6540,14 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4764,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35062D11-4130-4812-8D10-4AE0B319C1E7}">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:BH33"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4775,124 +6567,217 @@
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="21" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="21" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="19"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="26"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4926,83 +6811,155 @@
       <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AP3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="AR3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -5033,35 +6990,128 @@
       <c r="J4" s="13">
         <v>0.52665509259259258</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.52109953703703704</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="N4" s="14">
-        <v>0.44223379629629633</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" s="14">
-        <v>0.44188657407407406</v>
+        <v>0.52094907407407409</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.52106481481481481</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
       </c>
       <c r="Q4" s="14">
-        <v>0.44217592592592592</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
+        <v>0.53570601851851851</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
       </c>
       <c r="S4" s="14">
-        <v>0.45688657407407413</v>
+        <v>0.53560185185185183</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0.53565972222222225</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0.69740740740740748</v>
+      </c>
+      <c r="W4">
+        <v>200</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0.69729166666666664</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.69732638888888887</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0.71885416666666668</v>
+      </c>
+      <c r="AB4">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0.71876157407407415</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0.71881944444444434</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0.42836805555555557</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0.42804398148148143</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0.42834490740740744</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0.44350694444444444</v>
+      </c>
+      <c r="AL4">
+        <v>50</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>0.44342592592592589</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>0.44347222222222221</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="14">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="AQ4">
+        <v>200</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>0.52738425925925925</v>
+      </c>
+      <c r="AS4" s="14">
+        <v>0.52743055555555551</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>0.54184027777777777</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="14">
+        <v>0.54148148148148145</v>
+      </c>
+      <c r="AX4" s="14">
+        <v>0.54177083333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -5092,35 +7142,128 @@
       <c r="J5" s="6">
         <v>0.5269328703703704</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>200</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.52149305555555558</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
       </c>
       <c r="N5" s="14">
-        <v>0.44252314814814814</v>
-      </c>
-      <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.44240740740740742</v>
+        <v>0.52129629629629626</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.52135416666666667</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
       </c>
       <c r="Q5" s="14">
-        <v>0.44247685185185182</v>
-      </c>
-      <c r="R5" t="s">
-        <v>7</v>
+        <v>0.53619212962962959</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
       </c>
       <c r="S5" s="14">
-        <v>0.45715277777777774</v>
+        <v>0.53589120370370369</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0.53618055555555555</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.69770833333333337</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.69755787037037031</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.69767361111111104</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0.71939814814814806</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0.7190509259259259</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>0.7193518518518518</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0.42865740740740743</v>
+      </c>
+      <c r="AG5">
+        <v>200</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0.42857638888888888</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0.42862268518518515</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0.44385416666666666</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="14">
+        <v>0.44370370370370371</v>
+      </c>
+      <c r="AN5" s="14">
+        <v>0.44381944444444449</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="14">
+        <v>0.52798611111111116</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>0.52766203703703707</v>
+      </c>
+      <c r="AS5" s="14">
+        <v>0.52795138888888882</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU5" s="14">
+        <v>0.54222222222222227</v>
+      </c>
+      <c r="AV5">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="14">
+        <v>0.54200231481481487</v>
+      </c>
+      <c r="AX5" s="14">
+        <v>0.54211805555555559</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -5151,35 +7294,128 @@
       <c r="J6" s="6">
         <v>0.52719907407407407</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1">
-        <v>100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>4</v>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.52167824074074076</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
       </c>
       <c r="N6" s="14">
-        <v>0.44285879629629626</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.44270833333333331</v>
+        <v>0.52158564814814812</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.5216319444444445</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
       </c>
       <c r="Q6" s="14">
-        <v>0.44282407407407409</v>
-      </c>
-      <c r="R6" t="s">
-        <v>2</v>
+        <v>0.53649305555555549</v>
+      </c>
+      <c r="R6">
+        <v>200</v>
       </c>
       <c r="S6" s="14">
-        <v>0.45743055555555556</v>
+        <v>0.53641203703703699</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0.53645833333333337</v>
+      </c>
+      <c r="U6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0.69824074074074083</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0.69790509259259259</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.69820601851851849</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>0.71965277777777781</v>
+      </c>
+      <c r="AB6">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0.71958333333333335</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0.71962962962962962</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0.42900462962962965</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0.4288541666666667</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0.42896990740740737</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>0.44415509259259256</v>
+      </c>
+      <c r="AL6">
+        <v>30</v>
+      </c>
+      <c r="AM6" s="14">
+        <v>0.44405092592592593</v>
+      </c>
+      <c r="AN6" s="14">
+        <v>0.44412037037037039</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP6" s="14">
+        <v>0.52833333333333332</v>
+      </c>
+      <c r="AQ6">
+        <v>30</v>
+      </c>
+      <c r="AR6" s="14">
+        <v>0.52818287037037037</v>
+      </c>
+      <c r="AS6" s="14">
+        <v>0.52825231481481483</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU6" s="14">
+        <v>0.54244212962962968</v>
+      </c>
+      <c r="AV6">
+        <v>50</v>
+      </c>
+      <c r="AW6" s="14">
+        <v>0.54234953703703703</v>
+      </c>
+      <c r="AX6" s="14">
+        <v>0.54240740740740734</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -5210,35 +7446,128 @@
       <c r="J7" s="6">
         <v>0.52773148148148141</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.52209490740740738</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
       </c>
       <c r="N7" s="14">
-        <v>0.44314814814814812</v>
-      </c>
-      <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.44305555555555554</v>
+        <v>0.52186342592592594</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.52192129629629636</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
       </c>
       <c r="Q7" s="14">
-        <v>0.44310185185185186</v>
-      </c>
-      <c r="R7" t="s">
-        <v>7</v>
+        <v>0.53684027777777776</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
       </c>
       <c r="S7" s="14">
-        <v>0.45773148148148146</v>
+        <v>0.53668981481481481</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0.53673611111111108</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0.6985069444444445</v>
+      </c>
+      <c r="W7">
+        <v>30</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0.69843749999999993</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.69849537037037035</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0.71991898148148159</v>
+      </c>
+      <c r="AB7">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0.71986111111111117</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0.71990740740740744</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0.42929398148148151</v>
+      </c>
+      <c r="AG7">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0.42920138888888887</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0.42925925925925923</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>0.44445601851851851</v>
+      </c>
+      <c r="AL7">
+        <v>200</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>0.44435185185185189</v>
+      </c>
+      <c r="AN7" s="14">
+        <v>0.44438657407407406</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="14">
+        <v>0.52858796296296295</v>
+      </c>
+      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="AR7" s="14">
+        <v>0.52848379629629627</v>
+      </c>
+      <c r="AS7" s="14">
+        <v>0.52853009259259254</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU7" s="14">
+        <v>0.54276620370370365</v>
+      </c>
+      <c r="AV7">
+        <v>200</v>
+      </c>
+      <c r="AW7" s="14">
+        <v>0.54263888888888889</v>
+      </c>
+      <c r="AX7" s="14">
+        <v>0.54267361111111112</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -5269,35 +7598,128 @@
       <c r="J8" s="6">
         <v>0.52803240740740742</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
       </c>
       <c r="N8" s="14">
-        <v>0.44342592592592589</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0.4433449074074074</v>
+        <v>0.5221527777777778</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.52219907407407407</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
       </c>
       <c r="Q8" s="14">
-        <v>0.44337962962962968</v>
-      </c>
-      <c r="R8" t="s">
-        <v>2</v>
+        <v>0.53704861111111113</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
       </c>
       <c r="S8" s="14">
-        <v>0.45799768518518519</v>
+        <v>0.53696759259259264</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0.53702546296296294</v>
+      </c>
+      <c r="U8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0.69881944444444455</v>
+      </c>
+      <c r="W8">
+        <v>50</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0.6987268518518519</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0.69878472222222221</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0.72020833333333334</v>
+      </c>
+      <c r="AB8">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0.72018518518518515</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0.42961805555555554</v>
+      </c>
+      <c r="AG8">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0.42949074074074073</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0.42954861111111109</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0.44495370370370368</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>0.4446180555555555</v>
+      </c>
+      <c r="AN8" s="14">
+        <v>0.44491898148148151</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="14">
+        <v>0.52890046296296289</v>
+      </c>
+      <c r="AQ8">
+        <v>100</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>0.52876157407407409</v>
+      </c>
+      <c r="AS8" s="14">
+        <v>0.52880787037037036</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU8" s="14">
+        <v>0.54303240740740744</v>
+      </c>
+      <c r="AV8">
+        <v>100</v>
+      </c>
+      <c r="AW8" s="14">
+        <v>0.54290509259259256</v>
+      </c>
+      <c r="AX8" s="14">
+        <v>0.54295138888888894</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -5328,35 +7750,128 @@
       <c r="J9" s="6">
         <v>0.52837962962962959</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.52277777777777779</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
       </c>
       <c r="N9" s="14">
-        <v>0.44366898148148143</v>
-      </c>
-      <c r="O9">
-        <v>200</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0.44361111111111112</v>
+        <v>0.52243055555555562</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.52271990740740748</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
       </c>
       <c r="Q9" s="14">
-        <v>0.44365740740740739</v>
-      </c>
-      <c r="R9" t="s">
-        <v>3</v>
+        <v>0.53739583333333341</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
       </c>
       <c r="S9" s="14">
-        <v>0.45853009259259259</v>
+        <v>0.5372569444444445</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0.53737268518518522</v>
+      </c>
+      <c r="U9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0.69907407407407407</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0.69901620370370365</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0.69906250000000003</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>0.7205787037037038</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>0.72041666666666659</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0.72053240740740743</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0.42987268518518523</v>
+      </c>
+      <c r="AG9">
+        <v>100</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0.42978009259259259</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0.42982638888888891</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>0.44525462962962964</v>
+      </c>
+      <c r="AL9">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>0.44515046296296296</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>0.44519675925925922</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>0.52918981481481475</v>
+      </c>
+      <c r="AQ9">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>0.5290393518518518</v>
+      </c>
+      <c r="AS9" s="14">
+        <v>0.52915509259259264</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>0.54329861111111111</v>
+      </c>
+      <c r="AV9">
+        <v>30</v>
+      </c>
+      <c r="AW9" s="14">
+        <v>0.54318287037037039</v>
+      </c>
+      <c r="AX9" s="14">
+        <v>0.54325231481481484</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -5387,35 +7902,128 @@
       <c r="J10" s="6">
         <v>0.52872685185185186</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>7</v>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.52307870370370368</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
       </c>
       <c r="N10" s="14">
-        <v>0.44406250000000003</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0.44388888888888894</v>
+        <v>0.52295138888888892</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.52299768518518519</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
       </c>
       <c r="Q10" s="14">
-        <v>0.44400462962962961</v>
-      </c>
-      <c r="R10" t="s">
-        <v>4</v>
+        <v>0.53776620370370376</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
       </c>
       <c r="S10" s="14">
-        <v>0.4588888888888889</v>
+        <v>0.53760416666666666</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0.53771990740740738</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0.69966435185185183</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0.69929398148148147</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0.69958333333333333</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0.72084490740740748</v>
+      </c>
+      <c r="AB10">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0.72076388888888887</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0.72081018518518514</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>0.43015046296296294</v>
+      </c>
+      <c r="AG10">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>0.43005787037037035</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0.43010416666666668</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>0.44550925925925927</v>
+      </c>
+      <c r="AL10">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>0.44542824074074078</v>
+      </c>
+      <c r="AN10" s="14">
+        <v>0.44546296296296295</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="14">
+        <v>0.52956018518518522</v>
+      </c>
+      <c r="AQ10">
+        <v>10</v>
+      </c>
+      <c r="AR10" s="14">
+        <v>0.52938657407407408</v>
+      </c>
+      <c r="AS10" s="14">
+        <v>0.5295023148148148</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU10" s="14">
+        <v>0.54365740740740742</v>
+      </c>
+      <c r="AV10">
+        <v>30</v>
+      </c>
+      <c r="AW10" s="14">
+        <v>0.54348379629629628</v>
+      </c>
+      <c r="AX10" s="14">
+        <v>0.5435416666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -5446,35 +8054,128 @@
       <c r="J11" s="6">
         <v>0.52924768518518517</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.52340277777777777</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.52322916666666663</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.5232754629629629</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.53804398148148147</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.53795138888888883</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0.5379976851851852</v>
+      </c>
+      <c r="U11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0.69988425925925923</v>
+      </c>
+      <c r="W11">
+        <v>200</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0.69981481481481478</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.69986111111111116</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0.72119212962962964</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0.72104166666666669</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0.7211574074074073</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0.43047453703703703</v>
+      </c>
+      <c r="AG11">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0.43033564814814818</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0.4303819444444445</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>0.44578703703703698</v>
+      </c>
+      <c r="AL11">
+        <v>30</v>
+      </c>
+      <c r="AM11" s="14">
+        <v>0.44569444444444445</v>
+      </c>
+      <c r="AN11" s="14">
+        <v>0.4457638888888889</v>
+      </c>
+      <c r="AO11" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="14">
-        <v>0.44432870370370375</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0.44423611111111111</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0.44428240740740743</v>
-      </c>
-      <c r="R11" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0.45914351851851848</v>
+      <c r="AP11" s="14">
+        <v>0.52984953703703697</v>
+      </c>
+      <c r="AQ11">
+        <v>30</v>
+      </c>
+      <c r="AR11" s="14">
+        <v>0.52973379629629636</v>
+      </c>
+      <c r="AS11" s="14">
+        <v>0.52980324074074081</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="14">
+        <v>0.54388888888888887</v>
+      </c>
+      <c r="AV11">
+        <v>100</v>
+      </c>
+      <c r="AW11" s="14">
+        <v>0.54377314814814814</v>
+      </c>
+      <c r="AX11" s="14">
+        <v>0.54381944444444441</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
@@ -5505,35 +8206,128 @@
       <c r="J12" s="6">
         <v>0.52954861111111107</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1">
-        <v>30</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.52366898148148155</v>
+      </c>
+      <c r="M12">
         <v>10</v>
       </c>
       <c r="N12" s="14">
-        <v>0.44460648148148146</v>
-      </c>
-      <c r="O12">
-        <v>30</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0.44451388888888888</v>
+        <v>0.52350694444444446</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.52362268518518518</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
       </c>
       <c r="Q12" s="14">
-        <v>0.44457175925925929</v>
-      </c>
-      <c r="R12" t="s">
-        <v>8</v>
+        <v>0.53832175925925929</v>
+      </c>
+      <c r="R12">
+        <v>30</v>
       </c>
       <c r="S12" s="14">
-        <v>0.45949074074074076</v>
+        <v>0.53822916666666665</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0.53828703703703706</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0.70024305555555555</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0.7000925925925926</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0.70020833333333332</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0.72145833333333342</v>
+      </c>
+      <c r="AB12">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0.72138888888888886</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0.72143518518518512</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0.43071759259259257</v>
+      </c>
+      <c r="AG12">
+        <v>200</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0.43061342592592594</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0.43065972222222221</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>0.4460648148148148</v>
+      </c>
+      <c r="AL12">
+        <v>100</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>0.44599537037037035</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>0.44604166666666667</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="14">
+        <v>0.53011574074074075</v>
+      </c>
+      <c r="AQ12">
+        <v>200</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>0.53003472222222225</v>
+      </c>
+      <c r="AS12" s="14">
+        <v>0.53006944444444437</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU12" s="14">
+        <v>0.5443634259259259</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12" s="14">
+        <v>0.54405092592592597</v>
+      </c>
+      <c r="AX12" s="14">
+        <v>0.54435185185185186</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -5564,35 +8358,128 @@
       <c r="J13" s="6">
         <v>0.52982638888888889</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="1">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.52399305555555553</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
       </c>
       <c r="N13" s="14">
-        <v>0.44487268518518519</v>
-      </c>
-      <c r="O13">
-        <v>200</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.44480324074074074</v>
+        <v>0.52385416666666662</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.523900462962963</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
       </c>
       <c r="Q13" s="14">
-        <v>0.44484953703703706</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
+        <v>0.53862268518518519</v>
+      </c>
+      <c r="R13">
+        <v>200</v>
       </c>
       <c r="S13" s="14">
-        <v>0.45997685185185189</v>
+        <v>0.53851851851851851</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0.53856481481481489</v>
+      </c>
+      <c r="U13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.70050925925925922</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0.70043981481481488</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0.70048611111111114</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0.72174768518518517</v>
+      </c>
+      <c r="AB13">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0.72166666666666668</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0.72172453703703709</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0.43104166666666671</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0.43089120370370365</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>0.43100694444444443</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>0.44641203703703702</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>0.44627314814814811</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>0.44638888888888889</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>0.53067129629629628</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>0.53030092592592593</v>
+      </c>
+      <c r="AS13" s="14">
+        <v>0.53060185185185182</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>0.54467592592592595</v>
+      </c>
+      <c r="AV13">
+        <v>200</v>
+      </c>
+      <c r="AW13" s="14">
+        <v>0.54458333333333331</v>
+      </c>
+      <c r="AX13" s="14">
+        <v>0.54461805555555554</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -5623,35 +8510,128 @@
       <c r="J14" s="6">
         <v>0.53010416666666671</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1">
-        <v>200</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2</v>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.52424768518518516</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
       </c>
       <c r="N14" s="14">
-        <v>0.44539351851851849</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0.4450810185185185</v>
+        <v>0.52413194444444444</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.5242013888888889</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
       </c>
       <c r="Q14" s="14">
-        <v>0.44538194444444446</v>
-      </c>
-      <c r="R14" t="s">
-        <v>2</v>
+        <v>0.53899305555555554</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
       </c>
       <c r="S14" s="14">
-        <v>0.46026620370370369</v>
+        <v>0.53879629629629633</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0.53885416666666663</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0.70079861111111119</v>
+      </c>
+      <c r="W14">
+        <v>30</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0.7007175925925927</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0.70077546296296289</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0.72226851851851848</v>
+      </c>
+      <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0.72195601851851843</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0.72225694444444455</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0.43134259259259261</v>
+      </c>
+      <c r="AG14">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0.43123842592592593</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>0.43129629629629629</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>0.44668981481481485</v>
+      </c>
+      <c r="AL14">
+        <v>50</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>0.44662037037037039</v>
+      </c>
+      <c r="AN14" s="14">
+        <v>0.44666666666666671</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="14">
+        <v>0.5309490740740741</v>
+      </c>
+      <c r="AQ14">
+        <v>100</v>
+      </c>
+      <c r="AR14" s="14">
+        <v>0.53083333333333338</v>
+      </c>
+      <c r="AS14" s="14">
+        <v>0.53087962962962965</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU14" s="14">
+        <v>0.54495370370370366</v>
+      </c>
+      <c r="AV14">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="14">
+        <v>0.54484953703703709</v>
+      </c>
+      <c r="AX14" s="14">
+        <v>0.5449074074074074</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -5682,35 +8662,128 @@
       <c r="J15" s="6">
         <v>0.53038194444444442</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1">
-        <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>5</v>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.5248032407407407</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
       </c>
       <c r="N15" s="14">
-        <v>0.44569444444444445</v>
-      </c>
-      <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0.4456134259259259</v>
+        <v>0.52443287037037034</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.5247222222222222</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
       </c>
       <c r="Q15" s="14">
-        <v>0.44565972222222222</v>
-      </c>
-      <c r="R15" t="s">
-        <v>6</v>
+        <v>0.53939814814814813</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
       </c>
       <c r="S15" s="14">
-        <v>0.46055555555555555</v>
+        <v>0.53908564814814819</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0.53937500000000005</v>
+      </c>
+      <c r="U15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0.70107638888888879</v>
+      </c>
+      <c r="W15">
+        <v>50</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0.70100694444444445</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0.70106481481481486</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0.72255787037037045</v>
+      </c>
+      <c r="AB15">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0.72248842592592588</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0.72253472222222215</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0.43186342592592591</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>0.43152777777777779</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>0.43182870370370369</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK15" s="14">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="14">
+        <v>0.44689814814814816</v>
+      </c>
+      <c r="AN15" s="14">
+        <v>0.44719907407407411</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP15" s="14">
+        <v>0.53119212962962969</v>
+      </c>
+      <c r="AQ15">
+        <v>50</v>
+      </c>
+      <c r="AR15" s="14">
+        <v>0.53111111111111109</v>
+      </c>
+      <c r="AS15" s="14">
+        <v>0.53115740740740736</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU15" s="14">
+        <v>0.54530092592592594</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15" s="14">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="AX15" s="14">
+        <v>0.54525462962962956</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -5741,35 +8814,128 @@
       <c r="J16" s="6">
         <v>0.53065972222222224</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4</v>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.52504629629629629</v>
+      </c>
+      <c r="M16">
+        <v>200</v>
       </c>
       <c r="N16" s="14">
-        <v>0.44598379629629631</v>
-      </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0.44589120370370372</v>
+        <v>0.52495370370370364</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
       </c>
       <c r="Q16" s="14">
-        <v>0.44593750000000004</v>
-      </c>
-      <c r="R16" t="s">
-        <v>3</v>
+        <v>0.53971064814814818</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
       </c>
       <c r="S16" s="14">
-        <v>0.46084490740740741</v>
+        <v>0.53960648148148149</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0.53965277777777776</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0.70137731481481491</v>
+      </c>
+      <c r="W16">
+        <v>50</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0.7012962962962962</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0.70134259259259257</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0.7228472222222222</v>
+      </c>
+      <c r="AB16">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0.7227662037037037</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0.72282407407407412</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0.43217592592592591</v>
+      </c>
+      <c r="AG16">
+        <v>100</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0.43206018518518513</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>0.43210648148148145</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>0.44778935185185187</v>
+      </c>
+      <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>0.44743055555555555</v>
+      </c>
+      <c r="AN16" s="14">
+        <v>0.44773148148148145</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="14">
+        <v>0.53151620370370367</v>
+      </c>
+      <c r="AQ16">
+        <v>30</v>
+      </c>
+      <c r="AR16" s="14">
+        <v>0.53138888888888891</v>
+      </c>
+      <c r="AS16" s="14">
+        <v>0.53145833333333337</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU16" s="14">
+        <v>0.54560185185185184</v>
+      </c>
+      <c r="AV16">
+        <v>200</v>
+      </c>
+      <c r="AW16" s="14">
+        <v>0.54548611111111112</v>
+      </c>
+      <c r="AX16" s="14">
+        <v>0.54552083333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
@@ -5800,35 +8966,128 @@
       <c r="J17" s="6">
         <v>0.53100694444444441</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
-        <v>8</v>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.52538194444444442</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
       </c>
       <c r="N17" s="14">
-        <v>0.44626157407407407</v>
-      </c>
-      <c r="O17">
-        <v>30</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0.44616898148148149</v>
+        <v>0.52523148148148147</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.52527777777777784</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
       </c>
       <c r="Q17" s="14">
-        <v>0.44623842592592594</v>
-      </c>
-      <c r="R17" t="s">
-        <v>11</v>
+        <v>0.5400462962962963</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
       </c>
       <c r="S17" s="14">
-        <v>0.46084490740740741</v>
+        <v>0.53988425925925931</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0.70167824074074081</v>
+      </c>
+      <c r="W17">
+        <v>30</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0.70157407407407402</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0.70164351851851858</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0.72334490740740742</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0.72305555555555545</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0.72335648148148157</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>0.43245370370370373</v>
+      </c>
+      <c r="AG17">
+        <v>200</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0.43233796296296295</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>0.43237268518518518</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>0.44806712962962963</v>
+      </c>
+      <c r="AL17">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>0.44796296296296295</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>0.44800925925925927</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="14">
+        <v>0.53203703703703698</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>0.53168981481481481</v>
+      </c>
+      <c r="AS17" s="14">
+        <v>0.53199074074074071</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU17" s="14">
+        <v>0.54585648148148147</v>
+      </c>
+      <c r="AV17">
+        <v>50</v>
+      </c>
+      <c r="AW17" s="14">
+        <v>0.54575231481481479</v>
+      </c>
+      <c r="AX17" s="14">
+        <v>0.5458101851851852</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
@@ -5859,35 +9118,128 @@
       <c r="J18" s="6">
         <v>0.53128472222222223</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.5256481481481482</v>
+      </c>
+      <c r="M18">
+        <v>30</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.52550925925925929</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.52557870370370374</v>
+      </c>
+      <c r="P18" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="14">
-        <v>0.44680555555555551</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0.44646990740740744</v>
-      </c>
       <c r="Q18" s="14">
-        <v>0.44675925925925924</v>
-      </c>
-      <c r="R18" t="s">
-        <v>8</v>
+        <v>0.54032407407407412</v>
+      </c>
+      <c r="R18">
+        <v>200</v>
       </c>
       <c r="S18" s="14">
-        <v>0.46112268518518523</v>
+        <v>0.54023148148148148</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="U18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0.70193287037037033</v>
+      </c>
+      <c r="W18">
+        <v>200</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0.70187499999999992</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0.70190972222222225</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0.72368055555555555</v>
+      </c>
+      <c r="AB18">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>0.72358796296296291</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>0.72363425925925917</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>0.43274305555555559</v>
+      </c>
+      <c r="AG18">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>0.43260416666666668</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>0.43266203703703704</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>0.44833333333333331</v>
+      </c>
+      <c r="AL18">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>0.44824074074074072</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>0.44828703703703704</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="14">
+        <v>0.53240740740740744</v>
+      </c>
+      <c r="AQ18">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>0.53222222222222226</v>
+      </c>
+      <c r="AS18" s="14">
+        <v>0.53232638888888884</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU18" s="14">
+        <v>0.54627314814814809</v>
+      </c>
+      <c r="AV18">
+        <v>10</v>
+      </c>
+      <c r="AW18" s="14">
+        <v>0.54604166666666665</v>
+      </c>
+      <c r="AX18" s="14">
+        <v>0.54615740740740748</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
@@ -5918,35 +9270,128 @@
       <c r="J19" s="6">
         <v>0.53156250000000005</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.52599537037037036</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.52581018518518519</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0.52592592592592591</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.54061342592592598</v>
+      </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0.54050925925925919</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0.54056712962962961</v>
+      </c>
+      <c r="U19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0.70228009259259261</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0.7021412037037037</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.70225694444444453</v>
+      </c>
+      <c r="Z19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="1">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0.44707175925925924</v>
-      </c>
-      <c r="O19">
-        <v>200</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0.44699074074074074</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0.44703703703703707</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="AA19" s="14">
+        <v>0.72391203703703699</v>
+      </c>
+      <c r="AB19">
+        <v>200</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>0.72386574074074073</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>0.72390046296296295</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>0.43302083333333335</v>
+      </c>
+      <c r="AG19">
+        <v>30</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>0.43289351851851854</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>0.4329513888888889</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>0.44858796296296299</v>
+      </c>
+      <c r="AL19">
+        <v>200</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>0.44851851851851854</v>
+      </c>
+      <c r="AN19" s="14">
+        <v>0.44856481481481486</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>0.53269675925925919</v>
+      </c>
+      <c r="AQ19">
+        <v>50</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>0.53255787037037039</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>0.5326157407407407</v>
+      </c>
+      <c r="AT19" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="14">
-        <v>0.46137731481481481</v>
+      <c r="AU19" s="14">
+        <v>0.54646990740740742</v>
+      </c>
+      <c r="AV19">
+        <v>100</v>
+      </c>
+      <c r="AW19" s="14">
+        <v>0.54638888888888892</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>0.54643518518518519</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
@@ -5977,35 +9422,128 @@
       <c r="J20" s="6">
         <v>0.53208333333333335</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>8</v>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0.52623842592592596</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
       </c>
       <c r="N20" s="14">
-        <v>0.44738425925925923</v>
-      </c>
-      <c r="O20">
-        <v>50</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.44726851851851851</v>
+        <v>0.52615740740740746</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0.52620370370370373</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="14">
-        <v>0.44731481481481478</v>
-      </c>
-      <c r="R20" t="s">
-        <v>7</v>
+        <v>0.54089120370370369</v>
+      </c>
+      <c r="R20">
+        <v>50</v>
       </c>
       <c r="S20" s="14">
-        <v>0.46172453703703703</v>
+        <v>0.54079861111111105</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0.54085648148148147</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0.70280092592592591</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0.70248842592592586</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0.70278935185185187</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>0.72425925925925927</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>0.7241319444444444</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0.72424768518518512</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>0.4331828703703704</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>0.43329861111111106</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>0.44885416666666672</v>
+      </c>
+      <c r="AL20">
+        <v>30</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>0.4487962962962963</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>0.44885416666666672</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="14">
+        <v>0.53295138888888893</v>
+      </c>
+      <c r="AQ20">
+        <v>100</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>0.53284722222222225</v>
+      </c>
+      <c r="AS20" s="14">
+        <v>0.53289351851851852</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU20" s="14">
+        <v>0.54680555555555554</v>
+      </c>
+      <c r="AV20">
+        <v>30</v>
+      </c>
+      <c r="AW20" s="14">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="AX20" s="14">
+        <v>0.54672453703703705</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
@@ -6036,35 +9574,128 @@
       <c r="J21" s="6">
         <v>0.53238425925925925</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <v>30</v>
-      </c>
-      <c r="M21" t="s">
-        <v>4</v>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.52675925925925926</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
       </c>
       <c r="N21" s="14">
-        <v>0.44769675925925928</v>
-      </c>
-      <c r="O21">
-        <v>10</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0.44755787037037037</v>
+        <v>0.52643518518518517</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.52672453703703703</v>
+      </c>
+      <c r="P21" t="s">
+        <v>11</v>
       </c>
       <c r="Q21" s="14">
-        <v>0.44766203703703705</v>
-      </c>
-      <c r="R21" t="s">
-        <v>6</v>
+        <v>0.54141203703703711</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
       </c>
       <c r="S21" s="14">
-        <v>0.46225694444444443</v>
+        <v>0.54108796296296291</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0.54137731481481477</v>
+      </c>
+      <c r="U21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0.70309027777777777</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0.70302083333333332</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0.70306712962962958</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>0.72459490740740751</v>
+      </c>
+      <c r="AB21">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>0.72447916666666667</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0.72453703703703709</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>0.43387731481481479</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0.43353009259259262</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>0.43383101851851852</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>0.44921296296296293</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21" s="14">
+        <v>0.44908564814814816</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>0.44920138888888889</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>0.53324074074074079</v>
+      </c>
+      <c r="AQ21">
+        <v>200</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>0.53312499999999996</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>0.53315972222222219</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU21" s="14">
+        <v>0.54728009259259258</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21" s="14">
+        <v>0.54695601851851849</v>
+      </c>
+      <c r="AX21" s="14">
+        <v>0.5472569444444445</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -6095,35 +9726,128 @@
       <c r="J22" s="6">
         <v>0.53267361111111111</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>30</v>
-      </c>
-      <c r="M22" t="s">
-        <v>7</v>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0.52709490740740739</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
       </c>
       <c r="N22" s="14">
-        <v>0.44797453703703699</v>
-      </c>
-      <c r="O22">
-        <v>100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>0.4478935185185185</v>
+        <v>0.52695601851851859</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.52702546296296293</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="14">
-        <v>0.44793981481481482</v>
-      </c>
-      <c r="R22" t="s">
-        <v>8</v>
+        <v>0.54167824074074067</v>
+      </c>
+      <c r="R22">
+        <v>50</v>
       </c>
       <c r="S22" s="14">
-        <v>0.46254629629629629</v>
+        <v>0.54160879629629632</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0.70339120370370367</v>
+      </c>
+      <c r="W22">
+        <v>50</v>
+      </c>
+      <c r="X22" s="14">
+        <v>0.70329861111111114</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0.7033449074074074</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>0.72487268518518511</v>
+      </c>
+      <c r="AB22">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>0.72476851851851853</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>0.72482638888888884</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>0.43442129629629633</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>0.43406250000000002</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>0.43436342592592592</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>0.44949074074074075</v>
+      </c>
+      <c r="AL22">
+        <v>100</v>
+      </c>
+      <c r="AM22" s="14">
+        <v>0.44943287037037033</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>0.44947916666666665</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>0.53350694444444446</v>
+      </c>
+      <c r="AQ22">
+        <v>100</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>0.53339120370370374</v>
+      </c>
+      <c r="AS22" s="14">
+        <v>0.53343750000000001</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU22" s="14">
+        <v>0.54780092592592589</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22" s="14">
+        <v>0.54748842592592595</v>
+      </c>
+      <c r="AX22" s="14">
+        <v>0.54778935185185185</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -6154,35 +9878,128 @@
       <c r="J23" s="6">
         <v>0.53296296296296297</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.52740740740740744</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0.52725694444444449</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.52737268518518521</v>
+      </c>
+      <c r="P23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0.54201388888888891</v>
+      </c>
+      <c r="R23">
+        <v>200</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0.54189814814814818</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0.54194444444444445</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0.7038888888888889</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23" s="14">
+        <v>0.70357638888888896</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0.70387731481481486</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>0.7251967592592593</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>0.72505787037037039</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0.72517361111111101</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>0.4346990740740741</v>
+      </c>
+      <c r="AG23">
+        <v>200</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>0.43459490740740742</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>0.43462962962962964</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>0.4500231481481482</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="14">
+        <v>0.44971064814814815</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>0.45001157407407405</v>
+      </c>
+      <c r="AO23" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="1">
-        <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0.44824074074074072</v>
-      </c>
-      <c r="O23">
-        <v>200</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0.44817129629629626</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0.44821759259259258</v>
-      </c>
-      <c r="R23" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0.46283564814814815</v>
+      <c r="AP23" s="14">
+        <v>0.5337615740740741</v>
+      </c>
+      <c r="AQ23">
+        <v>200</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>0.53366898148148145</v>
+      </c>
+      <c r="AS23" s="14">
+        <v>0.53371527777777772</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU23" s="14">
+        <v>0.54814814814814816</v>
+      </c>
+      <c r="AV23">
+        <v>10</v>
+      </c>
+      <c r="AW23" s="14">
+        <v>0.54802083333333329</v>
+      </c>
+      <c r="AX23" s="14">
+        <v>0.54813657407407412</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
@@ -6213,35 +10030,128 @@
       <c r="J24" s="6">
         <v>0.53324074074074079</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="1">
-        <v>100</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2</v>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0.52774305555555556</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
       </c>
       <c r="N24" s="14">
-        <v>0.44878472222222227</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24" s="14">
-        <v>0.44844907407407408</v>
+        <v>0.52760416666666665</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.52765046296296292</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2</v>
       </c>
       <c r="Q24" s="14">
-        <v>0.44874999999999998</v>
-      </c>
-      <c r="R24" t="s">
-        <v>2</v>
+        <v>0.54228009259259258</v>
+      </c>
+      <c r="R24">
+        <v>30</v>
       </c>
       <c r="S24" s="14">
-        <v>0.46310185185185188</v>
+        <v>0.54217592592592589</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0.54223379629629631</v>
+      </c>
+      <c r="U24" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0.70420138888888895</v>
+      </c>
+      <c r="W24">
+        <v>200</v>
+      </c>
+      <c r="X24" s="14">
+        <v>0.7041087962962963</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0.70415509259259268</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>0.72575231481481473</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>0.72540509259259256</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>0.43495370370370368</v>
+      </c>
+      <c r="AG24">
+        <v>30</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>0.43486111111111114</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>0.43493055555555554</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>0.45030092592592591</v>
+      </c>
+      <c r="AL24">
+        <v>50</v>
+      </c>
+      <c r="AM24" s="14">
+        <v>0.4502430555555556</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>0.45028935185185182</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>0.53408564814814818</v>
+      </c>
+      <c r="AQ24">
+        <v>10</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>0.53394675925925927</v>
+      </c>
+      <c r="AS24" s="14">
+        <v>0.5340625</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU24" s="14">
+        <v>0.54847222222222225</v>
+      </c>
+      <c r="AV24">
+        <v>50</v>
+      </c>
+      <c r="AW24" s="14">
+        <v>0.54836805555555557</v>
+      </c>
+      <c r="AX24" s="14">
+        <v>0.54841435185185183</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -6272,35 +10182,128 @@
       <c r="J25" s="6">
         <v>0.53358796296296296</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="1">
-        <v>10</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2</v>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.52798611111111116</v>
+      </c>
+      <c r="M25">
+        <v>200</v>
       </c>
       <c r="N25" s="14">
-        <v>0.44906249999999998</v>
-      </c>
-      <c r="O25">
-        <v>30</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0.44898148148148148</v>
+        <v>0.52788194444444447</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.52792824074074074</v>
+      </c>
+      <c r="P25" t="s">
+        <v>18</v>
       </c>
       <c r="Q25" s="14">
-        <v>0.44903935185185184</v>
-      </c>
-      <c r="R25" t="s">
-        <v>2</v>
+        <v>0.54259259259259263</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
       </c>
       <c r="S25" s="14">
-        <v>0.46340277777777777</v>
+        <v>0.54246527777777775</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0.54258101851851859</v>
+      </c>
+      <c r="U25" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0.70444444444444443</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25" s="14">
+        <v>0.70438657407407401</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0.70443287037037028</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0.72601851851851851</v>
+      </c>
+      <c r="AB25">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0.72592592592592586</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0.72599537037037043</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>0.43531249999999999</v>
+      </c>
+      <c r="AG25">
+        <v>10</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>0.43516203703703704</v>
+      </c>
+      <c r="AI25" s="14">
+        <v>0.43527777777777782</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>0.45061342592592596</v>
+      </c>
+      <c r="AL25">
+        <v>30</v>
+      </c>
+      <c r="AM25" s="14">
+        <v>0.45052083333333331</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>0.45059027777777777</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="14">
+        <v>0.53461805555555553</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25" s="14">
+        <v>0.53429398148148144</v>
+      </c>
+      <c r="AS25" s="14">
+        <v>0.53459490740740734</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU25" s="14">
+        <v>0.54872685185185188</v>
+      </c>
+      <c r="AV25">
+        <v>200</v>
+      </c>
+      <c r="AW25" s="14">
+        <v>0.54864583333333339</v>
+      </c>
+      <c r="AX25" s="14">
+        <v>0.54869212962962965</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -6331,35 +10334,128 @@
       <c r="J26" s="6">
         <v>0.53385416666666663</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="1">
-        <v>200</v>
-      </c>
-      <c r="M26" t="s">
-        <v>5</v>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0.52849537037037042</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
       </c>
       <c r="N26" s="14">
-        <v>0.44937500000000002</v>
-      </c>
-      <c r="O26">
-        <v>50</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0.44927083333333334</v>
+        <v>0.52815972222222218</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0.52846064814814808</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2</v>
       </c>
       <c r="Q26" s="14">
-        <v>0.4493287037037037</v>
-      </c>
-      <c r="R26" t="s">
-        <v>3</v>
+        <v>0.54288194444444449</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
       </c>
       <c r="S26" s="14">
-        <v>0.46375000000000005</v>
+        <v>0.54281250000000003</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0.5428587962962963</v>
+      </c>
+      <c r="U26" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="14">
+        <v>0.70480324074074074</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+      <c r="X26" s="14">
+        <v>0.70466435185185183</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0.70478009259259267</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>0.72631944444444441</v>
+      </c>
+      <c r="AB26">
+        <v>200</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>0.72622685185185187</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>0.7262615740740741</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>0.43557870370370372</v>
+      </c>
+      <c r="AG26">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>0.43550925925925926</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>0.43555555555555553</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>0.45096064814814812</v>
+      </c>
+      <c r="AL26">
+        <v>10</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>0.45082175925925921</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>0.45093749999999999</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>0.53490740740740739</v>
+      </c>
+      <c r="AQ26">
+        <v>50</v>
+      </c>
+      <c r="AR26" s="14">
+        <v>0.53482638888888889</v>
+      </c>
+      <c r="AS26" s="14">
+        <v>0.53487268518518516</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU26" s="14">
+        <v>0.54901620370370374</v>
+      </c>
+      <c r="AV26">
+        <v>30</v>
+      </c>
+      <c r="AW26" s="14">
+        <v>0.5489236111111111</v>
+      </c>
+      <c r="AX26" s="14">
+        <v>0.54898148148148151</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
@@ -6390,35 +10486,128 @@
       <c r="J27" s="6">
         <v>0.53438657407407408</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.52886574074074078</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
       </c>
       <c r="N27" s="14">
-        <v>0.44971064814814815</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
-      <c r="P27" s="14">
-        <v>0.4495601851851852</v>
+        <v>0.52869212962962964</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.52872685185185186</v>
+      </c>
+      <c r="P27" t="s">
+        <v>10</v>
       </c>
       <c r="Q27" s="14">
-        <v>0.44967592592592592</v>
-      </c>
-      <c r="R27" t="s">
-        <v>7</v>
+        <v>0.54341435185185183</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
       </c>
       <c r="S27" s="14">
-        <v>0.46401620370370367</v>
+        <v>0.54309027777777774</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0.54339120370370375</v>
+      </c>
+      <c r="U27" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0.70511574074074079</v>
+      </c>
+      <c r="W27">
+        <v>30</v>
+      </c>
+      <c r="X27" s="14">
+        <v>0.705011574074074</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0.70506944444444442</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>0.72653935185185192</v>
+      </c>
+      <c r="AB27">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>0.72649305555555566</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0.72653935185185192</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>0.43586805555555558</v>
+      </c>
+      <c r="AG27">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0.43578703703703708</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>0.43583333333333335</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>0.45123842592592589</v>
+      </c>
+      <c r="AL27">
+        <v>200</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>0.45116898148148149</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>0.45120370370370372</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP27" s="14">
+        <v>0.53527777777777774</v>
+      </c>
+      <c r="AQ27">
+        <v>30</v>
+      </c>
+      <c r="AR27" s="14">
+        <v>0.5351041666666666</v>
+      </c>
+      <c r="AS27" s="14">
+        <v>0.53517361111111106</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="14">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="AV27">
+        <v>100</v>
+      </c>
+      <c r="AW27" s="14">
+        <v>0.54921296296296296</v>
+      </c>
+      <c r="AX27" s="14">
+        <v>0.54925925925925922</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>10</v>
       </c>
@@ -6449,35 +10638,128 @@
       <c r="J28" s="6">
         <v>0.53466435185185179</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="1">
-        <v>200</v>
-      </c>
-      <c r="M28" t="s">
-        <v>4</v>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.5290393518518518</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
       </c>
       <c r="N28" s="14">
-        <v>0.45006944444444441</v>
-      </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28" s="14">
-        <v>0.44990740740740742</v>
+        <v>0.52896990740740735</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.52900462962962969</v>
+      </c>
+      <c r="P28" t="s">
+        <v>12</v>
       </c>
       <c r="Q28" s="14">
-        <v>0.4500231481481482</v>
-      </c>
-      <c r="R28" t="s">
+        <v>0.54395833333333332</v>
+      </c>
+      <c r="R28">
         <v>3</v>
       </c>
       <c r="S28" s="14">
-        <v>0.46458333333333335</v>
+        <v>0.54362268518518519</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0.54391203703703705</v>
+      </c>
+      <c r="U28" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0.70545138888888881</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28" s="14">
+        <v>0.70530092592592597</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0.70541666666666669</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0.72709490740740745</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0.72677083333333325</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>0.72707175925925915</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>0.43622685185185189</v>
+      </c>
+      <c r="AG28">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0.43606481481481479</v>
+      </c>
+      <c r="AI28" s="14">
+        <v>0.43612268518518515</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>0.45157407407407407</v>
+      </c>
+      <c r="AL28">
+        <v>50</v>
+      </c>
+      <c r="AM28" s="14">
+        <v>0.45143518518518522</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>0.45149305555555558</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP28" s="14">
+        <v>0.53554398148148141</v>
+      </c>
+      <c r="AQ28">
+        <v>50</v>
+      </c>
+      <c r="AR28" s="14">
+        <v>0.53540509259259261</v>
+      </c>
+      <c r="AS28" s="14">
+        <v>0.53545138888888888</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="14">
+        <v>0.54958333333333331</v>
+      </c>
+      <c r="AV28">
+        <v>200</v>
+      </c>
+      <c r="AW28" s="14">
+        <v>0.54949074074074067</v>
+      </c>
+      <c r="AX28" s="14">
+        <v>0.54953703703703705</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -6508,35 +10790,128 @@
       <c r="J29" s="6">
         <v>0.53518518518518521</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0.52954861111111107</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0.52923611111111113</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0.52953703703703703</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0.54424768518518518</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0.5441435185185185</v>
+      </c>
+      <c r="T29" s="14">
+        <v>0.54421296296296295</v>
+      </c>
+      <c r="U29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="14">
+        <v>0.70596064814814818</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29" s="14">
+        <v>0.70564814814814814</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0.70594907407407403</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0.72734953703703698</v>
+      </c>
+      <c r="AB29">
+        <v>100</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>0.72730324074074071</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>0.72734953703703698</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>0.43651620370370375</v>
+      </c>
+      <c r="AG29">
+        <v>10</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0.43635416666666665</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>0.43646990740740743</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>0.45184027777777774</v>
+      </c>
+      <c r="AL29">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>0.45172453703703702</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>0.45177083333333329</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>0.53576388888888882</v>
+      </c>
+      <c r="AQ29">
+        <v>200</v>
+      </c>
+      <c r="AR29" s="14">
+        <v>0.53568287037037032</v>
+      </c>
+      <c r="AS29" s="14">
+        <v>0.5357291666666667</v>
+      </c>
+      <c r="AT29" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="14">
-        <v>0.45037037037037037</v>
-      </c>
-      <c r="O29">
-        <v>50</v>
-      </c>
-      <c r="P29" s="14">
-        <v>0.45025462962962964</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0.45030092592592591</v>
-      </c>
-      <c r="R29" t="s">
-        <v>7</v>
-      </c>
-      <c r="S29" s="14">
-        <v>0.46483796296296293</v>
+      <c r="AU29" s="14">
+        <v>0.55008101851851854</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29" s="14">
+        <v>0.54976851851851849</v>
+      </c>
+      <c r="AX29" s="14">
+        <v>0.55005787037037035</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -6567,35 +10942,128 @@
       <c r="J30" s="6">
         <v>0.53547453703703707</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="1">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="K30" t="s">
         <v>7</v>
       </c>
+      <c r="L30" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
       <c r="N30" s="14">
-        <v>0.450625</v>
-      </c>
-      <c r="O30">
-        <v>100</v>
-      </c>
-      <c r="P30" s="14">
-        <v>0.45053240740740735</v>
+        <v>0.52976851851851847</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.52983796296296293</v>
+      </c>
+      <c r="P30" t="s">
+        <v>4</v>
       </c>
       <c r="Q30" s="14">
-        <v>0.45057870370370368</v>
-      </c>
-      <c r="R30" t="s">
-        <v>8</v>
+        <v>0.54469907407407414</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
       </c>
       <c r="S30" s="14">
-        <v>0.46510416666666665</v>
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0.54456018518518523</v>
+      </c>
+      <c r="U30" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0.70629629629629631</v>
+      </c>
+      <c r="W30">
+        <v>100</v>
+      </c>
+      <c r="X30" s="14">
+        <v>0.70618055555555559</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>0.70622685185185186</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>0.72770833333333329</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>0.72758101851851853</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>0.72769675925925925</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>0.43682870370370369</v>
+      </c>
+      <c r="AG30">
+        <v>30</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>0.43670138888888888</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>0.43675925925925929</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>0.4520717592592593</v>
+      </c>
+      <c r="AL30">
+        <v>200</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>0.45200231481481484</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>0.45203703703703701</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>0.53609953703703705</v>
+      </c>
+      <c r="AQ30">
+        <v>100</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>0.53596064814814814</v>
+      </c>
+      <c r="AS30" s="14">
+        <v>0.53600694444444441</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU30" s="14">
+        <v>0.55040509259259263</v>
+      </c>
+      <c r="AV30">
+        <v>100</v>
+      </c>
+      <c r="AW30" s="14">
+        <v>0.55028935185185179</v>
+      </c>
+      <c r="AX30" s="14">
+        <v>0.55033564814814817</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>11</v>
       </c>
@@ -6626,35 +11094,128 @@
       <c r="J31" s="6">
         <v>0.53582175925925923</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="1">
-        <v>10</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0.53019675925925924</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0.53006944444444437</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0.53011574074074075</v>
+      </c>
+      <c r="P31" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="14">
-        <v>0.45087962962962963</v>
-      </c>
-      <c r="O31">
-        <v>200</v>
-      </c>
-      <c r="P31" s="14">
-        <v>0.45081018518518517</v>
-      </c>
       <c r="Q31" s="14">
-        <v>0.4508564814814815</v>
-      </c>
-      <c r="R31" t="s">
-        <v>9</v>
+        <v>0.54483796296296294</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
       </c>
       <c r="S31" s="14">
-        <v>0.46562500000000001</v>
+        <v>0.54479166666666667</v>
+      </c>
+      <c r="T31" s="14">
+        <v>0.54483796296296294</v>
+      </c>
+      <c r="U31" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0.7065393518518519</v>
+      </c>
+      <c r="W31">
+        <v>50</v>
+      </c>
+      <c r="X31" s="14">
+        <v>0.7064583333333333</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>0.70650462962962957</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>0.72798611111111111</v>
+      </c>
+      <c r="AB31">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>0.7279282407407407</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0.72797453703703707</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>0.43707175925925923</v>
+      </c>
+      <c r="AG31">
+        <v>100</v>
+      </c>
+      <c r="AH31" s="14">
+        <v>0.43699074074074074</v>
+      </c>
+      <c r="AI31" s="14">
+        <v>0.43703703703703706</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK31" s="14">
+        <v>0.45239583333333333</v>
+      </c>
+      <c r="AL31">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="14">
+        <v>0.45226851851851851</v>
+      </c>
+      <c r="AN31" s="14">
+        <v>0.45238425925925929</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP31" s="14">
+        <v>0.5363310185185185</v>
+      </c>
+      <c r="AQ31">
+        <v>30</v>
+      </c>
+      <c r="AR31" s="14">
+        <v>0.53623842592592597</v>
+      </c>
+      <c r="AS31" s="14">
+        <v>0.53629629629629627</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="14">
+        <v>0.5506712962962963</v>
+      </c>
+      <c r="AV31">
+        <v>30</v>
+      </c>
+      <c r="AW31" s="14">
+        <v>0.55056712962962961</v>
+      </c>
+      <c r="AX31" s="14">
+        <v>0.55063657407407407</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>20</v>
       </c>
@@ -6685,35 +11246,128 @@
       <c r="J32" s="6">
         <v>0.53611111111111109</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="1">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>2</v>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0.53041666666666665</v>
+      </c>
+      <c r="M32">
+        <v>200</v>
       </c>
       <c r="N32" s="14">
-        <v>0.45120370370370372</v>
-      </c>
-      <c r="O32">
-        <v>30</v>
-      </c>
-      <c r="P32" s="14">
-        <v>0.45108796296296294</v>
+        <v>0.53034722222222219</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.53039351851851857</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="14">
-        <v>0.45114583333333336</v>
-      </c>
-      <c r="R32" t="s">
-        <v>5</v>
+        <v>0.54511574074074076</v>
+      </c>
+      <c r="R32">
+        <v>200</v>
       </c>
       <c r="S32" s="14">
-        <v>0.4659490740740741</v>
+        <v>0.5450694444444445</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0.54510416666666661</v>
+      </c>
+      <c r="U32" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.70680555555555558</v>
+      </c>
+      <c r="W32">
+        <v>200</v>
+      </c>
+      <c r="X32" s="14">
+        <v>0.70673611111111112</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0.70678240740740739</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0.72828703703703701</v>
+      </c>
+      <c r="AB32">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0.72820601851851852</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0.72827546296296297</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>0.43760416666666663</v>
+      </c>
+      <c r="AG32">
+        <v>3</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>0.4372685185185185</v>
+      </c>
+      <c r="AI32" s="14">
+        <v>0.43756944444444446</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>0.45270833333333332</v>
+      </c>
+      <c r="AL32">
+        <v>30</v>
+      </c>
+      <c r="AM32" s="14">
+        <v>0.45261574074074074</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>0.45268518518518519</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP32" s="14">
+        <v>0.53684027777777776</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32" s="14">
+        <v>0.53652777777777783</v>
+      </c>
+      <c r="AS32" s="14">
+        <v>0.53682870370370372</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU32" s="14">
+        <v>0.55100694444444442</v>
+      </c>
+      <c r="AV32">
+        <v>10</v>
+      </c>
+      <c r="AW32" s="14">
+        <v>0.55086805555555551</v>
+      </c>
+      <c r="AX32" s="14">
+        <v>0.55098379629629635</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>2</v>
       </c>
@@ -6744,48 +11398,147 @@
       <c r="J33" s="6">
         <v>0.53638888888888892</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1">
-        <v>100</v>
-      </c>
-      <c r="M33" t="s">
-        <v>7</v>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0.53076388888888892</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
       </c>
       <c r="N33" s="14">
-        <v>0.45174768518518515</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="P33" s="14">
-        <v>0.4513773148148148</v>
+        <v>0.53062500000000001</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.53074074074074074</v>
+      </c>
+      <c r="P33" t="s">
+        <v>2</v>
       </c>
       <c r="Q33" s="14">
-        <v>0.45167824074074076</v>
-      </c>
-      <c r="R33" t="s">
-        <v>5</v>
+        <v>0.54539351851851847</v>
+      </c>
+      <c r="R33">
+        <v>50</v>
       </c>
       <c r="S33" s="14">
-        <v>0.46619212962962964</v>
+        <v>0.54533564814814817</v>
+      </c>
+      <c r="T33" s="14">
+        <v>0.54539351851851847</v>
+      </c>
+      <c r="U33" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0.70709490740740744</v>
+      </c>
+      <c r="W33">
+        <v>30</v>
+      </c>
+      <c r="X33" s="14">
+        <v>0.70701388888888894</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>0.70707175925925936</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>0.72855324074074079</v>
+      </c>
+      <c r="AB33">
+        <v>200</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>0.72850694444444442</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>0.72854166666666664</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="14">
+        <v>0.43788194444444445</v>
+      </c>
+      <c r="AG33">
+        <v>200</v>
+      </c>
+      <c r="AH33" s="14">
+        <v>0.4378009259259259</v>
+      </c>
+      <c r="AI33" s="14">
+        <v>0.43784722222222222</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>0.45322916666666663</v>
+      </c>
+      <c r="AL33">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="14">
+        <v>0.45291666666666663</v>
+      </c>
+      <c r="AN33" s="14">
+        <v>0.45321759259259259</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP33" s="14">
+        <v>0.53723379629629631</v>
+      </c>
+      <c r="AQ33">
+        <v>10</v>
+      </c>
+      <c r="AR33" s="14">
+        <v>0.53706018518518517</v>
+      </c>
+      <c r="AS33" s="14">
+        <v>0.53717592592592589</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU33" s="14">
+        <v>0.55131944444444447</v>
+      </c>
+      <c r="AV33">
+        <v>50</v>
+      </c>
+      <c r="AW33" s="14">
+        <v>0.55121527777777779</v>
+      </c>
+      <c r="AX33" s="14">
+        <v>0.55126157407407406</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Y1:AJ1"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="18">
+    <mergeCell ref="AO1:AX1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY1:BH1"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96496DB8-C032-4480-B8A6-5408C423883C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05F208-8376-438D-B4D6-D88E73878440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4177A949-ECA0-46E0-B829-C06548097540}">
   <dimension ref="A1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AV1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83F51A-6ED1-4C32-92A7-EE587CDA4DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7E00-282C-43DD-897D-489FED6BA733}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="43">
   <si>
     <t>#Vas</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>-9.0</t>
+  </si>
+  <si>
+    <t>Sujeto012</t>
+  </si>
+  <si>
+    <t>Sujeto013</t>
+  </si>
+  <si>
+    <t>Sujeto014</t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -832,29 +841,30 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,12 +894,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1245,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV33"/>
+  <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AV1"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,173 +1311,251 @@
     <col min="46" max="46" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="55" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="55" t="s">
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55" t="s">
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
     </row>
-    <row r="2" spans="1:48" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:66" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="57" t="s">
+      <c r="R2" s="60"/>
+      <c r="S2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="57" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="57" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62" t="s">
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62" t="s">
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="62"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN2" s="57"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1612,8 +1700,62 @@
       <c r="AV3" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="AW3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="55" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1758,8 +1900,54 @@
       <c r="AV4" s="53">
         <v>10</v>
       </c>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="11">
+        <v>200</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="11">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL4" s="11">
+        <v>10</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -1904,8 +2092,54 @@
       <c r="AV5" s="53">
         <v>50</v>
       </c>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="53">
+        <v>3</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>50</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>30</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH5" s="53">
+        <v>30</v>
+      </c>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>100</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN5" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -2050,8 +2284,54 @@
       <c r="AV6" s="53">
         <v>200</v>
       </c>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="53">
+        <v>10</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="53">
+        <v>10</v>
+      </c>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL6" s="7">
+        <v>200</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN6" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
@@ -2196,8 +2476,54 @@
       <c r="AV7" s="53">
         <v>100</v>
       </c>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>100</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="53">
+        <v>100</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF7" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH7" s="53">
+        <v>3</v>
+      </c>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL7" s="7">
+        <v>30</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN7" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -2342,8 +2668,54 @@
       <c r="AV8" s="53">
         <v>30</v>
       </c>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>50</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB8" s="53">
+        <v>50</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>100</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>200</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH8" s="53">
+        <v>200</v>
+      </c>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>50</v>
+      </c>
+      <c r="BM8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN8" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -2488,8 +2860,54 @@
       <c r="AV9" s="54">
         <v>3</v>
       </c>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ9" s="6">
+        <v>200</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB9" s="54">
+        <v>200</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD9" s="6">
+        <v>30</v>
+      </c>
+      <c r="BE9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="6">
+        <v>50</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH9" s="54">
+        <v>50</v>
+      </c>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL9" s="6">
+        <v>3</v>
+      </c>
+      <c r="BM9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN9" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -2634,8 +3052,54 @@
       <c r="AV10" s="53">
         <v>10</v>
       </c>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ10" s="11">
+        <v>10</v>
+      </c>
+      <c r="BA10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>10</v>
+      </c>
+      <c r="BC10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD10" s="11">
+        <v>30</v>
+      </c>
+      <c r="BE10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF10" s="11">
+        <v>10</v>
+      </c>
+      <c r="BG10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL10" s="11">
+        <v>100</v>
+      </c>
+      <c r="BM10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -2780,8 +3244,54 @@
       <c r="AV11" s="53">
         <v>200</v>
       </c>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB11" s="53">
+        <v>200</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF11" s="7">
+        <v>30</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH11" s="53">
+        <v>30</v>
+      </c>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BM11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN11" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -2926,8 +3436,54 @@
       <c r="AV12" s="53">
         <v>50</v>
       </c>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB12" s="53">
+        <v>3</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>50</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF12" s="7">
+        <v>50</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH12" s="53">
+        <v>50</v>
+      </c>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL12" s="7">
+        <v>30</v>
+      </c>
+      <c r="BM12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN12" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -3072,8 +3628,54 @@
       <c r="AV13" s="53">
         <v>30</v>
       </c>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>100</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="53">
+        <v>100</v>
+      </c>
+      <c r="BC13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD13" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="7">
+        <v>200</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH13" s="53">
+        <v>200</v>
+      </c>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL13" s="7">
+        <v>10</v>
+      </c>
+      <c r="BM13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN13" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -3218,8 +3820,54 @@
       <c r="AV14" s="53">
         <v>100</v>
       </c>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>30</v>
+      </c>
+      <c r="BA14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="53">
+        <v>30</v>
+      </c>
+      <c r="BC14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>100</v>
+      </c>
+      <c r="BE14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF14" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH14" s="53">
+        <v>3</v>
+      </c>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL14" s="7">
+        <v>50</v>
+      </c>
+      <c r="BM14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN14" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
@@ -3364,8 +4012,54 @@
       <c r="AV15" s="54">
         <v>3</v>
       </c>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ15" s="6">
+        <v>50</v>
+      </c>
+      <c r="BA15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB15" s="54">
+        <v>50</v>
+      </c>
+      <c r="BC15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD15" s="6">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF15" s="6">
+        <v>100</v>
+      </c>
+      <c r="BG15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH15" s="54">
+        <v>100</v>
+      </c>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL15" s="6">
+        <v>3</v>
+      </c>
+      <c r="BM15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN15" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
@@ -3510,8 +4204,54 @@
       <c r="AV16" s="53">
         <v>100</v>
       </c>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ16" s="11">
+        <v>200</v>
+      </c>
+      <c r="BA16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>200</v>
+      </c>
+      <c r="BC16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="11">
+        <v>100</v>
+      </c>
+      <c r="BE16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF16" s="11">
+        <v>100</v>
+      </c>
+      <c r="BG16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL16" s="11">
+        <v>3</v>
+      </c>
+      <c r="BM16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -3656,8 +4396,54 @@
       <c r="AV17" s="53">
         <v>30</v>
       </c>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB17" s="53">
+        <v>3</v>
+      </c>
+      <c r="BC17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>200</v>
+      </c>
+      <c r="BE17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF17" s="7">
+        <v>50</v>
+      </c>
+      <c r="BG17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH17" s="53">
+        <v>50</v>
+      </c>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL17" s="7">
+        <v>30</v>
+      </c>
+      <c r="BM17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN17" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
@@ -3802,8 +4588,54 @@
       <c r="AV18" s="53">
         <v>10</v>
       </c>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>50</v>
+      </c>
+      <c r="BA18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB18" s="53">
+        <v>50</v>
+      </c>
+      <c r="BC18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>30</v>
+      </c>
+      <c r="BE18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF18" s="7">
+        <v>200</v>
+      </c>
+      <c r="BG18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH18" s="53">
+        <v>200</v>
+      </c>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL18" s="7">
+        <v>50</v>
+      </c>
+      <c r="BM18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN18" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -3948,8 +4780,54 @@
       <c r="AV19" s="53">
         <v>200</v>
       </c>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>30</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="53">
+        <v>30</v>
+      </c>
+      <c r="BC19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF19" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH19" s="53">
+        <v>3</v>
+      </c>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL19" s="7">
+        <v>100</v>
+      </c>
+      <c r="BM19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN19" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
@@ -4094,8 +4972,54 @@
       <c r="AV20" s="53">
         <v>50</v>
       </c>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>100</v>
+      </c>
+      <c r="BA20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB20" s="53">
+        <v>100</v>
+      </c>
+      <c r="BC20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD20" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF20" s="7">
+        <v>30</v>
+      </c>
+      <c r="BG20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH20" s="53">
+        <v>30</v>
+      </c>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL20" s="7">
+        <v>200</v>
+      </c>
+      <c r="BM20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN20" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
@@ -4240,8 +5164,54 @@
       <c r="AV21" s="54">
         <v>3</v>
       </c>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ21" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB21" s="54">
+        <v>10</v>
+      </c>
+      <c r="BC21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD21" s="6">
+        <v>50</v>
+      </c>
+      <c r="BE21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF21" s="6">
+        <v>10</v>
+      </c>
+      <c r="BG21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH21" s="54">
+        <v>10</v>
+      </c>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL21" s="6">
+        <v>10</v>
+      </c>
+      <c r="BM21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN21" s="54">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
@@ -4386,8 +5356,54 @@
       <c r="AV22" s="53">
         <v>3</v>
       </c>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BA22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>50</v>
+      </c>
+      <c r="BC22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BE22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BG22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>50</v>
+      </c>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="11"/>
+      <c r="BK22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL22" s="11">
+        <v>3</v>
+      </c>
+      <c r="BM22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN22" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
@@ -4532,8 +5548,54 @@
       <c r="AV23" s="53">
         <v>50</v>
       </c>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ23" s="7">
+        <v>10</v>
+      </c>
+      <c r="BA23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB23" s="53">
+        <v>10</v>
+      </c>
+      <c r="BC23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="7">
+        <v>3</v>
+      </c>
+      <c r="BE23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF23" s="7">
+        <v>100</v>
+      </c>
+      <c r="BG23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH23" s="53">
+        <v>100</v>
+      </c>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL23" s="7">
+        <v>100</v>
+      </c>
+      <c r="BM23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN23" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
@@ -4678,8 +5740,54 @@
       <c r="AV24" s="53">
         <v>10</v>
       </c>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ24" s="7">
+        <v>100</v>
+      </c>
+      <c r="BA24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB24" s="53">
+        <v>100</v>
+      </c>
+      <c r="BC24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD24" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF24" s="7">
+        <v>200</v>
+      </c>
+      <c r="BG24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH24" s="53">
+        <v>200</v>
+      </c>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL24" s="7">
+        <v>200</v>
+      </c>
+      <c r="BM24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN24" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
@@ -4824,8 +5932,54 @@
       <c r="AV25" s="53">
         <v>200</v>
       </c>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ25" s="7">
+        <v>200</v>
+      </c>
+      <c r="BA25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB25" s="53">
+        <v>200</v>
+      </c>
+      <c r="BC25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD25" s="7">
+        <v>100</v>
+      </c>
+      <c r="BE25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF25" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH25" s="53">
+        <v>3</v>
+      </c>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL25" s="7">
+        <v>30</v>
+      </c>
+      <c r="BM25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN25" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>12</v>
       </c>
@@ -4970,8 +6124,54 @@
       <c r="AV26" s="53">
         <v>30</v>
       </c>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BA26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB26" s="53">
+        <v>30</v>
+      </c>
+      <c r="BC26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BE26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BG26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH26" s="53">
+        <v>30</v>
+      </c>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL26" s="7">
+        <v>50</v>
+      </c>
+      <c r="BM26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN26" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -5116,8 +6316,54 @@
       <c r="AV27" s="54">
         <v>100</v>
       </c>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ27" s="6">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB27" s="54">
+        <v>3</v>
+      </c>
+      <c r="BC27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD27" s="6">
+        <v>200</v>
+      </c>
+      <c r="BE27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF27" s="6">
+        <v>10</v>
+      </c>
+      <c r="BG27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH27" s="54">
+        <v>10</v>
+      </c>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL27" s="6">
+        <v>10</v>
+      </c>
+      <c r="BM27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN27" s="54">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
@@ -5262,8 +6508,54 @@
       <c r="AV28" s="53">
         <v>10</v>
       </c>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ28" s="11">
+        <v>10</v>
+      </c>
+      <c r="BA28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>10</v>
+      </c>
+      <c r="BC28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD28" s="11">
+        <v>100</v>
+      </c>
+      <c r="BE28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF28" s="11">
+        <v>30</v>
+      </c>
+      <c r="BG28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH28" s="3">
+        <v>30</v>
+      </c>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL28" s="11">
+        <v>3</v>
+      </c>
+      <c r="BM28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN28" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
@@ -5408,8 +6700,54 @@
       <c r="AV29" s="53">
         <v>100</v>
       </c>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ29" s="7">
+        <v>200</v>
+      </c>
+      <c r="BA29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB29" s="53">
+        <v>200</v>
+      </c>
+      <c r="BC29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD29" s="7">
+        <v>50</v>
+      </c>
+      <c r="BE29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF29" s="7">
+        <v>10</v>
+      </c>
+      <c r="BG29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH29" s="53">
+        <v>10</v>
+      </c>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL29" s="7">
+        <v>30</v>
+      </c>
+      <c r="BM29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN29" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>2</v>
       </c>
@@ -5554,8 +6892,54 @@
       <c r="AV30" s="53">
         <v>30</v>
       </c>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ30" s="7">
+        <v>50</v>
+      </c>
+      <c r="BA30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB30" s="53">
+        <v>50</v>
+      </c>
+      <c r="BC30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD30" s="7">
+        <v>30</v>
+      </c>
+      <c r="BE30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF30" s="7">
+        <v>100</v>
+      </c>
+      <c r="BG30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH30" s="53">
+        <v>100</v>
+      </c>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL30" s="7">
+        <v>10</v>
+      </c>
+      <c r="BM30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN30" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>11</v>
       </c>
@@ -5700,8 +7084,54 @@
       <c r="AV31" s="53">
         <v>200</v>
       </c>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>30</v>
+      </c>
+      <c r="BA31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB31" s="53">
+        <v>30</v>
+      </c>
+      <c r="BC31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD31" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF31" s="7">
+        <v>50</v>
+      </c>
+      <c r="BG31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH31" s="53">
+        <v>50</v>
+      </c>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL31" s="7">
+        <v>100</v>
+      </c>
+      <c r="BM31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN31" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
@@ -5846,8 +7276,54 @@
       <c r="AV32" s="53">
         <v>50</v>
       </c>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ32" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB32" s="53">
+        <v>3</v>
+      </c>
+      <c r="BC32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD32" s="7">
+        <v>200</v>
+      </c>
+      <c r="BE32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF32" s="7">
+        <v>3</v>
+      </c>
+      <c r="BG32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH32" s="53">
+        <v>3</v>
+      </c>
+      <c r="BI32" s="8"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL32" s="7">
+        <v>50</v>
+      </c>
+      <c r="BM32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN32" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>2</v>
       </c>
@@ -5992,25 +7468,67 @@
       <c r="AV33" s="54">
         <v>3</v>
       </c>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ33" s="6">
+        <v>100</v>
+      </c>
+      <c r="BA33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB33" s="54">
+        <v>100</v>
+      </c>
+      <c r="BC33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD33" s="6">
+        <v>3</v>
+      </c>
+      <c r="BE33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF33" s="6">
+        <v>200</v>
+      </c>
+      <c r="BG33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH33" s="54">
+        <v>200</v>
+      </c>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="6"/>
+      <c r="BK33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL33" s="6">
+        <v>200</v>
+      </c>
+      <c r="BM33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN33" s="54">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
+  <mergeCells count="44">
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -6027,6 +7545,22 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6035,10 +7569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CB33"/>
+  <dimension ref="A1:DF33"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BS1" sqref="BS1:CB1"/>
+    <sheetView topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CW1" sqref="CW1:DF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,221 +7642,323 @@
     <col min="77" max="77" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="79" max="80" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="55" t="s">
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55" t="s">
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55" t="s">
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55" t="s">
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
-      <c r="CA1" s="55"/>
-      <c r="CB1" s="55"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56"/>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="56"/>
+      <c r="BY1" s="56"/>
+      <c r="BZ1" s="56"/>
+      <c r="CA1" s="56"/>
+      <c r="CB1" s="56"/>
+      <c r="CC1" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD1" s="56"/>
+      <c r="CE1" s="56"/>
+      <c r="CF1" s="56"/>
+      <c r="CG1" s="56"/>
+      <c r="CH1" s="56"/>
+      <c r="CI1" s="56"/>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
+      <c r="CU1" s="56"/>
+      <c r="CV1" s="56"/>
+      <c r="CW1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="CX1" s="56"/>
+      <c r="CY1" s="56"/>
+      <c r="CZ1" s="56"/>
+      <c r="DA1" s="56"/>
+      <c r="DB1" s="56"/>
+      <c r="DC1" s="56"/>
+      <c r="DD1" s="56"/>
+      <c r="DE1" s="56"/>
+      <c r="DF1" s="56"/>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="63" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="63" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65" t="s">
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="68" t="s">
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70" t="s">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="63" t="s">
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="63" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65" t="s">
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="63" t="s">
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="65" t="s">
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="66"/>
+      <c r="BN2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="66"/>
-      <c r="BS2" s="63" t="s">
+      <c r="BO2" s="66"/>
+      <c r="BP2" s="66"/>
+      <c r="BQ2" s="66"/>
+      <c r="BR2" s="67"/>
+      <c r="BS2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
-      <c r="BV2" s="64"/>
-      <c r="BW2" s="65"/>
-      <c r="BX2" s="65" t="s">
+      <c r="BT2" s="65"/>
+      <c r="BU2" s="65"/>
+      <c r="BV2" s="65"/>
+      <c r="BW2" s="66"/>
+      <c r="BX2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="BY2" s="65"/>
-      <c r="BZ2" s="65"/>
-      <c r="CA2" s="65"/>
-      <c r="CB2" s="66"/>
+      <c r="BY2" s="66"/>
+      <c r="BZ2" s="66"/>
+      <c r="CA2" s="66"/>
+      <c r="CB2" s="67"/>
+      <c r="CC2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD2" s="65"/>
+      <c r="CE2" s="65"/>
+      <c r="CF2" s="65"/>
+      <c r="CG2" s="66"/>
+      <c r="CH2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI2" s="66"/>
+      <c r="CJ2" s="66"/>
+      <c r="CK2" s="66"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN2" s="65"/>
+      <c r="CO2" s="65"/>
+      <c r="CP2" s="65"/>
+      <c r="CQ2" s="66"/>
+      <c r="CR2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="CS2" s="66"/>
+      <c r="CT2" s="66"/>
+      <c r="CU2" s="66"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX2" s="65"/>
+      <c r="CY2" s="65"/>
+      <c r="CZ2" s="65"/>
+      <c r="DA2" s="66"/>
+      <c r="DB2" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="DC2" s="66"/>
+      <c r="DD2" s="66"/>
+      <c r="DE2" s="66"/>
+      <c r="DF2" s="67"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -6563,8 +8199,98 @@
       <c r="CB3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="CC3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CH3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CM3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DB3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -6805,8 +8531,78 @@
       <c r="CB4" s="1">
         <v>0.65774305555555557</v>
       </c>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="21"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="21"/>
+      <c r="CG4" s="21"/>
+      <c r="CH4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="75">
+        <v>0.64121527777777776</v>
+      </c>
+      <c r="CJ4">
+        <v>30</v>
+      </c>
+      <c r="CK4" s="75">
+        <v>0.64113425925925926</v>
+      </c>
+      <c r="CL4" s="75">
+        <v>0.64118055555555553</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="75">
+        <v>0.69107638888888889</v>
+      </c>
+      <c r="CO4">
+        <v>200</v>
+      </c>
+      <c r="CP4" s="75">
+        <v>0.69092592592592583</v>
+      </c>
+      <c r="CQ4" s="75">
+        <v>0.69094907407407413</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS4" s="75">
+        <v>0.70443287037037028</v>
+      </c>
+      <c r="CT4">
+        <v>100</v>
+      </c>
+      <c r="CU4" s="75">
+        <v>0.70438657407407401</v>
+      </c>
+      <c r="CV4" s="75">
+        <v>0.7044097222222222</v>
+      </c>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="21"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="21"/>
+      <c r="DA4" s="21"/>
+      <c r="DB4" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC4" s="75">
+        <v>0.64054398148148151</v>
+      </c>
+      <c r="DD4">
+        <v>10</v>
+      </c>
+      <c r="DE4" s="75">
+        <v>0.64039351851851845</v>
+      </c>
+      <c r="DF4" s="75">
+        <v>0.64049768518518524</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -7047,8 +8843,78 @@
       <c r="CB5" s="1">
         <v>0.65803240740740743</v>
       </c>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="21"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="21"/>
+      <c r="CG5" s="21"/>
+      <c r="CH5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI5" s="75">
+        <v>0.64173611111111117</v>
+      </c>
+      <c r="CJ5">
+        <v>3</v>
+      </c>
+      <c r="CK5" s="75">
+        <v>0.64143518518518516</v>
+      </c>
+      <c r="CL5" s="75">
+        <v>0.64171296296296299</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN5" s="75">
+        <v>0.69126157407407407</v>
+      </c>
+      <c r="CO5">
+        <v>50</v>
+      </c>
+      <c r="CP5" s="75">
+        <v>0.69120370370370365</v>
+      </c>
+      <c r="CQ5" s="75">
+        <v>0.69123842592592588</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS5" s="75">
+        <v>0.7047337962962964</v>
+      </c>
+      <c r="CT5">
+        <v>30</v>
+      </c>
+      <c r="CU5" s="75">
+        <v>0.70466435185185183</v>
+      </c>
+      <c r="CV5" s="75">
+        <v>0.7047106481481481</v>
+      </c>
+      <c r="CW5" s="8"/>
+      <c r="CX5" s="21"/>
+      <c r="CY5" s="7"/>
+      <c r="CZ5" s="21"/>
+      <c r="DA5" s="21"/>
+      <c r="DB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC5" s="75">
+        <v>0.64081018518518518</v>
+      </c>
+      <c r="DD5">
+        <v>100</v>
+      </c>
+      <c r="DE5" s="75">
+        <v>0.64074074074074072</v>
+      </c>
+      <c r="DF5" s="75">
+        <v>0.64077546296296295</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -7289,8 +9155,78 @@
       <c r="CB6" s="1">
         <v>0.6582986111111111</v>
       </c>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="7"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="75">
+        <v>0.64209490740740738</v>
+      </c>
+      <c r="CJ6">
+        <v>10</v>
+      </c>
+      <c r="CK6" s="75">
+        <v>0.64195601851851858</v>
+      </c>
+      <c r="CL6" s="75">
+        <v>0.64206018518518515</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="75">
+        <v>0.69163194444444442</v>
+      </c>
+      <c r="CO6">
+        <v>10</v>
+      </c>
+      <c r="CP6" s="75">
+        <v>0.69148148148148147</v>
+      </c>
+      <c r="CQ6" s="75">
+        <v>0.69158564814814805</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS6" s="75">
+        <v>0.70508101851851857</v>
+      </c>
+      <c r="CT6">
+        <v>10</v>
+      </c>
+      <c r="CU6" s="75">
+        <v>0.7049537037037038</v>
+      </c>
+      <c r="CV6" s="75">
+        <v>0.70505787037037038</v>
+      </c>
+      <c r="CW6" s="8"/>
+      <c r="CX6" s="21"/>
+      <c r="CY6" s="7"/>
+      <c r="CZ6" s="21"/>
+      <c r="DA6" s="21"/>
+      <c r="DB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC6" s="75">
+        <v>0.64109953703703704</v>
+      </c>
+      <c r="DD6">
+        <v>200</v>
+      </c>
+      <c r="DE6" s="75">
+        <v>0.64101851851851854</v>
+      </c>
+      <c r="DF6" s="75">
+        <v>0.64104166666666662</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -7531,8 +9467,78 @@
       <c r="CB7" s="1">
         <v>0.65857638888888892</v>
       </c>
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="7"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI7" s="75">
+        <v>0.6423726851851852</v>
+      </c>
+      <c r="CJ7">
+        <v>100</v>
+      </c>
+      <c r="CK7" s="75">
+        <v>0.64230324074074074</v>
+      </c>
+      <c r="CL7" s="75">
+        <v>0.64233796296296297</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN7" s="75">
+        <v>0.6921180555555555</v>
+      </c>
+      <c r="CO7">
+        <v>3</v>
+      </c>
+      <c r="CP7" s="75">
+        <v>0.69182870370370375</v>
+      </c>
+      <c r="CQ7" s="75">
+        <v>0.69210648148148157</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS7" s="75">
+        <v>0.70557870370370368</v>
+      </c>
+      <c r="CT7">
+        <v>3</v>
+      </c>
+      <c r="CU7" s="75">
+        <v>0.70530092592592597</v>
+      </c>
+      <c r="CV7" s="75">
+        <v>0.70557870370370368</v>
+      </c>
+      <c r="CW7" s="8"/>
+      <c r="CX7" s="21"/>
+      <c r="CY7" s="7"/>
+      <c r="CZ7" s="21"/>
+      <c r="DA7" s="21"/>
+      <c r="DB7" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC7" s="75">
+        <v>0.64136574074074071</v>
+      </c>
+      <c r="DD7">
+        <v>30</v>
+      </c>
+      <c r="DE7" s="75">
+        <v>0.64129629629629636</v>
+      </c>
+      <c r="DF7" s="75">
+        <v>0.64134259259259263</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -7773,8 +9779,78 @@
       <c r="CB8" s="1">
         <v>0.65887731481481482</v>
       </c>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="21"/>
+      <c r="CE8" s="7"/>
+      <c r="CF8" s="21"/>
+      <c r="CG8" s="21"/>
+      <c r="CH8" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI8" s="75">
+        <v>0.64265046296296291</v>
+      </c>
+      <c r="CJ8">
+        <v>50</v>
+      </c>
+      <c r="CK8" s="75">
+        <v>0.64258101851851845</v>
+      </c>
+      <c r="CL8" s="75">
+        <v>0.64261574074074079</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN8" s="75">
+        <v>0.69244212962962959</v>
+      </c>
+      <c r="CO8">
+        <v>100</v>
+      </c>
+      <c r="CP8" s="75">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="CQ8" s="75">
+        <v>0.69238425925925917</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS8" s="75">
+        <v>0.70587962962962969</v>
+      </c>
+      <c r="CT8">
+        <v>200</v>
+      </c>
+      <c r="CU8" s="75">
+        <v>0.70583333333333342</v>
+      </c>
+      <c r="CV8" s="75">
+        <v>0.7058564814814815</v>
+      </c>
+      <c r="CW8" s="8"/>
+      <c r="CX8" s="21"/>
+      <c r="CY8" s="7"/>
+      <c r="CZ8" s="21"/>
+      <c r="DA8" s="21"/>
+      <c r="DB8" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC8" s="75">
+        <v>0.64164351851851853</v>
+      </c>
+      <c r="DD8">
+        <v>50</v>
+      </c>
+      <c r="DE8" s="75">
+        <v>0.64158564814814811</v>
+      </c>
+      <c r="DF8" s="75">
+        <v>0.64162037037037034</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -8015,8 +10091,78 @@
       <c r="CB9" s="1">
         <v>0.65939814814814812</v>
       </c>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="21"/>
+      <c r="CE9" s="7"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI9" s="75">
+        <v>0.64292824074074073</v>
+      </c>
+      <c r="CJ9">
+        <v>200</v>
+      </c>
+      <c r="CK9" s="75">
+        <v>0.64287037037037031</v>
+      </c>
+      <c r="CL9" s="75">
+        <v>0.6428935185185185</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>19</v>
+      </c>
+      <c r="CN9" s="75">
+        <v>0.69273148148148145</v>
+      </c>
+      <c r="CO9">
+        <v>30</v>
+      </c>
+      <c r="CP9" s="75">
+        <v>0.69263888888888892</v>
+      </c>
+      <c r="CQ9" s="75">
+        <v>0.69268518518518529</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS9" s="75">
+        <v>0.70616898148148144</v>
+      </c>
+      <c r="CT9">
+        <v>50</v>
+      </c>
+      <c r="CU9" s="75">
+        <v>0.70611111111111102</v>
+      </c>
+      <c r="CV9" s="75">
+        <v>0.70614583333333336</v>
+      </c>
+      <c r="CW9" s="8"/>
+      <c r="CX9" s="21"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="21"/>
+      <c r="DA9" s="21"/>
+      <c r="DB9" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC9" s="75">
+        <v>0.64218750000000002</v>
+      </c>
+      <c r="DD9">
+        <v>3</v>
+      </c>
+      <c r="DE9" s="75">
+        <v>0.64187499999999997</v>
+      </c>
+      <c r="DF9" s="75">
+        <v>0.64215277777777779</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -8257,8 +10403,78 @@
       <c r="CB10" s="1">
         <v>0.6597453703703704</v>
       </c>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="7"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI10" s="75">
+        <v>0.64325231481481482</v>
+      </c>
+      <c r="CJ10">
+        <v>10</v>
+      </c>
+      <c r="CK10" s="75">
+        <v>0.64314814814814814</v>
+      </c>
+      <c r="CL10" s="75">
+        <v>0.64324074074074067</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CN10" s="75">
+        <v>0.69299768518518512</v>
+      </c>
+      <c r="CO10">
+        <v>30</v>
+      </c>
+      <c r="CP10" s="75">
+        <v>0.69293981481481481</v>
+      </c>
+      <c r="CQ10" s="75">
+        <v>0.69297453703703704</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS10" s="75">
+        <v>0.70650462962962957</v>
+      </c>
+      <c r="CT10">
+        <v>10</v>
+      </c>
+      <c r="CU10" s="75">
+        <v>0.70638888888888884</v>
+      </c>
+      <c r="CV10" s="75">
+        <v>0.70649305555555564</v>
+      </c>
+      <c r="CW10" s="8"/>
+      <c r="CX10" s="21"/>
+      <c r="CY10" s="7"/>
+      <c r="CZ10" s="21"/>
+      <c r="DA10" s="21"/>
+      <c r="DB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC10" s="75">
+        <v>0.64246527777777784</v>
+      </c>
+      <c r="DD10">
+        <v>100</v>
+      </c>
+      <c r="DE10" s="75">
+        <v>0.64240740740740743</v>
+      </c>
+      <c r="DF10" s="75">
+        <v>0.6424305555555555</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -8499,8 +10715,78 @@
       <c r="CB11" s="1">
         <v>0.66002314814814811</v>
       </c>
+      <c r="CC11" s="8"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="7"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI11" s="75">
+        <v>0.64355324074074072</v>
+      </c>
+      <c r="CJ11">
+        <v>200</v>
+      </c>
+      <c r="CK11" s="75">
+        <v>0.64349537037037041</v>
+      </c>
+      <c r="CL11" s="75">
+        <v>0.64350694444444445</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN11" s="75">
+        <v>0.69328703703703709</v>
+      </c>
+      <c r="CO11">
+        <v>200</v>
+      </c>
+      <c r="CP11" s="75">
+        <v>0.69322916666666667</v>
+      </c>
+      <c r="CQ11" s="75">
+        <v>0.69325231481481486</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS11" s="75">
+        <v>0.70680555555555558</v>
+      </c>
+      <c r="CT11">
+        <v>30</v>
+      </c>
+      <c r="CU11" s="75">
+        <v>0.70673611111111112</v>
+      </c>
+      <c r="CV11" s="75">
+        <v>0.70678240740740739</v>
+      </c>
+      <c r="CW11" s="8"/>
+      <c r="CX11" s="21"/>
+      <c r="CY11" s="7"/>
+      <c r="CZ11" s="21"/>
+      <c r="DA11" s="21"/>
+      <c r="DB11" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC11" s="75">
+        <v>0.64274305555555555</v>
+      </c>
+      <c r="DD11">
+        <v>200</v>
+      </c>
+      <c r="DE11" s="75">
+        <v>0.64268518518518525</v>
+      </c>
+      <c r="DF11" s="75">
+        <v>0.64270833333333333</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
@@ -8741,8 +11027,78 @@
       <c r="CB12" s="1">
         <v>0.66030092592592593</v>
       </c>
+      <c r="CC12" s="8"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI12" s="75">
+        <v>0.64407407407407413</v>
+      </c>
+      <c r="CJ12">
+        <v>3</v>
+      </c>
+      <c r="CK12" s="75">
+        <v>0.64376157407407408</v>
+      </c>
+      <c r="CL12" s="75">
+        <v>0.64403935185185179</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN12" s="75">
+        <v>0.69356481481481491</v>
+      </c>
+      <c r="CO12">
+        <v>50</v>
+      </c>
+      <c r="CP12" s="75">
+        <v>0.6935069444444445</v>
+      </c>
+      <c r="CQ12" s="75">
+        <v>0.69354166666666661</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS12" s="75">
+        <v>0.70710648148148147</v>
+      </c>
+      <c r="CT12">
+        <v>50</v>
+      </c>
+      <c r="CU12" s="75">
+        <v>0.70703703703703702</v>
+      </c>
+      <c r="CV12" s="75">
+        <v>0.70707175925925936</v>
+      </c>
+      <c r="CW12" s="8"/>
+      <c r="CX12" s="21"/>
+      <c r="CY12" s="7"/>
+      <c r="CZ12" s="21"/>
+      <c r="DA12" s="21"/>
+      <c r="DB12" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC12" s="75">
+        <v>0.64303240740740741</v>
+      </c>
+      <c r="DD12">
+        <v>30</v>
+      </c>
+      <c r="DE12" s="75">
+        <v>0.64295138888888892</v>
+      </c>
+      <c r="DF12" s="75">
+        <v>0.64299768518518519</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -8983,8 +11339,78 @@
       <c r="CB13" s="1">
         <v>0.66060185185185183</v>
       </c>
+      <c r="CC13" s="8"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="21"/>
+      <c r="CG13" s="21"/>
+      <c r="CH13" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI13" s="75">
+        <v>0.64435185185185184</v>
+      </c>
+      <c r="CJ13">
+        <v>100</v>
+      </c>
+      <c r="CK13" s="75">
+        <v>0.64429398148148154</v>
+      </c>
+      <c r="CL13" s="75">
+        <v>0.64431712962962961</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>37</v>
+      </c>
+      <c r="CN13" s="75">
+        <v>0.69390046296296293</v>
+      </c>
+      <c r="CO13">
+        <v>10</v>
+      </c>
+      <c r="CP13" s="75">
+        <v>0.69378472222222232</v>
+      </c>
+      <c r="CQ13" s="75">
+        <v>0.69388888888888889</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS13" s="75">
+        <v>0.70736111111111111</v>
+      </c>
+      <c r="CT13">
+        <v>200</v>
+      </c>
+      <c r="CU13" s="75">
+        <v>0.70732638888888888</v>
+      </c>
+      <c r="CV13" s="75">
+        <v>0.70733796296296303</v>
+      </c>
+      <c r="CW13" s="8"/>
+      <c r="CX13" s="21"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="21"/>
+      <c r="DA13" s="21"/>
+      <c r="DB13" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC13" s="75">
+        <v>0.64339120370370373</v>
+      </c>
+      <c r="DD13">
+        <v>10</v>
+      </c>
+      <c r="DE13" s="75">
+        <v>0.64325231481481482</v>
+      </c>
+      <c r="DF13" s="75">
+        <v>0.64334490740740746</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -9225,8 +11651,78 @@
       <c r="CB14" s="1">
         <v>0.66087962962962965</v>
       </c>
+      <c r="CC14" s="8"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI14" s="75">
+        <v>0.6446412037037037</v>
+      </c>
+      <c r="CJ14">
+        <v>30</v>
+      </c>
+      <c r="CK14" s="75">
+        <v>0.64457175925925925</v>
+      </c>
+      <c r="CL14" s="75">
+        <v>0.64461805555555551</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN14" s="75">
+        <v>0.69420138888888883</v>
+      </c>
+      <c r="CO14">
+        <v>100</v>
+      </c>
+      <c r="CP14" s="75">
+        <v>0.69413194444444448</v>
+      </c>
+      <c r="CQ14" s="75">
+        <v>0.69416666666666671</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS14" s="75">
+        <v>0.70771990740740742</v>
+      </c>
+      <c r="CT14">
+        <v>3</v>
+      </c>
+      <c r="CU14" s="75">
+        <v>0.70759259259259266</v>
+      </c>
+      <c r="CV14" s="75">
+        <v>0.70787037037037026</v>
+      </c>
+      <c r="CW14" s="8"/>
+      <c r="CX14" s="21"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="21"/>
+      <c r="DA14" s="21"/>
+      <c r="DB14" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC14" s="75">
+        <v>0.6436574074074074</v>
+      </c>
+      <c r="DD14">
+        <v>50</v>
+      </c>
+      <c r="DE14" s="75">
+        <v>0.64359953703703698</v>
+      </c>
+      <c r="DF14" s="75">
+        <v>0.64363425925925932</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -9467,8 +11963,78 @@
       <c r="CB15" s="1">
         <v>0.66141203703703699</v>
       </c>
+      <c r="CC15" s="8"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="7"/>
+      <c r="CF15" s="21"/>
+      <c r="CG15" s="21"/>
+      <c r="CH15" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI15" s="75">
+        <v>0.64493055555555556</v>
+      </c>
+      <c r="CJ15">
+        <v>50</v>
+      </c>
+      <c r="CK15" s="75">
+        <v>0.64486111111111111</v>
+      </c>
+      <c r="CL15" s="75">
+        <v>0.64489583333333333</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN15" s="75">
+        <v>0.69469907407407405</v>
+      </c>
+      <c r="CO15">
+        <v>3</v>
+      </c>
+      <c r="CP15" s="75">
+        <v>0.69440972222222219</v>
+      </c>
+      <c r="CQ15" s="75">
+        <v>0.69468750000000001</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS15" s="75">
+        <v>0.70817129629629638</v>
+      </c>
+      <c r="CT15">
+        <v>100</v>
+      </c>
+      <c r="CU15" s="75">
+        <v>0.708125</v>
+      </c>
+      <c r="CV15" s="75">
+        <v>0.70814814814814808</v>
+      </c>
+      <c r="CW15" s="8"/>
+      <c r="CX15" s="21"/>
+      <c r="CY15" s="7"/>
+      <c r="CZ15" s="21"/>
+      <c r="DA15" s="21"/>
+      <c r="DB15" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC15" s="75">
+        <v>0.64420138888888889</v>
+      </c>
+      <c r="DD15">
+        <v>3</v>
+      </c>
+      <c r="DE15" s="75">
+        <v>0.64387731481481481</v>
+      </c>
+      <c r="DF15" s="75">
+        <v>0.64416666666666667</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -9709,8 +12275,78 @@
       <c r="CB16" s="1">
         <v>0.66167824074074078</v>
       </c>
+      <c r="CC16" s="8"/>
+      <c r="CD16" s="21"/>
+      <c r="CE16" s="7"/>
+      <c r="CF16" s="21"/>
+      <c r="CG16" s="21"/>
+      <c r="CH16" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI16" s="75">
+        <v>0.64521990740740742</v>
+      </c>
+      <c r="CJ16">
+        <v>200</v>
+      </c>
+      <c r="CK16" s="75">
+        <v>0.64515046296296297</v>
+      </c>
+      <c r="CL16" s="75">
+        <v>0.64517361111111116</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN16" s="75">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="CO16">
+        <v>100</v>
+      </c>
+      <c r="CP16" s="75">
+        <v>0.69494212962962953</v>
+      </c>
+      <c r="CQ16" s="75">
+        <v>0.69496527777777783</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS16" s="75">
+        <v>0.70846064814814813</v>
+      </c>
+      <c r="CT16">
+        <v>100</v>
+      </c>
+      <c r="CU16" s="75">
+        <v>0.70840277777777771</v>
+      </c>
+      <c r="CV16" s="75">
+        <v>0.7084259259259259</v>
+      </c>
+      <c r="CW16" s="8"/>
+      <c r="CX16" s="21"/>
+      <c r="CY16" s="7"/>
+      <c r="CZ16" s="21"/>
+      <c r="DA16" s="21"/>
+      <c r="DB16" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC16" s="75">
+        <v>0.6447222222222222</v>
+      </c>
+      <c r="DD16">
+        <v>3</v>
+      </c>
+      <c r="DE16" s="75">
+        <v>0.64440972222222215</v>
+      </c>
+      <c r="DF16" s="75">
+        <v>0.64468749999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -9951,8 +12587,78 @@
       <c r="CB17" s="1">
         <v>0.66197916666666667</v>
       </c>
+      <c r="CC17" s="8"/>
+      <c r="CD17" s="21"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="21"/>
+      <c r="CG17" s="21"/>
+      <c r="CH17" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI17" s="75">
+        <v>0.64572916666666669</v>
+      </c>
+      <c r="CJ17">
+        <v>3</v>
+      </c>
+      <c r="CK17" s="75">
+        <v>0.64542824074074068</v>
+      </c>
+      <c r="CL17" s="75">
+        <v>0.6457060185185185</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN17" s="75">
+        <v>0.69528935185185192</v>
+      </c>
+      <c r="CO17">
+        <v>200</v>
+      </c>
+      <c r="CP17" s="75">
+        <v>0.69521990740740736</v>
+      </c>
+      <c r="CQ17" s="75">
+        <v>0.69524305555555566</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS17" s="75">
+        <v>0.7087268518518518</v>
+      </c>
+      <c r="CT17">
+        <v>50</v>
+      </c>
+      <c r="CU17" s="75">
+        <v>0.70868055555555554</v>
+      </c>
+      <c r="CV17" s="75">
+        <v>0.70871527777777776</v>
+      </c>
+      <c r="CW17" s="8"/>
+      <c r="CX17" s="21"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="21"/>
+      <c r="DA17" s="21"/>
+      <c r="DB17" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC17" s="75">
+        <v>0.64501157407407406</v>
+      </c>
+      <c r="DD17">
+        <v>30</v>
+      </c>
+      <c r="DE17" s="75">
+        <v>0.6449421296296296</v>
+      </c>
+      <c r="DF17" s="75">
+        <v>0.64498842592592587</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -10193,8 +12899,78 @@
       <c r="CB18" s="1">
         <v>0.66232638888888895</v>
       </c>
+      <c r="CC18" s="8"/>
+      <c r="CD18" s="21"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="21"/>
+      <c r="CG18" s="21"/>
+      <c r="CH18" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI18" s="75">
+        <v>0.64603009259259259</v>
+      </c>
+      <c r="CJ18">
+        <v>50</v>
+      </c>
+      <c r="CK18" s="75">
+        <v>0.64594907407407409</v>
+      </c>
+      <c r="CL18" s="75">
+        <v>0.64598379629629632</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN18" s="75">
+        <v>0.69555555555555559</v>
+      </c>
+      <c r="CO18">
+        <v>30</v>
+      </c>
+      <c r="CP18" s="75">
+        <v>0.69549768518518518</v>
+      </c>
+      <c r="CQ18" s="75">
+        <v>0.69554398148148155</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS18" s="75">
+        <v>0.70901620370370377</v>
+      </c>
+      <c r="CT18">
+        <v>200</v>
+      </c>
+      <c r="CU18" s="75">
+        <v>0.70896990740740751</v>
+      </c>
+      <c r="CV18" s="75">
+        <v>0.70898148148148143</v>
+      </c>
+      <c r="CW18" s="8"/>
+      <c r="CX18" s="21"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="21"/>
+      <c r="DA18" s="21"/>
+      <c r="DB18" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC18" s="75">
+        <v>0.64530092592592592</v>
+      </c>
+      <c r="DD18">
+        <v>50</v>
+      </c>
+      <c r="DE18" s="75">
+        <v>0.64523148148148146</v>
+      </c>
+      <c r="DF18" s="75">
+        <v>0.64526620370370369</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -10435,8 +13211,78 @@
       <c r="CB19" s="1">
         <v>0.66259259259259262</v>
       </c>
+      <c r="CC19" s="8"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI19" s="75">
+        <v>0.64631944444444445</v>
+      </c>
+      <c r="CJ19">
+        <v>30</v>
+      </c>
+      <c r="CK19" s="75">
+        <v>0.64623842592592595</v>
+      </c>
+      <c r="CL19" s="75">
+        <v>0.64628472222222222</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN19" s="75">
+        <v>0.69592592592592595</v>
+      </c>
+      <c r="CO19">
+        <v>10</v>
+      </c>
+      <c r="CP19" s="75">
+        <v>0.69578703703703704</v>
+      </c>
+      <c r="CQ19" s="75">
+        <v>0.69589120370370372</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS19" s="75">
+        <v>0.70952546296296293</v>
+      </c>
+      <c r="CT19">
+        <v>3</v>
+      </c>
+      <c r="CU19" s="75">
+        <v>0.70923611111111118</v>
+      </c>
+      <c r="CV19" s="75">
+        <v>0.70951388888888889</v>
+      </c>
+      <c r="CW19" s="8"/>
+      <c r="CX19" s="21"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="21"/>
+      <c r="DA19" s="21"/>
+      <c r="DB19" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC19" s="75">
+        <v>0.64557870370370374</v>
+      </c>
+      <c r="DD19">
+        <v>100</v>
+      </c>
+      <c r="DE19" s="75">
+        <v>0.64552083333333332</v>
+      </c>
+      <c r="DF19" s="75">
+        <v>0.64554398148148151</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -10677,8 +13523,78 @@
       <c r="CB20" s="1">
         <v>0.66288194444444437</v>
       </c>
+      <c r="CC20" s="8"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI20" s="75">
+        <v>0.64659722222222216</v>
+      </c>
+      <c r="CJ20">
+        <v>100</v>
+      </c>
+      <c r="CK20" s="75">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="CL20" s="75">
+        <v>0.64656250000000004</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN20" s="75">
+        <v>0.69609953703703698</v>
+      </c>
+      <c r="CO20">
+        <v>3</v>
+      </c>
+      <c r="CP20" s="75">
+        <v>0.6961342592592592</v>
+      </c>
+      <c r="CQ20" s="75">
+        <v>0.69641203703703702</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS20" s="75">
+        <v>0.70982638888888883</v>
+      </c>
+      <c r="CT20">
+        <v>30</v>
+      </c>
+      <c r="CU20" s="75">
+        <v>0.70976851851851841</v>
+      </c>
+      <c r="CV20" s="75">
+        <v>0.70981481481481479</v>
+      </c>
+      <c r="CW20" s="8"/>
+      <c r="CX20" s="21"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="21"/>
+      <c r="DA20" s="21"/>
+      <c r="DB20" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC20" s="75">
+        <v>0.64587962962962964</v>
+      </c>
+      <c r="DD20">
+        <v>200</v>
+      </c>
+      <c r="DE20" s="75">
+        <v>0.64579861111111114</v>
+      </c>
+      <c r="DF20" s="75">
+        <v>0.64582175925925933</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
@@ -10919,8 +13835,78 @@
       <c r="CB21" s="1">
         <v>0.66341435185185182</v>
       </c>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="21"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="21"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI21" s="75">
+        <v>0.64693287037037039</v>
+      </c>
+      <c r="CJ21">
+        <v>10</v>
+      </c>
+      <c r="CK21" s="75">
+        <v>0.64680555555555552</v>
+      </c>
+      <c r="CL21" s="75">
+        <v>0.64690972222222221</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN21" s="75">
+        <v>0.6963773148148148</v>
+      </c>
+      <c r="CO21">
+        <v>50</v>
+      </c>
+      <c r="CP21" s="75">
+        <v>0.69666666666666666</v>
+      </c>
+      <c r="CQ21" s="75">
+        <v>0.69670138888888899</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS21" s="75">
+        <v>0.71018518518518514</v>
+      </c>
+      <c r="CT21">
+        <v>10</v>
+      </c>
+      <c r="CU21" s="75">
+        <v>0.71005787037037038</v>
+      </c>
+      <c r="CV21" s="75">
+        <v>0.71016203703703706</v>
+      </c>
+      <c r="CW21" s="8"/>
+      <c r="CX21" s="21"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="21"/>
+      <c r="DA21" s="21"/>
+      <c r="DB21" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC21" s="75">
+        <v>0.64619212962962969</v>
+      </c>
+      <c r="DD21">
+        <v>10</v>
+      </c>
+      <c r="DE21" s="75">
+        <v>0.64607638888888885</v>
+      </c>
+      <c r="DF21" s="75">
+        <v>0.6461689814814815</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
@@ -11161,8 +14147,78 @@
       <c r="CB22" s="1">
         <v>0.66393518518518524</v>
       </c>
+      <c r="CC22" s="8"/>
+      <c r="CD22" s="21"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="21"/>
+      <c r="CG22" s="21"/>
+      <c r="CH22" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI22" s="75">
+        <v>0.64723379629629629</v>
+      </c>
+      <c r="CJ22">
+        <v>50</v>
+      </c>
+      <c r="CK22" s="75">
+        <v>0.6471527777777778</v>
+      </c>
+      <c r="CL22" s="75">
+        <v>0.64718750000000003</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN22" s="75">
+        <v>0.69672453703703707</v>
+      </c>
+      <c r="CO22">
+        <v>50</v>
+      </c>
+      <c r="CP22" s="75">
+        <v>0.69695601851851852</v>
+      </c>
+      <c r="CQ22" s="75">
+        <v>0.69699074074074074</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS22" s="75">
+        <v>0.71046296296296296</v>
+      </c>
+      <c r="CT22">
+        <v>50</v>
+      </c>
+      <c r="CU22" s="75">
+        <v>0.71040509259259255</v>
+      </c>
+      <c r="CV22" s="75">
+        <v>0.71043981481481477</v>
+      </c>
+      <c r="CW22" s="8"/>
+      <c r="CX22" s="21"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="21"/>
+      <c r="DA22" s="21"/>
+      <c r="DB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC22" s="75">
+        <v>0.64671296296296299</v>
+      </c>
+      <c r="DD22">
+        <v>3</v>
+      </c>
+      <c r="DE22" s="75">
+        <v>0.64642361111111113</v>
+      </c>
+      <c r="DF22" s="75">
+        <v>0.64670138888888895</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -11403,8 +14459,78 @@
       <c r="CB23" s="1">
         <v>0.6642245370370371</v>
       </c>
+      <c r="CC23" s="8"/>
+      <c r="CD23" s="21"/>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="21"/>
+      <c r="CG23" s="21"/>
+      <c r="CH23" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI23" s="75">
+        <v>0.64758101851851857</v>
+      </c>
+      <c r="CJ23">
+        <v>10</v>
+      </c>
+      <c r="CK23" s="75">
+        <v>0.64744212962962966</v>
+      </c>
+      <c r="CL23" s="75">
+        <v>0.64753472222222219</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN23" s="75">
+        <v>0.69701388888888882</v>
+      </c>
+      <c r="CO23">
+        <v>3</v>
+      </c>
+      <c r="CP23" s="75">
+        <v>0.69723379629629623</v>
+      </c>
+      <c r="CQ23" s="75">
+        <v>0.69751157407407405</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS23" s="75">
+        <v>0.71075231481481482</v>
+      </c>
+      <c r="CT23">
+        <v>100</v>
+      </c>
+      <c r="CU23" s="75">
+        <v>0.71069444444444452</v>
+      </c>
+      <c r="CV23" s="75">
+        <v>0.7107175925925926</v>
+      </c>
+      <c r="CW23" s="8"/>
+      <c r="CX23" s="21"/>
+      <c r="CY23" s="7"/>
+      <c r="CZ23" s="21"/>
+      <c r="DA23" s="21"/>
+      <c r="DB23" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC23" s="75">
+        <v>0.64703703703703697</v>
+      </c>
+      <c r="DD23">
+        <v>100</v>
+      </c>
+      <c r="DE23" s="75">
+        <v>0.64694444444444443</v>
+      </c>
+      <c r="DF23" s="75">
+        <v>0.64697916666666666</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
@@ -11645,8 +14771,78 @@
       <c r="CB24" s="1">
         <v>0.66457175925925926</v>
       </c>
+      <c r="CC24" s="8"/>
+      <c r="CD24" s="21"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI24" s="75">
+        <v>0.64785879629629628</v>
+      </c>
+      <c r="CJ24">
+        <v>100</v>
+      </c>
+      <c r="CK24" s="75">
+        <v>0.64778935185185182</v>
+      </c>
+      <c r="CL24" s="75">
+        <v>0.64781250000000001</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN24" s="75">
+        <v>0.69738425925925929</v>
+      </c>
+      <c r="CO24">
+        <v>10</v>
+      </c>
+      <c r="CP24" s="75">
+        <v>0.69776620370370368</v>
+      </c>
+      <c r="CQ24" s="75">
+        <v>0.69787037037037036</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS24" s="75">
+        <v>0.71103009259259264</v>
+      </c>
+      <c r="CT24">
+        <v>200</v>
+      </c>
+      <c r="CU24" s="75">
+        <v>0.71097222222222223</v>
+      </c>
+      <c r="CV24" s="75">
+        <v>0.71099537037037042</v>
+      </c>
+      <c r="CW24" s="8"/>
+      <c r="CX24" s="21"/>
+      <c r="CY24" s="7"/>
+      <c r="CZ24" s="21"/>
+      <c r="DA24" s="21"/>
+      <c r="DB24" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC24" s="75">
+        <v>0.64730324074074075</v>
+      </c>
+      <c r="DD24">
+        <v>200</v>
+      </c>
+      <c r="DE24" s="75">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="DF24" s="75">
+        <v>0.64724537037037033</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -11887,8 +15083,78 @@
       <c r="CB25" s="1">
         <v>0.66483796296296294</v>
       </c>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI25" s="75">
+        <v>0.6481365740740741</v>
+      </c>
+      <c r="CJ25">
+        <v>200</v>
+      </c>
+      <c r="CK25" s="75">
+        <v>0.64806712962962965</v>
+      </c>
+      <c r="CL25" s="75">
+        <v>0.64809027777777783</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN25" s="75">
+        <v>0.69789351851851855</v>
+      </c>
+      <c r="CO25">
+        <v>100</v>
+      </c>
+      <c r="CP25" s="75">
+        <v>0.69811342592592596</v>
+      </c>
+      <c r="CQ25" s="75">
+        <v>0.69813657407407403</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS25" s="75">
+        <v>0.71148148148148149</v>
+      </c>
+      <c r="CT25">
+        <v>3</v>
+      </c>
+      <c r="CU25" s="75">
+        <v>0.71125000000000005</v>
+      </c>
+      <c r="CV25" s="75">
+        <v>0.71152777777777787</v>
+      </c>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="21"/>
+      <c r="CY25" s="7"/>
+      <c r="CZ25" s="21"/>
+      <c r="DA25" s="21"/>
+      <c r="DB25" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC25" s="75">
+        <v>0.64758101851851857</v>
+      </c>
+      <c r="DD25">
+        <v>30</v>
+      </c>
+      <c r="DE25" s="75">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="DF25" s="75">
+        <v>0.64754629629629623</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>12</v>
       </c>
@@ -12129,8 +15395,78 @@
       <c r="CB26" s="1">
         <v>0.66513888888888884</v>
       </c>
+      <c r="CC26" s="8"/>
+      <c r="CD26" s="21"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="21"/>
+      <c r="CG26" s="21"/>
+      <c r="CH26" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI26" s="75">
+        <v>0.64841435185185181</v>
+      </c>
+      <c r="CJ26">
+        <v>30</v>
+      </c>
+      <c r="CK26" s="75">
+        <v>0.64834490740740736</v>
+      </c>
+      <c r="CL26" s="75">
+        <v>0.64837962962962969</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN26" s="75">
+        <v>0.69821759259259253</v>
+      </c>
+      <c r="CO26">
+        <v>30</v>
+      </c>
+      <c r="CP26" s="75">
+        <v>0.69839120370370367</v>
+      </c>
+      <c r="CQ26" s="75">
+        <v>0.69843749999999993</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS26" s="75">
+        <v>0.71184027777777781</v>
+      </c>
+      <c r="CT26">
+        <v>30</v>
+      </c>
+      <c r="CU26" s="75">
+        <v>0.71177083333333335</v>
+      </c>
+      <c r="CV26" s="75">
+        <v>0.71181712962962962</v>
+      </c>
+      <c r="CW26" s="8"/>
+      <c r="CX26" s="21"/>
+      <c r="CY26" s="7"/>
+      <c r="CZ26" s="21"/>
+      <c r="DA26" s="21"/>
+      <c r="DB26" t="s">
+        <v>20</v>
+      </c>
+      <c r="DC26" s="75">
+        <v>0.64784722222222224</v>
+      </c>
+      <c r="DD26">
+        <v>50</v>
+      </c>
+      <c r="DE26" s="75">
+        <v>0.64778935185185182</v>
+      </c>
+      <c r="DF26" s="75">
+        <v>0.64782407407407405</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
@@ -12371,8 +15707,78 @@
       <c r="CB27" s="1">
         <v>0.66541666666666666</v>
       </c>
+      <c r="CC27" s="8"/>
+      <c r="CD27" s="21"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="21"/>
+      <c r="CG27" s="21"/>
+      <c r="CH27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI27" s="75">
+        <v>0.64893518518518511</v>
+      </c>
+      <c r="CJ27">
+        <v>3</v>
+      </c>
+      <c r="CK27" s="75">
+        <v>0.64863425925925922</v>
+      </c>
+      <c r="CL27" s="75">
+        <v>0.64891203703703704</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN27" s="75">
+        <v>0.69848379629629631</v>
+      </c>
+      <c r="CO27">
+        <v>200</v>
+      </c>
+      <c r="CP27" s="75">
+        <v>0.69869212962962957</v>
+      </c>
+      <c r="CQ27" s="75">
+        <v>0.69871527777777775</v>
+      </c>
+      <c r="CR27" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS27" s="75">
+        <v>0.7122222222222222</v>
+      </c>
+      <c r="CT27">
+        <v>10</v>
+      </c>
+      <c r="CU27" s="75">
+        <v>0.71207175925925925</v>
+      </c>
+      <c r="CV27" s="75">
+        <v>0.71216435185185178</v>
+      </c>
+      <c r="CW27" s="8"/>
+      <c r="CX27" s="21"/>
+      <c r="CY27" s="7"/>
+      <c r="CZ27" s="21"/>
+      <c r="DA27" s="21"/>
+      <c r="DB27" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC27" s="75">
+        <v>0.64819444444444441</v>
+      </c>
+      <c r="DD27">
+        <v>10</v>
+      </c>
+      <c r="DE27" s="75">
+        <v>0.64807870370370368</v>
+      </c>
+      <c r="DF27" s="75">
+        <v>0.64817129629629633</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>10</v>
       </c>
@@ -12613,8 +16019,78 @@
       <c r="CB28" s="1">
         <v>0.66576388888888893</v>
       </c>
+      <c r="CC28" s="8"/>
+      <c r="CD28" s="21"/>
+      <c r="CE28" s="7"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI28" s="75">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="CJ28">
+        <v>10</v>
+      </c>
+      <c r="CK28" s="75">
+        <v>0.64916666666666667</v>
+      </c>
+      <c r="CL28" s="75">
+        <v>0.64925925925925931</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN28" s="75">
+        <v>0.69873842592592583</v>
+      </c>
+      <c r="CO28">
+        <v>100</v>
+      </c>
+      <c r="CP28" s="75">
+        <v>0.69895833333333324</v>
+      </c>
+      <c r="CQ28" s="75">
+        <v>0.69899305555555558</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS28" s="75">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="CT28">
+        <v>30</v>
+      </c>
+      <c r="CU28" s="75">
+        <v>0.71241898148148142</v>
+      </c>
+      <c r="CV28" s="75">
+        <v>0.71246527777777768</v>
+      </c>
+      <c r="CW28" s="8"/>
+      <c r="CX28" s="21"/>
+      <c r="CY28" s="7"/>
+      <c r="CZ28" s="21"/>
+      <c r="DA28" s="21"/>
+      <c r="DB28" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC28" s="75">
+        <v>0.64872685185185186</v>
+      </c>
+      <c r="DD28">
+        <v>3</v>
+      </c>
+      <c r="DE28" s="75">
+        <v>0.64842592592592596</v>
+      </c>
+      <c r="DF28" s="75">
+        <v>0.64870370370370367</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
@@ -12855,8 +16331,78 @@
       <c r="CB29" s="1">
         <v>0.6660300925925926</v>
       </c>
+      <c r="CC29" s="8"/>
+      <c r="CD29" s="21"/>
+      <c r="CE29" s="7"/>
+      <c r="CF29" s="21"/>
+      <c r="CG29" s="21"/>
+      <c r="CH29" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI29" s="75">
+        <v>0.64957175925925925</v>
+      </c>
+      <c r="CJ29">
+        <v>200</v>
+      </c>
+      <c r="CK29" s="75">
+        <v>0.64951388888888884</v>
+      </c>
+      <c r="CL29" s="75">
+        <v>0.64953703703703702</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN29" s="75">
+        <v>0.69901620370370365</v>
+      </c>
+      <c r="CO29">
+        <v>50</v>
+      </c>
+      <c r="CP29" s="75">
+        <v>0.69923611111111106</v>
+      </c>
+      <c r="CQ29" s="75">
+        <v>0.69927083333333329</v>
+      </c>
+      <c r="CR29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS29" s="75">
+        <v>0.71285879629629623</v>
+      </c>
+      <c r="CT29">
+        <v>10</v>
+      </c>
+      <c r="CU29" s="75">
+        <v>0.71270833333333339</v>
+      </c>
+      <c r="CV29" s="75">
+        <v>0.71281250000000007</v>
+      </c>
+      <c r="CW29" s="8"/>
+      <c r="CX29" s="21"/>
+      <c r="CY29" s="7"/>
+      <c r="CZ29" s="21"/>
+      <c r="DA29" s="21"/>
+      <c r="DB29" t="s">
+        <v>20</v>
+      </c>
+      <c r="DC29" s="75">
+        <v>0.64902777777777776</v>
+      </c>
+      <c r="DD29">
+        <v>30</v>
+      </c>
+      <c r="DE29" s="75">
+        <v>0.6489583333333333</v>
+      </c>
+      <c r="DF29" s="75">
+        <v>0.64900462962962957</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
@@ -13097,8 +16643,78 @@
       <c r="CB30" s="1">
         <v>0.6663310185185185</v>
       </c>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="21"/>
+      <c r="CE30" s="7"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI30" s="75">
+        <v>0.64984953703703707</v>
+      </c>
+      <c r="CJ30">
+        <v>50</v>
+      </c>
+      <c r="CK30" s="75">
+        <v>0.64978009259259262</v>
+      </c>
+      <c r="CL30" s="75">
+        <v>0.64981481481481485</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN30" s="75">
+        <v>0.69929398148148147</v>
+      </c>
+      <c r="CO30">
+        <v>30</v>
+      </c>
+      <c r="CP30" s="75">
+        <v>0.69952546296296303</v>
+      </c>
+      <c r="CQ30" s="75">
+        <v>0.6995717592592593</v>
+      </c>
+      <c r="CR30" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS30" s="75">
+        <v>0.7131249999999999</v>
+      </c>
+      <c r="CT30">
+        <v>100</v>
+      </c>
+      <c r="CU30" s="75">
+        <v>0.71305555555555555</v>
+      </c>
+      <c r="CV30" s="75">
+        <v>0.71309027777777778</v>
+      </c>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="21"/>
+      <c r="CY30" s="7"/>
+      <c r="CZ30" s="21"/>
+      <c r="DA30" s="21"/>
+      <c r="DB30" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC30" s="75">
+        <v>0.64936342592592589</v>
+      </c>
+      <c r="DD30">
+        <v>10</v>
+      </c>
+      <c r="DE30" s="75">
+        <v>0.64924768518518516</v>
+      </c>
+      <c r="DF30" s="75">
+        <v>0.64935185185185185</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -13339,8 +16955,78 @@
       <c r="CB31" s="1">
         <v>0.66659722222222217</v>
       </c>
+      <c r="CC31" s="8"/>
+      <c r="CD31" s="21"/>
+      <c r="CE31" s="7"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI31" s="75">
+        <v>0.65015046296296297</v>
+      </c>
+      <c r="CJ31">
+        <v>30</v>
+      </c>
+      <c r="CK31" s="75">
+        <v>0.65006944444444448</v>
+      </c>
+      <c r="CL31" s="75">
+        <v>0.65011574074074074</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN31" s="75">
+        <v>0.69959490740740737</v>
+      </c>
+      <c r="CO31">
+        <v>10</v>
+      </c>
+      <c r="CP31" s="75">
+        <v>0.69981481481481478</v>
+      </c>
+      <c r="CQ31" s="75">
+        <v>0.69991898148148157</v>
+      </c>
+      <c r="CR31" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS31" s="75">
+        <v>0.71340277777777772</v>
+      </c>
+      <c r="CT31">
+        <v>50</v>
+      </c>
+      <c r="CU31" s="75">
+        <v>0.71333333333333337</v>
+      </c>
+      <c r="CV31" s="75">
+        <v>0.7133680555555556</v>
+      </c>
+      <c r="CW31" s="8"/>
+      <c r="CX31" s="21"/>
+      <c r="CY31" s="7"/>
+      <c r="CZ31" s="21"/>
+      <c r="DA31" s="21"/>
+      <c r="DB31" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC31" s="75">
+        <v>0.64966435185185178</v>
+      </c>
+      <c r="DD31">
+        <v>100</v>
+      </c>
+      <c r="DE31" s="75">
+        <v>0.64959490740740744</v>
+      </c>
+      <c r="DF31" s="75">
+        <v>0.64961805555555563</v>
+      </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>20</v>
       </c>
@@ -13581,8 +17267,78 @@
       <c r="CB32" s="1">
         <v>0.66688657407407403</v>
       </c>
+      <c r="CC32" s="8"/>
+      <c r="CD32" s="21"/>
+      <c r="CE32" s="7"/>
+      <c r="CF32" s="21"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI32" s="75">
+        <v>0.65068287037037031</v>
+      </c>
+      <c r="CJ32">
+        <v>3</v>
+      </c>
+      <c r="CK32" s="75">
+        <v>0.65037037037037038</v>
+      </c>
+      <c r="CL32" s="75">
+        <v>0.6506481481481482</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN32" s="75">
+        <v>0.69996527777777784</v>
+      </c>
+      <c r="CO32">
+        <v>200</v>
+      </c>
+      <c r="CP32" s="75">
+        <v>0.70016203703703705</v>
+      </c>
+      <c r="CQ32" s="75">
+        <v>0.70018518518518524</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS32" s="75">
+        <v>0.71380787037037041</v>
+      </c>
+      <c r="CT32">
+        <v>3</v>
+      </c>
+      <c r="CU32" s="75">
+        <v>0.71362268518518512</v>
+      </c>
+      <c r="CV32" s="75">
+        <v>0.71390046296296295</v>
+      </c>
+      <c r="CW32" s="8"/>
+      <c r="CX32" s="21"/>
+      <c r="CY32" s="7"/>
+      <c r="CZ32" s="21"/>
+      <c r="DA32" s="21"/>
+      <c r="DB32" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC32" s="75">
+        <v>0.64993055555555557</v>
+      </c>
+      <c r="DD32">
+        <v>50</v>
+      </c>
+      <c r="DE32" s="75">
+        <v>0.64987268518518515</v>
+      </c>
+      <c r="DF32" s="75">
+        <v>0.64990740740740738</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
@@ -13823,33 +17579,112 @@
       <c r="CB33" s="2">
         <v>0.66741898148148149</v>
       </c>
+      <c r="CC33" s="9"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="6"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI33" s="75">
+        <v>0.6509490740740741</v>
+      </c>
+      <c r="CJ33">
+        <v>100</v>
+      </c>
+      <c r="CK33" s="75">
+        <v>0.65089120370370368</v>
+      </c>
+      <c r="CL33" s="75">
+        <v>0.65092592592592591</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN33" s="75">
+        <v>0.70025462962962959</v>
+      </c>
+      <c r="CO33">
+        <v>3</v>
+      </c>
+      <c r="CP33" s="75">
+        <v>0.70043981481481488</v>
+      </c>
+      <c r="CQ33" s="75">
+        <v>0.7007175925925927</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS33" s="75">
+        <v>0.71420138888888884</v>
+      </c>
+      <c r="CT33">
+        <v>200</v>
+      </c>
+      <c r="CU33" s="75">
+        <v>0.71415509259259258</v>
+      </c>
+      <c r="CV33" s="75">
+        <v>0.71417824074074077</v>
+      </c>
+      <c r="CW33" s="9"/>
+      <c r="CX33" s="38"/>
+      <c r="CY33" s="6"/>
+      <c r="CZ33" s="38"/>
+      <c r="DA33" s="38"/>
+      <c r="DB33" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC33" s="75">
+        <v>0.6502430555555555</v>
+      </c>
+      <c r="DD33">
+        <v>200</v>
+      </c>
+      <c r="DE33" s="75">
+        <v>0.65016203703703701</v>
+      </c>
+      <c r="DF33" s="75">
+        <v>0.6501851851851852</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="33">
+    <mergeCell ref="CW1:DF1"/>
+    <mergeCell ref="CW2:DA2"/>
+    <mergeCell ref="DB2:DF2"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="CC2:CG2"/>
+    <mergeCell ref="CH2:CL2"/>
+    <mergeCell ref="CM1:CV1"/>
+    <mergeCell ref="CM2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO1:AX1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY1:BH1"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="BS1:CB1"/>
     <mergeCell ref="BS2:BW2"/>
     <mergeCell ref="BX2:CB2"/>
     <mergeCell ref="BI1:BR1"/>
     <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="AO1:AX1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY1:BH1"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -13858,10 +17693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BN33"/>
+  <dimension ref="A1:CF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1:BN1"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1:BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13931,66 +17766,84 @@
     <col min="63" max="63" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="55" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
       <c r="AQ1" s="73" t="s">
         <v>33</v>
       </c>
@@ -14007,158 +17860,218 @@
       <c r="AZ1" s="73"/>
       <c r="BA1" s="73"/>
       <c r="BB1" s="73"/>
-      <c r="BC1" s="55" t="s">
+      <c r="BC1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55" t="s">
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="56"/>
+      <c r="BY1" s="56"/>
+      <c r="BZ1" s="56"/>
+      <c r="CA1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB1" s="56"/>
+      <c r="CC1" s="56"/>
+      <c r="CD1" s="56"/>
+      <c r="CE1" s="56"/>
+      <c r="CF1" s="56"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56" t="s">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56" t="s">
+      <c r="V2" s="60"/>
+      <c r="W2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57" t="s">
+      <c r="X2" s="60"/>
+      <c r="Y2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="57" t="s">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="57" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62" t="s">
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72" t="s">
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72" t="s">
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72" t="s">
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72" t="s">
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72" t="s">
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="62" t="s">
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62" t="s">
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62" t="s">
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62" t="s">
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62" t="s">
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62" t="s">
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="62"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF2" s="57"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -14339,26 +18252,80 @@
       <c r="BH3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="BI3" s="74" t="s">
+      <c r="BI3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="BJ3" s="74" t="s">
+      <c r="BJ3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="BK3" s="74" t="s">
+      <c r="BK3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="BL3" s="74" t="s">
+      <c r="BL3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="BM3" s="74" t="s">
+      <c r="BM3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="BN3" s="74" t="s">
+      <c r="BN3" s="23" t="s">
         <v>1</v>
       </c>
+      <c r="BO3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="55" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -14554,11 +18521,57 @@
       <c r="BM4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BN4" s="3">
+      <c r="BN4" s="11">
+        <v>10</v>
+      </c>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR4" s="11">
+        <v>30</v>
+      </c>
+      <c r="BS4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>30</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="11">
+        <v>200</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="11">
+        <v>100</v>
+      </c>
+      <c r="BY4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD4" s="11">
+        <v>10</v>
+      </c>
+      <c r="CE4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -14754,11 +18767,56 @@
       <c r="BM5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BN5" s="53">
-        <v>50</v>
+      <c r="BN5" s="7">
+        <v>50</v>
+      </c>
+      <c r="BO5" s="8"/>
+      <c r="BQ5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR5" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT5" s="53">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV5" s="7">
+        <v>50</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX5" s="7">
+        <v>30</v>
+      </c>
+      <c r="BY5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ5" s="53">
+        <v>30</v>
+      </c>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD5" s="7">
+        <v>100</v>
+      </c>
+      <c r="CE5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF5" s="53">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -14954,11 +19012,56 @@
       <c r="BM6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BN6" s="53">
+      <c r="BN6" s="7">
+        <v>200</v>
+      </c>
+      <c r="BO6" s="8"/>
+      <c r="BQ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="53">
+        <v>10</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX6" s="7">
+        <v>10</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="53">
+        <v>10</v>
+      </c>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="7"/>
+      <c r="CC6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD6" s="7">
+        <v>200</v>
+      </c>
+      <c r="CE6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF6" s="53">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
@@ -15154,11 +19257,56 @@
       <c r="BM7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BN7" s="53">
-        <v>100</v>
+      <c r="BN7" s="7">
+        <v>100</v>
+      </c>
+      <c r="BO7" s="8"/>
+      <c r="BQ7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR7" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT7" s="53">
+        <v>100</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV7" s="7">
+        <v>3</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ7" s="53">
+        <v>3</v>
+      </c>
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="7"/>
+      <c r="CC7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD7" s="7">
+        <v>30</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF7" s="53">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -15354,11 +19502,56 @@
       <c r="BM8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BN8" s="53">
-        <v>30</v>
+      <c r="BN8" s="7">
+        <v>30</v>
+      </c>
+      <c r="BO8" s="8"/>
+      <c r="BQ8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR8" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT8" s="53">
+        <v>50</v>
+      </c>
+      <c r="BU8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV8" s="7">
+        <v>100</v>
+      </c>
+      <c r="BW8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX8" s="7">
+        <v>200</v>
+      </c>
+      <c r="BY8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ8" s="53">
+        <v>200</v>
+      </c>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="7"/>
+      <c r="CC8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD8" s="7">
+        <v>50</v>
+      </c>
+      <c r="CE8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF8" s="53">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -15554,11 +19747,57 @@
       <c r="BM9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BN9" s="53">
+      <c r="BN9" s="7">
+        <v>3</v>
+      </c>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>200</v>
+      </c>
+      <c r="BS9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT9" s="54">
+        <v>200</v>
+      </c>
+      <c r="BU9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV9" s="6">
+        <v>30</v>
+      </c>
+      <c r="BW9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX9" s="6">
+        <v>50</v>
+      </c>
+      <c r="BY9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ9" s="54">
+        <v>50</v>
+      </c>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD9" s="6">
+        <v>3</v>
+      </c>
+      <c r="CE9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF9" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -15754,11 +19993,57 @@
       <c r="BM10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BN10" s="3">
-        <v>10</v>
+      <c r="BN10" s="11">
+        <v>10</v>
+      </c>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR10" s="11">
+        <v>10</v>
+      </c>
+      <c r="BS10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT10" s="3">
+        <v>10</v>
+      </c>
+      <c r="BU10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV10" s="11">
+        <v>30</v>
+      </c>
+      <c r="BW10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX10" s="11">
+        <v>10</v>
+      </c>
+      <c r="BY10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ10" s="3">
+        <v>10</v>
+      </c>
+      <c r="CA10" s="10"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD10" s="11">
+        <v>100</v>
+      </c>
+      <c r="CE10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF10" s="3">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -15954,11 +20239,56 @@
       <c r="BM11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN11" s="53">
+      <c r="BN11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BO11" s="8"/>
+      <c r="BQ11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT11" s="53">
+        <v>200</v>
+      </c>
+      <c r="BU11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV11" s="7">
+        <v>200</v>
+      </c>
+      <c r="BW11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX11" s="7">
+        <v>30</v>
+      </c>
+      <c r="BY11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ11" s="53">
+        <v>30</v>
+      </c>
+      <c r="CA11" s="8"/>
+      <c r="CB11" s="7"/>
+      <c r="CC11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD11" s="7">
+        <v>200</v>
+      </c>
+      <c r="CE11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CF11" s="53">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -16154,11 +20484,56 @@
       <c r="BM12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BN12" s="53">
-        <v>50</v>
+      <c r="BN12" s="7">
+        <v>50</v>
+      </c>
+      <c r="BO12" s="8"/>
+      <c r="BQ12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR12" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT12" s="53">
+        <v>3</v>
+      </c>
+      <c r="BU12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV12" s="7">
+        <v>50</v>
+      </c>
+      <c r="BW12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX12" s="7">
+        <v>50</v>
+      </c>
+      <c r="BY12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ12" s="53">
+        <v>50</v>
+      </c>
+      <c r="CA12" s="8"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD12" s="7">
+        <v>30</v>
+      </c>
+      <c r="CE12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF12" s="53">
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -16354,11 +20729,56 @@
       <c r="BM13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BN13" s="53">
-        <v>30</v>
+      <c r="BN13" s="7">
+        <v>30</v>
+      </c>
+      <c r="BO13" s="8"/>
+      <c r="BQ13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR13" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT13" s="53">
+        <v>100</v>
+      </c>
+      <c r="BU13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV13" s="7">
+        <v>10</v>
+      </c>
+      <c r="BW13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX13" s="7">
+        <v>200</v>
+      </c>
+      <c r="BY13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ13" s="53">
+        <v>200</v>
+      </c>
+      <c r="CA13" s="8"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD13" s="7">
+        <v>10</v>
+      </c>
+      <c r="CE13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF13" s="53">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -16554,11 +20974,56 @@
       <c r="BM14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BN14" s="53">
-        <v>100</v>
+      <c r="BN14" s="7">
+        <v>100</v>
+      </c>
+      <c r="BO14" s="8"/>
+      <c r="BQ14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR14" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT14" s="53">
+        <v>30</v>
+      </c>
+      <c r="BU14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV14" s="7">
+        <v>100</v>
+      </c>
+      <c r="BW14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX14" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ14" s="53">
+        <v>3</v>
+      </c>
+      <c r="CA14" s="8"/>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD14" s="7">
+        <v>50</v>
+      </c>
+      <c r="CE14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF14" s="53">
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
@@ -16754,11 +21219,57 @@
       <c r="BM15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BN15" s="53">
+      <c r="BN15" s="7">
+        <v>3</v>
+      </c>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR15" s="6">
+        <v>50</v>
+      </c>
+      <c r="BS15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT15" s="54">
+        <v>50</v>
+      </c>
+      <c r="BU15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV15" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX15" s="6">
+        <v>100</v>
+      </c>
+      <c r="BY15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ15" s="54">
+        <v>100</v>
+      </c>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD15" s="6">
+        <v>3</v>
+      </c>
+      <c r="CE15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF15" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
@@ -16954,11 +21465,57 @@
       <c r="BM16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="BN16" s="3">
-        <v>100</v>
+      <c r="BN16" s="11">
+        <v>100</v>
+      </c>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR16" s="11">
+        <v>200</v>
+      </c>
+      <c r="BS16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT16" s="3">
+        <v>200</v>
+      </c>
+      <c r="BU16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV16" s="11">
+        <v>100</v>
+      </c>
+      <c r="BW16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX16" s="11">
+        <v>100</v>
+      </c>
+      <c r="BY16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>100</v>
+      </c>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD16" s="11">
+        <v>3</v>
+      </c>
+      <c r="CE16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF16" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -17154,11 +21711,56 @@
       <c r="BM17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BN17" s="53">
+      <c r="BN17" s="7">
+        <v>30</v>
+      </c>
+      <c r="BO17" s="8"/>
+      <c r="BQ17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR17" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT17" s="53">
+        <v>3</v>
+      </c>
+      <c r="BU17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV17" s="7">
+        <v>200</v>
+      </c>
+      <c r="BW17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX17" s="7">
+        <v>50</v>
+      </c>
+      <c r="BY17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ17" s="53">
+        <v>50</v>
+      </c>
+      <c r="CA17" s="8"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD17" s="7">
+        <v>30</v>
+      </c>
+      <c r="CE17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF17" s="53">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
@@ -17354,11 +21956,56 @@
       <c r="BM18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BN18" s="53">
-        <v>10</v>
+      <c r="BN18" s="7">
+        <v>10</v>
+      </c>
+      <c r="BO18" s="8"/>
+      <c r="BQ18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR18" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT18" s="53">
+        <v>50</v>
+      </c>
+      <c r="BU18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV18" s="7">
+        <v>30</v>
+      </c>
+      <c r="BW18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX18" s="7">
+        <v>200</v>
+      </c>
+      <c r="BY18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ18" s="53">
+        <v>200</v>
+      </c>
+      <c r="CA18" s="8"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD18" s="7">
+        <v>50</v>
+      </c>
+      <c r="CE18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF18" s="53">
+        <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -17554,11 +22201,56 @@
       <c r="BM19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN19" s="53">
-        <v>200</v>
+      <c r="BN19" s="7">
+        <v>200</v>
+      </c>
+      <c r="BO19" s="8"/>
+      <c r="BQ19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR19" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT19" s="53">
+        <v>30</v>
+      </c>
+      <c r="BU19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV19" s="7">
+        <v>10</v>
+      </c>
+      <c r="BW19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX19" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ19" s="53">
+        <v>3</v>
+      </c>
+      <c r="CA19" s="8"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD19" s="7">
+        <v>100</v>
+      </c>
+      <c r="CE19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF19" s="53">
+        <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
@@ -17754,11 +22446,56 @@
       <c r="BM20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN20" s="53">
-        <v>50</v>
+      <c r="BN20" s="7">
+        <v>50</v>
+      </c>
+      <c r="BO20" s="8"/>
+      <c r="BQ20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR20" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT20" s="53">
+        <v>100</v>
+      </c>
+      <c r="BU20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV20" s="7">
+        <v>3</v>
+      </c>
+      <c r="BW20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX20" s="7">
+        <v>30</v>
+      </c>
+      <c r="BY20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ20" s="53">
+        <v>30</v>
+      </c>
+      <c r="CA20" s="8"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD20" s="7">
+        <v>200</v>
+      </c>
+      <c r="CE20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF20" s="53">
+        <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
@@ -17954,11 +22691,57 @@
       <c r="BM21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BN21" s="53">
-        <v>3</v>
+      <c r="BN21" s="7">
+        <v>3</v>
+      </c>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR21" s="6">
+        <v>10</v>
+      </c>
+      <c r="BS21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT21" s="54">
+        <v>10</v>
+      </c>
+      <c r="BU21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV21" s="6">
+        <v>50</v>
+      </c>
+      <c r="BW21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX21" s="6">
+        <v>10</v>
+      </c>
+      <c r="BY21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ21" s="54">
+        <v>10</v>
+      </c>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD21" s="6">
+        <v>10</v>
+      </c>
+      <c r="CE21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF21" s="54">
+        <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
@@ -18154,11 +22937,57 @@
       <c r="BM22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BN22" s="3">
+      <c r="BN22" s="11">
+        <v>3</v>
+      </c>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="11"/>
+      <c r="BQ22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BS22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT22" s="3">
+        <v>50</v>
+      </c>
+      <c r="BU22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BW22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX22" s="11">
+        <v>50</v>
+      </c>
+      <c r="BY22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ22" s="3">
+        <v>50</v>
+      </c>
+      <c r="CA22" s="10"/>
+      <c r="CB22" s="11"/>
+      <c r="CC22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD22" s="11">
+        <v>3</v>
+      </c>
+      <c r="CE22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
@@ -18354,11 +23183,56 @@
       <c r="BM23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BN23" s="53">
-        <v>50</v>
+      <c r="BN23" s="7">
+        <v>50</v>
+      </c>
+      <c r="BO23" s="8"/>
+      <c r="BQ23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR23" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT23" s="53">
+        <v>10</v>
+      </c>
+      <c r="BU23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV23" s="7">
+        <v>3</v>
+      </c>
+      <c r="BW23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX23" s="7">
+        <v>100</v>
+      </c>
+      <c r="BY23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ23" s="53">
+        <v>100</v>
+      </c>
+      <c r="CA23" s="8"/>
+      <c r="CB23" s="7"/>
+      <c r="CC23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD23" s="7">
+        <v>100</v>
+      </c>
+      <c r="CE23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF23" s="53">
+        <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
@@ -18554,11 +23428,56 @@
       <c r="BM24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BN24" s="53">
-        <v>10</v>
+      <c r="BN24" s="7">
+        <v>10</v>
+      </c>
+      <c r="BO24" s="8"/>
+      <c r="BQ24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR24" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT24" s="53">
+        <v>100</v>
+      </c>
+      <c r="BU24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV24" s="7">
+        <v>10</v>
+      </c>
+      <c r="BW24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX24" s="7">
+        <v>200</v>
+      </c>
+      <c r="BY24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ24" s="53">
+        <v>200</v>
+      </c>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD24" s="7">
+        <v>200</v>
+      </c>
+      <c r="CE24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF24" s="53">
+        <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
@@ -18754,11 +23673,56 @@
       <c r="BM25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BN25" s="53">
-        <v>200</v>
+      <c r="BN25" s="7">
+        <v>200</v>
+      </c>
+      <c r="BO25" s="8"/>
+      <c r="BQ25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR25" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT25" s="53">
+        <v>200</v>
+      </c>
+      <c r="BU25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV25" s="7">
+        <v>100</v>
+      </c>
+      <c r="BW25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX25" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ25" s="53">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="7"/>
+      <c r="CC25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD25" s="7">
+        <v>30</v>
+      </c>
+      <c r="CE25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF25" s="53">
+        <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>12</v>
       </c>
@@ -18954,11 +23918,56 @@
       <c r="BM26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BN26" s="53">
-        <v>30</v>
+      <c r="BN26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BO26" s="8"/>
+      <c r="BQ26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT26" s="53">
+        <v>30</v>
+      </c>
+      <c r="BU26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BW26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX26" s="7">
+        <v>30</v>
+      </c>
+      <c r="BY26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ26" s="53">
+        <v>30</v>
+      </c>
+      <c r="CA26" s="8"/>
+      <c r="CB26" s="7"/>
+      <c r="CC26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD26" s="7">
+        <v>50</v>
+      </c>
+      <c r="CE26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF26" s="53">
+        <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -19154,11 +24163,57 @@
       <c r="BM27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BN27" s="53">
-        <v>100</v>
+      <c r="BN27" s="7">
+        <v>100</v>
+      </c>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR27" s="6">
+        <v>3</v>
+      </c>
+      <c r="BS27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT27" s="54">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV27" s="6">
+        <v>200</v>
+      </c>
+      <c r="BW27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX27" s="6">
+        <v>10</v>
+      </c>
+      <c r="BY27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ27" s="54">
+        <v>10</v>
+      </c>
+      <c r="CA27" s="9"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD27" s="6">
+        <v>10</v>
+      </c>
+      <c r="CE27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF27" s="54">
+        <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
@@ -19354,11 +24409,57 @@
       <c r="BM28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BN28" s="3">
-        <v>10</v>
+      <c r="BN28" s="11">
+        <v>10</v>
+      </c>
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR28" s="11">
+        <v>10</v>
+      </c>
+      <c r="BS28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT28" s="3">
+        <v>10</v>
+      </c>
+      <c r="BU28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV28" s="11">
+        <v>100</v>
+      </c>
+      <c r="BW28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX28" s="11">
+        <v>30</v>
+      </c>
+      <c r="BY28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ28" s="3">
+        <v>30</v>
+      </c>
+      <c r="CA28" s="10"/>
+      <c r="CB28" s="11"/>
+      <c r="CC28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD28" s="11">
+        <v>3</v>
+      </c>
+      <c r="CE28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF28" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
@@ -19554,11 +24655,56 @@
       <c r="BM29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BN29" s="53">
-        <v>100</v>
+      <c r="BN29" s="7">
+        <v>100</v>
+      </c>
+      <c r="BO29" s="8"/>
+      <c r="BQ29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR29" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT29" s="53">
+        <v>200</v>
+      </c>
+      <c r="BU29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV29" s="7">
+        <v>50</v>
+      </c>
+      <c r="BW29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX29" s="7">
+        <v>10</v>
+      </c>
+      <c r="BY29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ29" s="53">
+        <v>10</v>
+      </c>
+      <c r="CA29" s="8"/>
+      <c r="CB29" s="7"/>
+      <c r="CC29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD29" s="7">
+        <v>30</v>
+      </c>
+      <c r="CE29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF29" s="53">
+        <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>2</v>
       </c>
@@ -19754,11 +24900,56 @@
       <c r="BM30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BN30" s="53">
-        <v>30</v>
+      <c r="BN30" s="7">
+        <v>30</v>
+      </c>
+      <c r="BO30" s="8"/>
+      <c r="BQ30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR30" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT30" s="53">
+        <v>50</v>
+      </c>
+      <c r="BU30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV30" s="7">
+        <v>30</v>
+      </c>
+      <c r="BW30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX30" s="7">
+        <v>100</v>
+      </c>
+      <c r="BY30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ30" s="53">
+        <v>100</v>
+      </c>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="7"/>
+      <c r="CC30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD30" s="7">
+        <v>10</v>
+      </c>
+      <c r="CE30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF30" s="53">
+        <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>11</v>
       </c>
@@ -19954,11 +25145,56 @@
       <c r="BM31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BN31" s="53">
-        <v>200</v>
+      <c r="BN31" s="7">
+        <v>200</v>
+      </c>
+      <c r="BO31" s="8"/>
+      <c r="BQ31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR31" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT31" s="53">
+        <v>30</v>
+      </c>
+      <c r="BU31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV31" s="7">
+        <v>10</v>
+      </c>
+      <c r="BW31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX31" s="7">
+        <v>50</v>
+      </c>
+      <c r="BY31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ31" s="53">
+        <v>50</v>
+      </c>
+      <c r="CA31" s="8"/>
+      <c r="CB31" s="7"/>
+      <c r="CC31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD31" s="7">
+        <v>100</v>
+      </c>
+      <c r="CE31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF31" s="53">
+        <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
@@ -20154,11 +25390,56 @@
       <c r="BM32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BN32" s="53">
+      <c r="BN32" s="7">
+        <v>50</v>
+      </c>
+      <c r="BO32" s="8"/>
+      <c r="BQ32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR32" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT32" s="53">
+        <v>3</v>
+      </c>
+      <c r="BU32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV32" s="7">
+        <v>200</v>
+      </c>
+      <c r="BW32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX32" s="7">
+        <v>3</v>
+      </c>
+      <c r="BY32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ32" s="53">
+        <v>3</v>
+      </c>
+      <c r="CA32" s="8"/>
+      <c r="CB32" s="7"/>
+      <c r="CC32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD32" s="7">
+        <v>50</v>
+      </c>
+      <c r="CE32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF32" s="53">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>2</v>
       </c>
@@ -20354,12 +25635,114 @@
       <c r="BM33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="BN33" s="54">
-        <v>3</v>
-      </c>
+      <c r="BN33" s="6">
+        <v>3</v>
+      </c>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="6"/>
+      <c r="BQ33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR33" s="6">
+        <v>100</v>
+      </c>
+      <c r="BS33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT33" s="54">
+        <v>100</v>
+      </c>
+      <c r="BU33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV33" s="6">
+        <v>3</v>
+      </c>
+      <c r="BW33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BX33" s="6">
+        <v>200</v>
+      </c>
+      <c r="BY33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BZ33" s="54">
+        <v>200</v>
+      </c>
+      <c r="CA33" s="9"/>
+      <c r="CB33" s="6"/>
+      <c r="CC33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD33" s="6">
+        <v>200</v>
+      </c>
+      <c r="CE33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF33" s="54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="BL34" s="7"/>
+      <c r="BM34" s="7"/>
+    </row>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="BL35" s="7"/>
+      <c r="BM35" s="7"/>
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="BM36" s="7"/>
+      <c r="BV36" s="7"/>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="BM37" s="7"/>
+      <c r="BV37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="56">
+    <mergeCell ref="CA1:CF1"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AK1:AP1"/>
     <mergeCell ref="AQ1:AV1"/>
     <mergeCell ref="AW1:BB1"/>
@@ -20376,34 +25759,6 @@
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BG2:BH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F7E00-282C-43DD-897D-489FED6BA733}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD367CC-15D5-4363-99D7-F0DDFE063B49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="48">
   <si>
     <t>#Vas</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Sujeto014</t>
+  </si>
+  <si>
+    <t>Sujeto015</t>
+  </si>
+  <si>
+    <t>Sujeto016</t>
+  </si>
+  <si>
+    <t>Sujeto017</t>
+  </si>
+  <si>
+    <t>Sujeto018</t>
+  </si>
+  <si>
+    <t>Sujeto019</t>
   </si>
 </sst>
 </file>
@@ -842,6 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,7 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1255,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN33"/>
+  <dimension ref="A1:BT33"/>
   <sheetViews>
     <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ30" sqref="AQ30"/>
+      <selection activeCell="BO1" sqref="BO1:BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,233 +1344,259 @@
     <col min="64" max="64" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="56" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="56" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56" t="s">
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56" t="s">
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
     </row>
-    <row r="2" spans="1:66" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:72" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="59" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="59" t="s">
+      <c r="V2" s="62"/>
+      <c r="W2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="57" t="s">
+      <c r="X2" s="62"/>
+      <c r="Y2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57" t="s">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57" t="s">
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57" t="s">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57" t="s">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57" t="s">
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57" t="s">
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57" t="s">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57" t="s">
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="57"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT2" s="58"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1754,8 +1795,26 @@
       <c r="BN3" s="55" t="s">
         <v>1</v>
       </c>
+      <c r="BO3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="55" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1946,8 +2005,22 @@
       <c r="BN4" s="3">
         <v>10</v>
       </c>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR4" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT4" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -2138,8 +2211,22 @@
       <c r="BN5" s="53">
         <v>100</v>
       </c>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR5" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT5" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -2330,8 +2417,22 @@
       <c r="BN6" s="53">
         <v>200</v>
       </c>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR6" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT6" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
@@ -2522,8 +2623,22 @@
       <c r="BN7" s="53">
         <v>30</v>
       </c>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR7" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT7" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -2714,8 +2829,22 @@
       <c r="BN8" s="53">
         <v>50</v>
       </c>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR8" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT8" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -2906,8 +3035,22 @@
       <c r="BN9" s="54">
         <v>3</v>
       </c>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR9" s="6">
+        <v>200</v>
+      </c>
+      <c r="BS9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT9" s="54">
+        <v>200</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -3098,8 +3241,22 @@
       <c r="BN10" s="3">
         <v>100</v>
       </c>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR10" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT10" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -3290,8 +3447,22 @@
       <c r="BN11" s="53">
         <v>200</v>
       </c>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR11" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT11" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -3482,8 +3653,22 @@
       <c r="BN12" s="53">
         <v>30</v>
       </c>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR12" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT12" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -3674,8 +3859,22 @@
       <c r="BN13" s="53">
         <v>10</v>
       </c>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR13" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT13" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -3866,8 +4065,22 @@
       <c r="BN14" s="53">
         <v>50</v>
       </c>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR14" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT14" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
@@ -4058,8 +4271,22 @@
       <c r="BN15" s="54">
         <v>3</v>
       </c>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR15" s="6">
+        <v>200</v>
+      </c>
+      <c r="BS15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT15" s="54">
+        <v>200</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
@@ -4250,8 +4477,22 @@
       <c r="BN16" s="3">
         <v>3</v>
       </c>
+      <c r="BO16" s="8"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR16" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT16" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -4442,8 +4683,22 @@
       <c r="BN17" s="53">
         <v>30</v>
       </c>
+      <c r="BO17" s="8"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR17" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT17" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
@@ -4634,8 +4889,22 @@
       <c r="BN18" s="53">
         <v>50</v>
       </c>
+      <c r="BO18" s="8"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR18" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT18" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -4826,8 +5095,22 @@
       <c r="BN19" s="53">
         <v>100</v>
       </c>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR19" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT19" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
@@ -5018,8 +5301,22 @@
       <c r="BN20" s="53">
         <v>200</v>
       </c>
+      <c r="BO20" s="8"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR20" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT20" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
@@ -5210,8 +5507,22 @@
       <c r="BN21" s="54">
         <v>10</v>
       </c>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR21" s="6">
+        <v>3</v>
+      </c>
+      <c r="BS21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT21" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
@@ -5402,8 +5713,22 @@
       <c r="BN22" s="3">
         <v>3</v>
       </c>
+      <c r="BO22" s="8"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR22" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT22" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
@@ -5594,8 +5919,22 @@
       <c r="BN23" s="53">
         <v>100</v>
       </c>
+      <c r="BO23" s="8"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR23" s="7">
+        <v>30</v>
+      </c>
+      <c r="BS23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT23" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
@@ -5786,8 +6125,22 @@
       <c r="BN24" s="53">
         <v>200</v>
       </c>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR24" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT24" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
@@ -5978,8 +6331,22 @@
       <c r="BN25" s="53">
         <v>30</v>
       </c>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR25" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT25" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>12</v>
       </c>
@@ -6170,8 +6537,22 @@
       <c r="BN26" s="53">
         <v>50</v>
       </c>
+      <c r="BO26" s="8"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR26" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT26" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -6362,8 +6743,22 @@
       <c r="BN27" s="54">
         <v>10</v>
       </c>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR27" s="6">
+        <v>3</v>
+      </c>
+      <c r="BS27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT27" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
@@ -6554,8 +6949,22 @@
       <c r="BN28" s="3">
         <v>3</v>
       </c>
+      <c r="BO28" s="8"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR28" s="7">
+        <v>3</v>
+      </c>
+      <c r="BS28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT28" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
@@ -6746,8 +7155,22 @@
       <c r="BN29" s="53">
         <v>30</v>
       </c>
+      <c r="BO29" s="8"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR29" s="7">
+        <v>100</v>
+      </c>
+      <c r="BS29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT29" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>2</v>
       </c>
@@ -6938,8 +7361,22 @@
       <c r="BN30" s="53">
         <v>10</v>
       </c>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR30" s="7">
+        <v>50</v>
+      </c>
+      <c r="BS30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT30" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>11</v>
       </c>
@@ -7130,8 +7567,22 @@
       <c r="BN31" s="53">
         <v>100</v>
       </c>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="7"/>
+      <c r="BQ31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR31" s="7">
+        <v>200</v>
+      </c>
+      <c r="BS31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT31" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
@@ -7322,8 +7773,22 @@
       <c r="BN32" s="53">
         <v>50</v>
       </c>
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR32" s="7">
+        <v>10</v>
+      </c>
+      <c r="BS32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT32" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>2</v>
       </c>
@@ -7514,17 +7979,21 @@
       <c r="BN33" s="54">
         <v>200</v>
       </c>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="6"/>
+      <c r="BQ33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR33" s="6">
+        <v>30</v>
+      </c>
+      <c r="BS33" s="6"/>
+      <c r="BT33" s="54">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
+  <mergeCells count="48">
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
@@ -7545,6 +8014,10 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
@@ -7553,14 +8026,22 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
     <mergeCell ref="AQ1:AV1"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7569,10 +8050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DF33"/>
+  <dimension ref="A1:FD33"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CW1" sqref="CW1:DF1"/>
+    <sheetView topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DG1" sqref="DG1:DP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7666,299 +8147,469 @@
     <col min="107" max="107" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="109" max="110" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="160" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="56" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56" t="s">
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="56" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56"/>
-      <c r="BV1" s="56"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="56"/>
-      <c r="BZ1" s="56"/>
-      <c r="CA1" s="56"/>
-      <c r="CB1" s="56"/>
-      <c r="CC1" s="56" t="s">
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56"/>
-      <c r="CG1" s="56"/>
-      <c r="CH1" s="56"/>
-      <c r="CI1" s="56"/>
-      <c r="CJ1" s="56"/>
-      <c r="CK1" s="56"/>
-      <c r="CL1" s="56"/>
-      <c r="CM1" s="56" t="s">
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="CN1" s="56"/>
-      <c r="CO1" s="56"/>
-      <c r="CP1" s="56"/>
-      <c r="CQ1" s="56"/>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="56"/>
-      <c r="CT1" s="56"/>
-      <c r="CU1" s="56"/>
-      <c r="CV1" s="56"/>
-      <c r="CW1" s="56" t="s">
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
+      <c r="CS1" s="57"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="CX1" s="56"/>
-      <c r="CY1" s="56"/>
-      <c r="CZ1" s="56"/>
-      <c r="DA1" s="56"/>
-      <c r="DB1" s="56"/>
-      <c r="DC1" s="56"/>
-      <c r="DD1" s="56"/>
-      <c r="DE1" s="56"/>
-      <c r="DF1" s="56"/>
+      <c r="CX1" s="57"/>
+      <c r="CY1" s="57"/>
+      <c r="CZ1" s="57"/>
+      <c r="DA1" s="57"/>
+      <c r="DB1" s="57"/>
+      <c r="DC1" s="57"/>
+      <c r="DD1" s="57"/>
+      <c r="DE1" s="57"/>
+      <c r="DF1" s="57"/>
+      <c r="DG1" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="DH1" s="57"/>
+      <c r="DI1" s="57"/>
+      <c r="DJ1" s="57"/>
+      <c r="DK1" s="57"/>
+      <c r="DL1" s="57"/>
+      <c r="DM1" s="57"/>
+      <c r="DN1" s="57"/>
+      <c r="DO1" s="57"/>
+      <c r="DP1" s="57"/>
+      <c r="DQ1" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR1" s="57"/>
+      <c r="DS1" s="57"/>
+      <c r="DT1" s="57"/>
+      <c r="DU1" s="57"/>
+      <c r="DV1" s="57"/>
+      <c r="DW1" s="57"/>
+      <c r="DX1" s="57"/>
+      <c r="DY1" s="57"/>
+      <c r="DZ1" s="57"/>
+      <c r="EA1" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="EB1" s="57"/>
+      <c r="EC1" s="57"/>
+      <c r="ED1" s="57"/>
+      <c r="EE1" s="57"/>
+      <c r="EF1" s="57"/>
+      <c r="EG1" s="57"/>
+      <c r="EH1" s="57"/>
+      <c r="EI1" s="57"/>
+      <c r="EJ1" s="57"/>
+      <c r="EK1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="EL1" s="57"/>
+      <c r="EM1" s="57"/>
+      <c r="EN1" s="57"/>
+      <c r="EO1" s="57"/>
+      <c r="EP1" s="57"/>
+      <c r="EQ1" s="57"/>
+      <c r="ER1" s="57"/>
+      <c r="ES1" s="57"/>
+      <c r="ET1" s="57"/>
+      <c r="EU1" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="EV1" s="57"/>
+      <c r="EW1" s="57"/>
+      <c r="EX1" s="57"/>
+      <c r="EY1" s="57"/>
+      <c r="EZ1" s="57"/>
+      <c r="FA1" s="57"/>
+      <c r="FB1" s="57"/>
+      <c r="FC1" s="57"/>
+      <c r="FD1" s="57"/>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="64" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="64" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="69" t="s">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="64" t="s">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="64" t="s">
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66" t="s">
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="64" t="s">
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="65"/>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="66"/>
-      <c r="BN2" s="66" t="s">
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="66"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BO2" s="66"/>
-      <c r="BP2" s="66"/>
-      <c r="BQ2" s="66"/>
-      <c r="BR2" s="67"/>
-      <c r="BS2" s="64" t="s">
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="65"/>
-      <c r="BU2" s="65"/>
-      <c r="BV2" s="65"/>
-      <c r="BW2" s="66"/>
-      <c r="BX2" s="66" t="s">
+      <c r="BT2" s="66"/>
+      <c r="BU2" s="66"/>
+      <c r="BV2" s="66"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BY2" s="66"/>
-      <c r="BZ2" s="66"/>
-      <c r="CA2" s="66"/>
-      <c r="CB2" s="67"/>
-      <c r="CC2" s="64" t="s">
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" s="65"/>
-      <c r="CE2" s="65"/>
-      <c r="CF2" s="65"/>
-      <c r="CG2" s="66"/>
-      <c r="CH2" s="66" t="s">
+      <c r="CD2" s="66"/>
+      <c r="CE2" s="66"/>
+      <c r="CF2" s="66"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="CI2" s="66"/>
-      <c r="CJ2" s="66"/>
-      <c r="CK2" s="66"/>
-      <c r="CL2" s="67"/>
-      <c r="CM2" s="64" t="s">
+      <c r="CI2" s="67"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="68"/>
+      <c r="CM2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="65"/>
-      <c r="CO2" s="65"/>
-      <c r="CP2" s="65"/>
-      <c r="CQ2" s="66"/>
-      <c r="CR2" s="66" t="s">
+      <c r="CN2" s="66"/>
+      <c r="CO2" s="66"/>
+      <c r="CP2" s="66"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="CS2" s="66"/>
-      <c r="CT2" s="66"/>
-      <c r="CU2" s="66"/>
-      <c r="CV2" s="67"/>
-      <c r="CW2" s="64" t="s">
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CV2" s="68"/>
+      <c r="CW2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="CX2" s="65"/>
-      <c r="CY2" s="65"/>
-      <c r="CZ2" s="65"/>
-      <c r="DA2" s="66"/>
-      <c r="DB2" s="66" t="s">
+      <c r="CX2" s="66"/>
+      <c r="CY2" s="66"/>
+      <c r="CZ2" s="66"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="DC2" s="66"/>
-      <c r="DD2" s="66"/>
-      <c r="DE2" s="66"/>
-      <c r="DF2" s="67"/>
+      <c r="DC2" s="67"/>
+      <c r="DD2" s="67"/>
+      <c r="DE2" s="67"/>
+      <c r="DF2" s="68"/>
+      <c r="DG2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="DH2" s="66"/>
+      <c r="DI2" s="66"/>
+      <c r="DJ2" s="66"/>
+      <c r="DK2" s="67"/>
+      <c r="DL2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM2" s="67"/>
+      <c r="DN2" s="67"/>
+      <c r="DO2" s="67"/>
+      <c r="DP2" s="68"/>
+      <c r="DQ2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR2" s="66"/>
+      <c r="DS2" s="66"/>
+      <c r="DT2" s="66"/>
+      <c r="DU2" s="67"/>
+      <c r="DV2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="DW2" s="67"/>
+      <c r="DX2" s="67"/>
+      <c r="DY2" s="67"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="EB2" s="66"/>
+      <c r="EC2" s="66"/>
+      <c r="ED2" s="66"/>
+      <c r="EE2" s="67"/>
+      <c r="EF2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="EG2" s="67"/>
+      <c r="EH2" s="67"/>
+      <c r="EI2" s="67"/>
+      <c r="EJ2" s="68"/>
+      <c r="EK2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="EL2" s="66"/>
+      <c r="EM2" s="66"/>
+      <c r="EN2" s="66"/>
+      <c r="EO2" s="67"/>
+      <c r="EP2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="EQ2" s="67"/>
+      <c r="ER2" s="67"/>
+      <c r="ES2" s="67"/>
+      <c r="ET2" s="68"/>
+      <c r="EU2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="EV2" s="66"/>
+      <c r="EW2" s="66"/>
+      <c r="EX2" s="66"/>
+      <c r="EY2" s="67"/>
+      <c r="EZ2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="FA2" s="67"/>
+      <c r="FB2" s="67"/>
+      <c r="FC2" s="67"/>
+      <c r="FD2" s="68"/>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -8289,8 +8940,158 @@
       <c r="DF3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="DG3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DQ3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EA3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EE3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EF3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EK3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EO3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EP3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EU3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="EZ3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="FB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="FD3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -8539,46 +9340,46 @@
       <c r="CH4" t="s">
         <v>2</v>
       </c>
-      <c r="CI4" s="75">
+      <c r="CI4" s="56">
         <v>0.64121527777777776</v>
       </c>
       <c r="CJ4">
         <v>30</v>
       </c>
-      <c r="CK4" s="75">
+      <c r="CK4" s="56">
         <v>0.64113425925925926</v>
       </c>
-      <c r="CL4" s="75">
+      <c r="CL4" s="56">
         <v>0.64118055555555553</v>
       </c>
       <c r="CM4" t="s">
         <v>2</v>
       </c>
-      <c r="CN4" s="75">
+      <c r="CN4" s="56">
         <v>0.69107638888888889</v>
       </c>
       <c r="CO4">
         <v>200</v>
       </c>
-      <c r="CP4" s="75">
+      <c r="CP4" s="56">
         <v>0.69092592592592583</v>
       </c>
-      <c r="CQ4" s="75">
+      <c r="CQ4" s="56">
         <v>0.69094907407407413</v>
       </c>
       <c r="CR4" t="s">
         <v>2</v>
       </c>
-      <c r="CS4" s="75">
+      <c r="CS4" s="56">
         <v>0.70443287037037028</v>
       </c>
       <c r="CT4">
         <v>100</v>
       </c>
-      <c r="CU4" s="75">
+      <c r="CU4" s="56">
         <v>0.70438657407407401</v>
       </c>
-      <c r="CV4" s="75">
+      <c r="CV4" s="56">
         <v>0.7044097222222222</v>
       </c>
       <c r="CW4" s="8"/>
@@ -8589,20 +9390,72 @@
       <c r="DB4" t="s">
         <v>4</v>
       </c>
-      <c r="DC4" s="75">
+      <c r="DC4" s="56">
         <v>0.64054398148148151</v>
       </c>
       <c r="DD4">
         <v>10</v>
       </c>
-      <c r="DE4" s="75">
+      <c r="DE4" s="56">
         <v>0.64039351851851845</v>
       </c>
-      <c r="DF4" s="75">
+      <c r="DF4" s="56">
         <v>0.64049768518518524</v>
       </c>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="21"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="21"/>
+      <c r="DK4" s="21"/>
+      <c r="DL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM4" s="56">
+        <v>0.47344907407407405</v>
+      </c>
+      <c r="DN4">
+        <v>3</v>
+      </c>
+      <c r="DO4" s="56">
+        <v>0.47311342592592592</v>
+      </c>
+      <c r="DP4" s="56">
+        <v>0.47339120370370374</v>
+      </c>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="21"/>
+      <c r="DS4" s="7"/>
+      <c r="DT4" s="21"/>
+      <c r="DU4" s="21"/>
+      <c r="DW4" s="56"/>
+      <c r="DY4" s="56"/>
+      <c r="DZ4" s="56"/>
+      <c r="EA4" s="8"/>
+      <c r="EB4" s="21"/>
+      <c r="EC4" s="7"/>
+      <c r="ED4" s="21"/>
+      <c r="EE4" s="21"/>
+      <c r="EG4" s="56"/>
+      <c r="EI4" s="56"/>
+      <c r="EJ4" s="56"/>
+      <c r="EK4" s="8"/>
+      <c r="EL4" s="21"/>
+      <c r="EM4" s="7"/>
+      <c r="EN4" s="21"/>
+      <c r="EO4" s="21"/>
+      <c r="EQ4" s="56"/>
+      <c r="ES4" s="56"/>
+      <c r="ET4" s="56"/>
+      <c r="EU4" s="8"/>
+      <c r="EV4" s="21"/>
+      <c r="EW4" s="7"/>
+      <c r="EX4" s="21"/>
+      <c r="EY4" s="21"/>
+      <c r="FA4" s="56"/>
+      <c r="FC4" s="56"/>
+      <c r="FD4" s="56"/>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -8851,46 +9704,46 @@
       <c r="CH5" t="s">
         <v>4</v>
       </c>
-      <c r="CI5" s="75">
+      <c r="CI5" s="56">
         <v>0.64173611111111117</v>
       </c>
       <c r="CJ5">
         <v>3</v>
       </c>
-      <c r="CK5" s="75">
+      <c r="CK5" s="56">
         <v>0.64143518518518516</v>
       </c>
-      <c r="CL5" s="75">
+      <c r="CL5" s="56">
         <v>0.64171296296296299</v>
       </c>
       <c r="CM5" t="s">
         <v>10</v>
       </c>
-      <c r="CN5" s="75">
+      <c r="CN5" s="56">
         <v>0.69126157407407407</v>
       </c>
       <c r="CO5">
         <v>50</v>
       </c>
-      <c r="CP5" s="75">
+      <c r="CP5" s="56">
         <v>0.69120370370370365</v>
       </c>
-      <c r="CQ5" s="75">
+      <c r="CQ5" s="56">
         <v>0.69123842592592588</v>
       </c>
       <c r="CR5" t="s">
         <v>8</v>
       </c>
-      <c r="CS5" s="75">
+      <c r="CS5" s="56">
         <v>0.7047337962962964</v>
       </c>
       <c r="CT5">
         <v>30</v>
       </c>
-      <c r="CU5" s="75">
+      <c r="CU5" s="56">
         <v>0.70466435185185183</v>
       </c>
-      <c r="CV5" s="75">
+      <c r="CV5" s="56">
         <v>0.7047106481481481</v>
       </c>
       <c r="CW5" s="8"/>
@@ -8901,20 +9754,72 @@
       <c r="DB5" t="s">
         <v>8</v>
       </c>
-      <c r="DC5" s="75">
+      <c r="DC5" s="56">
         <v>0.64081018518518518</v>
       </c>
       <c r="DD5">
         <v>100</v>
       </c>
-      <c r="DE5" s="75">
+      <c r="DE5" s="56">
         <v>0.64074074074074072</v>
       </c>
-      <c r="DF5" s="75">
+      <c r="DF5" s="56">
         <v>0.64077546296296295</v>
       </c>
+      <c r="DG5" s="8"/>
+      <c r="DH5" s="21"/>
+      <c r="DI5" s="7"/>
+      <c r="DJ5" s="21"/>
+      <c r="DK5" s="21"/>
+      <c r="DL5" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM5" s="56">
+        <v>0.47378472222222223</v>
+      </c>
+      <c r="DN5">
+        <v>10</v>
+      </c>
+      <c r="DO5" s="56">
+        <v>0.47364583333333332</v>
+      </c>
+      <c r="DP5" s="56">
+        <v>0.47373842592592591</v>
+      </c>
+      <c r="DQ5" s="8"/>
+      <c r="DR5" s="21"/>
+      <c r="DS5" s="7"/>
+      <c r="DT5" s="21"/>
+      <c r="DU5" s="21"/>
+      <c r="DW5" s="56"/>
+      <c r="DY5" s="56"/>
+      <c r="DZ5" s="56"/>
+      <c r="EA5" s="8"/>
+      <c r="EB5" s="21"/>
+      <c r="EC5" s="7"/>
+      <c r="ED5" s="21"/>
+      <c r="EE5" s="21"/>
+      <c r="EG5" s="56"/>
+      <c r="EI5" s="56"/>
+      <c r="EJ5" s="56"/>
+      <c r="EK5" s="8"/>
+      <c r="EL5" s="21"/>
+      <c r="EM5" s="7"/>
+      <c r="EN5" s="21"/>
+      <c r="EO5" s="21"/>
+      <c r="EQ5" s="56"/>
+      <c r="ES5" s="56"/>
+      <c r="ET5" s="56"/>
+      <c r="EU5" s="8"/>
+      <c r="EV5" s="21"/>
+      <c r="EW5" s="7"/>
+      <c r="EX5" s="21"/>
+      <c r="EY5" s="21"/>
+      <c r="FA5" s="56"/>
+      <c r="FC5" s="56"/>
+      <c r="FD5" s="56"/>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -9163,46 +10068,46 @@
       <c r="CH6" t="s">
         <v>2</v>
       </c>
-      <c r="CI6" s="75">
+      <c r="CI6" s="56">
         <v>0.64209490740740738</v>
       </c>
       <c r="CJ6">
         <v>10</v>
       </c>
-      <c r="CK6" s="75">
+      <c r="CK6" s="56">
         <v>0.64195601851851858</v>
       </c>
-      <c r="CL6" s="75">
+      <c r="CL6" s="56">
         <v>0.64206018518518515</v>
       </c>
       <c r="CM6" t="s">
         <v>2</v>
       </c>
-      <c r="CN6" s="75">
+      <c r="CN6" s="56">
         <v>0.69163194444444442</v>
       </c>
       <c r="CO6">
         <v>10</v>
       </c>
-      <c r="CP6" s="75">
+      <c r="CP6" s="56">
         <v>0.69148148148148147</v>
       </c>
-      <c r="CQ6" s="75">
+      <c r="CQ6" s="56">
         <v>0.69158564814814805</v>
       </c>
       <c r="CR6" t="s">
         <v>4</v>
       </c>
-      <c r="CS6" s="75">
+      <c r="CS6" s="56">
         <v>0.70508101851851857</v>
       </c>
       <c r="CT6">
         <v>10</v>
       </c>
-      <c r="CU6" s="75">
+      <c r="CU6" s="56">
         <v>0.7049537037037038</v>
       </c>
-      <c r="CV6" s="75">
+      <c r="CV6" s="56">
         <v>0.70505787037037038</v>
       </c>
       <c r="CW6" s="8"/>
@@ -9213,20 +10118,72 @@
       <c r="DB6" t="s">
         <v>4</v>
       </c>
-      <c r="DC6" s="75">
+      <c r="DC6" s="56">
         <v>0.64109953703703704</v>
       </c>
       <c r="DD6">
         <v>200</v>
       </c>
-      <c r="DE6" s="75">
+      <c r="DE6" s="56">
         <v>0.64101851851851854</v>
       </c>
-      <c r="DF6" s="75">
+      <c r="DF6" s="56">
         <v>0.64104166666666662</v>
       </c>
+      <c r="DG6" s="8"/>
+      <c r="DH6" s="21"/>
+      <c r="DI6" s="7"/>
+      <c r="DJ6" s="21"/>
+      <c r="DK6" s="21"/>
+      <c r="DL6" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM6" s="56">
+        <v>0.47407407407407409</v>
+      </c>
+      <c r="DN6">
+        <v>30</v>
+      </c>
+      <c r="DO6" s="56">
+        <v>0.4739814814814815</v>
+      </c>
+      <c r="DP6" s="56">
+        <v>0.47402777777777777</v>
+      </c>
+      <c r="DQ6" s="8"/>
+      <c r="DR6" s="21"/>
+      <c r="DS6" s="7"/>
+      <c r="DT6" s="21"/>
+      <c r="DU6" s="21"/>
+      <c r="DW6" s="56"/>
+      <c r="DY6" s="56"/>
+      <c r="DZ6" s="56"/>
+      <c r="EA6" s="8"/>
+      <c r="EB6" s="21"/>
+      <c r="EC6" s="7"/>
+      <c r="ED6" s="21"/>
+      <c r="EE6" s="21"/>
+      <c r="EG6" s="56"/>
+      <c r="EI6" s="56"/>
+      <c r="EJ6" s="56"/>
+      <c r="EK6" s="8"/>
+      <c r="EL6" s="21"/>
+      <c r="EM6" s="7"/>
+      <c r="EN6" s="21"/>
+      <c r="EO6" s="21"/>
+      <c r="EQ6" s="56"/>
+      <c r="ES6" s="56"/>
+      <c r="ET6" s="56"/>
+      <c r="EU6" s="8"/>
+      <c r="EV6" s="21"/>
+      <c r="EW6" s="7"/>
+      <c r="EX6" s="21"/>
+      <c r="EY6" s="21"/>
+      <c r="FA6" s="56"/>
+      <c r="FC6" s="56"/>
+      <c r="FD6" s="56"/>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -9475,46 +10432,46 @@
       <c r="CH7" t="s">
         <v>10</v>
       </c>
-      <c r="CI7" s="75">
+      <c r="CI7" s="56">
         <v>0.6423726851851852</v>
       </c>
       <c r="CJ7">
         <v>100</v>
       </c>
-      <c r="CK7" s="75">
+      <c r="CK7" s="56">
         <v>0.64230324074074074</v>
       </c>
-      <c r="CL7" s="75">
+      <c r="CL7" s="56">
         <v>0.64233796296296297</v>
       </c>
       <c r="CM7" t="s">
         <v>12</v>
       </c>
-      <c r="CN7" s="75">
+      <c r="CN7" s="56">
         <v>0.6921180555555555</v>
       </c>
       <c r="CO7">
         <v>3</v>
       </c>
-      <c r="CP7" s="75">
+      <c r="CP7" s="56">
         <v>0.69182870370370375</v>
       </c>
-      <c r="CQ7" s="75">
+      <c r="CQ7" s="56">
         <v>0.69210648148148157</v>
       </c>
       <c r="CR7" t="s">
         <v>4</v>
       </c>
-      <c r="CS7" s="75">
+      <c r="CS7" s="56">
         <v>0.70557870370370368</v>
       </c>
       <c r="CT7">
         <v>3</v>
       </c>
-      <c r="CU7" s="75">
+      <c r="CU7" s="56">
         <v>0.70530092592592597</v>
       </c>
-      <c r="CV7" s="75">
+      <c r="CV7" s="56">
         <v>0.70557870370370368</v>
       </c>
       <c r="CW7" s="8"/>
@@ -9525,20 +10482,72 @@
       <c r="DB7" t="s">
         <v>12</v>
       </c>
-      <c r="DC7" s="75">
+      <c r="DC7" s="56">
         <v>0.64136574074074071</v>
       </c>
       <c r="DD7">
         <v>30</v>
       </c>
-      <c r="DE7" s="75">
+      <c r="DE7" s="56">
         <v>0.64129629629629636</v>
       </c>
-      <c r="DF7" s="75">
+      <c r="DF7" s="56">
         <v>0.64134259259259263</v>
       </c>
+      <c r="DG7" s="8"/>
+      <c r="DH7" s="21"/>
+      <c r="DI7" s="7"/>
+      <c r="DJ7" s="21"/>
+      <c r="DK7" s="21"/>
+      <c r="DL7" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM7" s="56">
+        <v>0.47434027777777782</v>
+      </c>
+      <c r="DN7">
+        <v>100</v>
+      </c>
+      <c r="DO7" s="56">
+        <v>0.4742824074074074</v>
+      </c>
+      <c r="DP7" s="56">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="DQ7" s="8"/>
+      <c r="DR7" s="21"/>
+      <c r="DS7" s="7"/>
+      <c r="DT7" s="21"/>
+      <c r="DU7" s="21"/>
+      <c r="DW7" s="56"/>
+      <c r="DY7" s="56"/>
+      <c r="DZ7" s="56"/>
+      <c r="EA7" s="8"/>
+      <c r="EB7" s="21"/>
+      <c r="EC7" s="7"/>
+      <c r="ED7" s="21"/>
+      <c r="EE7" s="21"/>
+      <c r="EG7" s="56"/>
+      <c r="EI7" s="56"/>
+      <c r="EJ7" s="56"/>
+      <c r="EK7" s="8"/>
+      <c r="EL7" s="21"/>
+      <c r="EM7" s="7"/>
+      <c r="EN7" s="21"/>
+      <c r="EO7" s="21"/>
+      <c r="EQ7" s="56"/>
+      <c r="ES7" s="56"/>
+      <c r="ET7" s="56"/>
+      <c r="EU7" s="8"/>
+      <c r="EV7" s="21"/>
+      <c r="EW7" s="7"/>
+      <c r="EX7" s="21"/>
+      <c r="EY7" s="21"/>
+      <c r="FA7" s="56"/>
+      <c r="FC7" s="56"/>
+      <c r="FD7" s="56"/>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -9787,46 +10796,46 @@
       <c r="CH8" t="s">
         <v>12</v>
       </c>
-      <c r="CI8" s="75">
+      <c r="CI8" s="56">
         <v>0.64265046296296291</v>
       </c>
       <c r="CJ8">
         <v>50</v>
       </c>
-      <c r="CK8" s="75">
+      <c r="CK8" s="56">
         <v>0.64258101851851845</v>
       </c>
-      <c r="CL8" s="75">
+      <c r="CL8" s="56">
         <v>0.64261574074074079</v>
       </c>
       <c r="CM8" t="s">
         <v>20</v>
       </c>
-      <c r="CN8" s="75">
+      <c r="CN8" s="56">
         <v>0.69244212962962959</v>
       </c>
       <c r="CO8">
         <v>100</v>
       </c>
-      <c r="CP8" s="75">
+      <c r="CP8" s="56">
         <v>0.69236111111111109</v>
       </c>
-      <c r="CQ8" s="75">
+      <c r="CQ8" s="56">
         <v>0.69238425925925917</v>
       </c>
       <c r="CR8" t="s">
         <v>11</v>
       </c>
-      <c r="CS8" s="75">
+      <c r="CS8" s="56">
         <v>0.70587962962962969</v>
       </c>
       <c r="CT8">
         <v>200</v>
       </c>
-      <c r="CU8" s="75">
+      <c r="CU8" s="56">
         <v>0.70583333333333342</v>
       </c>
-      <c r="CV8" s="75">
+      <c r="CV8" s="56">
         <v>0.7058564814814815</v>
       </c>
       <c r="CW8" s="8"/>
@@ -9837,20 +10846,72 @@
       <c r="DB8" t="s">
         <v>10</v>
       </c>
-      <c r="DC8" s="75">
+      <c r="DC8" s="56">
         <v>0.64164351851851853</v>
       </c>
       <c r="DD8">
         <v>50</v>
       </c>
-      <c r="DE8" s="75">
+      <c r="DE8" s="56">
         <v>0.64158564814814811</v>
       </c>
-      <c r="DF8" s="75">
+      <c r="DF8" s="56">
         <v>0.64162037037037034</v>
       </c>
+      <c r="DG8" s="8"/>
+      <c r="DH8" s="21"/>
+      <c r="DI8" s="7"/>
+      <c r="DJ8" s="21"/>
+      <c r="DK8" s="21"/>
+      <c r="DL8" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM8" s="56">
+        <v>0.47464120370370372</v>
+      </c>
+      <c r="DN8">
+        <v>50</v>
+      </c>
+      <c r="DO8" s="56">
+        <v>0.47456018518518522</v>
+      </c>
+      <c r="DP8" s="56">
+        <v>0.4745949074074074</v>
+      </c>
+      <c r="DQ8" s="8"/>
+      <c r="DR8" s="21"/>
+      <c r="DS8" s="7"/>
+      <c r="DT8" s="21"/>
+      <c r="DU8" s="21"/>
+      <c r="DW8" s="56"/>
+      <c r="DY8" s="56"/>
+      <c r="DZ8" s="56"/>
+      <c r="EA8" s="8"/>
+      <c r="EB8" s="21"/>
+      <c r="EC8" s="7"/>
+      <c r="ED8" s="21"/>
+      <c r="EE8" s="21"/>
+      <c r="EG8" s="56"/>
+      <c r="EI8" s="56"/>
+      <c r="EJ8" s="56"/>
+      <c r="EK8" s="8"/>
+      <c r="EL8" s="21"/>
+      <c r="EM8" s="7"/>
+      <c r="EN8" s="21"/>
+      <c r="EO8" s="21"/>
+      <c r="EQ8" s="56"/>
+      <c r="ES8" s="56"/>
+      <c r="ET8" s="56"/>
+      <c r="EU8" s="8"/>
+      <c r="EV8" s="21"/>
+      <c r="EW8" s="7"/>
+      <c r="EX8" s="21"/>
+      <c r="EY8" s="21"/>
+      <c r="FA8" s="56"/>
+      <c r="FC8" s="56"/>
+      <c r="FD8" s="56"/>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -10099,46 +11160,46 @@
       <c r="CH9" t="s">
         <v>10</v>
       </c>
-      <c r="CI9" s="75">
+      <c r="CI9" s="56">
         <v>0.64292824074074073</v>
       </c>
       <c r="CJ9">
         <v>200</v>
       </c>
-      <c r="CK9" s="75">
+      <c r="CK9" s="56">
         <v>0.64287037037037031</v>
       </c>
-      <c r="CL9" s="75">
+      <c r="CL9" s="56">
         <v>0.6428935185185185</v>
       </c>
       <c r="CM9" t="s">
         <v>19</v>
       </c>
-      <c r="CN9" s="75">
+      <c r="CN9" s="56">
         <v>0.69273148148148145</v>
       </c>
       <c r="CO9">
         <v>30</v>
       </c>
-      <c r="CP9" s="75">
+      <c r="CP9" s="56">
         <v>0.69263888888888892</v>
       </c>
-      <c r="CQ9" s="75">
+      <c r="CQ9" s="56">
         <v>0.69268518518518529</v>
       </c>
       <c r="CR9" t="s">
         <v>8</v>
       </c>
-      <c r="CS9" s="75">
+      <c r="CS9" s="56">
         <v>0.70616898148148144</v>
       </c>
       <c r="CT9">
         <v>50</v>
       </c>
-      <c r="CU9" s="75">
+      <c r="CU9" s="56">
         <v>0.70611111111111102</v>
       </c>
-      <c r="CV9" s="75">
+      <c r="CV9" s="56">
         <v>0.70614583333333336</v>
       </c>
       <c r="CW9" s="8"/>
@@ -10149,20 +11210,72 @@
       <c r="DB9" t="s">
         <v>2</v>
       </c>
-      <c r="DC9" s="75">
+      <c r="DC9" s="56">
         <v>0.64218750000000002</v>
       </c>
       <c r="DD9">
         <v>3</v>
       </c>
-      <c r="DE9" s="75">
+      <c r="DE9" s="56">
         <v>0.64187499999999997</v>
       </c>
-      <c r="DF9" s="75">
+      <c r="DF9" s="56">
         <v>0.64215277777777779</v>
       </c>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="21"/>
+      <c r="DI9" s="7"/>
+      <c r="DJ9" s="21"/>
+      <c r="DK9" s="21"/>
+      <c r="DL9" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM9" s="56">
+        <v>0.47489583333333335</v>
+      </c>
+      <c r="DN9">
+        <v>200</v>
+      </c>
+      <c r="DO9" s="56">
+        <v>0.47483796296296293</v>
+      </c>
+      <c r="DP9" s="56">
+        <v>0.47486111111111112</v>
+      </c>
+      <c r="DQ9" s="8"/>
+      <c r="DR9" s="21"/>
+      <c r="DS9" s="7"/>
+      <c r="DT9" s="21"/>
+      <c r="DU9" s="21"/>
+      <c r="DW9" s="56"/>
+      <c r="DY9" s="56"/>
+      <c r="DZ9" s="56"/>
+      <c r="EA9" s="8"/>
+      <c r="EB9" s="21"/>
+      <c r="EC9" s="7"/>
+      <c r="ED9" s="21"/>
+      <c r="EE9" s="21"/>
+      <c r="EG9" s="56"/>
+      <c r="EI9" s="56"/>
+      <c r="EJ9" s="56"/>
+      <c r="EK9" s="8"/>
+      <c r="EL9" s="21"/>
+      <c r="EM9" s="7"/>
+      <c r="EN9" s="21"/>
+      <c r="EO9" s="21"/>
+      <c r="EQ9" s="56"/>
+      <c r="ES9" s="56"/>
+      <c r="ET9" s="56"/>
+      <c r="EU9" s="8"/>
+      <c r="EV9" s="21"/>
+      <c r="EW9" s="7"/>
+      <c r="EX9" s="21"/>
+      <c r="EY9" s="21"/>
+      <c r="FA9" s="56"/>
+      <c r="FC9" s="56"/>
+      <c r="FD9" s="56"/>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -10411,46 +11524,46 @@
       <c r="CH10" t="s">
         <v>20</v>
       </c>
-      <c r="CI10" s="75">
+      <c r="CI10" s="56">
         <v>0.64325231481481482</v>
       </c>
       <c r="CJ10">
         <v>10</v>
       </c>
-      <c r="CK10" s="75">
+      <c r="CK10" s="56">
         <v>0.64314814814814814</v>
       </c>
-      <c r="CL10" s="75">
+      <c r="CL10" s="56">
         <v>0.64324074074074067</v>
       </c>
       <c r="CM10" t="s">
         <v>18</v>
       </c>
-      <c r="CN10" s="75">
+      <c r="CN10" s="56">
         <v>0.69299768518518512</v>
       </c>
       <c r="CO10">
         <v>30</v>
       </c>
-      <c r="CP10" s="75">
+      <c r="CP10" s="56">
         <v>0.69293981481481481</v>
       </c>
-      <c r="CQ10" s="75">
+      <c r="CQ10" s="56">
         <v>0.69297453703703704</v>
       </c>
       <c r="CR10" t="s">
         <v>2</v>
       </c>
-      <c r="CS10" s="75">
+      <c r="CS10" s="56">
         <v>0.70650462962962957</v>
       </c>
       <c r="CT10">
         <v>10</v>
       </c>
-      <c r="CU10" s="75">
+      <c r="CU10" s="56">
         <v>0.70638888888888884</v>
       </c>
-      <c r="CV10" s="75">
+      <c r="CV10" s="56">
         <v>0.70649305555555564</v>
       </c>
       <c r="CW10" s="8"/>
@@ -10461,20 +11574,72 @@
       <c r="DB10" t="s">
         <v>10</v>
       </c>
-      <c r="DC10" s="75">
+      <c r="DC10" s="56">
         <v>0.64246527777777784</v>
       </c>
       <c r="DD10">
         <v>100</v>
       </c>
-      <c r="DE10" s="75">
+      <c r="DE10" s="56">
         <v>0.64240740740740743</v>
       </c>
-      <c r="DF10" s="75">
+      <c r="DF10" s="56">
         <v>0.6424305555555555</v>
       </c>
+      <c r="DG10" s="8"/>
+      <c r="DH10" s="21"/>
+      <c r="DI10" s="7"/>
+      <c r="DJ10" s="21"/>
+      <c r="DK10" s="21"/>
+      <c r="DL10" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM10" s="56">
+        <v>0.47519675925925925</v>
+      </c>
+      <c r="DN10">
+        <v>50</v>
+      </c>
+      <c r="DO10" s="56">
+        <v>0.47511574074074076</v>
+      </c>
+      <c r="DP10" s="56">
+        <v>0.47515046296296298</v>
+      </c>
+      <c r="DQ10" s="8"/>
+      <c r="DR10" s="21"/>
+      <c r="DS10" s="7"/>
+      <c r="DT10" s="21"/>
+      <c r="DU10" s="21"/>
+      <c r="DW10" s="56"/>
+      <c r="DY10" s="56"/>
+      <c r="DZ10" s="56"/>
+      <c r="EA10" s="8"/>
+      <c r="EB10" s="21"/>
+      <c r="EC10" s="7"/>
+      <c r="ED10" s="21"/>
+      <c r="EE10" s="21"/>
+      <c r="EG10" s="56"/>
+      <c r="EI10" s="56"/>
+      <c r="EJ10" s="56"/>
+      <c r="EK10" s="8"/>
+      <c r="EL10" s="21"/>
+      <c r="EM10" s="7"/>
+      <c r="EN10" s="21"/>
+      <c r="EO10" s="21"/>
+      <c r="EQ10" s="56"/>
+      <c r="ES10" s="56"/>
+      <c r="ET10" s="56"/>
+      <c r="EU10" s="8"/>
+      <c r="EV10" s="21"/>
+      <c r="EW10" s="7"/>
+      <c r="EX10" s="21"/>
+      <c r="EY10" s="21"/>
+      <c r="FA10" s="56"/>
+      <c r="FC10" s="56"/>
+      <c r="FD10" s="56"/>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -10723,46 +11888,46 @@
       <c r="CH11" t="s">
         <v>10</v>
       </c>
-      <c r="CI11" s="75">
+      <c r="CI11" s="56">
         <v>0.64355324074074072</v>
       </c>
       <c r="CJ11">
         <v>200</v>
       </c>
-      <c r="CK11" s="75">
+      <c r="CK11" s="56">
         <v>0.64349537037037041</v>
       </c>
-      <c r="CL11" s="75">
+      <c r="CL11" s="56">
         <v>0.64350694444444445</v>
       </c>
       <c r="CM11" t="s">
         <v>2</v>
       </c>
-      <c r="CN11" s="75">
+      <c r="CN11" s="56">
         <v>0.69328703703703709</v>
       </c>
       <c r="CO11">
         <v>200</v>
       </c>
-      <c r="CP11" s="75">
+      <c r="CP11" s="56">
         <v>0.69322916666666667</v>
       </c>
-      <c r="CQ11" s="75">
+      <c r="CQ11" s="56">
         <v>0.69325231481481486</v>
       </c>
       <c r="CR11" t="s">
         <v>4</v>
       </c>
-      <c r="CS11" s="75">
+      <c r="CS11" s="56">
         <v>0.70680555555555558</v>
       </c>
       <c r="CT11">
         <v>30</v>
       </c>
-      <c r="CU11" s="75">
+      <c r="CU11" s="56">
         <v>0.70673611111111112</v>
       </c>
-      <c r="CV11" s="75">
+      <c r="CV11" s="56">
         <v>0.70678240740740739</v>
       </c>
       <c r="CW11" s="8"/>
@@ -10773,20 +11938,72 @@
       <c r="DB11" t="s">
         <v>4</v>
       </c>
-      <c r="DC11" s="75">
+      <c r="DC11" s="56">
         <v>0.64274305555555555</v>
       </c>
       <c r="DD11">
         <v>200</v>
       </c>
-      <c r="DE11" s="75">
+      <c r="DE11" s="56">
         <v>0.64268518518518525</v>
       </c>
-      <c r="DF11" s="75">
+      <c r="DF11" s="56">
         <v>0.64270833333333333</v>
       </c>
+      <c r="DG11" s="8"/>
+      <c r="DH11" s="21"/>
+      <c r="DI11" s="7"/>
+      <c r="DJ11" s="21"/>
+      <c r="DK11" s="21"/>
+      <c r="DL11" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM11" s="56">
+        <v>0.47555555555555556</v>
+      </c>
+      <c r="DN11">
+        <v>10</v>
+      </c>
+      <c r="DO11" s="56">
+        <v>0.47540509259259256</v>
+      </c>
+      <c r="DP11" s="56">
+        <v>0.47549768518518515</v>
+      </c>
+      <c r="DQ11" s="8"/>
+      <c r="DR11" s="21"/>
+      <c r="DS11" s="7"/>
+      <c r="DT11" s="21"/>
+      <c r="DU11" s="21"/>
+      <c r="DW11" s="56"/>
+      <c r="DY11" s="56"/>
+      <c r="DZ11" s="56"/>
+      <c r="EA11" s="8"/>
+      <c r="EB11" s="21"/>
+      <c r="EC11" s="7"/>
+      <c r="ED11" s="21"/>
+      <c r="EE11" s="21"/>
+      <c r="EG11" s="56"/>
+      <c r="EI11" s="56"/>
+      <c r="EJ11" s="56"/>
+      <c r="EK11" s="8"/>
+      <c r="EL11" s="21"/>
+      <c r="EM11" s="7"/>
+      <c r="EN11" s="21"/>
+      <c r="EO11" s="21"/>
+      <c r="EQ11" s="56"/>
+      <c r="ES11" s="56"/>
+      <c r="ET11" s="56"/>
+      <c r="EU11" s="8"/>
+      <c r="EV11" s="21"/>
+      <c r="EW11" s="7"/>
+      <c r="EX11" s="21"/>
+      <c r="EY11" s="21"/>
+      <c r="FA11" s="56"/>
+      <c r="FC11" s="56"/>
+      <c r="FD11" s="56"/>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
@@ -11035,46 +12252,46 @@
       <c r="CH12" t="s">
         <v>12</v>
       </c>
-      <c r="CI12" s="75">
+      <c r="CI12" s="56">
         <v>0.64407407407407413</v>
       </c>
       <c r="CJ12">
         <v>3</v>
       </c>
-      <c r="CK12" s="75">
+      <c r="CK12" s="56">
         <v>0.64376157407407408</v>
       </c>
-      <c r="CL12" s="75">
+      <c r="CL12" s="56">
         <v>0.64403935185185179</v>
       </c>
       <c r="CM12" t="s">
         <v>20</v>
       </c>
-      <c r="CN12" s="75">
+      <c r="CN12" s="56">
         <v>0.69356481481481491</v>
       </c>
       <c r="CO12">
         <v>50</v>
       </c>
-      <c r="CP12" s="75">
+      <c r="CP12" s="56">
         <v>0.6935069444444445</v>
       </c>
-      <c r="CQ12" s="75">
+      <c r="CQ12" s="56">
         <v>0.69354166666666661</v>
       </c>
       <c r="CR12" t="s">
         <v>4</v>
       </c>
-      <c r="CS12" s="75">
+      <c r="CS12" s="56">
         <v>0.70710648148148147</v>
       </c>
       <c r="CT12">
         <v>50</v>
       </c>
-      <c r="CU12" s="75">
+      <c r="CU12" s="56">
         <v>0.70703703703703702</v>
       </c>
-      <c r="CV12" s="75">
+      <c r="CV12" s="56">
         <v>0.70707175925925936</v>
       </c>
       <c r="CW12" s="8"/>
@@ -11085,20 +12302,72 @@
       <c r="DB12" t="s">
         <v>12</v>
       </c>
-      <c r="DC12" s="75">
+      <c r="DC12" s="56">
         <v>0.64303240740740741</v>
       </c>
       <c r="DD12">
         <v>30</v>
       </c>
-      <c r="DE12" s="75">
+      <c r="DE12" s="56">
         <v>0.64295138888888892</v>
       </c>
-      <c r="DF12" s="75">
+      <c r="DF12" s="56">
         <v>0.64299768518518519</v>
       </c>
+      <c r="DG12" s="8"/>
+      <c r="DH12" s="21"/>
+      <c r="DI12" s="7"/>
+      <c r="DJ12" s="21"/>
+      <c r="DK12" s="21"/>
+      <c r="DL12" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM12" s="56">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="DN12">
+        <v>30</v>
+      </c>
+      <c r="DO12" s="56">
+        <v>0.47575231481481484</v>
+      </c>
+      <c r="DP12" s="56">
+        <v>0.47578703703703701</v>
+      </c>
+      <c r="DQ12" s="8"/>
+      <c r="DR12" s="21"/>
+      <c r="DS12" s="7"/>
+      <c r="DT12" s="21"/>
+      <c r="DU12" s="21"/>
+      <c r="DW12" s="56"/>
+      <c r="DY12" s="56"/>
+      <c r="DZ12" s="56"/>
+      <c r="EA12" s="8"/>
+      <c r="EB12" s="21"/>
+      <c r="EC12" s="7"/>
+      <c r="ED12" s="21"/>
+      <c r="EE12" s="21"/>
+      <c r="EG12" s="56"/>
+      <c r="EI12" s="56"/>
+      <c r="EJ12" s="56"/>
+      <c r="EK12" s="8"/>
+      <c r="EL12" s="21"/>
+      <c r="EM12" s="7"/>
+      <c r="EN12" s="21"/>
+      <c r="EO12" s="21"/>
+      <c r="EQ12" s="56"/>
+      <c r="ES12" s="56"/>
+      <c r="ET12" s="56"/>
+      <c r="EU12" s="8"/>
+      <c r="EV12" s="21"/>
+      <c r="EW12" s="7"/>
+      <c r="EX12" s="21"/>
+      <c r="EY12" s="21"/>
+      <c r="FA12" s="56"/>
+      <c r="FC12" s="56"/>
+      <c r="FD12" s="56"/>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -11347,46 +12616,46 @@
       <c r="CH13" t="s">
         <v>18</v>
       </c>
-      <c r="CI13" s="75">
+      <c r="CI13" s="56">
         <v>0.64435185185185184</v>
       </c>
       <c r="CJ13">
         <v>100</v>
       </c>
-      <c r="CK13" s="75">
+      <c r="CK13" s="56">
         <v>0.64429398148148154</v>
       </c>
-      <c r="CL13" s="75">
+      <c r="CL13" s="56">
         <v>0.64431712962962961</v>
       </c>
       <c r="CM13" t="s">
         <v>37</v>
       </c>
-      <c r="CN13" s="75">
+      <c r="CN13" s="56">
         <v>0.69390046296296293</v>
       </c>
       <c r="CO13">
         <v>10</v>
       </c>
-      <c r="CP13" s="75">
+      <c r="CP13" s="56">
         <v>0.69378472222222232</v>
       </c>
-      <c r="CQ13" s="75">
+      <c r="CQ13" s="56">
         <v>0.69388888888888889</v>
       </c>
       <c r="CR13" t="s">
         <v>11</v>
       </c>
-      <c r="CS13" s="75">
+      <c r="CS13" s="56">
         <v>0.70736111111111111</v>
       </c>
       <c r="CT13">
         <v>200</v>
       </c>
-      <c r="CU13" s="75">
+      <c r="CU13" s="56">
         <v>0.70732638888888888</v>
       </c>
-      <c r="CV13" s="75">
+      <c r="CV13" s="56">
         <v>0.70733796296296303</v>
       </c>
       <c r="CW13" s="8"/>
@@ -11397,20 +12666,72 @@
       <c r="DB13" t="s">
         <v>8</v>
       </c>
-      <c r="DC13" s="75">
+      <c r="DC13" s="56">
         <v>0.64339120370370373</v>
       </c>
       <c r="DD13">
         <v>10</v>
       </c>
-      <c r="DE13" s="75">
+      <c r="DE13" s="56">
         <v>0.64325231481481482</v>
       </c>
-      <c r="DF13" s="75">
+      <c r="DF13" s="56">
         <v>0.64334490740740746</v>
       </c>
+      <c r="DG13" s="8"/>
+      <c r="DH13" s="21"/>
+      <c r="DI13" s="7"/>
+      <c r="DJ13" s="21"/>
+      <c r="DK13" s="21"/>
+      <c r="DL13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM13" s="56">
+        <v>0.4761111111111111</v>
+      </c>
+      <c r="DN13">
+        <v>100</v>
+      </c>
+      <c r="DO13" s="56">
+        <v>0.4760416666666667</v>
+      </c>
+      <c r="DP13" s="56">
+        <v>0.47606481481481483</v>
+      </c>
+      <c r="DQ13" s="8"/>
+      <c r="DR13" s="21"/>
+      <c r="DS13" s="7"/>
+      <c r="DT13" s="21"/>
+      <c r="DU13" s="21"/>
+      <c r="DW13" s="56"/>
+      <c r="DY13" s="56"/>
+      <c r="DZ13" s="56"/>
+      <c r="EA13" s="8"/>
+      <c r="EB13" s="21"/>
+      <c r="EC13" s="7"/>
+      <c r="ED13" s="21"/>
+      <c r="EE13" s="21"/>
+      <c r="EG13" s="56"/>
+      <c r="EI13" s="56"/>
+      <c r="EJ13" s="56"/>
+      <c r="EK13" s="8"/>
+      <c r="EL13" s="21"/>
+      <c r="EM13" s="7"/>
+      <c r="EN13" s="21"/>
+      <c r="EO13" s="21"/>
+      <c r="EQ13" s="56"/>
+      <c r="ES13" s="56"/>
+      <c r="ET13" s="56"/>
+      <c r="EU13" s="8"/>
+      <c r="EV13" s="21"/>
+      <c r="EW13" s="7"/>
+      <c r="EX13" s="21"/>
+      <c r="EY13" s="21"/>
+      <c r="FA13" s="56"/>
+      <c r="FC13" s="56"/>
+      <c r="FD13" s="56"/>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -11659,46 +12980,46 @@
       <c r="CH14" t="s">
         <v>20</v>
       </c>
-      <c r="CI14" s="75">
+      <c r="CI14" s="56">
         <v>0.6446412037037037</v>
       </c>
       <c r="CJ14">
         <v>30</v>
       </c>
-      <c r="CK14" s="75">
+      <c r="CK14" s="56">
         <v>0.64457175925925925</v>
       </c>
-      <c r="CL14" s="75">
+      <c r="CL14" s="56">
         <v>0.64461805555555551</v>
       </c>
       <c r="CM14" t="s">
         <v>2</v>
       </c>
-      <c r="CN14" s="75">
+      <c r="CN14" s="56">
         <v>0.69420138888888883</v>
       </c>
       <c r="CO14">
         <v>100</v>
       </c>
-      <c r="CP14" s="75">
+      <c r="CP14" s="56">
         <v>0.69413194444444448</v>
       </c>
-      <c r="CQ14" s="75">
+      <c r="CQ14" s="56">
         <v>0.69416666666666671</v>
       </c>
       <c r="CR14" t="s">
         <v>2</v>
       </c>
-      <c r="CS14" s="75">
+      <c r="CS14" s="56">
         <v>0.70771990740740742</v>
       </c>
       <c r="CT14">
         <v>3</v>
       </c>
-      <c r="CU14" s="75">
+      <c r="CU14" s="56">
         <v>0.70759259259259266</v>
       </c>
-      <c r="CV14" s="75">
+      <c r="CV14" s="56">
         <v>0.70787037037037026</v>
       </c>
       <c r="CW14" s="8"/>
@@ -11709,20 +13030,72 @@
       <c r="DB14" t="s">
         <v>10</v>
       </c>
-      <c r="DC14" s="75">
+      <c r="DC14" s="56">
         <v>0.6436574074074074</v>
       </c>
       <c r="DD14">
         <v>50</v>
       </c>
-      <c r="DE14" s="75">
+      <c r="DE14" s="56">
         <v>0.64359953703703698</v>
       </c>
-      <c r="DF14" s="75">
+      <c r="DF14" s="56">
         <v>0.64363425925925932</v>
       </c>
+      <c r="DG14" s="8"/>
+      <c r="DH14" s="21"/>
+      <c r="DI14" s="7"/>
+      <c r="DJ14" s="21"/>
+      <c r="DK14" s="21"/>
+      <c r="DL14" t="s">
+        <v>4</v>
+      </c>
+      <c r="DM14" s="56">
+        <v>0.47665509259259259</v>
+      </c>
+      <c r="DN14">
+        <v>3</v>
+      </c>
+      <c r="DO14" s="56">
+        <v>0.47631944444444446</v>
+      </c>
+      <c r="DP14" s="56">
+        <v>0.47659722222222217</v>
+      </c>
+      <c r="DQ14" s="8"/>
+      <c r="DR14" s="21"/>
+      <c r="DS14" s="7"/>
+      <c r="DT14" s="21"/>
+      <c r="DU14" s="21"/>
+      <c r="DW14" s="56"/>
+      <c r="DY14" s="56"/>
+      <c r="DZ14" s="56"/>
+      <c r="EA14" s="8"/>
+      <c r="EB14" s="21"/>
+      <c r="EC14" s="7"/>
+      <c r="ED14" s="21"/>
+      <c r="EE14" s="21"/>
+      <c r="EG14" s="56"/>
+      <c r="EI14" s="56"/>
+      <c r="EJ14" s="56"/>
+      <c r="EK14" s="8"/>
+      <c r="EL14" s="21"/>
+      <c r="EM14" s="7"/>
+      <c r="EN14" s="21"/>
+      <c r="EO14" s="21"/>
+      <c r="EQ14" s="56"/>
+      <c r="ES14" s="56"/>
+      <c r="ET14" s="56"/>
+      <c r="EU14" s="8"/>
+      <c r="EV14" s="21"/>
+      <c r="EW14" s="7"/>
+      <c r="EX14" s="21"/>
+      <c r="EY14" s="21"/>
+      <c r="FA14" s="56"/>
+      <c r="FC14" s="56"/>
+      <c r="FD14" s="56"/>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -11971,46 +13344,46 @@
       <c r="CH15" t="s">
         <v>18</v>
       </c>
-      <c r="CI15" s="75">
+      <c r="CI15" s="56">
         <v>0.64493055555555556</v>
       </c>
       <c r="CJ15">
         <v>50</v>
       </c>
-      <c r="CK15" s="75">
+      <c r="CK15" s="56">
         <v>0.64486111111111111</v>
       </c>
-      <c r="CL15" s="75">
+      <c r="CL15" s="56">
         <v>0.64489583333333333</v>
       </c>
       <c r="CM15" t="s">
         <v>20</v>
       </c>
-      <c r="CN15" s="75">
+      <c r="CN15" s="56">
         <v>0.69469907407407405</v>
       </c>
       <c r="CO15">
         <v>3</v>
       </c>
-      <c r="CP15" s="75">
+      <c r="CP15" s="56">
         <v>0.69440972222222219</v>
       </c>
-      <c r="CQ15" s="75">
+      <c r="CQ15" s="56">
         <v>0.69468750000000001</v>
       </c>
       <c r="CR15" t="s">
         <v>4</v>
       </c>
-      <c r="CS15" s="75">
+      <c r="CS15" s="56">
         <v>0.70817129629629638</v>
       </c>
       <c r="CT15">
         <v>100</v>
       </c>
-      <c r="CU15" s="75">
+      <c r="CU15" s="56">
         <v>0.708125</v>
       </c>
-      <c r="CV15" s="75">
+      <c r="CV15" s="56">
         <v>0.70814814814814808</v>
       </c>
       <c r="CW15" s="8"/>
@@ -12021,20 +13394,72 @@
       <c r="DB15" t="s">
         <v>2</v>
       </c>
-      <c r="DC15" s="75">
+      <c r="DC15" s="56">
         <v>0.64420138888888889</v>
       </c>
       <c r="DD15">
         <v>3</v>
       </c>
-      <c r="DE15" s="75">
+      <c r="DE15" s="56">
         <v>0.64387731481481481</v>
       </c>
-      <c r="DF15" s="75">
+      <c r="DF15" s="56">
         <v>0.64416666666666667</v>
       </c>
+      <c r="DG15" s="8"/>
+      <c r="DH15" s="21"/>
+      <c r="DI15" s="7"/>
+      <c r="DJ15" s="21"/>
+      <c r="DK15" s="21"/>
+      <c r="DL15" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM15" s="56">
+        <v>0.47690972222222222</v>
+      </c>
+      <c r="DN15">
+        <v>200</v>
+      </c>
+      <c r="DO15" s="56">
+        <v>0.47685185185185186</v>
+      </c>
+      <c r="DP15" s="56">
+        <v>0.47687499999999999</v>
+      </c>
+      <c r="DQ15" s="8"/>
+      <c r="DR15" s="21"/>
+      <c r="DS15" s="7"/>
+      <c r="DT15" s="21"/>
+      <c r="DU15" s="21"/>
+      <c r="DW15" s="56"/>
+      <c r="DY15" s="56"/>
+      <c r="DZ15" s="56"/>
+      <c r="EA15" s="8"/>
+      <c r="EB15" s="21"/>
+      <c r="EC15" s="7"/>
+      <c r="ED15" s="21"/>
+      <c r="EE15" s="21"/>
+      <c r="EG15" s="56"/>
+      <c r="EI15" s="56"/>
+      <c r="EJ15" s="56"/>
+      <c r="EK15" s="8"/>
+      <c r="EL15" s="21"/>
+      <c r="EM15" s="7"/>
+      <c r="EN15" s="21"/>
+      <c r="EO15" s="21"/>
+      <c r="EQ15" s="56"/>
+      <c r="ES15" s="56"/>
+      <c r="ET15" s="56"/>
+      <c r="EU15" s="8"/>
+      <c r="EV15" s="21"/>
+      <c r="EW15" s="7"/>
+      <c r="EX15" s="21"/>
+      <c r="EY15" s="21"/>
+      <c r="FA15" s="56"/>
+      <c r="FC15" s="56"/>
+      <c r="FD15" s="56"/>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -12283,46 +13708,46 @@
       <c r="CH16" t="s">
         <v>12</v>
       </c>
-      <c r="CI16" s="75">
+      <c r="CI16" s="56">
         <v>0.64521990740740742</v>
       </c>
       <c r="CJ16">
         <v>200</v>
       </c>
-      <c r="CK16" s="75">
+      <c r="CK16" s="56">
         <v>0.64515046296296297</v>
       </c>
-      <c r="CL16" s="75">
+      <c r="CL16" s="56">
         <v>0.64517361111111116</v>
       </c>
       <c r="CM16" t="s">
         <v>2</v>
       </c>
-      <c r="CN16" s="75">
+      <c r="CN16" s="56">
         <v>0.69499999999999995</v>
       </c>
       <c r="CO16">
         <v>100</v>
       </c>
-      <c r="CP16" s="75">
+      <c r="CP16" s="56">
         <v>0.69494212962962953</v>
       </c>
-      <c r="CQ16" s="75">
+      <c r="CQ16" s="56">
         <v>0.69496527777777783</v>
       </c>
       <c r="CR16" t="s">
         <v>8</v>
       </c>
-      <c r="CS16" s="75">
+      <c r="CS16" s="56">
         <v>0.70846064814814813</v>
       </c>
       <c r="CT16">
         <v>100</v>
       </c>
-      <c r="CU16" s="75">
+      <c r="CU16" s="56">
         <v>0.70840277777777771</v>
       </c>
-      <c r="CV16" s="75">
+      <c r="CV16" s="56">
         <v>0.7084259259259259</v>
       </c>
       <c r="CW16" s="8"/>
@@ -12333,20 +13758,72 @@
       <c r="DB16" t="s">
         <v>2</v>
       </c>
-      <c r="DC16" s="75">
+      <c r="DC16" s="56">
         <v>0.6447222222222222</v>
       </c>
       <c r="DD16">
         <v>3</v>
       </c>
-      <c r="DE16" s="75">
+      <c r="DE16" s="56">
         <v>0.64440972222222215</v>
       </c>
-      <c r="DF16" s="75">
+      <c r="DF16" s="56">
         <v>0.64468749999999997</v>
       </c>
+      <c r="DG16" s="8"/>
+      <c r="DH16" s="21"/>
+      <c r="DI16" s="7"/>
+      <c r="DJ16" s="21"/>
+      <c r="DK16" s="21"/>
+      <c r="DL16" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM16" s="56">
+        <v>0.47718750000000004</v>
+      </c>
+      <c r="DN16">
+        <v>100</v>
+      </c>
+      <c r="DO16" s="56">
+        <v>0.47711805555555559</v>
+      </c>
+      <c r="DP16" s="56">
+        <v>0.47715277777777776</v>
+      </c>
+      <c r="DQ16" s="8"/>
+      <c r="DR16" s="21"/>
+      <c r="DS16" s="7"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
+      <c r="DW16" s="56"/>
+      <c r="DY16" s="56"/>
+      <c r="DZ16" s="56"/>
+      <c r="EA16" s="8"/>
+      <c r="EB16" s="21"/>
+      <c r="EC16" s="7"/>
+      <c r="ED16" s="21"/>
+      <c r="EE16" s="21"/>
+      <c r="EG16" s="56"/>
+      <c r="EI16" s="56"/>
+      <c r="EJ16" s="56"/>
+      <c r="EK16" s="8"/>
+      <c r="EL16" s="21"/>
+      <c r="EM16" s="7"/>
+      <c r="EN16" s="21"/>
+      <c r="EO16" s="21"/>
+      <c r="EQ16" s="56"/>
+      <c r="ES16" s="56"/>
+      <c r="ET16" s="56"/>
+      <c r="EU16" s="8"/>
+      <c r="EV16" s="21"/>
+      <c r="EW16" s="7"/>
+      <c r="EX16" s="21"/>
+      <c r="EY16" s="21"/>
+      <c r="FA16" s="56"/>
+      <c r="FC16" s="56"/>
+      <c r="FD16" s="56"/>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -12595,46 +14072,46 @@
       <c r="CH17" t="s">
         <v>12</v>
       </c>
-      <c r="CI17" s="75">
+      <c r="CI17" s="56">
         <v>0.64572916666666669</v>
       </c>
       <c r="CJ17">
         <v>3</v>
       </c>
-      <c r="CK17" s="75">
+      <c r="CK17" s="56">
         <v>0.64542824074074068</v>
       </c>
-      <c r="CL17" s="75">
+      <c r="CL17" s="56">
         <v>0.6457060185185185</v>
       </c>
       <c r="CM17" t="s">
         <v>4</v>
       </c>
-      <c r="CN17" s="75">
+      <c r="CN17" s="56">
         <v>0.69528935185185192</v>
       </c>
       <c r="CO17">
         <v>200</v>
       </c>
-      <c r="CP17" s="75">
+      <c r="CP17" s="56">
         <v>0.69521990740740736</v>
       </c>
-      <c r="CQ17" s="75">
+      <c r="CQ17" s="56">
         <v>0.69524305555555566</v>
       </c>
       <c r="CR17" t="s">
         <v>4</v>
       </c>
-      <c r="CS17" s="75">
+      <c r="CS17" s="56">
         <v>0.7087268518518518</v>
       </c>
       <c r="CT17">
         <v>50</v>
       </c>
-      <c r="CU17" s="75">
+      <c r="CU17" s="56">
         <v>0.70868055555555554</v>
       </c>
-      <c r="CV17" s="75">
+      <c r="CV17" s="56">
         <v>0.70871527777777776</v>
       </c>
       <c r="CW17" s="8"/>
@@ -12645,20 +14122,72 @@
       <c r="DB17" t="s">
         <v>12</v>
       </c>
-      <c r="DC17" s="75">
+      <c r="DC17" s="56">
         <v>0.64501157407407406</v>
       </c>
       <c r="DD17">
         <v>30</v>
       </c>
-      <c r="DE17" s="75">
+      <c r="DE17" s="56">
         <v>0.6449421296296296</v>
       </c>
-      <c r="DF17" s="75">
+      <c r="DF17" s="56">
         <v>0.64498842592592587</v>
       </c>
+      <c r="DG17" s="8"/>
+      <c r="DH17" s="21"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="21"/>
+      <c r="DK17" s="21"/>
+      <c r="DL17" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM17" s="56">
+        <v>0.47748842592592594</v>
+      </c>
+      <c r="DN17">
+        <v>30</v>
+      </c>
+      <c r="DO17" s="56">
+        <v>0.4773958333333333</v>
+      </c>
+      <c r="DP17" s="56">
+        <v>0.47744212962962962</v>
+      </c>
+      <c r="DQ17" s="8"/>
+      <c r="DR17" s="21"/>
+      <c r="DS17" s="7"/>
+      <c r="DT17" s="21"/>
+      <c r="DU17" s="21"/>
+      <c r="DW17" s="56"/>
+      <c r="DY17" s="56"/>
+      <c r="DZ17" s="56"/>
+      <c r="EA17" s="8"/>
+      <c r="EB17" s="21"/>
+      <c r="EC17" s="7"/>
+      <c r="ED17" s="21"/>
+      <c r="EE17" s="21"/>
+      <c r="EG17" s="56"/>
+      <c r="EI17" s="56"/>
+      <c r="EJ17" s="56"/>
+      <c r="EK17" s="8"/>
+      <c r="EL17" s="21"/>
+      <c r="EM17" s="7"/>
+      <c r="EN17" s="21"/>
+      <c r="EO17" s="21"/>
+      <c r="EQ17" s="56"/>
+      <c r="ES17" s="56"/>
+      <c r="ET17" s="56"/>
+      <c r="EU17" s="8"/>
+      <c r="EV17" s="21"/>
+      <c r="EW17" s="7"/>
+      <c r="EX17" s="21"/>
+      <c r="EY17" s="21"/>
+      <c r="FA17" s="56"/>
+      <c r="FC17" s="56"/>
+      <c r="FD17" s="56"/>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -12907,46 +14436,46 @@
       <c r="CH18" t="s">
         <v>20</v>
       </c>
-      <c r="CI18" s="75">
+      <c r="CI18" s="56">
         <v>0.64603009259259259</v>
       </c>
       <c r="CJ18">
         <v>50</v>
       </c>
-      <c r="CK18" s="75">
+      <c r="CK18" s="56">
         <v>0.64594907407407409</v>
       </c>
-      <c r="CL18" s="75">
+      <c r="CL18" s="56">
         <v>0.64598379629629632</v>
       </c>
       <c r="CM18" t="s">
         <v>12</v>
       </c>
-      <c r="CN18" s="75">
+      <c r="CN18" s="56">
         <v>0.69555555555555559</v>
       </c>
       <c r="CO18">
         <v>30</v>
       </c>
-      <c r="CP18" s="75">
+      <c r="CP18" s="56">
         <v>0.69549768518518518</v>
       </c>
-      <c r="CQ18" s="75">
+      <c r="CQ18" s="56">
         <v>0.69554398148148155</v>
       </c>
       <c r="CR18" t="s">
         <v>4</v>
       </c>
-      <c r="CS18" s="75">
+      <c r="CS18" s="56">
         <v>0.70901620370370377</v>
       </c>
       <c r="CT18">
         <v>200</v>
       </c>
-      <c r="CU18" s="75">
+      <c r="CU18" s="56">
         <v>0.70896990740740751</v>
       </c>
-      <c r="CV18" s="75">
+      <c r="CV18" s="56">
         <v>0.70898148148148143</v>
       </c>
       <c r="CW18" s="8"/>
@@ -12957,20 +14486,72 @@
       <c r="DB18" t="s">
         <v>12</v>
       </c>
-      <c r="DC18" s="75">
+      <c r="DC18" s="56">
         <v>0.64530092592592592</v>
       </c>
       <c r="DD18">
         <v>50</v>
       </c>
-      <c r="DE18" s="75">
+      <c r="DE18" s="56">
         <v>0.64523148148148146</v>
       </c>
-      <c r="DF18" s="75">
+      <c r="DF18" s="56">
         <v>0.64526620370370369</v>
       </c>
+      <c r="DG18" s="8"/>
+      <c r="DH18" s="21"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="21"/>
+      <c r="DK18" s="21"/>
+      <c r="DL18" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM18" s="56">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="DN18">
+        <v>200</v>
+      </c>
+      <c r="DO18" s="56">
+        <v>0.47769675925925931</v>
+      </c>
+      <c r="DP18" s="56">
+        <v>0.47771990740740744</v>
+      </c>
+      <c r="DQ18" s="8"/>
+      <c r="DR18" s="21"/>
+      <c r="DS18" s="7"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
+      <c r="DW18" s="56"/>
+      <c r="DY18" s="56"/>
+      <c r="DZ18" s="56"/>
+      <c r="EA18" s="8"/>
+      <c r="EB18" s="21"/>
+      <c r="EC18" s="7"/>
+      <c r="ED18" s="21"/>
+      <c r="EE18" s="21"/>
+      <c r="EG18" s="56"/>
+      <c r="EI18" s="56"/>
+      <c r="EJ18" s="56"/>
+      <c r="EK18" s="8"/>
+      <c r="EL18" s="21"/>
+      <c r="EM18" s="7"/>
+      <c r="EN18" s="21"/>
+      <c r="EO18" s="21"/>
+      <c r="EQ18" s="56"/>
+      <c r="ES18" s="56"/>
+      <c r="ET18" s="56"/>
+      <c r="EU18" s="8"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="7"/>
+      <c r="EX18" s="21"/>
+      <c r="EY18" s="21"/>
+      <c r="FA18" s="56"/>
+      <c r="FC18" s="56"/>
+      <c r="FD18" s="56"/>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
@@ -13219,46 +14800,46 @@
       <c r="CH19" t="s">
         <v>20</v>
       </c>
-      <c r="CI19" s="75">
+      <c r="CI19" s="56">
         <v>0.64631944444444445</v>
       </c>
       <c r="CJ19">
         <v>30</v>
       </c>
-      <c r="CK19" s="75">
+      <c r="CK19" s="56">
         <v>0.64623842592592595</v>
       </c>
-      <c r="CL19" s="75">
+      <c r="CL19" s="56">
         <v>0.64628472222222222</v>
       </c>
       <c r="CM19" t="s">
         <v>8</v>
       </c>
-      <c r="CN19" s="75">
+      <c r="CN19" s="56">
         <v>0.69592592592592595</v>
       </c>
       <c r="CO19">
         <v>10</v>
       </c>
-      <c r="CP19" s="75">
+      <c r="CP19" s="56">
         <v>0.69578703703703704</v>
       </c>
-      <c r="CQ19" s="75">
+      <c r="CQ19" s="56">
         <v>0.69589120370370372</v>
       </c>
       <c r="CR19" t="s">
         <v>11</v>
       </c>
-      <c r="CS19" s="75">
+      <c r="CS19" s="56">
         <v>0.70952546296296293</v>
       </c>
       <c r="CT19">
         <v>3</v>
       </c>
-      <c r="CU19" s="75">
+      <c r="CU19" s="56">
         <v>0.70923611111111118</v>
       </c>
-      <c r="CV19" s="75">
+      <c r="CV19" s="56">
         <v>0.70951388888888889</v>
       </c>
       <c r="CW19" s="8"/>
@@ -13269,20 +14850,72 @@
       <c r="DB19" t="s">
         <v>10</v>
       </c>
-      <c r="DC19" s="75">
+      <c r="DC19" s="56">
         <v>0.64557870370370374</v>
       </c>
       <c r="DD19">
         <v>100</v>
       </c>
-      <c r="DE19" s="75">
+      <c r="DE19" s="56">
         <v>0.64552083333333332</v>
       </c>
-      <c r="DF19" s="75">
+      <c r="DF19" s="56">
         <v>0.64554398148148151</v>
       </c>
+      <c r="DG19" s="8"/>
+      <c r="DH19" s="21"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="21"/>
+      <c r="DK19" s="21"/>
+      <c r="DL19" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM19" s="56">
+        <v>0.47804398148148147</v>
+      </c>
+      <c r="DN19">
+        <v>50</v>
+      </c>
+      <c r="DO19" s="56">
+        <v>0.47796296296296298</v>
+      </c>
+      <c r="DP19" s="56">
+        <v>0.47799768518518521</v>
+      </c>
+      <c r="DQ19" s="8"/>
+      <c r="DR19" s="21"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="21"/>
+      <c r="DU19" s="21"/>
+      <c r="DW19" s="56"/>
+      <c r="DY19" s="56"/>
+      <c r="DZ19" s="56"/>
+      <c r="EA19" s="8"/>
+      <c r="EB19" s="21"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="21"/>
+      <c r="EE19" s="21"/>
+      <c r="EG19" s="56"/>
+      <c r="EI19" s="56"/>
+      <c r="EJ19" s="56"/>
+      <c r="EK19" s="8"/>
+      <c r="EL19" s="21"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="21"/>
+      <c r="EO19" s="21"/>
+      <c r="EQ19" s="56"/>
+      <c r="ES19" s="56"/>
+      <c r="ET19" s="56"/>
+      <c r="EU19" s="8"/>
+      <c r="EV19" s="21"/>
+      <c r="EW19" s="7"/>
+      <c r="EX19" s="21"/>
+      <c r="EY19" s="21"/>
+      <c r="FA19" s="56"/>
+      <c r="FC19" s="56"/>
+      <c r="FD19" s="56"/>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -13531,46 +15164,46 @@
       <c r="CH20" t="s">
         <v>20</v>
       </c>
-      <c r="CI20" s="75">
+      <c r="CI20" s="56">
         <v>0.64659722222222216</v>
       </c>
       <c r="CJ20">
         <v>100</v>
       </c>
-      <c r="CK20" s="75">
+      <c r="CK20" s="56">
         <v>0.64652777777777781</v>
       </c>
-      <c r="CL20" s="75">
+      <c r="CL20" s="56">
         <v>0.64656250000000004</v>
       </c>
       <c r="CM20" t="s">
         <v>12</v>
       </c>
-      <c r="CN20" s="75">
+      <c r="CN20" s="56">
         <v>0.69609953703703698</v>
       </c>
       <c r="CO20">
         <v>3</v>
       </c>
-      <c r="CP20" s="75">
+      <c r="CP20" s="56">
         <v>0.6961342592592592</v>
       </c>
-      <c r="CQ20" s="75">
+      <c r="CQ20" s="56">
         <v>0.69641203703703702</v>
       </c>
       <c r="CR20" t="s">
         <v>10</v>
       </c>
-      <c r="CS20" s="75">
+      <c r="CS20" s="56">
         <v>0.70982638888888883</v>
       </c>
       <c r="CT20">
         <v>30</v>
       </c>
-      <c r="CU20" s="75">
+      <c r="CU20" s="56">
         <v>0.70976851851851841</v>
       </c>
-      <c r="CV20" s="75">
+      <c r="CV20" s="56">
         <v>0.70981481481481479</v>
       </c>
       <c r="CW20" s="8"/>
@@ -13581,20 +15214,72 @@
       <c r="DB20" t="s">
         <v>11</v>
       </c>
-      <c r="DC20" s="75">
+      <c r="DC20" s="56">
         <v>0.64587962962962964</v>
       </c>
       <c r="DD20">
         <v>200</v>
       </c>
-      <c r="DE20" s="75">
+      <c r="DE20" s="56">
         <v>0.64579861111111114</v>
       </c>
-      <c r="DF20" s="75">
+      <c r="DF20" s="56">
         <v>0.64582175925925933</v>
       </c>
+      <c r="DG20" s="8"/>
+      <c r="DH20" s="21"/>
+      <c r="DI20" s="7"/>
+      <c r="DJ20" s="21"/>
+      <c r="DK20" s="21"/>
+      <c r="DL20" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM20" s="56">
+        <v>0.47839120370370369</v>
+      </c>
+      <c r="DN20">
+        <v>10</v>
+      </c>
+      <c r="DO20" s="56">
+        <v>0.47825231481481478</v>
+      </c>
+      <c r="DP20" s="56">
+        <v>0.47834490740740737</v>
+      </c>
+      <c r="DQ20" s="8"/>
+      <c r="DR20" s="21"/>
+      <c r="DS20" s="7"/>
+      <c r="DT20" s="21"/>
+      <c r="DU20" s="21"/>
+      <c r="DW20" s="56"/>
+      <c r="DY20" s="56"/>
+      <c r="DZ20" s="56"/>
+      <c r="EA20" s="8"/>
+      <c r="EB20" s="21"/>
+      <c r="EC20" s="7"/>
+      <c r="ED20" s="21"/>
+      <c r="EE20" s="21"/>
+      <c r="EG20" s="56"/>
+      <c r="EI20" s="56"/>
+      <c r="EJ20" s="56"/>
+      <c r="EK20" s="8"/>
+      <c r="EL20" s="21"/>
+      <c r="EM20" s="7"/>
+      <c r="EN20" s="21"/>
+      <c r="EO20" s="21"/>
+      <c r="EQ20" s="56"/>
+      <c r="ES20" s="56"/>
+      <c r="ET20" s="56"/>
+      <c r="EU20" s="8"/>
+      <c r="EV20" s="21"/>
+      <c r="EW20" s="7"/>
+      <c r="EX20" s="21"/>
+      <c r="EY20" s="21"/>
+      <c r="FA20" s="56"/>
+      <c r="FC20" s="56"/>
+      <c r="FD20" s="56"/>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
@@ -13843,46 +15528,46 @@
       <c r="CH21" t="s">
         <v>18</v>
       </c>
-      <c r="CI21" s="75">
+      <c r="CI21" s="56">
         <v>0.64693287037037039</v>
       </c>
       <c r="CJ21">
         <v>10</v>
       </c>
-      <c r="CK21" s="75">
+      <c r="CK21" s="56">
         <v>0.64680555555555552</v>
       </c>
-      <c r="CL21" s="75">
+      <c r="CL21" s="56">
         <v>0.64690972222222221</v>
       </c>
       <c r="CM21" t="s">
         <v>8</v>
       </c>
-      <c r="CN21" s="75">
+      <c r="CN21" s="56">
         <v>0.6963773148148148</v>
       </c>
       <c r="CO21">
         <v>50</v>
       </c>
-      <c r="CP21" s="75">
+      <c r="CP21" s="56">
         <v>0.69666666666666666</v>
       </c>
-      <c r="CQ21" s="75">
+      <c r="CQ21" s="56">
         <v>0.69670138888888899</v>
       </c>
       <c r="CR21" t="s">
         <v>10</v>
       </c>
-      <c r="CS21" s="75">
+      <c r="CS21" s="56">
         <v>0.71018518518518514</v>
       </c>
       <c r="CT21">
         <v>10</v>
       </c>
-      <c r="CU21" s="75">
+      <c r="CU21" s="56">
         <v>0.71005787037037038</v>
       </c>
-      <c r="CV21" s="75">
+      <c r="CV21" s="56">
         <v>0.71016203703703706</v>
       </c>
       <c r="CW21" s="8"/>
@@ -13893,20 +15578,72 @@
       <c r="DB21" t="s">
         <v>8</v>
       </c>
-      <c r="DC21" s="75">
+      <c r="DC21" s="56">
         <v>0.64619212962962969</v>
       </c>
       <c r="DD21">
         <v>10</v>
       </c>
-      <c r="DE21" s="75">
+      <c r="DE21" s="56">
         <v>0.64607638888888885</v>
       </c>
-      <c r="DF21" s="75">
+      <c r="DF21" s="56">
         <v>0.6461689814814815</v>
       </c>
+      <c r="DG21" s="8"/>
+      <c r="DH21" s="21"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="21"/>
+      <c r="DK21" s="21"/>
+      <c r="DL21" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM21" s="56">
+        <v>0.47892361111111109</v>
+      </c>
+      <c r="DN21">
+        <v>3</v>
+      </c>
+      <c r="DO21" s="56">
+        <v>0.47859953703703706</v>
+      </c>
+      <c r="DP21" s="56">
+        <v>0.47887731481481483</v>
+      </c>
+      <c r="DQ21" s="8"/>
+      <c r="DR21" s="21"/>
+      <c r="DS21" s="7"/>
+      <c r="DT21" s="21"/>
+      <c r="DU21" s="21"/>
+      <c r="DW21" s="56"/>
+      <c r="DY21" s="56"/>
+      <c r="DZ21" s="56"/>
+      <c r="EA21" s="8"/>
+      <c r="EB21" s="21"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="21"/>
+      <c r="EE21" s="21"/>
+      <c r="EG21" s="56"/>
+      <c r="EI21" s="56"/>
+      <c r="EJ21" s="56"/>
+      <c r="EK21" s="8"/>
+      <c r="EL21" s="21"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="21"/>
+      <c r="EO21" s="21"/>
+      <c r="EQ21" s="56"/>
+      <c r="ES21" s="56"/>
+      <c r="ET21" s="56"/>
+      <c r="EU21" s="8"/>
+      <c r="EV21" s="21"/>
+      <c r="EW21" s="7"/>
+      <c r="EX21" s="21"/>
+      <c r="EY21" s="21"/>
+      <c r="FA21" s="56"/>
+      <c r="FC21" s="56"/>
+      <c r="FD21" s="56"/>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
@@ -14155,46 +15892,46 @@
       <c r="CH22" t="s">
         <v>20</v>
       </c>
-      <c r="CI22" s="75">
+      <c r="CI22" s="56">
         <v>0.64723379629629629</v>
       </c>
       <c r="CJ22">
         <v>50</v>
       </c>
-      <c r="CK22" s="75">
+      <c r="CK22" s="56">
         <v>0.6471527777777778</v>
       </c>
-      <c r="CL22" s="75">
+      <c r="CL22" s="56">
         <v>0.64718750000000003</v>
       </c>
       <c r="CM22" t="s">
         <v>2</v>
       </c>
-      <c r="CN22" s="75">
+      <c r="CN22" s="56">
         <v>0.69672453703703707</v>
       </c>
       <c r="CO22">
         <v>50</v>
       </c>
-      <c r="CP22" s="75">
+      <c r="CP22" s="56">
         <v>0.69695601851851852</v>
       </c>
-      <c r="CQ22" s="75">
+      <c r="CQ22" s="56">
         <v>0.69699074074074074</v>
       </c>
       <c r="CR22" t="s">
         <v>10</v>
       </c>
-      <c r="CS22" s="75">
+      <c r="CS22" s="56">
         <v>0.71046296296296296</v>
       </c>
       <c r="CT22">
         <v>50</v>
       </c>
-      <c r="CU22" s="75">
+      <c r="CU22" s="56">
         <v>0.71040509259259255</v>
       </c>
-      <c r="CV22" s="75">
+      <c r="CV22" s="56">
         <v>0.71043981481481477</v>
       </c>
       <c r="CW22" s="8"/>
@@ -14205,20 +15942,72 @@
       <c r="DB22" t="s">
         <v>2</v>
       </c>
-      <c r="DC22" s="75">
+      <c r="DC22" s="56">
         <v>0.64671296296296299</v>
       </c>
       <c r="DD22">
         <v>3</v>
       </c>
-      <c r="DE22" s="75">
+      <c r="DE22" s="56">
         <v>0.64642361111111113</v>
       </c>
-      <c r="DF22" s="75">
+      <c r="DF22" s="56">
         <v>0.64670138888888895</v>
       </c>
+      <c r="DG22" s="8"/>
+      <c r="DH22" s="21"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="21"/>
+      <c r="DK22" s="21"/>
+      <c r="DL22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM22" s="56">
+        <v>0.47921296296296295</v>
+      </c>
+      <c r="DN22">
+        <v>200</v>
+      </c>
+      <c r="DO22" s="56">
+        <v>0.47913194444444446</v>
+      </c>
+      <c r="DP22" s="56">
+        <v>0.47915509259259265</v>
+      </c>
+      <c r="DQ22" s="8"/>
+      <c r="DR22" s="21"/>
+      <c r="DS22" s="7"/>
+      <c r="DT22" s="21"/>
+      <c r="DU22" s="21"/>
+      <c r="DW22" s="56"/>
+      <c r="DY22" s="56"/>
+      <c r="DZ22" s="56"/>
+      <c r="EA22" s="8"/>
+      <c r="EB22" s="21"/>
+      <c r="EC22" s="7"/>
+      <c r="ED22" s="21"/>
+      <c r="EE22" s="21"/>
+      <c r="EG22" s="56"/>
+      <c r="EI22" s="56"/>
+      <c r="EJ22" s="56"/>
+      <c r="EK22" s="8"/>
+      <c r="EL22" s="21"/>
+      <c r="EM22" s="7"/>
+      <c r="EN22" s="21"/>
+      <c r="EO22" s="21"/>
+      <c r="EQ22" s="56"/>
+      <c r="ES22" s="56"/>
+      <c r="ET22" s="56"/>
+      <c r="EU22" s="8"/>
+      <c r="EV22" s="21"/>
+      <c r="EW22" s="7"/>
+      <c r="EX22" s="21"/>
+      <c r="EY22" s="21"/>
+      <c r="FA22" s="56"/>
+      <c r="FC22" s="56"/>
+      <c r="FD22" s="56"/>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -14467,46 +16256,46 @@
       <c r="CH23" t="s">
         <v>20</v>
       </c>
-      <c r="CI23" s="75">
+      <c r="CI23" s="56">
         <v>0.64758101851851857</v>
       </c>
       <c r="CJ23">
         <v>10</v>
       </c>
-      <c r="CK23" s="75">
+      <c r="CK23" s="56">
         <v>0.64744212962962966</v>
       </c>
-      <c r="CL23" s="75">
+      <c r="CL23" s="56">
         <v>0.64753472222222219</v>
       </c>
       <c r="CM23" t="s">
         <v>2</v>
       </c>
-      <c r="CN23" s="75">
+      <c r="CN23" s="56">
         <v>0.69701388888888882</v>
       </c>
       <c r="CO23">
         <v>3</v>
       </c>
-      <c r="CP23" s="75">
+      <c r="CP23" s="56">
         <v>0.69723379629629623</v>
       </c>
-      <c r="CQ23" s="75">
+      <c r="CQ23" s="56">
         <v>0.69751157407407405</v>
       </c>
       <c r="CR23" t="s">
         <v>10</v>
       </c>
-      <c r="CS23" s="75">
+      <c r="CS23" s="56">
         <v>0.71075231481481482</v>
       </c>
       <c r="CT23">
         <v>100</v>
       </c>
-      <c r="CU23" s="75">
+      <c r="CU23" s="56">
         <v>0.71069444444444452</v>
       </c>
-      <c r="CV23" s="75">
+      <c r="CV23" s="56">
         <v>0.7107175925925926</v>
       </c>
       <c r="CW23" s="8"/>
@@ -14517,20 +16306,72 @@
       <c r="DB23" t="s">
         <v>8</v>
       </c>
-      <c r="DC23" s="75">
+      <c r="DC23" s="56">
         <v>0.64703703703703697</v>
       </c>
       <c r="DD23">
         <v>100</v>
       </c>
-      <c r="DE23" s="75">
+      <c r="DE23" s="56">
         <v>0.64694444444444443</v>
       </c>
-      <c r="DF23" s="75">
+      <c r="DF23" s="56">
         <v>0.64697916666666666</v>
       </c>
+      <c r="DG23" s="8"/>
+      <c r="DH23" s="21"/>
+      <c r="DI23" s="7"/>
+      <c r="DJ23" s="21"/>
+      <c r="DK23" s="21"/>
+      <c r="DL23" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM23" s="56">
+        <v>0.47949074074074072</v>
+      </c>
+      <c r="DN23">
+        <v>30</v>
+      </c>
+      <c r="DO23" s="56">
+        <v>0.47939814814814818</v>
+      </c>
+      <c r="DP23" s="56">
+        <v>0.4794444444444444</v>
+      </c>
+      <c r="DQ23" s="8"/>
+      <c r="DR23" s="21"/>
+      <c r="DS23" s="7"/>
+      <c r="DT23" s="21"/>
+      <c r="DU23" s="21"/>
+      <c r="DW23" s="56"/>
+      <c r="DY23" s="56"/>
+      <c r="DZ23" s="56"/>
+      <c r="EA23" s="8"/>
+      <c r="EB23" s="21"/>
+      <c r="EC23" s="7"/>
+      <c r="ED23" s="21"/>
+      <c r="EE23" s="21"/>
+      <c r="EG23" s="56"/>
+      <c r="EI23" s="56"/>
+      <c r="EJ23" s="56"/>
+      <c r="EK23" s="8"/>
+      <c r="EL23" s="21"/>
+      <c r="EM23" s="7"/>
+      <c r="EN23" s="21"/>
+      <c r="EO23" s="21"/>
+      <c r="EQ23" s="56"/>
+      <c r="ES23" s="56"/>
+      <c r="ET23" s="56"/>
+      <c r="EU23" s="8"/>
+      <c r="EV23" s="21"/>
+      <c r="EW23" s="7"/>
+      <c r="EX23" s="21"/>
+      <c r="EY23" s="21"/>
+      <c r="FA23" s="56"/>
+      <c r="FC23" s="56"/>
+      <c r="FD23" s="56"/>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
@@ -14779,46 +16620,46 @@
       <c r="CH24" t="s">
         <v>12</v>
       </c>
-      <c r="CI24" s="75">
+      <c r="CI24" s="56">
         <v>0.64785879629629628</v>
       </c>
       <c r="CJ24">
         <v>100</v>
       </c>
-      <c r="CK24" s="75">
+      <c r="CK24" s="56">
         <v>0.64778935185185182</v>
       </c>
-      <c r="CL24" s="75">
+      <c r="CL24" s="56">
         <v>0.64781250000000001</v>
       </c>
       <c r="CM24" t="s">
         <v>12</v>
       </c>
-      <c r="CN24" s="75">
+      <c r="CN24" s="56">
         <v>0.69738425925925929</v>
       </c>
       <c r="CO24">
         <v>10</v>
       </c>
-      <c r="CP24" s="75">
+      <c r="CP24" s="56">
         <v>0.69776620370370368</v>
       </c>
-      <c r="CQ24" s="75">
+      <c r="CQ24" s="56">
         <v>0.69787037037037036</v>
       </c>
       <c r="CR24" t="s">
         <v>4</v>
       </c>
-      <c r="CS24" s="75">
+      <c r="CS24" s="56">
         <v>0.71103009259259264</v>
       </c>
       <c r="CT24">
         <v>200</v>
       </c>
-      <c r="CU24" s="75">
+      <c r="CU24" s="56">
         <v>0.71097222222222223</v>
       </c>
-      <c r="CV24" s="75">
+      <c r="CV24" s="56">
         <v>0.71099537037037042</v>
       </c>
       <c r="CW24" s="8"/>
@@ -14829,20 +16670,72 @@
       <c r="DB24" t="s">
         <v>4</v>
       </c>
-      <c r="DC24" s="75">
+      <c r="DC24" s="56">
         <v>0.64730324074074075</v>
       </c>
       <c r="DD24">
         <v>200</v>
       </c>
-      <c r="DE24" s="75">
+      <c r="DE24" s="56">
         <v>0.64722222222222225</v>
       </c>
-      <c r="DF24" s="75">
+      <c r="DF24" s="56">
         <v>0.64724537037037033</v>
       </c>
+      <c r="DG24" s="8"/>
+      <c r="DH24" s="21"/>
+      <c r="DI24" s="7"/>
+      <c r="DJ24" s="21"/>
+      <c r="DK24" s="21"/>
+      <c r="DL24" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM24" s="56">
+        <v>0.47983796296296299</v>
+      </c>
+      <c r="DN24">
+        <v>10</v>
+      </c>
+      <c r="DO24" s="56">
+        <v>0.47969907407407408</v>
+      </c>
+      <c r="DP24" s="56">
+        <v>0.47979166666666667</v>
+      </c>
+      <c r="DQ24" s="8"/>
+      <c r="DR24" s="21"/>
+      <c r="DS24" s="7"/>
+      <c r="DT24" s="21"/>
+      <c r="DU24" s="21"/>
+      <c r="DW24" s="56"/>
+      <c r="DY24" s="56"/>
+      <c r="DZ24" s="56"/>
+      <c r="EA24" s="8"/>
+      <c r="EB24" s="21"/>
+      <c r="EC24" s="7"/>
+      <c r="ED24" s="21"/>
+      <c r="EE24" s="21"/>
+      <c r="EG24" s="56"/>
+      <c r="EI24" s="56"/>
+      <c r="EJ24" s="56"/>
+      <c r="EK24" s="8"/>
+      <c r="EL24" s="21"/>
+      <c r="EM24" s="7"/>
+      <c r="EN24" s="21"/>
+      <c r="EO24" s="21"/>
+      <c r="EQ24" s="56"/>
+      <c r="ES24" s="56"/>
+      <c r="ET24" s="56"/>
+      <c r="EU24" s="8"/>
+      <c r="EV24" s="21"/>
+      <c r="EW24" s="7"/>
+      <c r="EX24" s="21"/>
+      <c r="EY24" s="21"/>
+      <c r="FA24" s="56"/>
+      <c r="FC24" s="56"/>
+      <c r="FD24" s="56"/>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -15091,46 +16984,46 @@
       <c r="CH25" t="s">
         <v>20</v>
       </c>
-      <c r="CI25" s="75">
+      <c r="CI25" s="56">
         <v>0.6481365740740741</v>
       </c>
       <c r="CJ25">
         <v>200</v>
       </c>
-      <c r="CK25" s="75">
+      <c r="CK25" s="56">
         <v>0.64806712962962965</v>
       </c>
-      <c r="CL25" s="75">
+      <c r="CL25" s="56">
         <v>0.64809027777777783</v>
       </c>
       <c r="CM25" t="s">
         <v>20</v>
       </c>
-      <c r="CN25" s="75">
+      <c r="CN25" s="56">
         <v>0.69789351851851855</v>
       </c>
       <c r="CO25">
         <v>100</v>
       </c>
-      <c r="CP25" s="75">
+      <c r="CP25" s="56">
         <v>0.69811342592592596</v>
       </c>
-      <c r="CQ25" s="75">
+      <c r="CQ25" s="56">
         <v>0.69813657407407403</v>
       </c>
       <c r="CR25" t="s">
         <v>4</v>
       </c>
-      <c r="CS25" s="75">
+      <c r="CS25" s="56">
         <v>0.71148148148148149</v>
       </c>
       <c r="CT25">
         <v>3</v>
       </c>
-      <c r="CU25" s="75">
+      <c r="CU25" s="56">
         <v>0.71125000000000005</v>
       </c>
-      <c r="CV25" s="75">
+      <c r="CV25" s="56">
         <v>0.71152777777777787</v>
       </c>
       <c r="CW25" s="8"/>
@@ -15141,20 +17034,72 @@
       <c r="DB25" t="s">
         <v>12</v>
       </c>
-      <c r="DC25" s="75">
+      <c r="DC25" s="56">
         <v>0.64758101851851857</v>
       </c>
       <c r="DD25">
         <v>30</v>
       </c>
-      <c r="DE25" s="75">
+      <c r="DE25" s="56">
         <v>0.64749999999999996</v>
       </c>
-      <c r="DF25" s="75">
+      <c r="DF25" s="56">
         <v>0.64754629629629623</v>
       </c>
+      <c r="DG25" s="8"/>
+      <c r="DH25" s="21"/>
+      <c r="DI25" s="7"/>
+      <c r="DJ25" s="21"/>
+      <c r="DK25" s="21"/>
+      <c r="DL25" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM25" s="56">
+        <v>0.4801273148148148</v>
+      </c>
+      <c r="DN25">
+        <v>100</v>
+      </c>
+      <c r="DO25" s="56">
+        <v>0.4800462962962963</v>
+      </c>
+      <c r="DP25" s="56">
+        <v>0.48006944444444444</v>
+      </c>
+      <c r="DQ25" s="8"/>
+      <c r="DR25" s="21"/>
+      <c r="DS25" s="7"/>
+      <c r="DT25" s="21"/>
+      <c r="DU25" s="21"/>
+      <c r="DW25" s="56"/>
+      <c r="DY25" s="56"/>
+      <c r="DZ25" s="56"/>
+      <c r="EA25" s="8"/>
+      <c r="EB25" s="21"/>
+      <c r="EC25" s="7"/>
+      <c r="ED25" s="21"/>
+      <c r="EE25" s="21"/>
+      <c r="EG25" s="56"/>
+      <c r="EI25" s="56"/>
+      <c r="EJ25" s="56"/>
+      <c r="EK25" s="8"/>
+      <c r="EL25" s="21"/>
+      <c r="EM25" s="7"/>
+      <c r="EN25" s="21"/>
+      <c r="EO25" s="21"/>
+      <c r="EQ25" s="56"/>
+      <c r="ES25" s="56"/>
+      <c r="ET25" s="56"/>
+      <c r="EU25" s="8"/>
+      <c r="EV25" s="21"/>
+      <c r="EW25" s="7"/>
+      <c r="EX25" s="21"/>
+      <c r="EY25" s="21"/>
+      <c r="FA25" s="56"/>
+      <c r="FC25" s="56"/>
+      <c r="FD25" s="56"/>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>12</v>
       </c>
@@ -15403,46 +17348,46 @@
       <c r="CH26" t="s">
         <v>18</v>
       </c>
-      <c r="CI26" s="75">
+      <c r="CI26" s="56">
         <v>0.64841435185185181</v>
       </c>
       <c r="CJ26">
         <v>30</v>
       </c>
-      <c r="CK26" s="75">
+      <c r="CK26" s="56">
         <v>0.64834490740740736</v>
       </c>
-      <c r="CL26" s="75">
+      <c r="CL26" s="56">
         <v>0.64837962962962969</v>
       </c>
       <c r="CM26" t="s">
         <v>7</v>
       </c>
-      <c r="CN26" s="75">
+      <c r="CN26" s="56">
         <v>0.69821759259259253</v>
       </c>
       <c r="CO26">
         <v>30</v>
       </c>
-      <c r="CP26" s="75">
+      <c r="CP26" s="56">
         <v>0.69839120370370367</v>
       </c>
-      <c r="CQ26" s="75">
+      <c r="CQ26" s="56">
         <v>0.69843749999999993</v>
       </c>
       <c r="CR26" t="s">
         <v>8</v>
       </c>
-      <c r="CS26" s="75">
+      <c r="CS26" s="56">
         <v>0.71184027777777781</v>
       </c>
       <c r="CT26">
         <v>30</v>
       </c>
-      <c r="CU26" s="75">
+      <c r="CU26" s="56">
         <v>0.71177083333333335</v>
       </c>
-      <c r="CV26" s="75">
+      <c r="CV26" s="56">
         <v>0.71181712962962962</v>
       </c>
       <c r="CW26" s="8"/>
@@ -15453,20 +17398,72 @@
       <c r="DB26" t="s">
         <v>20</v>
       </c>
-      <c r="DC26" s="75">
+      <c r="DC26" s="56">
         <v>0.64784722222222224</v>
       </c>
       <c r="DD26">
         <v>50</v>
       </c>
-      <c r="DE26" s="75">
+      <c r="DE26" s="56">
         <v>0.64778935185185182</v>
       </c>
-      <c r="DF26" s="75">
+      <c r="DF26" s="56">
         <v>0.64782407407407405</v>
       </c>
+      <c r="DG26" s="8"/>
+      <c r="DH26" s="21"/>
+      <c r="DI26" s="7"/>
+      <c r="DJ26" s="21"/>
+      <c r="DK26" s="21"/>
+      <c r="DL26" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM26" s="56">
+        <v>0.48038194444444443</v>
+      </c>
+      <c r="DN26">
+        <v>50</v>
+      </c>
+      <c r="DO26" s="56">
+        <v>0.48032407407407413</v>
+      </c>
+      <c r="DP26" s="56">
+        <v>0.4803587962962963</v>
+      </c>
+      <c r="DQ26" s="8"/>
+      <c r="DR26" s="21"/>
+      <c r="DS26" s="7"/>
+      <c r="DT26" s="21"/>
+      <c r="DU26" s="21"/>
+      <c r="DW26" s="56"/>
+      <c r="DY26" s="56"/>
+      <c r="DZ26" s="56"/>
+      <c r="EA26" s="8"/>
+      <c r="EB26" s="21"/>
+      <c r="EC26" s="7"/>
+      <c r="ED26" s="21"/>
+      <c r="EE26" s="21"/>
+      <c r="EG26" s="56"/>
+      <c r="EI26" s="56"/>
+      <c r="EJ26" s="56"/>
+      <c r="EK26" s="8"/>
+      <c r="EL26" s="21"/>
+      <c r="EM26" s="7"/>
+      <c r="EN26" s="21"/>
+      <c r="EO26" s="21"/>
+      <c r="EQ26" s="56"/>
+      <c r="ES26" s="56"/>
+      <c r="ET26" s="56"/>
+      <c r="EU26" s="8"/>
+      <c r="EV26" s="21"/>
+      <c r="EW26" s="7"/>
+      <c r="EX26" s="21"/>
+      <c r="EY26" s="21"/>
+      <c r="FA26" s="56"/>
+      <c r="FC26" s="56"/>
+      <c r="FD26" s="56"/>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
@@ -15715,46 +17712,46 @@
       <c r="CH27" t="s">
         <v>10</v>
       </c>
-      <c r="CI27" s="75">
+      <c r="CI27" s="56">
         <v>0.64893518518518511</v>
       </c>
       <c r="CJ27">
         <v>3</v>
       </c>
-      <c r="CK27" s="75">
+      <c r="CK27" s="56">
         <v>0.64863425925925922</v>
       </c>
-      <c r="CL27" s="75">
+      <c r="CL27" s="56">
         <v>0.64891203703703704</v>
       </c>
       <c r="CM27" t="s">
         <v>4</v>
       </c>
-      <c r="CN27" s="75">
+      <c r="CN27" s="56">
         <v>0.69848379629629631</v>
       </c>
       <c r="CO27">
         <v>200</v>
       </c>
-      <c r="CP27" s="75">
+      <c r="CP27" s="56">
         <v>0.69869212962962957</v>
       </c>
-      <c r="CQ27" s="75">
+      <c r="CQ27" s="56">
         <v>0.69871527777777775</v>
       </c>
       <c r="CR27" t="s">
         <v>8</v>
       </c>
-      <c r="CS27" s="75">
+      <c r="CS27" s="56">
         <v>0.7122222222222222</v>
       </c>
       <c r="CT27">
         <v>10</v>
       </c>
-      <c r="CU27" s="75">
+      <c r="CU27" s="56">
         <v>0.71207175925925925</v>
       </c>
-      <c r="CV27" s="75">
+      <c r="CV27" s="56">
         <v>0.71216435185185178</v>
       </c>
       <c r="CW27" s="8"/>
@@ -15765,20 +17762,72 @@
       <c r="DB27" t="s">
         <v>8</v>
       </c>
-      <c r="DC27" s="75">
+      <c r="DC27" s="56">
         <v>0.64819444444444441</v>
       </c>
       <c r="DD27">
         <v>10</v>
       </c>
-      <c r="DE27" s="75">
+      <c r="DE27" s="56">
         <v>0.64807870370370368</v>
       </c>
-      <c r="DF27" s="75">
+      <c r="DF27" s="56">
         <v>0.64817129629629633</v>
       </c>
+      <c r="DG27" s="8"/>
+      <c r="DH27" s="21"/>
+      <c r="DI27" s="7"/>
+      <c r="DJ27" s="21"/>
+      <c r="DK27" s="21"/>
+      <c r="DL27" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM27" s="56">
+        <v>0.48093750000000002</v>
+      </c>
+      <c r="DN27">
+        <v>3</v>
+      </c>
+      <c r="DO27" s="56">
+        <v>0.48060185185185184</v>
+      </c>
+      <c r="DP27" s="56">
+        <v>0.4808912037037037</v>
+      </c>
+      <c r="DQ27" s="8"/>
+      <c r="DR27" s="21"/>
+      <c r="DS27" s="7"/>
+      <c r="DT27" s="21"/>
+      <c r="DU27" s="21"/>
+      <c r="DW27" s="56"/>
+      <c r="DY27" s="56"/>
+      <c r="DZ27" s="56"/>
+      <c r="EA27" s="8"/>
+      <c r="EB27" s="21"/>
+      <c r="EC27" s="7"/>
+      <c r="ED27" s="21"/>
+      <c r="EE27" s="21"/>
+      <c r="EG27" s="56"/>
+      <c r="EI27" s="56"/>
+      <c r="EJ27" s="56"/>
+      <c r="EK27" s="8"/>
+      <c r="EL27" s="21"/>
+      <c r="EM27" s="7"/>
+      <c r="EN27" s="21"/>
+      <c r="EO27" s="21"/>
+      <c r="EQ27" s="56"/>
+      <c r="ES27" s="56"/>
+      <c r="ET27" s="56"/>
+      <c r="EU27" s="8"/>
+      <c r="EV27" s="21"/>
+      <c r="EW27" s="7"/>
+      <c r="EX27" s="21"/>
+      <c r="EY27" s="21"/>
+      <c r="FA27" s="56"/>
+      <c r="FC27" s="56"/>
+      <c r="FD27" s="56"/>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>10</v>
       </c>
@@ -16027,46 +18076,46 @@
       <c r="CH28" t="s">
         <v>20</v>
       </c>
-      <c r="CI28" s="75">
+      <c r="CI28" s="56">
         <v>0.64930555555555558</v>
       </c>
       <c r="CJ28">
         <v>10</v>
       </c>
-      <c r="CK28" s="75">
+      <c r="CK28" s="56">
         <v>0.64916666666666667</v>
       </c>
-      <c r="CL28" s="75">
+      <c r="CL28" s="56">
         <v>0.64925925925925931</v>
       </c>
       <c r="CM28" t="s">
         <v>4</v>
       </c>
-      <c r="CN28" s="75">
+      <c r="CN28" s="56">
         <v>0.69873842592592583</v>
       </c>
       <c r="CO28">
         <v>100</v>
       </c>
-      <c r="CP28" s="75">
+      <c r="CP28" s="56">
         <v>0.69895833333333324</v>
       </c>
-      <c r="CQ28" s="75">
+      <c r="CQ28" s="56">
         <v>0.69899305555555558</v>
       </c>
       <c r="CR28" t="s">
         <v>2</v>
       </c>
-      <c r="CS28" s="75">
+      <c r="CS28" s="56">
         <v>0.71250000000000002</v>
       </c>
       <c r="CT28">
         <v>30</v>
       </c>
-      <c r="CU28" s="75">
+      <c r="CU28" s="56">
         <v>0.71241898148148142</v>
       </c>
-      <c r="CV28" s="75">
+      <c r="CV28" s="56">
         <v>0.71246527777777768</v>
       </c>
       <c r="CW28" s="8"/>
@@ -16077,20 +18126,72 @@
       <c r="DB28" t="s">
         <v>11</v>
       </c>
-      <c r="DC28" s="75">
+      <c r="DC28" s="56">
         <v>0.64872685185185186</v>
       </c>
       <c r="DD28">
         <v>3</v>
       </c>
-      <c r="DE28" s="75">
+      <c r="DE28" s="56">
         <v>0.64842592592592596</v>
       </c>
-      <c r="DF28" s="75">
+      <c r="DF28" s="56">
         <v>0.64870370370370367</v>
       </c>
+      <c r="DG28" s="8"/>
+      <c r="DH28" s="21"/>
+      <c r="DI28" s="7"/>
+      <c r="DJ28" s="21"/>
+      <c r="DK28" s="21"/>
+      <c r="DL28" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM28" s="56">
+        <v>0.48145833333333332</v>
+      </c>
+      <c r="DN28">
+        <v>3</v>
+      </c>
+      <c r="DO28" s="56">
+        <v>0.48113425925925929</v>
+      </c>
+      <c r="DP28" s="56">
+        <v>0.481412037037037</v>
+      </c>
+      <c r="DQ28" s="8"/>
+      <c r="DR28" s="21"/>
+      <c r="DS28" s="7"/>
+      <c r="DT28" s="21"/>
+      <c r="DU28" s="21"/>
+      <c r="DW28" s="56"/>
+      <c r="DY28" s="56"/>
+      <c r="DZ28" s="56"/>
+      <c r="EA28" s="8"/>
+      <c r="EB28" s="21"/>
+      <c r="EC28" s="7"/>
+      <c r="ED28" s="21"/>
+      <c r="EE28" s="21"/>
+      <c r="EG28" s="56"/>
+      <c r="EI28" s="56"/>
+      <c r="EJ28" s="56"/>
+      <c r="EK28" s="8"/>
+      <c r="EL28" s="21"/>
+      <c r="EM28" s="7"/>
+      <c r="EN28" s="21"/>
+      <c r="EO28" s="21"/>
+      <c r="EQ28" s="56"/>
+      <c r="ES28" s="56"/>
+      <c r="ET28" s="56"/>
+      <c r="EU28" s="8"/>
+      <c r="EV28" s="21"/>
+      <c r="EW28" s="7"/>
+      <c r="EX28" s="21"/>
+      <c r="EY28" s="21"/>
+      <c r="FA28" s="56"/>
+      <c r="FC28" s="56"/>
+      <c r="FD28" s="56"/>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
@@ -16339,46 +18440,46 @@
       <c r="CH29" t="s">
         <v>12</v>
       </c>
-      <c r="CI29" s="75">
+      <c r="CI29" s="56">
         <v>0.64957175925925925</v>
       </c>
       <c r="CJ29">
         <v>200</v>
       </c>
-      <c r="CK29" s="75">
+      <c r="CK29" s="56">
         <v>0.64951388888888884</v>
       </c>
-      <c r="CL29" s="75">
+      <c r="CL29" s="56">
         <v>0.64953703703703702</v>
       </c>
       <c r="CM29" t="s">
         <v>4</v>
       </c>
-      <c r="CN29" s="75">
+      <c r="CN29" s="56">
         <v>0.69901620370370365</v>
       </c>
       <c r="CO29">
         <v>50</v>
       </c>
-      <c r="CP29" s="75">
+      <c r="CP29" s="56">
         <v>0.69923611111111106</v>
       </c>
-      <c r="CQ29" s="75">
+      <c r="CQ29" s="56">
         <v>0.69927083333333329</v>
       </c>
       <c r="CR29" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="75">
+      <c r="CS29" s="56">
         <v>0.71285879629629623</v>
       </c>
       <c r="CT29">
         <v>10</v>
       </c>
-      <c r="CU29" s="75">
+      <c r="CU29" s="56">
         <v>0.71270833333333339</v>
       </c>
-      <c r="CV29" s="75">
+      <c r="CV29" s="56">
         <v>0.71281250000000007</v>
       </c>
       <c r="CW29" s="8"/>
@@ -16389,20 +18490,72 @@
       <c r="DB29" t="s">
         <v>20</v>
       </c>
-      <c r="DC29" s="75">
+      <c r="DC29" s="56">
         <v>0.64902777777777776</v>
       </c>
       <c r="DD29">
         <v>30</v>
       </c>
-      <c r="DE29" s="75">
+      <c r="DE29" s="56">
         <v>0.6489583333333333</v>
       </c>
-      <c r="DF29" s="75">
+      <c r="DF29" s="56">
         <v>0.64900462962962957</v>
       </c>
+      <c r="DG29" s="8"/>
+      <c r="DH29" s="21"/>
+      <c r="DI29" s="7"/>
+      <c r="DJ29" s="21"/>
+      <c r="DK29" s="21"/>
+      <c r="DL29" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM29" s="56">
+        <v>0.48173611111111114</v>
+      </c>
+      <c r="DN29">
+        <v>100</v>
+      </c>
+      <c r="DO29" s="56">
+        <v>0.48166666666666669</v>
+      </c>
+      <c r="DP29" s="56">
+        <v>0.48168981481481482</v>
+      </c>
+      <c r="DQ29" s="8"/>
+      <c r="DR29" s="21"/>
+      <c r="DS29" s="7"/>
+      <c r="DT29" s="21"/>
+      <c r="DU29" s="21"/>
+      <c r="DW29" s="56"/>
+      <c r="DY29" s="56"/>
+      <c r="DZ29" s="56"/>
+      <c r="EA29" s="8"/>
+      <c r="EB29" s="21"/>
+      <c r="EC29" s="7"/>
+      <c r="ED29" s="21"/>
+      <c r="EE29" s="21"/>
+      <c r="EG29" s="56"/>
+      <c r="EI29" s="56"/>
+      <c r="EJ29" s="56"/>
+      <c r="EK29" s="8"/>
+      <c r="EL29" s="21"/>
+      <c r="EM29" s="7"/>
+      <c r="EN29" s="21"/>
+      <c r="EO29" s="21"/>
+      <c r="EQ29" s="56"/>
+      <c r="ES29" s="56"/>
+      <c r="ET29" s="56"/>
+      <c r="EU29" s="8"/>
+      <c r="EV29" s="21"/>
+      <c r="EW29" s="7"/>
+      <c r="EX29" s="21"/>
+      <c r="EY29" s="21"/>
+      <c r="FA29" s="56"/>
+      <c r="FC29" s="56"/>
+      <c r="FD29" s="56"/>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
@@ -16651,46 +18804,46 @@
       <c r="CH30" t="s">
         <v>20</v>
       </c>
-      <c r="CI30" s="75">
+      <c r="CI30" s="56">
         <v>0.64984953703703707</v>
       </c>
       <c r="CJ30">
         <v>50</v>
       </c>
-      <c r="CK30" s="75">
+      <c r="CK30" s="56">
         <v>0.64978009259259262</v>
       </c>
-      <c r="CL30" s="75">
+      <c r="CL30" s="56">
         <v>0.64981481481481485</v>
       </c>
       <c r="CM30" t="s">
         <v>11</v>
       </c>
-      <c r="CN30" s="75">
+      <c r="CN30" s="56">
         <v>0.69929398148148147</v>
       </c>
       <c r="CO30">
         <v>30</v>
       </c>
-      <c r="CP30" s="75">
+      <c r="CP30" s="56">
         <v>0.69952546296296303</v>
       </c>
-      <c r="CQ30" s="75">
+      <c r="CQ30" s="56">
         <v>0.6995717592592593</v>
       </c>
       <c r="CR30" t="s">
         <v>2</v>
       </c>
-      <c r="CS30" s="75">
+      <c r="CS30" s="56">
         <v>0.7131249999999999</v>
       </c>
       <c r="CT30">
         <v>100</v>
       </c>
-      <c r="CU30" s="75">
+      <c r="CU30" s="56">
         <v>0.71305555555555555</v>
       </c>
-      <c r="CV30" s="75">
+      <c r="CV30" s="56">
         <v>0.71309027777777778</v>
       </c>
       <c r="CW30" s="8"/>
@@ -16701,20 +18854,72 @@
       <c r="DB30" t="s">
         <v>8</v>
       </c>
-      <c r="DC30" s="75">
+      <c r="DC30" s="56">
         <v>0.64936342592592589</v>
       </c>
       <c r="DD30">
         <v>10</v>
       </c>
-      <c r="DE30" s="75">
+      <c r="DE30" s="56">
         <v>0.64924768518518516</v>
       </c>
-      <c r="DF30" s="75">
+      <c r="DF30" s="56">
         <v>0.64935185185185185</v>
       </c>
+      <c r="DG30" s="8"/>
+      <c r="DH30" s="21"/>
+      <c r="DI30" s="7"/>
+      <c r="DJ30" s="21"/>
+      <c r="DK30" s="21"/>
+      <c r="DL30" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM30" s="56">
+        <v>0.48203703703703704</v>
+      </c>
+      <c r="DN30">
+        <v>50</v>
+      </c>
+      <c r="DO30" s="56">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="DP30" s="56">
+        <v>0.48197916666666668</v>
+      </c>
+      <c r="DQ30" s="8"/>
+      <c r="DR30" s="21"/>
+      <c r="DS30" s="7"/>
+      <c r="DT30" s="21"/>
+      <c r="DU30" s="21"/>
+      <c r="DW30" s="56"/>
+      <c r="DY30" s="56"/>
+      <c r="DZ30" s="56"/>
+      <c r="EA30" s="8"/>
+      <c r="EB30" s="21"/>
+      <c r="EC30" s="7"/>
+      <c r="ED30" s="21"/>
+      <c r="EE30" s="21"/>
+      <c r="EG30" s="56"/>
+      <c r="EI30" s="56"/>
+      <c r="EJ30" s="56"/>
+      <c r="EK30" s="8"/>
+      <c r="EL30" s="21"/>
+      <c r="EM30" s="7"/>
+      <c r="EN30" s="21"/>
+      <c r="EO30" s="21"/>
+      <c r="EQ30" s="56"/>
+      <c r="ES30" s="56"/>
+      <c r="ET30" s="56"/>
+      <c r="EU30" s="8"/>
+      <c r="EV30" s="21"/>
+      <c r="EW30" s="7"/>
+      <c r="EX30" s="21"/>
+      <c r="EY30" s="21"/>
+      <c r="FA30" s="56"/>
+      <c r="FC30" s="56"/>
+      <c r="FD30" s="56"/>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -16963,46 +19168,46 @@
       <c r="CH31" t="s">
         <v>18</v>
       </c>
-      <c r="CI31" s="75">
+      <c r="CI31" s="56">
         <v>0.65015046296296297</v>
       </c>
       <c r="CJ31">
         <v>30</v>
       </c>
-      <c r="CK31" s="75">
+      <c r="CK31" s="56">
         <v>0.65006944444444448</v>
       </c>
-      <c r="CL31" s="75">
+      <c r="CL31" s="56">
         <v>0.65011574074074074</v>
       </c>
       <c r="CM31" t="s">
         <v>2</v>
       </c>
-      <c r="CN31" s="75">
+      <c r="CN31" s="56">
         <v>0.69959490740740737</v>
       </c>
       <c r="CO31">
         <v>10</v>
       </c>
-      <c r="CP31" s="75">
+      <c r="CP31" s="56">
         <v>0.69981481481481478</v>
       </c>
-      <c r="CQ31" s="75">
+      <c r="CQ31" s="56">
         <v>0.69991898148148157</v>
       </c>
       <c r="CR31" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="75">
+      <c r="CS31" s="56">
         <v>0.71340277777777772</v>
       </c>
       <c r="CT31">
         <v>50</v>
       </c>
-      <c r="CU31" s="75">
+      <c r="CU31" s="56">
         <v>0.71333333333333337</v>
       </c>
-      <c r="CV31" s="75">
+      <c r="CV31" s="56">
         <v>0.7133680555555556</v>
       </c>
       <c r="CW31" s="8"/>
@@ -17013,20 +19218,72 @@
       <c r="DB31" t="s">
         <v>7</v>
       </c>
-      <c r="DC31" s="75">
+      <c r="DC31" s="56">
         <v>0.64966435185185178</v>
       </c>
       <c r="DD31">
         <v>100</v>
       </c>
-      <c r="DE31" s="75">
+      <c r="DE31" s="56">
         <v>0.64959490740740744</v>
       </c>
-      <c r="DF31" s="75">
+      <c r="DF31" s="56">
         <v>0.64961805555555563</v>
       </c>
+      <c r="DG31" s="8"/>
+      <c r="DH31" s="21"/>
+      <c r="DI31" s="7"/>
+      <c r="DJ31" s="21"/>
+      <c r="DK31" s="21"/>
+      <c r="DL31" t="s">
+        <v>4</v>
+      </c>
+      <c r="DM31" s="56">
+        <v>0.48229166666666662</v>
+      </c>
+      <c r="DN31">
+        <v>200</v>
+      </c>
+      <c r="DO31" s="56">
+        <v>0.48222222222222227</v>
+      </c>
+      <c r="DP31" s="56">
+        <v>0.48224537037037035</v>
+      </c>
+      <c r="DQ31" s="8"/>
+      <c r="DR31" s="21"/>
+      <c r="DS31" s="7"/>
+      <c r="DT31" s="21"/>
+      <c r="DU31" s="21"/>
+      <c r="DW31" s="56"/>
+      <c r="DY31" s="56"/>
+      <c r="DZ31" s="56"/>
+      <c r="EA31" s="8"/>
+      <c r="EB31" s="21"/>
+      <c r="EC31" s="7"/>
+      <c r="ED31" s="21"/>
+      <c r="EE31" s="21"/>
+      <c r="EG31" s="56"/>
+      <c r="EI31" s="56"/>
+      <c r="EJ31" s="56"/>
+      <c r="EK31" s="8"/>
+      <c r="EL31" s="21"/>
+      <c r="EM31" s="7"/>
+      <c r="EN31" s="21"/>
+      <c r="EO31" s="21"/>
+      <c r="EQ31" s="56"/>
+      <c r="ES31" s="56"/>
+      <c r="ET31" s="56"/>
+      <c r="EU31" s="8"/>
+      <c r="EV31" s="21"/>
+      <c r="EW31" s="7"/>
+      <c r="EX31" s="21"/>
+      <c r="EY31" s="21"/>
+      <c r="FA31" s="56"/>
+      <c r="FC31" s="56"/>
+      <c r="FD31" s="56"/>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>20</v>
       </c>
@@ -17275,46 +19532,46 @@
       <c r="CH32" t="s">
         <v>18</v>
       </c>
-      <c r="CI32" s="75">
+      <c r="CI32" s="56">
         <v>0.65068287037037031</v>
       </c>
       <c r="CJ32">
         <v>3</v>
       </c>
-      <c r="CK32" s="75">
+      <c r="CK32" s="56">
         <v>0.65037037037037038</v>
       </c>
-      <c r="CL32" s="75">
+      <c r="CL32" s="56">
         <v>0.6506481481481482</v>
       </c>
       <c r="CM32" t="s">
         <v>2</v>
       </c>
-      <c r="CN32" s="75">
+      <c r="CN32" s="56">
         <v>0.69996527777777784</v>
       </c>
       <c r="CO32">
         <v>200</v>
       </c>
-      <c r="CP32" s="75">
+      <c r="CP32" s="56">
         <v>0.70016203703703705</v>
       </c>
-      <c r="CQ32" s="75">
+      <c r="CQ32" s="56">
         <v>0.70018518518518524</v>
       </c>
       <c r="CR32" t="s">
         <v>4</v>
       </c>
-      <c r="CS32" s="75">
+      <c r="CS32" s="56">
         <v>0.71380787037037041</v>
       </c>
       <c r="CT32">
         <v>3</v>
       </c>
-      <c r="CU32" s="75">
+      <c r="CU32" s="56">
         <v>0.71362268518518512</v>
       </c>
-      <c r="CV32" s="75">
+      <c r="CV32" s="56">
         <v>0.71390046296296295</v>
       </c>
       <c r="CW32" s="8"/>
@@ -17325,20 +19582,72 @@
       <c r="DB32" t="s">
         <v>8</v>
       </c>
-      <c r="DC32" s="75">
+      <c r="DC32" s="56">
         <v>0.64993055555555557</v>
       </c>
       <c r="DD32">
         <v>50</v>
       </c>
-      <c r="DE32" s="75">
+      <c r="DE32" s="56">
         <v>0.64987268518518515</v>
       </c>
-      <c r="DF32" s="75">
+      <c r="DF32" s="56">
         <v>0.64990740740740738</v>
       </c>
+      <c r="DG32" s="8"/>
+      <c r="DH32" s="21"/>
+      <c r="DI32" s="7"/>
+      <c r="DJ32" s="21"/>
+      <c r="DK32" s="21"/>
+      <c r="DL32" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM32" s="56">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="DN32">
+        <v>10</v>
+      </c>
+      <c r="DO32" s="56">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="DP32" s="56">
+        <v>0.48259259259259263</v>
+      </c>
+      <c r="DQ32" s="8"/>
+      <c r="DR32" s="21"/>
+      <c r="DS32" s="7"/>
+      <c r="DT32" s="21"/>
+      <c r="DU32" s="21"/>
+      <c r="DW32" s="56"/>
+      <c r="DY32" s="56"/>
+      <c r="DZ32" s="56"/>
+      <c r="EA32" s="8"/>
+      <c r="EB32" s="21"/>
+      <c r="EC32" s="7"/>
+      <c r="ED32" s="21"/>
+      <c r="EE32" s="21"/>
+      <c r="EG32" s="56"/>
+      <c r="EI32" s="56"/>
+      <c r="EJ32" s="56"/>
+      <c r="EK32" s="8"/>
+      <c r="EL32" s="21"/>
+      <c r="EM32" s="7"/>
+      <c r="EN32" s="21"/>
+      <c r="EO32" s="21"/>
+      <c r="EQ32" s="56"/>
+      <c r="ES32" s="56"/>
+      <c r="ET32" s="56"/>
+      <c r="EU32" s="8"/>
+      <c r="EV32" s="21"/>
+      <c r="EW32" s="7"/>
+      <c r="EX32" s="21"/>
+      <c r="EY32" s="21"/>
+      <c r="FA32" s="56"/>
+      <c r="FC32" s="56"/>
+      <c r="FD32" s="56"/>
     </row>
-    <row r="33" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
@@ -17587,46 +19896,46 @@
       <c r="CH33" t="s">
         <v>20</v>
       </c>
-      <c r="CI33" s="75">
+      <c r="CI33" s="56">
         <v>0.6509490740740741</v>
       </c>
       <c r="CJ33">
         <v>100</v>
       </c>
-      <c r="CK33" s="75">
+      <c r="CK33" s="56">
         <v>0.65089120370370368</v>
       </c>
-      <c r="CL33" s="75">
+      <c r="CL33" s="56">
         <v>0.65092592592592591</v>
       </c>
       <c r="CM33" t="s">
         <v>11</v>
       </c>
-      <c r="CN33" s="75">
+      <c r="CN33" s="56">
         <v>0.70025462962962959</v>
       </c>
       <c r="CO33">
         <v>3</v>
       </c>
-      <c r="CP33" s="75">
+      <c r="CP33" s="56">
         <v>0.70043981481481488</v>
       </c>
-      <c r="CQ33" s="75">
+      <c r="CQ33" s="56">
         <v>0.7007175925925927</v>
       </c>
       <c r="CR33" t="s">
         <v>11</v>
       </c>
-      <c r="CS33" s="75">
+      <c r="CS33" s="56">
         <v>0.71420138888888884</v>
       </c>
       <c r="CT33">
         <v>200</v>
       </c>
-      <c r="CU33" s="75">
+      <c r="CU33" s="56">
         <v>0.71415509259259258</v>
       </c>
-      <c r="CV33" s="75">
+      <c r="CV33" s="56">
         <v>0.71417824074074077</v>
       </c>
       <c r="CW33" s="9"/>
@@ -17637,21 +19946,73 @@
       <c r="DB33" t="s">
         <v>2</v>
       </c>
-      <c r="DC33" s="75">
+      <c r="DC33" s="56">
         <v>0.6502430555555555</v>
       </c>
       <c r="DD33">
         <v>200</v>
       </c>
-      <c r="DE33" s="75">
+      <c r="DE33" s="56">
         <v>0.65016203703703701</v>
       </c>
-      <c r="DF33" s="75">
+      <c r="DF33" s="56">
         <v>0.6501851851851852</v>
       </c>
+      <c r="DG33" s="9"/>
+      <c r="DH33" s="38"/>
+      <c r="DI33" s="6"/>
+      <c r="DJ33" s="38"/>
+      <c r="DK33" s="38"/>
+      <c r="DL33" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM33" s="56">
+        <v>0.48291666666666666</v>
+      </c>
+      <c r="DN33">
+        <v>30</v>
+      </c>
+      <c r="DO33" s="56">
+        <v>0.48284722222222221</v>
+      </c>
+      <c r="DP33" s="56">
+        <v>0.48289351851851853</v>
+      </c>
+      <c r="DQ33" s="9"/>
+      <c r="DR33" s="38"/>
+      <c r="DS33" s="6"/>
+      <c r="DT33" s="38"/>
+      <c r="DU33" s="38"/>
+      <c r="DW33" s="56"/>
+      <c r="DY33" s="56"/>
+      <c r="DZ33" s="56"/>
+      <c r="EA33" s="9"/>
+      <c r="EB33" s="38"/>
+      <c r="EC33" s="6"/>
+      <c r="ED33" s="38"/>
+      <c r="EE33" s="38"/>
+      <c r="EG33" s="56"/>
+      <c r="EI33" s="56"/>
+      <c r="EJ33" s="56"/>
+      <c r="EK33" s="9"/>
+      <c r="EL33" s="38"/>
+      <c r="EM33" s="6"/>
+      <c r="EN33" s="38"/>
+      <c r="EO33" s="38"/>
+      <c r="EQ33" s="56"/>
+      <c r="ES33" s="56"/>
+      <c r="ET33" s="56"/>
+      <c r="EU33" s="9"/>
+      <c r="EV33" s="38"/>
+      <c r="EW33" s="6"/>
+      <c r="EX33" s="38"/>
+      <c r="EY33" s="38"/>
+      <c r="FA33" s="56"/>
+      <c r="FC33" s="56"/>
+      <c r="FD33" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="48">
     <mergeCell ref="CW1:DF1"/>
     <mergeCell ref="CW2:DA2"/>
     <mergeCell ref="DB2:DF2"/>
@@ -17685,6 +20046,21 @@
     <mergeCell ref="BI1:BR1"/>
     <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="DG1:DP1"/>
+    <mergeCell ref="DG2:DK2"/>
+    <mergeCell ref="DL2:DP2"/>
+    <mergeCell ref="DQ1:DZ1"/>
+    <mergeCell ref="DQ2:DU2"/>
+    <mergeCell ref="DV2:DZ2"/>
+    <mergeCell ref="EU1:FD1"/>
+    <mergeCell ref="EU2:EY2"/>
+    <mergeCell ref="EZ2:FD2"/>
+    <mergeCell ref="EA1:EJ1"/>
+    <mergeCell ref="EA2:EE2"/>
+    <mergeCell ref="EF2:EJ2"/>
+    <mergeCell ref="EK1:ET1"/>
+    <mergeCell ref="EK2:EO2"/>
+    <mergeCell ref="EP2:ET2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -17693,10 +20069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CF37"/>
+  <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1:BT1"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="CG1" sqref="CG1:CL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17785,293 +20161,321 @@
     <col min="82" max="82" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.5546875" customWidth="1"/>
+    <col min="96" max="96" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="56" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="73" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73" t="s">
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="56" t="s">
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56" t="s">
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56" t="s">
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="56"/>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56" t="s">
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="BV1" s="56"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="56"/>
-      <c r="BZ1" s="56"/>
-      <c r="CA1" s="56" t="s">
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="CB1" s="56"/>
-      <c r="CC1" s="56"/>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="59" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="59" t="s">
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="59" t="s">
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="57" t="s">
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57" t="s">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57" t="s">
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="74" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74" t="s">
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74" t="s">
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74" t="s">
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74" t="s">
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="57" t="s">
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57" t="s">
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57" t="s">
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57" t="s">
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57" t="s">
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="57" t="s">
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57" t="s">
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57" t="s">
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57" t="s">
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57" t="s">
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57" t="s">
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57" t="s">
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57" t="s">
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="57"/>
-      <c r="CE2" s="57" t="s">
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" s="57"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL2" s="58"/>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -18324,8 +20728,26 @@
       <c r="CF3" s="55" t="s">
         <v>1</v>
       </c>
+      <c r="CG3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="55" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -18570,8 +20992,22 @@
       <c r="CF4" s="3">
         <v>10</v>
       </c>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ4" s="7">
+        <v>3</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL4" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -18815,8 +21251,22 @@
       <c r="CF5" s="53">
         <v>100</v>
       </c>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ5" s="7">
+        <v>10</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -19060,8 +21510,22 @@
       <c r="CF6" s="53">
         <v>200</v>
       </c>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="7"/>
+      <c r="CI6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ6" s="7">
+        <v>30</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL6" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
@@ -19305,8 +21769,22 @@
       <c r="CF7" s="53">
         <v>30</v>
       </c>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="7"/>
+      <c r="CI7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ7" s="7">
+        <v>100</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL7" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -19550,8 +22028,22 @@
       <c r="CF8" s="53">
         <v>50</v>
       </c>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="7"/>
+      <c r="CI8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ8" s="7">
+        <v>50</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL8" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -19796,8 +22288,22 @@
       <c r="CF9" s="54">
         <v>3</v>
       </c>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ9" s="6">
+        <v>200</v>
+      </c>
+      <c r="CK9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL9" s="54">
+        <v>200</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -20042,8 +22548,22 @@
       <c r="CF10" s="3">
         <v>100</v>
       </c>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="7"/>
+      <c r="CI10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ10" s="7">
+        <v>50</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL10" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -20287,8 +22807,22 @@
       <c r="CF11" s="53">
         <v>200</v>
       </c>
+      <c r="CG11" s="8"/>
+      <c r="CH11" s="7"/>
+      <c r="CI11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ11" s="7">
+        <v>10</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL11" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -20532,8 +23066,22 @@
       <c r="CF12" s="53">
         <v>30</v>
       </c>
+      <c r="CG12" s="8"/>
+      <c r="CH12" s="7"/>
+      <c r="CI12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ12" s="7">
+        <v>30</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL12" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -20777,8 +23325,22 @@
       <c r="CF13" s="53">
         <v>10</v>
       </c>
+      <c r="CG13" s="8"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ13" s="7">
+        <v>100</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL13" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -21022,8 +23584,22 @@
       <c r="CF14" s="53">
         <v>50</v>
       </c>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="7"/>
+      <c r="CI14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ14" s="7">
+        <v>3</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL14" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
@@ -21268,8 +23844,22 @@
       <c r="CF15" s="54">
         <v>3</v>
       </c>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ15" s="6">
+        <v>200</v>
+      </c>
+      <c r="CK15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL15" s="54">
+        <v>200</v>
+      </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
@@ -21514,8 +24104,22 @@
       <c r="CF16" s="3">
         <v>3</v>
       </c>
+      <c r="CG16" s="8"/>
+      <c r="CH16" s="7"/>
+      <c r="CI16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ16" s="7">
+        <v>100</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL16" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -21759,8 +24363,22 @@
       <c r="CF17" s="53">
         <v>30</v>
       </c>
+      <c r="CG17" s="8"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ17" s="7">
+        <v>30</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL17" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
@@ -22004,8 +24622,22 @@
       <c r="CF18" s="53">
         <v>50</v>
       </c>
+      <c r="CG18" s="8"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ18" s="7">
+        <v>200</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL18" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -22249,8 +24881,22 @@
       <c r="CF19" s="53">
         <v>100</v>
       </c>
+      <c r="CG19" s="8"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ19" s="7">
+        <v>50</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL19" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
@@ -22494,8 +25140,22 @@
       <c r="CF20" s="53">
         <v>200</v>
       </c>
+      <c r="CG20" s="8"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CJ20" s="7">
+        <v>10</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL20" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
@@ -22740,8 +25400,22 @@
       <c r="CF21" s="54">
         <v>10</v>
       </c>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="6"/>
+      <c r="CI21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ21" s="6">
+        <v>3</v>
+      </c>
+      <c r="CK21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL21" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
@@ -22986,8 +25660,22 @@
       <c r="CF22" s="3">
         <v>3</v>
       </c>
+      <c r="CG22" s="8"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ22" s="7">
+        <v>200</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL22" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
@@ -23231,8 +25919,22 @@
       <c r="CF23" s="53">
         <v>100</v>
       </c>
+      <c r="CG23" s="8"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ23" s="7">
+        <v>30</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL23" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
@@ -23476,8 +26178,22 @@
       <c r="CF24" s="53">
         <v>200</v>
       </c>
+      <c r="CG24" s="8"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ24" s="7">
+        <v>10</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL24" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
@@ -23721,8 +26437,22 @@
       <c r="CF25" s="53">
         <v>30</v>
       </c>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ25" s="7">
+        <v>100</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL25" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>12</v>
       </c>
@@ -23966,8 +26696,22 @@
       <c r="CF26" s="53">
         <v>50</v>
       </c>
+      <c r="CG26" s="8"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ26" s="7">
+        <v>50</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL26" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -24212,8 +26956,22 @@
       <c r="CF27" s="54">
         <v>10</v>
       </c>
+      <c r="CG27" s="9"/>
+      <c r="CH27" s="6"/>
+      <c r="CI27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CJ27" s="6">
+        <v>3</v>
+      </c>
+      <c r="CK27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL27" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
@@ -24458,8 +27216,22 @@
       <c r="CF28" s="3">
         <v>3</v>
       </c>
+      <c r="CG28" s="8"/>
+      <c r="CH28" s="7"/>
+      <c r="CI28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ28" s="7">
+        <v>3</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL28" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
@@ -24703,8 +27475,22 @@
       <c r="CF29" s="53">
         <v>30</v>
       </c>
+      <c r="CG29" s="8"/>
+      <c r="CH29" s="7"/>
+      <c r="CI29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ29" s="7">
+        <v>100</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL29" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>2</v>
       </c>
@@ -24948,8 +27734,22 @@
       <c r="CF30" s="53">
         <v>10</v>
       </c>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="7"/>
+      <c r="CI30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ30" s="7">
+        <v>50</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL30" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>11</v>
       </c>
@@ -25193,8 +27993,22 @@
       <c r="CF31" s="53">
         <v>100</v>
       </c>
+      <c r="CG31" s="8"/>
+      <c r="CH31" s="7"/>
+      <c r="CI31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ31" s="7">
+        <v>200</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL31" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
@@ -25438,8 +28252,22 @@
       <c r="CF32" s="53">
         <v>50</v>
       </c>
+      <c r="CG32" s="8"/>
+      <c r="CH32" s="7"/>
+      <c r="CI32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ32" s="7">
+        <v>10</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL32" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>2</v>
       </c>
@@ -25684,25 +28512,39 @@
       <c r="CF33" s="54">
         <v>200</v>
       </c>
+      <c r="CG33" s="9"/>
+      <c r="CH33" s="6"/>
+      <c r="CI33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ33" s="6">
+        <v>30</v>
+      </c>
+      <c r="CK33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL33" s="54">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
       <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
       <c r="BM36" s="7"/>
       <c r="BV36" s="7"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
       <c r="BM37" s="7"/>
       <c r="BV37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="60">
     <mergeCell ref="CA1:CF1"/>
     <mergeCell ref="CA2:CB2"/>
     <mergeCell ref="CC2:CD2"/>
@@ -25715,18 +28557,14 @@
     <mergeCell ref="BU2:BV2"/>
     <mergeCell ref="BW2:BX2"/>
     <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="BI1:BN1"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="BE2:BF2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="M2:N2"/>
@@ -25741,24 +28579,32 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data_sub.xlsx
+++ b/data/data_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD367CC-15D5-4363-99D7-F0DDFE063B49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F478BB-ADF7-4095-B681-CDBE78CFABF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="48">
   <si>
     <t>#Vas</t>
   </si>
@@ -859,22 +859,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,10 +910,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1353,31 +1353,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="59" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="62" t="s">
         <v>30</v>
       </c>
       <c r="T1" s="63"/>
@@ -1385,216 +1385,216 @@
       <c r="V1" s="63"/>
       <c r="W1" s="63"/>
       <c r="X1" s="64"/>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="57" t="s">
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57" t="s">
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57" t="s">
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57" t="s">
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57" t="s">
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57" t="s">
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57" t="s">
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
     </row>
     <row r="2" spans="1:72" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="61"/>
+      <c r="R2" s="59"/>
       <c r="S2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="62"/>
+      <c r="T2" s="61"/>
       <c r="U2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="62"/>
+      <c r="V2" s="61"/>
       <c r="W2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="58" t="s">
+      <c r="X2" s="61"/>
+      <c r="Y2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58" t="s">
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57" t="s">
         <v>16</v>
       </c>
       <c r="AD2" s="60"/>
-      <c r="AE2" s="58" t="s">
+      <c r="AE2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58" t="s">
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58" t="s">
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58" t="s">
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58" t="s">
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58" t="s">
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58" t="s">
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58" t="s">
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58" t="s">
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58" t="s">
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58" t="s">
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58" t="s">
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58" t="s">
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58" t="s">
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58" t="s">
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="58"/>
+      <c r="BT2" s="57"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -7994,6 +7994,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
@@ -8010,38 +8042,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FD33"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DP1"/>
+    <sheetView topLeftCell="DO3" workbookViewId="0">
+      <selection activeCell="EH4" sqref="EH4:EH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8190,42 +8190,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
       <c r="AE1" s="69" t="s">
         <v>30</v>
       </c>
@@ -8238,150 +8238,150 @@
       <c r="AL1" s="69"/>
       <c r="AM1" s="69"/>
       <c r="AN1" s="69"/>
-      <c r="AO1" s="57" t="s">
+      <c r="AO1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57" t="s">
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57" t="s">
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57" t="s">
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57" t="s">
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57" t="s">
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57" t="s">
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
-      <c r="CZ1" s="57"/>
-      <c r="DA1" s="57"/>
-      <c r="DB1" s="57"/>
-      <c r="DC1" s="57"/>
-      <c r="DD1" s="57"/>
-      <c r="DE1" s="57"/>
-      <c r="DF1" s="57"/>
-      <c r="DG1" s="57" t="s">
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
+      <c r="DG1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="DH1" s="57"/>
-      <c r="DI1" s="57"/>
-      <c r="DJ1" s="57"/>
-      <c r="DK1" s="57"/>
-      <c r="DL1" s="57"/>
-      <c r="DM1" s="57"/>
-      <c r="DN1" s="57"/>
-      <c r="DO1" s="57"/>
-      <c r="DP1" s="57"/>
-      <c r="DQ1" s="57" t="s">
+      <c r="DH1" s="58"/>
+      <c r="DI1" s="58"/>
+      <c r="DJ1" s="58"/>
+      <c r="DK1" s="58"/>
+      <c r="DL1" s="58"/>
+      <c r="DM1" s="58"/>
+      <c r="DN1" s="58"/>
+      <c r="DO1" s="58"/>
+      <c r="DP1" s="58"/>
+      <c r="DQ1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="DR1" s="57"/>
-      <c r="DS1" s="57"/>
-      <c r="DT1" s="57"/>
-      <c r="DU1" s="57"/>
-      <c r="DV1" s="57"/>
-      <c r="DW1" s="57"/>
-      <c r="DX1" s="57"/>
-      <c r="DY1" s="57"/>
-      <c r="DZ1" s="57"/>
-      <c r="EA1" s="57" t="s">
+      <c r="DR1" s="58"/>
+      <c r="DS1" s="58"/>
+      <c r="DT1" s="58"/>
+      <c r="DU1" s="58"/>
+      <c r="DV1" s="58"/>
+      <c r="DW1" s="58"/>
+      <c r="DX1" s="58"/>
+      <c r="DY1" s="58"/>
+      <c r="DZ1" s="58"/>
+      <c r="EA1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="EB1" s="57"/>
-      <c r="EC1" s="57"/>
-      <c r="ED1" s="57"/>
-      <c r="EE1" s="57"/>
-      <c r="EF1" s="57"/>
-      <c r="EG1" s="57"/>
-      <c r="EH1" s="57"/>
-      <c r="EI1" s="57"/>
-      <c r="EJ1" s="57"/>
-      <c r="EK1" s="57" t="s">
+      <c r="EB1" s="58"/>
+      <c r="EC1" s="58"/>
+      <c r="ED1" s="58"/>
+      <c r="EE1" s="58"/>
+      <c r="EF1" s="58"/>
+      <c r="EG1" s="58"/>
+      <c r="EH1" s="58"/>
+      <c r="EI1" s="58"/>
+      <c r="EJ1" s="58"/>
+      <c r="EK1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="EL1" s="57"/>
-      <c r="EM1" s="57"/>
-      <c r="EN1" s="57"/>
-      <c r="EO1" s="57"/>
-      <c r="EP1" s="57"/>
-      <c r="EQ1" s="57"/>
-      <c r="ER1" s="57"/>
-      <c r="ES1" s="57"/>
-      <c r="ET1" s="57"/>
-      <c r="EU1" s="57" t="s">
+      <c r="EL1" s="58"/>
+      <c r="EM1" s="58"/>
+      <c r="EN1" s="58"/>
+      <c r="EO1" s="58"/>
+      <c r="EP1" s="58"/>
+      <c r="EQ1" s="58"/>
+      <c r="ER1" s="58"/>
+      <c r="ES1" s="58"/>
+      <c r="ET1" s="58"/>
+      <c r="EU1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="EV1" s="57"/>
-      <c r="EW1" s="57"/>
-      <c r="EX1" s="57"/>
-      <c r="EY1" s="57"/>
-      <c r="EZ1" s="57"/>
-      <c r="FA1" s="57"/>
-      <c r="FB1" s="57"/>
-      <c r="FC1" s="57"/>
-      <c r="FD1" s="57"/>
+      <c r="EV1" s="58"/>
+      <c r="EW1" s="58"/>
+      <c r="EX1" s="58"/>
+      <c r="EY1" s="58"/>
+      <c r="EZ1" s="58"/>
+      <c r="FA1" s="58"/>
+      <c r="FB1" s="58"/>
+      <c r="FC1" s="58"/>
+      <c r="FD1" s="58"/>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
@@ -9422,22 +9422,66 @@
       <c r="DP4" s="56">
         <v>0.47339120370370374</v>
       </c>
-      <c r="DQ4" s="8"/>
-      <c r="DR4" s="21"/>
-      <c r="DS4" s="7"/>
-      <c r="DT4" s="21"/>
-      <c r="DU4" s="21"/>
-      <c r="DW4" s="56"/>
-      <c r="DY4" s="56"/>
-      <c r="DZ4" s="56"/>
-      <c r="EA4" s="8"/>
-      <c r="EB4" s="21"/>
-      <c r="EC4" s="7"/>
-      <c r="ED4" s="21"/>
-      <c r="EE4" s="21"/>
-      <c r="EG4" s="56"/>
-      <c r="EI4" s="56"/>
-      <c r="EJ4" s="56"/>
+      <c r="DQ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR4" s="56">
+        <v>0.65649305555555559</v>
+      </c>
+      <c r="DS4">
+        <v>50</v>
+      </c>
+      <c r="DT4" s="56">
+        <v>0.65640046296296295</v>
+      </c>
+      <c r="DU4" s="56">
+        <v>0.65643518518518518</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW4" s="56">
+        <v>0.62921296296296292</v>
+      </c>
+      <c r="DX4">
+        <v>100</v>
+      </c>
+      <c r="DY4" s="56">
+        <v>0.62912037037037039</v>
+      </c>
+      <c r="DZ4" s="56">
+        <v>0.62914351851851846</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB4" s="56">
+        <v>0.67401620370370363</v>
+      </c>
+      <c r="EC4">
+        <v>100</v>
+      </c>
+      <c r="ED4" s="56">
+        <v>0.67394675925925929</v>
+      </c>
+      <c r="EE4" s="56">
+        <v>0.67396990740740748</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="EG4" s="56">
+        <v>0.68944444444444442</v>
+      </c>
+      <c r="EH4">
+        <v>3</v>
+      </c>
+      <c r="EI4" s="56">
+        <v>0.68914351851851852</v>
+      </c>
+      <c r="EJ4" s="56">
+        <v>0.68942129629629623</v>
+      </c>
       <c r="EK4" s="8"/>
       <c r="EL4" s="21"/>
       <c r="EM4" s="7"/>
@@ -9786,22 +9830,66 @@
       <c r="DP5" s="56">
         <v>0.47373842592592591</v>
       </c>
-      <c r="DQ5" s="8"/>
-      <c r="DR5" s="21"/>
-      <c r="DS5" s="7"/>
-      <c r="DT5" s="21"/>
-      <c r="DU5" s="21"/>
-      <c r="DW5" s="56"/>
-      <c r="DY5" s="56"/>
-      <c r="DZ5" s="56"/>
-      <c r="EA5" s="8"/>
-      <c r="EB5" s="21"/>
-      <c r="EC5" s="7"/>
-      <c r="ED5" s="21"/>
-      <c r="EE5" s="21"/>
-      <c r="EG5" s="56"/>
-      <c r="EI5" s="56"/>
-      <c r="EJ5" s="56"/>
+      <c r="DQ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR5" s="56">
+        <v>0.65675925925925926</v>
+      </c>
+      <c r="DS5">
+        <v>100</v>
+      </c>
+      <c r="DT5" s="56">
+        <v>0.65668981481481481</v>
+      </c>
+      <c r="DU5" s="56">
+        <v>0.656712962962963</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DW5" s="56">
+        <v>0.62950231481481478</v>
+      </c>
+      <c r="DX5">
+        <v>30</v>
+      </c>
+      <c r="DY5" s="56">
+        <v>0.62939814814814821</v>
+      </c>
+      <c r="DZ5" s="56">
+        <v>0.62944444444444447</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB5" s="56">
+        <v>0.67429398148148145</v>
+      </c>
+      <c r="EC5">
+        <v>50</v>
+      </c>
+      <c r="ED5" s="56">
+        <v>0.67422453703703711</v>
+      </c>
+      <c r="EE5" s="56">
+        <v>0.67425925925925922</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG5" s="56">
+        <v>0.68973379629629628</v>
+      </c>
+      <c r="EH5">
+        <v>50</v>
+      </c>
+      <c r="EI5" s="56">
+        <v>0.68967592592592597</v>
+      </c>
+      <c r="EJ5" s="56">
+        <v>0.6897106481481482</v>
+      </c>
       <c r="EK5" s="8"/>
       <c r="EL5" s="21"/>
       <c r="EM5" s="7"/>
@@ -10150,22 +10238,66 @@
       <c r="DP6" s="56">
         <v>0.47402777777777777</v>
       </c>
-      <c r="DQ6" s="8"/>
-      <c r="DR6" s="21"/>
-      <c r="DS6" s="7"/>
-      <c r="DT6" s="21"/>
-      <c r="DU6" s="21"/>
-      <c r="DW6" s="56"/>
-      <c r="DY6" s="56"/>
-      <c r="DZ6" s="56"/>
-      <c r="EA6" s="8"/>
-      <c r="EB6" s="21"/>
-      <c r="EC6" s="7"/>
-      <c r="ED6" s="21"/>
-      <c r="EE6" s="21"/>
-      <c r="EG6" s="56"/>
-      <c r="EI6" s="56"/>
-      <c r="EJ6" s="56"/>
+      <c r="DQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR6" s="56">
+        <v>0.65702546296296294</v>
+      </c>
+      <c r="DS6">
+        <v>200</v>
+      </c>
+      <c r="DT6" s="56">
+        <v>0.65696759259259252</v>
+      </c>
+      <c r="DU6" s="56">
+        <v>0.65699074074074071</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW6" s="56">
+        <v>0.62979166666666664</v>
+      </c>
+      <c r="DX6">
+        <v>50</v>
+      </c>
+      <c r="DY6" s="56">
+        <v>0.62968750000000007</v>
+      </c>
+      <c r="DZ6" s="56">
+        <v>0.62972222222222218</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="EB6" s="56">
+        <v>0.67458333333333342</v>
+      </c>
+      <c r="EC6">
+        <v>30</v>
+      </c>
+      <c r="ED6" s="56">
+        <v>0.67451388888888886</v>
+      </c>
+      <c r="EE6" s="56">
+        <v>0.67454861111111108</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG6" s="56">
+        <v>0.69008101851851855</v>
+      </c>
+      <c r="EH6">
+        <v>10</v>
+      </c>
+      <c r="EI6" s="56">
+        <v>0.68995370370370368</v>
+      </c>
+      <c r="EJ6" s="56">
+        <v>0.69005787037037036</v>
+      </c>
       <c r="EK6" s="8"/>
       <c r="EL6" s="21"/>
       <c r="EM6" s="7"/>
@@ -10514,22 +10646,66 @@
       <c r="DP7" s="56">
         <v>0.47430555555555554</v>
       </c>
-      <c r="DQ7" s="8"/>
-      <c r="DR7" s="21"/>
-      <c r="DS7" s="7"/>
-      <c r="DT7" s="21"/>
-      <c r="DU7" s="21"/>
-      <c r="DW7" s="56"/>
-      <c r="DY7" s="56"/>
-      <c r="DZ7" s="56"/>
-      <c r="EA7" s="8"/>
-      <c r="EB7" s="21"/>
-      <c r="EC7" s="7"/>
-      <c r="ED7" s="21"/>
-      <c r="EE7" s="21"/>
-      <c r="EG7" s="56"/>
-      <c r="EI7" s="56"/>
-      <c r="EJ7" s="56"/>
+      <c r="DQ7" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR7" s="56">
+        <v>0.65736111111111117</v>
+      </c>
+      <c r="DS7">
+        <v>10</v>
+      </c>
+      <c r="DT7" s="56">
+        <v>0.65724537037037034</v>
+      </c>
+      <c r="DU7" s="56">
+        <v>0.65733796296296299</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>4</v>
+      </c>
+      <c r="DW7" s="56">
+        <v>0.63013888888888892</v>
+      </c>
+      <c r="DX7">
+        <v>10</v>
+      </c>
+      <c r="DY7" s="56">
+        <v>0.62997685185185182</v>
+      </c>
+      <c r="DZ7" s="56">
+        <v>0.63006944444444446</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB7" s="56">
+        <v>0.67511574074074077</v>
+      </c>
+      <c r="EC7">
+        <v>3</v>
+      </c>
+      <c r="ED7" s="56">
+        <v>0.67480324074074083</v>
+      </c>
+      <c r="EE7" s="56">
+        <v>0.67508101851851843</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG7" s="56">
+        <v>0.69037037037037041</v>
+      </c>
+      <c r="EH7">
+        <v>30</v>
+      </c>
+      <c r="EI7" s="56">
+        <v>0.69030092592592596</v>
+      </c>
+      <c r="EJ7" s="56">
+        <v>0.69034722222222233</v>
+      </c>
       <c r="EK7" s="8"/>
       <c r="EL7" s="21"/>
       <c r="EM7" s="7"/>
@@ -10878,22 +11054,66 @@
       <c r="DP8" s="56">
         <v>0.4745949074074074</v>
       </c>
-      <c r="DQ8" s="8"/>
-      <c r="DR8" s="21"/>
-      <c r="DS8" s="7"/>
-      <c r="DT8" s="21"/>
-      <c r="DU8" s="21"/>
-      <c r="DW8" s="56"/>
-      <c r="DY8" s="56"/>
-      <c r="DZ8" s="56"/>
-      <c r="EA8" s="8"/>
-      <c r="EB8" s="21"/>
-      <c r="EC8" s="7"/>
-      <c r="ED8" s="21"/>
-      <c r="EE8" s="21"/>
-      <c r="EG8" s="56"/>
-      <c r="EI8" s="56"/>
-      <c r="EJ8" s="56"/>
+      <c r="DQ8" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR8" s="56">
+        <v>0.65790509259259256</v>
+      </c>
+      <c r="DS8">
+        <v>3</v>
+      </c>
+      <c r="DT8" s="56">
+        <v>0.65759259259259262</v>
+      </c>
+      <c r="DU8" s="56">
+        <v>0.65787037037037044</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>4</v>
+      </c>
+      <c r="DW8" s="56">
+        <v>0.63065972222222222</v>
+      </c>
+      <c r="DX8">
+        <v>3</v>
+      </c>
+      <c r="DY8" s="56">
+        <v>0.63032407407407409</v>
+      </c>
+      <c r="DZ8" s="56">
+        <v>0.6306018518518518</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB8" s="56">
+        <v>0.67538194444444455</v>
+      </c>
+      <c r="EC8">
+        <v>200</v>
+      </c>
+      <c r="ED8" s="56">
+        <v>0.67533564814814817</v>
+      </c>
+      <c r="EE8" s="56">
+        <v>0.67535879629629625</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>4</v>
+      </c>
+      <c r="EG8" s="56">
+        <v>0.69065972222222216</v>
+      </c>
+      <c r="EH8">
+        <v>100</v>
+      </c>
+      <c r="EI8" s="56">
+        <v>0.69060185185185186</v>
+      </c>
+      <c r="EJ8" s="56">
+        <v>0.69062499999999993</v>
+      </c>
       <c r="EK8" s="8"/>
       <c r="EL8" s="21"/>
       <c r="EM8" s="7"/>
@@ -11242,22 +11462,66 @@
       <c r="DP9" s="56">
         <v>0.47486111111111112</v>
       </c>
-      <c r="DQ9" s="8"/>
-      <c r="DR9" s="21"/>
-      <c r="DS9" s="7"/>
-      <c r="DT9" s="21"/>
-      <c r="DU9" s="21"/>
-      <c r="DW9" s="56"/>
-      <c r="DY9" s="56"/>
-      <c r="DZ9" s="56"/>
-      <c r="EA9" s="8"/>
-      <c r="EB9" s="21"/>
-      <c r="EC9" s="7"/>
-      <c r="ED9" s="21"/>
-      <c r="EE9" s="21"/>
-      <c r="EG9" s="56"/>
-      <c r="EI9" s="56"/>
-      <c r="EJ9" s="56"/>
+      <c r="DQ9" t="s">
+        <v>12</v>
+      </c>
+      <c r="DR9" s="56">
+        <v>0.65818287037037038</v>
+      </c>
+      <c r="DS9">
+        <v>30</v>
+      </c>
+      <c r="DT9" s="56">
+        <v>0.65811342592592592</v>
+      </c>
+      <c r="DU9" s="56">
+        <v>0.65815972222222219</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW9" s="56">
+        <v>0.63093750000000004</v>
+      </c>
+      <c r="DX9">
+        <v>200</v>
+      </c>
+      <c r="DY9" s="56">
+        <v>0.63085648148148155</v>
+      </c>
+      <c r="DZ9" s="56">
+        <v>0.63087962962962962</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB9" s="56">
+        <v>0.67574074074074064</v>
+      </c>
+      <c r="EC9">
+        <v>10</v>
+      </c>
+      <c r="ED9" s="56">
+        <v>0.67560185185185195</v>
+      </c>
+      <c r="EE9" s="56">
+        <v>0.67570601851851853</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>2</v>
+      </c>
+      <c r="EG9" s="56">
+        <v>0.69093749999999998</v>
+      </c>
+      <c r="EH9">
+        <v>200</v>
+      </c>
+      <c r="EI9" s="56">
+        <v>0.69087962962962957</v>
+      </c>
+      <c r="EJ9" s="56">
+        <v>0.69090277777777775</v>
+      </c>
       <c r="EK9" s="8"/>
       <c r="EL9" s="21"/>
       <c r="EM9" s="7"/>
@@ -11606,22 +11870,66 @@
       <c r="DP10" s="56">
         <v>0.47515046296296298</v>
       </c>
-      <c r="DQ10" s="8"/>
-      <c r="DR10" s="21"/>
-      <c r="DS10" s="7"/>
-      <c r="DT10" s="21"/>
-      <c r="DU10" s="21"/>
-      <c r="DW10" s="56"/>
-      <c r="DY10" s="56"/>
-      <c r="DZ10" s="56"/>
-      <c r="EA10" s="8"/>
-      <c r="EB10" s="21"/>
-      <c r="EC10" s="7"/>
-      <c r="ED10" s="21"/>
-      <c r="EE10" s="21"/>
-      <c r="EG10" s="56"/>
-      <c r="EI10" s="56"/>
-      <c r="EJ10" s="56"/>
+      <c r="DQ10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DR10" s="56">
+        <v>0.65854166666666669</v>
+      </c>
+      <c r="DS10">
+        <v>10</v>
+      </c>
+      <c r="DT10" s="56">
+        <v>0.65841435185185182</v>
+      </c>
+      <c r="DU10" s="56">
+        <v>0.65850694444444446</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW10" s="56">
+        <v>0.63127314814814817</v>
+      </c>
+      <c r="DX10">
+        <v>10</v>
+      </c>
+      <c r="DY10" s="56">
+        <v>0.63112268518518522</v>
+      </c>
+      <c r="DZ10" s="56">
+        <v>0.6312268518518519</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB10" s="56">
+        <v>0.67601851851851846</v>
+      </c>
+      <c r="EC10">
+        <v>50</v>
+      </c>
+      <c r="ED10" s="56">
+        <v>0.67594907407407412</v>
+      </c>
+      <c r="EE10" s="56">
+        <v>0.67598379629629635</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG10" s="56">
+        <v>0.69126157407407407</v>
+      </c>
+      <c r="EH10">
+        <v>10</v>
+      </c>
+      <c r="EI10" s="56">
+        <v>0.69114583333333324</v>
+      </c>
+      <c r="EJ10" s="56">
+        <v>0.69125000000000003</v>
+      </c>
       <c r="EK10" s="8"/>
       <c r="EL10" s="21"/>
       <c r="EM10" s="7"/>
@@ -11970,22 +12278,66 @@
       <c r="DP11" s="56">
         <v>0.47549768518518515</v>
       </c>
-      <c r="DQ11" s="8"/>
-      <c r="DR11" s="21"/>
-      <c r="DS11" s="7"/>
-      <c r="DT11" s="21"/>
-      <c r="DU11" s="21"/>
-      <c r="DW11" s="56"/>
-      <c r="DY11" s="56"/>
-      <c r="DZ11" s="56"/>
-      <c r="EA11" s="8"/>
-      <c r="EB11" s="21"/>
-      <c r="EC11" s="7"/>
-      <c r="ED11" s="21"/>
-      <c r="EE11" s="21"/>
-      <c r="EG11" s="56"/>
-      <c r="EI11" s="56"/>
-      <c r="EJ11" s="56"/>
+      <c r="DQ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR11" s="56">
+        <v>0.65880787037037036</v>
+      </c>
+      <c r="DS11">
+        <v>200</v>
+      </c>
+      <c r="DT11" s="56">
+        <v>0.6587615740740741</v>
+      </c>
+      <c r="DU11" s="56">
+        <v>0.65878472222222217</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>4</v>
+      </c>
+      <c r="DW11" s="56">
+        <v>0.63153935185185184</v>
+      </c>
+      <c r="DX11">
+        <v>200</v>
+      </c>
+      <c r="DY11" s="56">
+        <v>0.63146990740740738</v>
+      </c>
+      <c r="DZ11" s="56">
+        <v>0.63149305555555557</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB11" s="56">
+        <v>0.67636574074074074</v>
+      </c>
+      <c r="EC11">
+        <v>10</v>
+      </c>
+      <c r="ED11" s="56">
+        <v>0.67623842592592587</v>
+      </c>
+      <c r="EE11" s="56">
+        <v>0.67633101851851851</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG11" s="56">
+        <v>0.69179398148148152</v>
+      </c>
+      <c r="EH11">
+        <v>3</v>
+      </c>
+      <c r="EI11" s="56">
+        <v>0.69149305555555562</v>
+      </c>
+      <c r="EJ11" s="56">
+        <v>0.69178240740740737</v>
+      </c>
       <c r="EK11" s="8"/>
       <c r="EL11" s="21"/>
       <c r="EM11" s="7"/>
@@ -12334,22 +12686,66 @@
       <c r="DP12" s="56">
         <v>0.47578703703703701</v>
       </c>
-      <c r="DQ12" s="8"/>
-      <c r="DR12" s="21"/>
-      <c r="DS12" s="7"/>
-      <c r="DT12" s="21"/>
-      <c r="DU12" s="21"/>
-      <c r="DW12" s="56"/>
-      <c r="DY12" s="56"/>
-      <c r="DZ12" s="56"/>
-      <c r="EA12" s="8"/>
-      <c r="EB12" s="21"/>
-      <c r="EC12" s="7"/>
-      <c r="ED12" s="21"/>
-      <c r="EE12" s="21"/>
-      <c r="EG12" s="56"/>
-      <c r="EI12" s="56"/>
-      <c r="EJ12" s="56"/>
+      <c r="DQ12" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR12" s="56">
+        <v>0.65934027777777782</v>
+      </c>
+      <c r="DS12">
+        <v>3</v>
+      </c>
+      <c r="DT12" s="56">
+        <v>0.65903935185185192</v>
+      </c>
+      <c r="DU12" s="56">
+        <v>0.65931712962962963</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW12" s="56">
+        <v>0.63184027777777774</v>
+      </c>
+      <c r="DX12">
+        <v>30</v>
+      </c>
+      <c r="DY12" s="56">
+        <v>0.6317476851851852</v>
+      </c>
+      <c r="DZ12" s="56">
+        <v>0.63179398148148147</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB12" s="56">
+        <v>0.6766550925925926</v>
+      </c>
+      <c r="EC12">
+        <v>200</v>
+      </c>
+      <c r="ED12" s="56">
+        <v>0.67658564814814814</v>
+      </c>
+      <c r="EE12" s="56">
+        <v>0.67660879629629633</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG12" s="56">
+        <v>0.69208333333333327</v>
+      </c>
+      <c r="EH12">
+        <v>100</v>
+      </c>
+      <c r="EI12" s="56">
+        <v>0.69202546296296286</v>
+      </c>
+      <c r="EJ12" s="56">
+        <v>0.69206018518518519</v>
+      </c>
       <c r="EK12" s="8"/>
       <c r="EL12" s="21"/>
       <c r="EM12" s="7"/>
@@ -12698,22 +13094,66 @@
       <c r="DP13" s="56">
         <v>0.47606481481481483</v>
       </c>
-      <c r="DQ13" s="8"/>
-      <c r="DR13" s="21"/>
-      <c r="DS13" s="7"/>
-      <c r="DT13" s="21"/>
-      <c r="DU13" s="21"/>
-      <c r="DW13" s="56"/>
-      <c r="DY13" s="56"/>
-      <c r="DZ13" s="56"/>
-      <c r="EA13" s="8"/>
-      <c r="EB13" s="21"/>
-      <c r="EC13" s="7"/>
-      <c r="ED13" s="21"/>
-      <c r="EE13" s="21"/>
-      <c r="EG13" s="56"/>
-      <c r="EI13" s="56"/>
-      <c r="EJ13" s="56"/>
+      <c r="DQ13" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR13" s="56">
+        <v>0.65961805555555553</v>
+      </c>
+      <c r="DS13">
+        <v>50</v>
+      </c>
+      <c r="DT13" s="56">
+        <v>0.65956018518518522</v>
+      </c>
+      <c r="DU13" s="56">
+        <v>0.65959490740740734</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>20</v>
+      </c>
+      <c r="DW13" s="56">
+        <v>0.63238425925925923</v>
+      </c>
+      <c r="DX13">
+        <v>3</v>
+      </c>
+      <c r="DY13" s="56">
+        <v>0.63203703703703706</v>
+      </c>
+      <c r="DZ13" s="56">
+        <v>0.63231481481481489</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB13" s="56">
+        <v>0.67694444444444446</v>
+      </c>
+      <c r="EC13">
+        <v>30</v>
+      </c>
+      <c r="ED13" s="56">
+        <v>0.67686342592592597</v>
+      </c>
+      <c r="EE13" s="56">
+        <v>0.67689814814814808</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG13" s="56">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="EH13">
+        <v>200</v>
+      </c>
+      <c r="EI13" s="56">
+        <v>0.69230324074074068</v>
+      </c>
+      <c r="EJ13" s="56">
+        <v>0.69232638888888898</v>
+      </c>
       <c r="EK13" s="8"/>
       <c r="EL13" s="21"/>
       <c r="EM13" s="7"/>
@@ -13062,22 +13502,66 @@
       <c r="DP14" s="56">
         <v>0.47659722222222217</v>
       </c>
-      <c r="DQ14" s="8"/>
-      <c r="DR14" s="21"/>
-      <c r="DS14" s="7"/>
-      <c r="DT14" s="21"/>
-      <c r="DU14" s="21"/>
-      <c r="DW14" s="56"/>
-      <c r="DY14" s="56"/>
-      <c r="DZ14" s="56"/>
-      <c r="EA14" s="8"/>
-      <c r="EB14" s="21"/>
-      <c r="EC14" s="7"/>
-      <c r="ED14" s="21"/>
-      <c r="EE14" s="21"/>
-      <c r="EG14" s="56"/>
-      <c r="EI14" s="56"/>
-      <c r="EJ14" s="56"/>
+      <c r="DQ14" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR14" s="56">
+        <v>0.65990740740740739</v>
+      </c>
+      <c r="DS14">
+        <v>30</v>
+      </c>
+      <c r="DT14" s="56">
+        <v>0.65984953703703708</v>
+      </c>
+      <c r="DU14" s="56">
+        <v>0.65989583333333335</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>20</v>
+      </c>
+      <c r="DW14" s="56">
+        <v>0.6326504629629629</v>
+      </c>
+      <c r="DX14">
+        <v>100</v>
+      </c>
+      <c r="DY14" s="56">
+        <v>0.63256944444444441</v>
+      </c>
+      <c r="DZ14" s="56">
+        <v>0.6325925925925926</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB14" s="56">
+        <v>0.67746527777777776</v>
+      </c>
+      <c r="EC14">
+        <v>3</v>
+      </c>
+      <c r="ED14" s="56">
+        <v>0.67715277777777771</v>
+      </c>
+      <c r="EE14" s="56">
+        <v>0.67743055555555554</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG14" s="56">
+        <v>0.69265046296296295</v>
+      </c>
+      <c r="EH14">
+        <v>30</v>
+      </c>
+      <c r="EI14" s="56">
+        <v>0.6925810185185185</v>
+      </c>
+      <c r="EJ14" s="56">
+        <v>0.69262731481481488</v>
+      </c>
       <c r="EK14" s="8"/>
       <c r="EL14" s="21"/>
       <c r="EM14" s="7"/>
@@ -13426,22 +13910,66 @@
       <c r="DP15" s="56">
         <v>0.47687499999999999</v>
       </c>
-      <c r="DQ15" s="8"/>
-      <c r="DR15" s="21"/>
-      <c r="DS15" s="7"/>
-      <c r="DT15" s="21"/>
-      <c r="DU15" s="21"/>
-      <c r="DW15" s="56"/>
-      <c r="DY15" s="56"/>
-      <c r="DZ15" s="56"/>
-      <c r="EA15" s="8"/>
-      <c r="EB15" s="21"/>
-      <c r="EC15" s="7"/>
-      <c r="ED15" s="21"/>
-      <c r="EE15" s="21"/>
-      <c r="EG15" s="56"/>
-      <c r="EI15" s="56"/>
-      <c r="EJ15" s="56"/>
+      <c r="DQ15" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR15" s="56">
+        <v>0.6602083333333334</v>
+      </c>
+      <c r="DS15">
+        <v>100</v>
+      </c>
+      <c r="DT15" s="56">
+        <v>0.66013888888888894</v>
+      </c>
+      <c r="DU15" s="56">
+        <v>0.66017361111111106</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW15" s="56">
+        <v>0.63291666666666668</v>
+      </c>
+      <c r="DX15">
+        <v>50</v>
+      </c>
+      <c r="DY15" s="56">
+        <v>0.63284722222222223</v>
+      </c>
+      <c r="DZ15" s="56">
+        <v>0.63288194444444446</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB15" s="56">
+        <v>0.67774305555555558</v>
+      </c>
+      <c r="EC15">
+        <v>100</v>
+      </c>
+      <c r="ED15" s="56">
+        <v>0.67768518518518517</v>
+      </c>
+      <c r="EE15" s="56">
+        <v>0.67770833333333336</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG15" s="56">
+        <v>0.69292824074074078</v>
+      </c>
+      <c r="EH15">
+        <v>50</v>
+      </c>
+      <c r="EI15" s="56">
+        <v>0.69287037037037036</v>
+      </c>
+      <c r="EJ15" s="56">
+        <v>0.6929050925925927</v>
+      </c>
       <c r="EK15" s="8"/>
       <c r="EL15" s="21"/>
       <c r="EM15" s="7"/>
@@ -13790,22 +14318,66 @@
       <c r="DP16" s="56">
         <v>0.47715277777777776</v>
       </c>
-      <c r="DQ16" s="8"/>
-      <c r="DR16" s="21"/>
-      <c r="DS16" s="7"/>
-      <c r="DT16" s="21"/>
-      <c r="DU16" s="21"/>
-      <c r="DW16" s="56"/>
-      <c r="DY16" s="56"/>
-      <c r="DZ16" s="56"/>
-      <c r="EA16" s="8"/>
-      <c r="EB16" s="21"/>
-      <c r="EC16" s="7"/>
-      <c r="ED16" s="21"/>
-      <c r="EE16" s="21"/>
-      <c r="EG16" s="56"/>
-      <c r="EI16" s="56"/>
-      <c r="EJ16" s="56"/>
+      <c r="DQ16" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR16" s="56">
+        <v>0.66049768518518526</v>
+      </c>
+      <c r="DS16">
+        <v>30</v>
+      </c>
+      <c r="DT16" s="56">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="DU16" s="56">
+        <v>0.66046296296296292</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW16" s="56">
+        <v>0.63343749999999999</v>
+      </c>
+      <c r="DX16">
+        <v>3</v>
+      </c>
+      <c r="DY16" s="56">
+        <v>0.63313657407407409</v>
+      </c>
+      <c r="DZ16" s="56">
+        <v>0.63341435185185191</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB16" s="56">
+        <v>0.67802083333333341</v>
+      </c>
+      <c r="EC16">
+        <v>200</v>
+      </c>
+      <c r="ED16" s="56">
+        <v>0.67796296296296299</v>
+      </c>
+      <c r="EE16" s="56">
+        <v>0.67798611111111118</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>4</v>
+      </c>
+      <c r="EG16" s="56">
+        <v>0.69346064814814812</v>
+      </c>
+      <c r="EH16">
+        <v>3</v>
+      </c>
+      <c r="EI16" s="56">
+        <v>0.69315972222222222</v>
+      </c>
+      <c r="EJ16" s="56">
+        <v>0.69343749999999993</v>
+      </c>
       <c r="EK16" s="8"/>
       <c r="EL16" s="21"/>
       <c r="EM16" s="7"/>
@@ -14154,22 +14726,66 @@
       <c r="DP17" s="56">
         <v>0.47744212962962962</v>
       </c>
-      <c r="DQ17" s="8"/>
-      <c r="DR17" s="21"/>
-      <c r="DS17" s="7"/>
-      <c r="DT17" s="21"/>
-      <c r="DU17" s="21"/>
-      <c r="DW17" s="56"/>
-      <c r="DY17" s="56"/>
-      <c r="DZ17" s="56"/>
-      <c r="EA17" s="8"/>
-      <c r="EB17" s="21"/>
-      <c r="EC17" s="7"/>
-      <c r="ED17" s="21"/>
-      <c r="EE17" s="21"/>
-      <c r="EG17" s="56"/>
-      <c r="EI17" s="56"/>
-      <c r="EJ17" s="56"/>
+      <c r="DQ17" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR17" s="56">
+        <v>0.66076388888888882</v>
+      </c>
+      <c r="DS17">
+        <v>50</v>
+      </c>
+      <c r="DT17" s="56">
+        <v>0.66071759259259266</v>
+      </c>
+      <c r="DU17" s="56">
+        <v>0.66075231481481478</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>10</v>
+      </c>
+      <c r="DW17" s="56">
+        <v>0.63371527777777781</v>
+      </c>
+      <c r="DX17">
+        <v>200</v>
+      </c>
+      <c r="DY17" s="56">
+        <v>0.63365740740740739</v>
+      </c>
+      <c r="DZ17" s="56">
+        <v>0.63368055555555558</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB17" s="56">
+        <v>0.67835648148148142</v>
+      </c>
+      <c r="EC17">
+        <v>10</v>
+      </c>
+      <c r="ED17" s="56">
+        <v>0.67822916666666666</v>
+      </c>
+      <c r="EE17" s="56">
+        <v>0.67833333333333334</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG17" s="56">
+        <v>0.69373842592592594</v>
+      </c>
+      <c r="EH17">
+        <v>100</v>
+      </c>
+      <c r="EI17" s="56">
+        <v>0.69369212962962967</v>
+      </c>
+      <c r="EJ17" s="56">
+        <v>0.69371527777777775</v>
+      </c>
       <c r="EK17" s="8"/>
       <c r="EL17" s="21"/>
       <c r="EM17" s="7"/>
@@ -14518,22 +15134,66 @@
       <c r="DP18" s="56">
         <v>0.47771990740740744</v>
       </c>
-      <c r="DQ18" s="8"/>
-      <c r="DR18" s="21"/>
-      <c r="DS18" s="7"/>
-      <c r="DT18" s="21"/>
-      <c r="DU18" s="21"/>
-      <c r="DW18" s="56"/>
-      <c r="DY18" s="56"/>
-      <c r="DZ18" s="56"/>
-      <c r="EA18" s="8"/>
-      <c r="EB18" s="21"/>
-      <c r="EC18" s="7"/>
-      <c r="ED18" s="21"/>
-      <c r="EE18" s="21"/>
-      <c r="EG18" s="56"/>
-      <c r="EI18" s="56"/>
-      <c r="EJ18" s="56"/>
+      <c r="DQ18" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR18" s="56">
+        <v>0.66130787037037042</v>
+      </c>
+      <c r="DS18">
+        <v>3</v>
+      </c>
+      <c r="DT18" s="56">
+        <v>0.66100694444444441</v>
+      </c>
+      <c r="DU18" s="56">
+        <v>0.66128472222222223</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW18" s="56">
+        <v>0.63401620370370371</v>
+      </c>
+      <c r="DX18">
+        <v>30</v>
+      </c>
+      <c r="DY18" s="56">
+        <v>0.63393518518518521</v>
+      </c>
+      <c r="DZ18" s="56">
+        <v>0.63398148148148148</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB18" s="56">
+        <v>0.67863425925925924</v>
+      </c>
+      <c r="EC18">
+        <v>100</v>
+      </c>
+      <c r="ED18" s="56">
+        <v>0.67857638888888883</v>
+      </c>
+      <c r="EE18" s="56">
+        <v>0.67861111111111105</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG18" s="56">
+        <v>0.69401620370370365</v>
+      </c>
+      <c r="EH18">
+        <v>30</v>
+      </c>
+      <c r="EI18" s="56">
+        <v>0.69396990740740738</v>
+      </c>
+      <c r="EJ18" s="56">
+        <v>0.69400462962962972</v>
+      </c>
       <c r="EK18" s="8"/>
       <c r="EL18" s="21"/>
       <c r="EM18" s="7"/>
@@ -14882,22 +15542,66 @@
       <c r="DP19" s="56">
         <v>0.47799768518518521</v>
       </c>
-      <c r="DQ19" s="8"/>
-      <c r="DR19" s="21"/>
-      <c r="DS19" s="7"/>
-      <c r="DT19" s="21"/>
-      <c r="DU19" s="21"/>
-      <c r="DW19" s="56"/>
-      <c r="DY19" s="56"/>
-      <c r="DZ19" s="56"/>
-      <c r="EA19" s="8"/>
-      <c r="EB19" s="21"/>
-      <c r="EC19" s="7"/>
-      <c r="ED19" s="21"/>
-      <c r="EE19" s="21"/>
-      <c r="EG19" s="56"/>
-      <c r="EI19" s="56"/>
-      <c r="EJ19" s="56"/>
+      <c r="DQ19" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR19" s="56">
+        <v>0.66165509259259259</v>
+      </c>
+      <c r="DS19">
+        <v>10</v>
+      </c>
+      <c r="DT19" s="56">
+        <v>0.66152777777777783</v>
+      </c>
+      <c r="DU19" s="56">
+        <v>0.6616319444444444</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>20</v>
+      </c>
+      <c r="DW19" s="56">
+        <v>0.63428240740740738</v>
+      </c>
+      <c r="DX19">
+        <v>100</v>
+      </c>
+      <c r="DY19" s="56">
+        <v>0.63423611111111111</v>
+      </c>
+      <c r="DZ19" s="56">
+        <v>0.63425925925925919</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB19" s="56">
+        <v>0.67915509259259255</v>
+      </c>
+      <c r="EC19">
+        <v>3</v>
+      </c>
+      <c r="ED19" s="56">
+        <v>0.67885416666666665</v>
+      </c>
+      <c r="EE19" s="56">
+        <v>0.67913194444444447</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG19" s="56">
+        <v>0.69430555555555562</v>
+      </c>
+      <c r="EH19">
+        <v>50</v>
+      </c>
+      <c r="EI19" s="56">
+        <v>0.69425925925925924</v>
+      </c>
+      <c r="EJ19" s="56">
+        <v>0.69429398148148147</v>
+      </c>
       <c r="EK19" s="8"/>
       <c r="EL19" s="21"/>
       <c r="EM19" s="7"/>
@@ -15246,22 +15950,66 @@
       <c r="DP20" s="56">
         <v>0.47834490740740737</v>
       </c>
-      <c r="DQ20" s="8"/>
-      <c r="DR20" s="21"/>
-      <c r="DS20" s="7"/>
-      <c r="DT20" s="21"/>
-      <c r="DU20" s="21"/>
-      <c r="DW20" s="56"/>
-      <c r="DY20" s="56"/>
-      <c r="DZ20" s="56"/>
-      <c r="EA20" s="8"/>
-      <c r="EB20" s="21"/>
-      <c r="EC20" s="7"/>
-      <c r="ED20" s="21"/>
-      <c r="EE20" s="21"/>
-      <c r="EG20" s="56"/>
-      <c r="EI20" s="56"/>
-      <c r="EJ20" s="56"/>
+      <c r="DQ20" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR20" s="56">
+        <v>0.66192129629629626</v>
+      </c>
+      <c r="DS20">
+        <v>200</v>
+      </c>
+      <c r="DT20" s="56">
+        <v>0.66187499999999999</v>
+      </c>
+      <c r="DU20" s="56">
+        <v>0.66189814814814818</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW20" s="56">
+        <v>0.63462962962962965</v>
+      </c>
+      <c r="DX20">
+        <v>10</v>
+      </c>
+      <c r="DY20" s="56">
+        <v>0.63451388888888893</v>
+      </c>
+      <c r="DZ20" s="56">
+        <v>0.63460648148148147</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB20" s="56">
+        <v>0.6794675925925926</v>
+      </c>
+      <c r="EC20">
+        <v>30</v>
+      </c>
+      <c r="ED20" s="56">
+        <v>0.6793865740740741</v>
+      </c>
+      <c r="EE20" s="56">
+        <v>0.67943287037037037</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG20" s="56">
+        <v>0.69466435185185194</v>
+      </c>
+      <c r="EH20">
+        <v>10</v>
+      </c>
+      <c r="EI20" s="56">
+        <v>0.6945486111111111</v>
+      </c>
+      <c r="EJ20" s="56">
+        <v>0.69464120370370364</v>
+      </c>
       <c r="EK20" s="8"/>
       <c r="EL20" s="21"/>
       <c r="EM20" s="7"/>
@@ -15610,22 +16358,66 @@
       <c r="DP21" s="56">
         <v>0.47887731481481483</v>
       </c>
-      <c r="DQ21" s="8"/>
-      <c r="DR21" s="21"/>
-      <c r="DS21" s="7"/>
-      <c r="DT21" s="21"/>
-      <c r="DU21" s="21"/>
-      <c r="DW21" s="56"/>
-      <c r="DY21" s="56"/>
-      <c r="DZ21" s="56"/>
-      <c r="EA21" s="8"/>
-      <c r="EB21" s="21"/>
-      <c r="EC21" s="7"/>
-      <c r="ED21" s="21"/>
-      <c r="EE21" s="21"/>
-      <c r="EG21" s="56"/>
-      <c r="EI21" s="56"/>
-      <c r="EJ21" s="56"/>
+      <c r="DQ21" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR21" s="56">
+        <v>0.66221064814814812</v>
+      </c>
+      <c r="DS21">
+        <v>100</v>
+      </c>
+      <c r="DT21" s="56">
+        <v>0.66215277777777781</v>
+      </c>
+      <c r="DU21" s="56">
+        <v>0.66217592592592589</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW21" s="56">
+        <v>0.63491898148148151</v>
+      </c>
+      <c r="DX21">
+        <v>50</v>
+      </c>
+      <c r="DY21" s="56">
+        <v>0.6348611111111111</v>
+      </c>
+      <c r="DZ21" s="56">
+        <v>0.63488425925925929</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>10</v>
+      </c>
+      <c r="EB21" s="56">
+        <v>0.67974537037037042</v>
+      </c>
+      <c r="EC21">
+        <v>50</v>
+      </c>
+      <c r="ED21" s="56">
+        <v>0.6796875</v>
+      </c>
+      <c r="EE21" s="56">
+        <v>0.67972222222222223</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>10</v>
+      </c>
+      <c r="EG21" s="56">
+        <v>0.69494212962962953</v>
+      </c>
+      <c r="EH21">
+        <v>200</v>
+      </c>
+      <c r="EI21" s="56">
+        <v>0.69489583333333327</v>
+      </c>
+      <c r="EJ21" s="56">
+        <v>0.69491898148148146</v>
+      </c>
       <c r="EK21" s="8"/>
       <c r="EL21" s="21"/>
       <c r="EM21" s="7"/>
@@ -15974,22 +16766,66 @@
       <c r="DP22" s="56">
         <v>0.47915509259259265</v>
       </c>
-      <c r="DQ22" s="8"/>
-      <c r="DR22" s="21"/>
-      <c r="DS22" s="7"/>
-      <c r="DT22" s="21"/>
-      <c r="DU22" s="21"/>
-      <c r="DW22" s="56"/>
-      <c r="DY22" s="56"/>
-      <c r="DZ22" s="56"/>
-      <c r="EA22" s="8"/>
-      <c r="EB22" s="21"/>
-      <c r="EC22" s="7"/>
-      <c r="ED22" s="21"/>
-      <c r="EE22" s="21"/>
-      <c r="EG22" s="56"/>
-      <c r="EI22" s="56"/>
-      <c r="EJ22" s="56"/>
+      <c r="DQ22" t="s">
+        <v>10</v>
+      </c>
+      <c r="DR22" s="56">
+        <v>0.66248842592592594</v>
+      </c>
+      <c r="DS22">
+        <v>50</v>
+      </c>
+      <c r="DT22" s="56">
+        <v>0.66243055555555552</v>
+      </c>
+      <c r="DU22" s="56">
+        <v>0.66246527777777775</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW22" s="56">
+        <v>0.63519675925925922</v>
+      </c>
+      <c r="DX22">
+        <v>100</v>
+      </c>
+      <c r="DY22" s="56">
+        <v>0.63513888888888892</v>
+      </c>
+      <c r="DZ22" s="56">
+        <v>0.63516203703703711</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB22" s="56">
+        <v>0.68009259259259258</v>
+      </c>
+      <c r="EC22">
+        <v>10</v>
+      </c>
+      <c r="ED22" s="56">
+        <v>0.67996527777777782</v>
+      </c>
+      <c r="EE22" s="56">
+        <v>0.68005787037037047</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>10</v>
+      </c>
+      <c r="EG22" s="56">
+        <v>0.69521990740740736</v>
+      </c>
+      <c r="EH22">
+        <v>200</v>
+      </c>
+      <c r="EI22" s="56">
+        <v>0.69516203703703694</v>
+      </c>
+      <c r="EJ22" s="56">
+        <v>0.69518518518518524</v>
+      </c>
       <c r="EK22" s="8"/>
       <c r="EL22" s="21"/>
       <c r="EM22" s="7"/>
@@ -16338,22 +17174,66 @@
       <c r="DP23" s="56">
         <v>0.4794444444444444</v>
       </c>
-      <c r="DQ23" s="8"/>
-      <c r="DR23" s="21"/>
-      <c r="DS23" s="7"/>
-      <c r="DT23" s="21"/>
-      <c r="DU23" s="21"/>
-      <c r="DW23" s="56"/>
-      <c r="DY23" s="56"/>
-      <c r="DZ23" s="56"/>
-      <c r="EA23" s="8"/>
-      <c r="EB23" s="21"/>
-      <c r="EC23" s="7"/>
-      <c r="ED23" s="21"/>
-      <c r="EE23" s="21"/>
-      <c r="EG23" s="56"/>
-      <c r="EI23" s="56"/>
-      <c r="EJ23" s="56"/>
+      <c r="DQ23" t="s">
+        <v>12</v>
+      </c>
+      <c r="DR23" s="56">
+        <v>0.66275462962962961</v>
+      </c>
+      <c r="DS23">
+        <v>100</v>
+      </c>
+      <c r="DT23" s="56">
+        <v>0.66271990740740738</v>
+      </c>
+      <c r="DU23" s="56">
+        <v>0.66274305555555557</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW23" s="56">
+        <v>0.63553240740740746</v>
+      </c>
+      <c r="DX23">
+        <v>10</v>
+      </c>
+      <c r="DY23" s="56">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="DZ23" s="56">
+        <v>0.63550925925925927</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB23" s="56">
+        <v>0.68038194444444444</v>
+      </c>
+      <c r="EC23">
+        <v>50</v>
+      </c>
+      <c r="ED23" s="56">
+        <v>0.68031249999999999</v>
+      </c>
+      <c r="EE23" s="56">
+        <v>0.68034722222222221</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>10</v>
+      </c>
+      <c r="EG23" s="56">
+        <v>0.69549768518518518</v>
+      </c>
+      <c r="EH23">
+        <v>100</v>
+      </c>
+      <c r="EI23" s="56">
+        <v>0.69543981481481476</v>
+      </c>
+      <c r="EJ23" s="56">
+        <v>0.69546296296296306</v>
+      </c>
       <c r="EK23" s="8"/>
       <c r="EL23" s="21"/>
       <c r="EM23" s="7"/>
@@ -16702,22 +17582,66 @@
       <c r="DP24" s="56">
         <v>0.47979166666666667</v>
       </c>
-      <c r="DQ24" s="8"/>
-      <c r="DR24" s="21"/>
-      <c r="DS24" s="7"/>
-      <c r="DT24" s="21"/>
-      <c r="DU24" s="21"/>
-      <c r="DW24" s="56"/>
-      <c r="DY24" s="56"/>
-      <c r="DZ24" s="56"/>
-      <c r="EA24" s="8"/>
-      <c r="EB24" s="21"/>
-      <c r="EC24" s="7"/>
-      <c r="ED24" s="21"/>
-      <c r="EE24" s="21"/>
-      <c r="EG24" s="56"/>
-      <c r="EI24" s="56"/>
-      <c r="EJ24" s="56"/>
+      <c r="DQ24" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR24" s="56">
+        <v>0.66311342592592593</v>
+      </c>
+      <c r="DS24">
+        <v>10</v>
+      </c>
+      <c r="DT24" s="56">
+        <v>0.6629976851851852</v>
+      </c>
+      <c r="DU24" s="56">
+        <v>0.66309027777777774</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW24" s="56">
+        <v>0.63582175925925932</v>
+      </c>
+      <c r="DX24">
+        <v>200</v>
+      </c>
+      <c r="DY24" s="56">
+        <v>0.63576388888888891</v>
+      </c>
+      <c r="DZ24" s="56">
+        <v>0.63578703703703698</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB24" s="56">
+        <v>0.68090277777777775</v>
+      </c>
+      <c r="EC24">
+        <v>3</v>
+      </c>
+      <c r="ED24" s="56">
+        <v>0.68060185185185185</v>
+      </c>
+      <c r="EE24" s="56">
+        <v>0.68087962962962967</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG24" s="56">
+        <v>0.69582175925925915</v>
+      </c>
+      <c r="EH24">
+        <v>10</v>
+      </c>
+      <c r="EI24" s="56">
+        <v>0.69571759259259258</v>
+      </c>
+      <c r="EJ24" s="56">
+        <v>0.69581018518518523</v>
+      </c>
       <c r="EK24" s="8"/>
       <c r="EL24" s="21"/>
       <c r="EM24" s="7"/>
@@ -17066,22 +17990,66 @@
       <c r="DP25" s="56">
         <v>0.48006944444444444</v>
       </c>
-      <c r="DQ25" s="8"/>
-      <c r="DR25" s="21"/>
-      <c r="DS25" s="7"/>
-      <c r="DT25" s="21"/>
-      <c r="DU25" s="21"/>
-      <c r="DW25" s="56"/>
-      <c r="DY25" s="56"/>
-      <c r="DZ25" s="56"/>
-      <c r="EA25" s="8"/>
-      <c r="EB25" s="21"/>
-      <c r="EC25" s="7"/>
-      <c r="ED25" s="21"/>
-      <c r="EE25" s="21"/>
-      <c r="EG25" s="56"/>
-      <c r="EI25" s="56"/>
-      <c r="EJ25" s="56"/>
+      <c r="DQ25" t="s">
+        <v>12</v>
+      </c>
+      <c r="DR25" s="56">
+        <v>0.6633796296296296</v>
+      </c>
+      <c r="DS25">
+        <v>200</v>
+      </c>
+      <c r="DT25" s="56">
+        <v>0.66334490740740748</v>
+      </c>
+      <c r="DU25" s="56">
+        <v>0.66335648148148152</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>20</v>
+      </c>
+      <c r="DW25" s="56">
+        <v>0.63609953703703703</v>
+      </c>
+      <c r="DX25">
+        <v>50</v>
+      </c>
+      <c r="DY25" s="56">
+        <v>0.63604166666666673</v>
+      </c>
+      <c r="DZ25" s="56">
+        <v>0.63607638888888884</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB25" s="56">
+        <v>0.68118055555555557</v>
+      </c>
+      <c r="EC25">
+        <v>100</v>
+      </c>
+      <c r="ED25" s="56">
+        <v>0.68113425925925919</v>
+      </c>
+      <c r="EE25" s="56">
+        <v>0.68115740740740749</v>
+      </c>
+      <c r="EF25" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG25" s="56">
+        <v>0.69612268518518527</v>
+      </c>
+      <c r="EH25">
+        <v>30</v>
+      </c>
+      <c r="EI25" s="56">
+        <v>0.69606481481481486</v>
+      </c>
+      <c r="EJ25" s="56">
+        <v>0.69611111111111112</v>
+      </c>
       <c r="EK25" s="8"/>
       <c r="EL25" s="21"/>
       <c r="EM25" s="7"/>
@@ -17430,22 +18398,66 @@
       <c r="DP26" s="56">
         <v>0.4803587962962963</v>
       </c>
-      <c r="DQ26" s="8"/>
-      <c r="DR26" s="21"/>
-      <c r="DS26" s="7"/>
-      <c r="DT26" s="21"/>
-      <c r="DU26" s="21"/>
-      <c r="DW26" s="56"/>
-      <c r="DY26" s="56"/>
-      <c r="DZ26" s="56"/>
-      <c r="EA26" s="8"/>
-      <c r="EB26" s="21"/>
-      <c r="EC26" s="7"/>
-      <c r="ED26" s="21"/>
-      <c r="EE26" s="21"/>
-      <c r="EG26" s="56"/>
-      <c r="EI26" s="56"/>
-      <c r="EJ26" s="56"/>
+      <c r="DQ26" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR26" s="56">
+        <v>0.66391203703703705</v>
+      </c>
+      <c r="DS26">
+        <v>3</v>
+      </c>
+      <c r="DT26" s="56">
+        <v>0.66361111111111104</v>
+      </c>
+      <c r="DU26" s="56">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>20</v>
+      </c>
+      <c r="DW26" s="56">
+        <v>0.63638888888888889</v>
+      </c>
+      <c r="DX26">
+        <v>30</v>
+      </c>
+      <c r="DY26" s="56">
+        <v>0.63631944444444444</v>
+      </c>
+      <c r="DZ26" s="56">
+        <v>0.6363657407407407</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>2</v>
+      </c>
+      <c r="EB26" s="56">
+        <v>0.68148148148148147</v>
+      </c>
+      <c r="EC26">
+        <v>30</v>
+      </c>
+      <c r="ED26" s="56">
+        <v>0.68140046296296297</v>
+      </c>
+      <c r="EE26" s="56">
+        <v>0.68144675925925924</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>4</v>
+      </c>
+      <c r="EG26" s="56">
+        <v>0.69665509259259262</v>
+      </c>
+      <c r="EH26">
+        <v>3</v>
+      </c>
+      <c r="EI26" s="56">
+        <v>0.69635416666666661</v>
+      </c>
+      <c r="EJ26" s="56">
+        <v>0.69664351851851858</v>
+      </c>
       <c r="EK26" s="8"/>
       <c r="EL26" s="21"/>
       <c r="EM26" s="7"/>
@@ -17794,22 +18806,66 @@
       <c r="DP27" s="56">
         <v>0.4808912037037037</v>
       </c>
-      <c r="DQ27" s="8"/>
-      <c r="DR27" s="21"/>
-      <c r="DS27" s="7"/>
-      <c r="DT27" s="21"/>
-      <c r="DU27" s="21"/>
-      <c r="DW27" s="56"/>
-      <c r="DY27" s="56"/>
-      <c r="DZ27" s="56"/>
-      <c r="EA27" s="8"/>
-      <c r="EB27" s="21"/>
-      <c r="EC27" s="7"/>
-      <c r="ED27" s="21"/>
-      <c r="EE27" s="21"/>
-      <c r="EG27" s="56"/>
-      <c r="EI27" s="56"/>
-      <c r="EJ27" s="56"/>
+      <c r="DQ27" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR27" s="56">
+        <v>0.66421296296296295</v>
+      </c>
+      <c r="DS27">
+        <v>30</v>
+      </c>
+      <c r="DT27" s="56">
+        <v>0.66414351851851849</v>
+      </c>
+      <c r="DU27" s="56">
+        <v>0.66418981481481476</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>4</v>
+      </c>
+      <c r="DW27" s="56">
+        <v>0.63692129629629635</v>
+      </c>
+      <c r="DX27">
+        <v>3</v>
+      </c>
+      <c r="DY27" s="56">
+        <v>0.63662037037037034</v>
+      </c>
+      <c r="DZ27" s="56">
+        <v>0.63689814814814816</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB27" s="56">
+        <v>0.68175925925925929</v>
+      </c>
+      <c r="EC27">
+        <v>200</v>
+      </c>
+      <c r="ED27" s="56">
+        <v>0.68170138888888887</v>
+      </c>
+      <c r="EE27" s="56">
+        <v>0.68172453703703706</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG27" s="56">
+        <v>0.69696759259259267</v>
+      </c>
+      <c r="EH27">
+        <v>50</v>
+      </c>
+      <c r="EI27" s="56">
+        <v>0.69688657407407406</v>
+      </c>
+      <c r="EJ27" s="56">
+        <v>0.6969212962962964</v>
+      </c>
       <c r="EK27" s="8"/>
       <c r="EL27" s="21"/>
       <c r="EM27" s="7"/>
@@ -18158,22 +19214,66 @@
       <c r="DP28" s="56">
         <v>0.481412037037037</v>
       </c>
-      <c r="DQ28" s="8"/>
-      <c r="DR28" s="21"/>
-      <c r="DS28" s="7"/>
-      <c r="DT28" s="21"/>
-      <c r="DU28" s="21"/>
-      <c r="DW28" s="56"/>
-      <c r="DY28" s="56"/>
-      <c r="DZ28" s="56"/>
-      <c r="EA28" s="8"/>
-      <c r="EB28" s="21"/>
-      <c r="EC28" s="7"/>
-      <c r="ED28" s="21"/>
-      <c r="EE28" s="21"/>
-      <c r="EG28" s="56"/>
-      <c r="EI28" s="56"/>
-      <c r="EJ28" s="56"/>
+      <c r="DQ28" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR28" s="56">
+        <v>0.66451388888888896</v>
+      </c>
+      <c r="DS28">
+        <v>30</v>
+      </c>
+      <c r="DT28" s="56">
+        <v>0.66443287037037035</v>
+      </c>
+      <c r="DU28" s="56">
+        <v>0.66447916666666662</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW28" s="56">
+        <v>0.63745370370370369</v>
+      </c>
+      <c r="DX28">
+        <v>3</v>
+      </c>
+      <c r="DY28" s="56">
+        <v>0.63715277777777779</v>
+      </c>
+      <c r="DZ28" s="56">
+        <v>0.63743055555555561</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>11</v>
+      </c>
+      <c r="EB28" s="56">
+        <v>0.68204861111111104</v>
+      </c>
+      <c r="EC28">
+        <v>30</v>
+      </c>
+      <c r="ED28" s="56">
+        <v>0.68197916666666669</v>
+      </c>
+      <c r="EE28" s="56">
+        <v>0.68201388888888881</v>
+      </c>
+      <c r="EF28" t="s">
+        <v>2</v>
+      </c>
+      <c r="EG28" s="56">
+        <v>0.69728009259259249</v>
+      </c>
+      <c r="EH28">
+        <v>10</v>
+      </c>
+      <c r="EI28" s="56">
+        <v>0.69717592592592592</v>
+      </c>
+      <c r="EJ28" s="56">
+        <v>0.69726851851851857</v>
+      </c>
       <c r="EK28" s="8"/>
       <c r="EL28" s="21"/>
       <c r="EM28" s="7"/>
@@ -18522,22 +19622,66 @@
       <c r="DP29" s="56">
         <v>0.48168981481481482</v>
       </c>
-      <c r="DQ29" s="8"/>
-      <c r="DR29" s="21"/>
-      <c r="DS29" s="7"/>
-      <c r="DT29" s="21"/>
-      <c r="DU29" s="21"/>
-      <c r="DW29" s="56"/>
-      <c r="DY29" s="56"/>
-      <c r="DZ29" s="56"/>
-      <c r="EA29" s="8"/>
-      <c r="EB29" s="21"/>
-      <c r="EC29" s="7"/>
-      <c r="ED29" s="21"/>
-      <c r="EE29" s="21"/>
-      <c r="EG29" s="56"/>
-      <c r="EI29" s="56"/>
-      <c r="EJ29" s="56"/>
+      <c r="DQ29" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR29" s="56">
+        <v>0.66478009259259252</v>
+      </c>
+      <c r="DS29">
+        <v>100</v>
+      </c>
+      <c r="DT29" s="56">
+        <v>0.66473379629629636</v>
+      </c>
+      <c r="DU29" s="56">
+        <v>0.66475694444444444</v>
+      </c>
+      <c r="DV29" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW29" s="56">
+        <v>0.63775462962962959</v>
+      </c>
+      <c r="DX29">
+        <v>30</v>
+      </c>
+      <c r="DY29" s="56">
+        <v>0.63767361111111109</v>
+      </c>
+      <c r="DZ29" s="56">
+        <v>0.63771990740740747</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB29" s="56">
+        <v>0.68238425925925927</v>
+      </c>
+      <c r="EC29">
+        <v>10</v>
+      </c>
+      <c r="ED29" s="56">
+        <v>0.68226851851851855</v>
+      </c>
+      <c r="EE29" s="56">
+        <v>0.68236111111111108</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>12</v>
+      </c>
+      <c r="EG29" s="56">
+        <v>0.69758101851851861</v>
+      </c>
+      <c r="EH29">
+        <v>30</v>
+      </c>
+      <c r="EI29" s="56">
+        <v>0.6975231481481482</v>
+      </c>
+      <c r="EJ29" s="56">
+        <v>0.69756944444444446</v>
+      </c>
       <c r="EK29" s="8"/>
       <c r="EL29" s="21"/>
       <c r="EM29" s="7"/>
@@ -18886,22 +20030,66 @@
       <c r="DP30" s="56">
         <v>0.48197916666666668</v>
       </c>
-      <c r="DQ30" s="8"/>
-      <c r="DR30" s="21"/>
-      <c r="DS30" s="7"/>
-      <c r="DT30" s="21"/>
-      <c r="DU30" s="21"/>
-      <c r="DW30" s="56"/>
-      <c r="DY30" s="56"/>
-      <c r="DZ30" s="56"/>
-      <c r="EA30" s="8"/>
-      <c r="EB30" s="21"/>
-      <c r="EC30" s="7"/>
-      <c r="ED30" s="21"/>
-      <c r="EE30" s="21"/>
-      <c r="EG30" s="56"/>
-      <c r="EI30" s="56"/>
-      <c r="EJ30" s="56"/>
+      <c r="DQ30" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR30" s="56">
+        <v>0.66513888888888884</v>
+      </c>
+      <c r="DS30">
+        <v>10</v>
+      </c>
+      <c r="DT30" s="56">
+        <v>0.66501157407407407</v>
+      </c>
+      <c r="DU30" s="56">
+        <v>0.66510416666666672</v>
+      </c>
+      <c r="DV30" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW30" s="56">
+        <v>0.63809027777777783</v>
+      </c>
+      <c r="DX30">
+        <v>10</v>
+      </c>
+      <c r="DY30" s="56">
+        <v>0.63797453703703699</v>
+      </c>
+      <c r="DZ30" s="56">
+        <v>0.63806712962962964</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB30" s="56">
+        <v>0.68291666666666673</v>
+      </c>
+      <c r="EC30">
+        <v>3</v>
+      </c>
+      <c r="ED30" s="56">
+        <v>0.68261574074074083</v>
+      </c>
+      <c r="EE30" s="56">
+        <v>0.68289351851851843</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>10</v>
+      </c>
+      <c r="EG30" s="56">
+        <v>0.69787037037037036</v>
+      </c>
+      <c r="EH30">
+        <v>50</v>
+      </c>
+      <c r="EI30" s="56">
+        <v>0.69781249999999995</v>
+      </c>
+      <c r="EJ30" s="56">
+        <v>0.69784722222222229</v>
+      </c>
       <c r="EK30" s="8"/>
       <c r="EL30" s="21"/>
       <c r="EM30" s="7"/>
@@ -19250,22 +20438,66 @@
       <c r="DP31" s="56">
         <v>0.48224537037037035</v>
       </c>
-      <c r="DQ31" s="8"/>
-      <c r="DR31" s="21"/>
-      <c r="DS31" s="7"/>
-      <c r="DT31" s="21"/>
-      <c r="DU31" s="21"/>
-      <c r="DW31" s="56"/>
-      <c r="DY31" s="56"/>
-      <c r="DZ31" s="56"/>
-      <c r="EA31" s="8"/>
-      <c r="EB31" s="21"/>
-      <c r="EC31" s="7"/>
-      <c r="ED31" s="21"/>
-      <c r="EE31" s="21"/>
-      <c r="EG31" s="56"/>
-      <c r="EI31" s="56"/>
-      <c r="EJ31" s="56"/>
+      <c r="DQ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR31" s="56">
+        <v>0.66567129629629629</v>
+      </c>
+      <c r="DS31">
+        <v>3</v>
+      </c>
+      <c r="DT31" s="56">
+        <v>0.66535879629629624</v>
+      </c>
+      <c r="DU31" s="56">
+        <v>0.66563657407407406</v>
+      </c>
+      <c r="DV31" t="s">
+        <v>18</v>
+      </c>
+      <c r="DW31" s="56">
+        <v>0.63836805555555554</v>
+      </c>
+      <c r="DX31">
+        <v>100</v>
+      </c>
+      <c r="DY31" s="56">
+        <v>0.63832175925925927</v>
+      </c>
+      <c r="DZ31" s="56">
+        <v>0.63834490740740735</v>
+      </c>
+      <c r="EA31" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB31" s="56">
+        <v>0.68320601851851848</v>
+      </c>
+      <c r="EC31">
+        <v>200</v>
+      </c>
+      <c r="ED31" s="56">
+        <v>0.68314814814814817</v>
+      </c>
+      <c r="EE31" s="56">
+        <v>0.68317129629629625</v>
+      </c>
+      <c r="EF31" t="s">
+        <v>10</v>
+      </c>
+      <c r="EG31" s="56">
+        <v>0.69814814814814818</v>
+      </c>
+      <c r="EH31">
+        <v>100</v>
+      </c>
+      <c r="EI31" s="56">
+        <v>0.69810185185185192</v>
+      </c>
+      <c r="EJ31" s="56">
+        <v>0.698125</v>
+      </c>
       <c r="EK31" s="8"/>
       <c r="EL31" s="21"/>
       <c r="EM31" s="7"/>
@@ -19614,22 +20846,66 @@
       <c r="DP32" s="56">
         <v>0.48259259259259263</v>
       </c>
-      <c r="DQ32" s="8"/>
-      <c r="DR32" s="21"/>
-      <c r="DS32" s="7"/>
-      <c r="DT32" s="21"/>
-      <c r="DU32" s="21"/>
-      <c r="DW32" s="56"/>
-      <c r="DY32" s="56"/>
-      <c r="DZ32" s="56"/>
-      <c r="EA32" s="8"/>
-      <c r="EB32" s="21"/>
-      <c r="EC32" s="7"/>
-      <c r="ED32" s="21"/>
-      <c r="EE32" s="21"/>
-      <c r="EG32" s="56"/>
-      <c r="EI32" s="56"/>
-      <c r="EJ32" s="56"/>
+      <c r="DQ32" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR32" s="56">
+        <v>0.66594907407407411</v>
+      </c>
+      <c r="DS32">
+        <v>200</v>
+      </c>
+      <c r="DT32" s="56">
+        <v>0.66589120370370369</v>
+      </c>
+      <c r="DU32" s="56">
+        <v>0.66591435185185188</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW32" s="56">
+        <v>0.63864583333333336</v>
+      </c>
+      <c r="DX32">
+        <v>200</v>
+      </c>
+      <c r="DY32" s="56">
+        <v>0.63859953703703709</v>
+      </c>
+      <c r="DZ32" s="56">
+        <v>0.63862268518518517</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB32" s="56">
+        <v>0.68347222222222215</v>
+      </c>
+      <c r="EC32">
+        <v>50</v>
+      </c>
+      <c r="ED32" s="56">
+        <v>0.68341435185185195</v>
+      </c>
+      <c r="EE32" s="56">
+        <v>0.68344907407407407</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>4</v>
+      </c>
+      <c r="EG32" s="56">
+        <v>0.69842592592592589</v>
+      </c>
+      <c r="EH32">
+        <v>200</v>
+      </c>
+      <c r="EI32" s="56">
+        <v>0.69837962962962974</v>
+      </c>
+      <c r="EJ32" s="56">
+        <v>0.69840277777777782</v>
+      </c>
       <c r="EK32" s="8"/>
       <c r="EL32" s="21"/>
       <c r="EM32" s="7"/>
@@ -19978,22 +21254,66 @@
       <c r="DP33" s="56">
         <v>0.48289351851851853</v>
       </c>
-      <c r="DQ33" s="9"/>
-      <c r="DR33" s="38"/>
-      <c r="DS33" s="6"/>
-      <c r="DT33" s="38"/>
-      <c r="DU33" s="38"/>
-      <c r="DW33" s="56"/>
-      <c r="DY33" s="56"/>
-      <c r="DZ33" s="56"/>
-      <c r="EA33" s="9"/>
-      <c r="EB33" s="38"/>
-      <c r="EC33" s="6"/>
-      <c r="ED33" s="38"/>
-      <c r="EE33" s="38"/>
-      <c r="EG33" s="56"/>
-      <c r="EI33" s="56"/>
-      <c r="EJ33" s="56"/>
+      <c r="DQ33" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR33" s="56">
+        <v>0.66622685185185182</v>
+      </c>
+      <c r="DS33">
+        <v>50</v>
+      </c>
+      <c r="DT33" s="56">
+        <v>0.66615740740740736</v>
+      </c>
+      <c r="DU33" s="56">
+        <v>0.6661921296296297</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>19</v>
+      </c>
+      <c r="DW33" s="56">
+        <v>0.63893518518518522</v>
+      </c>
+      <c r="DX33">
+        <v>50</v>
+      </c>
+      <c r="DY33" s="56">
+        <v>0.63886574074074076</v>
+      </c>
+      <c r="DZ33" s="56">
+        <v>0.63890046296296299</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>8</v>
+      </c>
+      <c r="EB33" s="56">
+        <v>0.68377314814814805</v>
+      </c>
+      <c r="EC33">
+        <v>100</v>
+      </c>
+      <c r="ED33" s="56">
+        <v>0.6837037037037037</v>
+      </c>
+      <c r="EE33" s="56">
+        <v>0.68372685185185178</v>
+      </c>
+      <c r="EF33" t="s">
+        <v>5</v>
+      </c>
+      <c r="EG33" s="56">
+        <v>0.69894675925925931</v>
+      </c>
+      <c r="EH33">
+        <v>3</v>
+      </c>
+      <c r="EI33" s="56">
+        <v>0.6986458333333333</v>
+      </c>
+      <c r="EJ33" s="56">
+        <v>0.69893518518518516</v>
+      </c>
       <c r="EK33" s="9"/>
       <c r="EL33" s="38"/>
       <c r="EM33" s="6"/>
@@ -20013,6 +21333,45 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="EU1:FD1"/>
+    <mergeCell ref="EU2:EY2"/>
+    <mergeCell ref="EZ2:FD2"/>
+    <mergeCell ref="EA1:EJ1"/>
+    <mergeCell ref="EA2:EE2"/>
+    <mergeCell ref="EF2:EJ2"/>
+    <mergeCell ref="EK1:ET1"/>
+    <mergeCell ref="EK2:EO2"/>
+    <mergeCell ref="EP2:ET2"/>
+    <mergeCell ref="DG1:DP1"/>
+    <mergeCell ref="DG2:DK2"/>
+    <mergeCell ref="DL2:DP2"/>
+    <mergeCell ref="DQ1:DZ1"/>
+    <mergeCell ref="DQ2:DU2"/>
+    <mergeCell ref="DV2:DZ2"/>
+    <mergeCell ref="BS1:CB1"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="BI1:BR1"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="AO1:AX1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
+    <mergeCell ref="AY1:BH1"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="CW1:DF1"/>
     <mergeCell ref="CW2:DA2"/>
     <mergeCell ref="DB2:DF2"/>
@@ -20022,45 +21381,6 @@
     <mergeCell ref="CM1:CV1"/>
     <mergeCell ref="CM2:CQ2"/>
     <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO1:AX1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="AY1:BH1"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="BS1:CB1"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="BI1:BR1"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="DG1:DP1"/>
-    <mergeCell ref="DG2:DK2"/>
-    <mergeCell ref="DL2:DP2"/>
-    <mergeCell ref="DQ1:DZ1"/>
-    <mergeCell ref="DQ2:DU2"/>
-    <mergeCell ref="DV2:DZ2"/>
-    <mergeCell ref="EU1:FD1"/>
-    <mergeCell ref="EU2:EY2"/>
-    <mergeCell ref="EZ2:FD2"/>
-    <mergeCell ref="EA1:EJ1"/>
-    <mergeCell ref="EA2:EE2"/>
-    <mergeCell ref="EF2:EJ2"/>
-    <mergeCell ref="EK1:ET1"/>
-    <mergeCell ref="EK2:EO2"/>
-    <mergeCell ref="EP2:ET2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -20069,10 +21389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CL37"/>
+  <dimension ref="A1:CX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="CG1" sqref="CG1:CL1"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1:CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20167,44 +21487,54 @@
     <col min="88" max="88" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.5546875" customWidth="1"/>
-    <col min="96" max="96" width="11.5546875" customWidth="1"/>
+    <col min="91" max="91" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="59" t="s">
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="62" t="s">
         <v>30</v>
       </c>
       <c r="Z1" s="63"/>
@@ -20212,270 +21542,310 @@
       <c r="AB1" s="63"/>
       <c r="AC1" s="63"/>
       <c r="AD1" s="64"/>
-      <c r="AE1" s="57" t="s">
+      <c r="AE1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="57" t="s">
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="74" t="s">
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74" t="s">
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="57" t="s">
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57" t="s">
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57" t="s">
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57" t="s">
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57" t="s">
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57" t="s">
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
     </row>
-    <row r="2" spans="1:90" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:102" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61" t="s">
+      <c r="R2" s="59"/>
+      <c r="S2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61" t="s">
+      <c r="V2" s="59"/>
+      <c r="W2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="61"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="62"/>
+      <c r="Z2" s="61"/>
       <c r="AA2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="62"/>
+      <c r="AB2" s="61"/>
       <c r="AC2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="58" t="s">
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57" t="s">
         <v>16</v>
       </c>
       <c r="AJ2" s="60"/>
-      <c r="AK2" s="58" t="s">
+      <c r="AK2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58" t="s">
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58" t="s">
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="75" t="s">
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75" t="s">
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75" t="s">
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75" t="s">
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75" t="s">
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75" t="s">
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="58" t="s">
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58" t="s">
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58" t="s">
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58" t="s">
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58" t="s">
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58" t="s">
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58" t="s">
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58" t="s">
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58" t="s">
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58" t="s">
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58" t="s">
+      <c r="BV2" s="57"/>
+      <c r="BW2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BX2" s="58"/>
-      <c r="BY2" s="58" t="s">
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="58"/>
-      <c r="CA2" s="58" t="s">
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="58" t="s">
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="58"/>
-      <c r="CE2" s="58" t="s">
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" s="58"/>
-      <c r="CG2" s="58" t="s">
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="CH2" s="58"/>
-      <c r="CI2" s="58" t="s">
+      <c r="CH2" s="57"/>
+      <c r="CI2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="58"/>
-      <c r="CK2" s="58" t="s">
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="CL2" s="58"/>
+      <c r="CL2" s="57"/>
+      <c r="CM2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN2" s="57"/>
+      <c r="CO2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP2" s="57"/>
+      <c r="CQ2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR2" s="57"/>
+      <c r="CS2" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT2" s="57"/>
+      <c r="CU2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="CV2" s="57"/>
+      <c r="CW2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="CX2" s="57"/>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -20746,8 +22116,44 @@
       <c r="CL3" s="55" t="s">
         <v>1</v>
       </c>
+      <c r="CM3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="55" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -21006,8 +22412,44 @@
       <c r="CL4" s="53">
         <v>3</v>
       </c>
+      <c r="CM4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="7">
+        <v>50</v>
+      </c>
+      <c r="CO4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP4" s="7">
+        <v>100</v>
+      </c>
+      <c r="CQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="53">
+        <v>100</v>
+      </c>
+      <c r="CS4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT4" s="7">
+        <v>100</v>
+      </c>
+      <c r="CU4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV4" s="7">
+        <v>3</v>
+      </c>
+      <c r="CW4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX4" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -21265,8 +22707,44 @@
       <c r="CL5" s="53">
         <v>10</v>
       </c>
+      <c r="CM5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN5" s="7">
+        <v>100</v>
+      </c>
+      <c r="CO5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP5" s="7">
+        <v>30</v>
+      </c>
+      <c r="CQ5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR5" s="53">
+        <v>30</v>
+      </c>
+      <c r="CS5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT5" s="7">
+        <v>50</v>
+      </c>
+      <c r="CU5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV5" s="7">
+        <v>50</v>
+      </c>
+      <c r="CW5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX5" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
@@ -21524,8 +23002,44 @@
       <c r="CL6" s="53">
         <v>30</v>
       </c>
+      <c r="CM6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN6" s="7">
+        <v>200</v>
+      </c>
+      <c r="CO6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="7">
+        <v>50</v>
+      </c>
+      <c r="CQ6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR6" s="53">
+        <v>50</v>
+      </c>
+      <c r="CS6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CT6" s="7">
+        <v>30</v>
+      </c>
+      <c r="CU6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV6" s="7">
+        <v>10</v>
+      </c>
+      <c r="CW6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX6" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
@@ -21783,8 +23297,44 @@
       <c r="CL7" s="53">
         <v>100</v>
       </c>
+      <c r="CM7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN7" s="7">
+        <v>10</v>
+      </c>
+      <c r="CO7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP7" s="7">
+        <v>10</v>
+      </c>
+      <c r="CQ7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR7" s="53">
+        <v>10</v>
+      </c>
+      <c r="CS7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT7" s="7">
+        <v>3</v>
+      </c>
+      <c r="CU7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV7" s="7">
+        <v>30</v>
+      </c>
+      <c r="CW7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CX7" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -22042,8 +23592,44 @@
       <c r="CL8" s="53">
         <v>50</v>
       </c>
+      <c r="CM8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN8" s="7">
+        <v>3</v>
+      </c>
+      <c r="CO8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP8" s="7">
+        <v>3</v>
+      </c>
+      <c r="CQ8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR8" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT8" s="7">
+        <v>200</v>
+      </c>
+      <c r="CU8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV8" s="7">
+        <v>100</v>
+      </c>
+      <c r="CW8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX8" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -22302,8 +23888,44 @@
       <c r="CL9" s="54">
         <v>200</v>
       </c>
+      <c r="CM9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN9" s="6">
+        <v>30</v>
+      </c>
+      <c r="CO9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP9" s="6">
+        <v>200</v>
+      </c>
+      <c r="CQ9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR9" s="54">
+        <v>200</v>
+      </c>
+      <c r="CS9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT9" s="6">
+        <v>10</v>
+      </c>
+      <c r="CU9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV9" s="6">
+        <v>200</v>
+      </c>
+      <c r="CW9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX9" s="54">
+        <v>200</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
@@ -22562,8 +24184,44 @@
       <c r="CL10" s="53">
         <v>50</v>
       </c>
+      <c r="CM10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN10" s="7">
+        <v>10</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP10" s="7">
+        <v>10</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR10" s="53">
+        <v>10</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT10" s="7">
+        <v>50</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV10" s="7">
+        <v>10</v>
+      </c>
+      <c r="CW10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX10" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -22821,8 +24479,44 @@
       <c r="CL11" s="53">
         <v>10</v>
       </c>
+      <c r="CM11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN11" s="7">
+        <v>200</v>
+      </c>
+      <c r="CO11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP11" s="7">
+        <v>200</v>
+      </c>
+      <c r="CQ11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR11" s="53">
+        <v>200</v>
+      </c>
+      <c r="CS11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT11" s="7">
+        <v>10</v>
+      </c>
+      <c r="CU11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV11" s="7">
+        <v>3</v>
+      </c>
+      <c r="CW11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX11" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -23080,8 +24774,44 @@
       <c r="CL12" s="53">
         <v>30</v>
       </c>
+      <c r="CM12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN12" s="7">
+        <v>3</v>
+      </c>
+      <c r="CO12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP12" s="7">
+        <v>30</v>
+      </c>
+      <c r="CQ12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR12" s="53">
+        <v>30</v>
+      </c>
+      <c r="CS12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT12" s="7">
+        <v>200</v>
+      </c>
+      <c r="CU12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV12" s="7">
+        <v>100</v>
+      </c>
+      <c r="CW12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX12" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -23339,8 +25069,44 @@
       <c r="CL13" s="53">
         <v>100</v>
       </c>
+      <c r="CM13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN13" s="7">
+        <v>50</v>
+      </c>
+      <c r="CO13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP13" s="7">
+        <v>3</v>
+      </c>
+      <c r="CQ13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR13" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT13" s="7">
+        <v>30</v>
+      </c>
+      <c r="CU13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV13" s="7">
+        <v>200</v>
+      </c>
+      <c r="CW13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX13" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -23598,8 +25364,44 @@
       <c r="CL14" s="53">
         <v>3</v>
       </c>
+      <c r="CM14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN14" s="7">
+        <v>30</v>
+      </c>
+      <c r="CO14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP14" s="7">
+        <v>100</v>
+      </c>
+      <c r="CQ14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR14" s="53">
+        <v>100</v>
+      </c>
+      <c r="CS14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT14" s="7">
+        <v>3</v>
+      </c>
+      <c r="CU14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV14" s="7">
+        <v>30</v>
+      </c>
+      <c r="CW14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX14" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
@@ -23858,8 +25660,44 @@
       <c r="CL15" s="54">
         <v>200</v>
       </c>
+      <c r="CM15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN15" s="6">
+        <v>100</v>
+      </c>
+      <c r="CO15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP15" s="6">
+        <v>50</v>
+      </c>
+      <c r="CQ15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR15" s="54">
+        <v>50</v>
+      </c>
+      <c r="CS15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT15" s="6">
+        <v>100</v>
+      </c>
+      <c r="CU15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV15" s="6">
+        <v>50</v>
+      </c>
+      <c r="CW15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX15" s="54">
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
@@ -24118,8 +25956,44 @@
       <c r="CL16" s="53">
         <v>100</v>
       </c>
+      <c r="CM16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="CN16" s="7">
+        <v>30</v>
+      </c>
+      <c r="CO16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP16" s="7">
+        <v>3</v>
+      </c>
+      <c r="CQ16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR16" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT16" s="7">
+        <v>200</v>
+      </c>
+      <c r="CU16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV16" s="7">
+        <v>3</v>
+      </c>
+      <c r="CW16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX16" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -24377,8 +26251,44 @@
       <c r="CL17" s="53">
         <v>30</v>
       </c>
+      <c r="CM17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN17" s="7">
+        <v>50</v>
+      </c>
+      <c r="CO17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP17" s="7">
+        <v>200</v>
+      </c>
+      <c r="CQ17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR17" s="53">
+        <v>200</v>
+      </c>
+      <c r="CS17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT17" s="7">
+        <v>10</v>
+      </c>
+      <c r="CU17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV17" s="7">
+        <v>100</v>
+      </c>
+      <c r="CW17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX17" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>2</v>
       </c>
@@ -24636,8 +26546,44 @@
       <c r="CL18" s="53">
         <v>200</v>
       </c>
+      <c r="CM18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN18" s="7">
+        <v>3</v>
+      </c>
+      <c r="CO18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP18" s="7">
+        <v>30</v>
+      </c>
+      <c r="CQ18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR18" s="53">
+        <v>30</v>
+      </c>
+      <c r="CS18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT18" s="7">
+        <v>100</v>
+      </c>
+      <c r="CU18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV18" s="7">
+        <v>30</v>
+      </c>
+      <c r="CW18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX18" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
@@ -24895,8 +26841,44 @@
       <c r="CL19" s="53">
         <v>50</v>
       </c>
+      <c r="CM19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN19" s="7">
+        <v>10</v>
+      </c>
+      <c r="CO19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP19" s="7">
+        <v>100</v>
+      </c>
+      <c r="CQ19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR19" s="53">
+        <v>100</v>
+      </c>
+      <c r="CS19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT19" s="7">
+        <v>3</v>
+      </c>
+      <c r="CU19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV19" s="7">
+        <v>50</v>
+      </c>
+      <c r="CW19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX19" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
@@ -25154,8 +27136,44 @@
       <c r="CL20" s="53">
         <v>10</v>
       </c>
+      <c r="CM20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN20" s="7">
+        <v>200</v>
+      </c>
+      <c r="CO20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP20" s="7">
+        <v>10</v>
+      </c>
+      <c r="CQ20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR20" s="53">
+        <v>10</v>
+      </c>
+      <c r="CS20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT20" s="7">
+        <v>30</v>
+      </c>
+      <c r="CU20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV20" s="7">
+        <v>10</v>
+      </c>
+      <c r="CW20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX20" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
@@ -25414,8 +27432,44 @@
       <c r="CL21" s="54">
         <v>3</v>
       </c>
+      <c r="CM21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN21" s="6">
+        <v>100</v>
+      </c>
+      <c r="CO21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP21" s="6">
+        <v>50</v>
+      </c>
+      <c r="CQ21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR21" s="54">
+        <v>50</v>
+      </c>
+      <c r="CS21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CT21" s="6">
+        <v>50</v>
+      </c>
+      <c r="CU21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV21" s="6">
+        <v>200</v>
+      </c>
+      <c r="CW21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX21" s="54">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>8</v>
       </c>
@@ -25674,8 +27728,44 @@
       <c r="CL22" s="53">
         <v>200</v>
       </c>
+      <c r="CM22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN22" s="7">
+        <v>50</v>
+      </c>
+      <c r="CO22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP22" s="7">
+        <v>100</v>
+      </c>
+      <c r="CQ22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR22" s="53">
+        <v>100</v>
+      </c>
+      <c r="CS22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT22" s="7">
+        <v>10</v>
+      </c>
+      <c r="CU22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV22" s="7">
+        <v>200</v>
+      </c>
+      <c r="CW22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX22" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>12</v>
       </c>
@@ -25933,8 +28023,44 @@
       <c r="CL23" s="53">
         <v>30</v>
       </c>
+      <c r="CM23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN23" s="7">
+        <v>100</v>
+      </c>
+      <c r="CO23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP23" s="7">
+        <v>10</v>
+      </c>
+      <c r="CQ23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR23" s="53">
+        <v>10</v>
+      </c>
+      <c r="CS23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT23" s="7">
+        <v>50</v>
+      </c>
+      <c r="CU23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV23" s="7">
+        <v>100</v>
+      </c>
+      <c r="CW23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX23" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
@@ -26192,8 +28318,44 @@
       <c r="CL24" s="53">
         <v>10</v>
       </c>
+      <c r="CM24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN24" s="7">
+        <v>10</v>
+      </c>
+      <c r="CO24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP24" s="7">
+        <v>200</v>
+      </c>
+      <c r="CQ24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR24" s="53">
+        <v>200</v>
+      </c>
+      <c r="CS24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT24" s="7">
+        <v>3</v>
+      </c>
+      <c r="CU24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV24" s="7">
+        <v>10</v>
+      </c>
+      <c r="CW24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX24" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
@@ -26451,8 +28613,44 @@
       <c r="CL25" s="53">
         <v>100</v>
       </c>
+      <c r="CM25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN25" s="7">
+        <v>200</v>
+      </c>
+      <c r="CO25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP25" s="7">
+        <v>50</v>
+      </c>
+      <c r="CQ25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR25" s="53">
+        <v>50</v>
+      </c>
+      <c r="CS25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT25" s="7">
+        <v>100</v>
+      </c>
+      <c r="CU25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV25" s="7">
+        <v>30</v>
+      </c>
+      <c r="CW25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX25" s="53">
+        <v>50</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>12</v>
       </c>
@@ -26710,8 +28908,44 @@
       <c r="CL26" s="53">
         <v>50</v>
       </c>
+      <c r="CM26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN26" s="7">
+        <v>3</v>
+      </c>
+      <c r="CO26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP26" s="7">
+        <v>30</v>
+      </c>
+      <c r="CQ26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR26" s="53">
+        <v>30</v>
+      </c>
+      <c r="CS26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CT26" s="7">
+        <v>30</v>
+      </c>
+      <c r="CU26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV26" s="7">
+        <v>3</v>
+      </c>
+      <c r="CW26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CX26" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>10</v>
       </c>
@@ -26970,8 +29204,44 @@
       <c r="CL27" s="54">
         <v>3</v>
       </c>
+      <c r="CM27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN27" s="6">
+        <v>30</v>
+      </c>
+      <c r="CO27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP27" s="6">
+        <v>3</v>
+      </c>
+      <c r="CQ27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR27" s="54">
+        <v>3</v>
+      </c>
+      <c r="CS27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT27" s="6">
+        <v>200</v>
+      </c>
+      <c r="CU27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV27" s="6">
+        <v>50</v>
+      </c>
+      <c r="CW27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CX27" s="54">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>10</v>
       </c>
@@ -27230,8 +29500,44 @@
       <c r="CL28" s="53">
         <v>3</v>
       </c>
+      <c r="CM28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN28" s="7">
+        <v>30</v>
+      </c>
+      <c r="CO28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP28" s="7">
+        <v>3</v>
+      </c>
+      <c r="CQ28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR28" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT28" s="7">
+        <v>30</v>
+      </c>
+      <c r="CU28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV28" s="7">
+        <v>10</v>
+      </c>
+      <c r="CW28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX28" s="53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
@@ -27489,8 +29795,44 @@
       <c r="CL29" s="53">
         <v>100</v>
       </c>
+      <c r="CM29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN29" s="7">
+        <v>100</v>
+      </c>
+      <c r="CO29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP29" s="7">
+        <v>30</v>
+      </c>
+      <c r="CQ29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CR29" s="53">
+        <v>30</v>
+      </c>
+      <c r="CS29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT29" s="7">
+        <v>10</v>
+      </c>
+      <c r="CU29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CV29" s="7">
+        <v>30</v>
+      </c>
+      <c r="CW29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX29" s="53">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>2</v>
       </c>
@@ -27748,8 +30090,44 @@
       <c r="CL30" s="53">
         <v>50</v>
       </c>
+      <c r="CM30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN30" s="7">
+        <v>10</v>
+      </c>
+      <c r="CO30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP30" s="7">
+        <v>10</v>
+      </c>
+      <c r="CQ30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR30" s="53">
+        <v>10</v>
+      </c>
+      <c r="CS30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT30" s="7">
+        <v>3</v>
+      </c>
+      <c r="CU30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV30" s="7">
+        <v>50</v>
+      </c>
+      <c r="CW30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX30" s="53">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>11</v>
       </c>
@@ -28007,8 +30385,44 @@
       <c r="CL31" s="53">
         <v>200</v>
       </c>
+      <c r="CM31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN31" s="7">
+        <v>3</v>
+      </c>
+      <c r="CO31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP31" s="7">
+        <v>100</v>
+      </c>
+      <c r="CQ31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR31" s="53">
+        <v>100</v>
+      </c>
+      <c r="CS31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT31" s="7">
+        <v>200</v>
+      </c>
+      <c r="CU31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV31" s="7">
+        <v>100</v>
+      </c>
+      <c r="CW31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX31" s="53">
+        <v>100</v>
+      </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
@@ -28266,8 +30680,44 @@
       <c r="CL32" s="53">
         <v>10</v>
       </c>
+      <c r="CM32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="CN32" s="7">
+        <v>200</v>
+      </c>
+      <c r="CO32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP32" s="7">
+        <v>200</v>
+      </c>
+      <c r="CQ32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR32" s="53">
+        <v>200</v>
+      </c>
+      <c r="CS32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT32" s="7">
+        <v>50</v>
+      </c>
+      <c r="CU32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV32" s="7">
+        <v>200</v>
+      </c>
+      <c r="CW32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX32" s="53">
+        <v>200</v>
+      </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>2</v>
       </c>
@@ -28526,43 +30976,95 @@
       <c r="CL33" s="54">
         <v>30</v>
       </c>
+      <c r="CM33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN33" s="6">
+        <v>50</v>
+      </c>
+      <c r="CO33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP33" s="6">
+        <v>50</v>
+      </c>
+      <c r="CQ33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CR33" s="54">
+        <v>50</v>
+      </c>
+      <c r="CS33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT33" s="6">
+        <v>100</v>
+      </c>
+      <c r="CU33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CV33" s="6">
+        <v>3</v>
+      </c>
+      <c r="CW33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX33" s="54">
+        <v>50</v>
+      </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
       <c r="BL34" s="7"/>
       <c r="BM34" s="7"/>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
       <c r="BM36" s="7"/>
       <c r="BV36" s="7"/>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
       <c r="BM37" s="7"/>
       <c r="BV37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="CA1:CF1"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU1:BZ1"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BG2:BH2"/>
+  <mergeCells count="68">
+    <mergeCell ref="CM1:CR1"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS1:CX1"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CG1:CL1"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="BE2:BF2"/>
@@ -28579,32 +31081,24 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="CG1:CL1"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="CA1:CF1"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU1:BZ1"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
